--- a/src/main/resources/templates/roastatstemplate.xlsx
+++ b/src/main/resources/templates/roastatstemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Jugador</t>
   </si>
@@ -104,6 +104,24 @@
   </si>
   <si>
     <t>Thrawn</t>
+  </si>
+  <si>
+    <t>ROLO</t>
+  </si>
+  <si>
+    <t>GK+</t>
+  </si>
+  <si>
+    <t>S. Imperiales</t>
+  </si>
+  <si>
+    <t>Hermit Yoda</t>
+  </si>
+  <si>
+    <t>Imp. Probe Droid</t>
+  </si>
+  <si>
+    <t>Wampa</t>
   </si>
 </sst>
 </file>
@@ -252,26 +270,68 @@
     <cellStyle name="Millares 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="80">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -315,720 +375,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1091,510 +437,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1719,6 +561,160 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1729,7 +725,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1872,6 +869,1370 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1933,8 +2294,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1965,61 +2325,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -2057,6 +2362,44 @@
         </top>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2090,19 +2433,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2113,26 +2443,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2148,42 +2458,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:AD251" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72" totalsRowDxfId="71" tableBorderDxfId="70">
-  <autoFilter ref="A1:AD251"/>
-  <sortState ref="A2:AF197">
-    <sortCondition descending="1" ref="AD1:AD197"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:AJ251" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78" totalsRowDxfId="76" tableBorderDxfId="77">
+  <autoFilter ref="A1:AJ251"/>
+  <sortState ref="A2:AL197">
+    <sortCondition descending="1" ref="AJ1:AJ197"/>
   </sortState>
-  <tableColumns count="30">
-    <tableColumn id="1" name="Jugador" dataDxfId="68" totalsRowDxfId="69"/>
-    <tableColumn id="2" name="PG" dataDxfId="66" totalsRowDxfId="67"/>
-    <tableColumn id="24" name="Arena" dataDxfId="64" totalsRowDxfId="65"/>
-    <tableColumn id="22" name="Gremio" dataDxfId="62" totalsRowDxfId="63"/>
-    <tableColumn id="4" name="CLS" dataDxfId="60" totalsRowDxfId="61"/>
-    <tableColumn id="17" name="CLS+" dataDxfId="58" totalsRowDxfId="59"/>
-    <tableColumn id="29" name="GK" dataDxfId="56" totalsRowDxfId="57"/>
-    <tableColumn id="31" name="BB8" dataDxfId="54" totalsRowDxfId="55"/>
-    <tableColumn id="5" name="Chan 5*" dataDxfId="52" totalsRowDxfId="53"/>
-    <tableColumn id="18" name="Chan 7*" dataDxfId="50" totalsRowDxfId="51"/>
-    <tableColumn id="6" name="ERH 6*" dataDxfId="48" totalsRowDxfId="49"/>
-    <tableColumn id="7" name="SRH 5*" dataDxfId="46" totalsRowDxfId="47"/>
-    <tableColumn id="8" name="Rogue One" dataDxfId="44" totalsRowDxfId="45"/>
-    <tableColumn id="9" name="Fénix" dataDxfId="42" totalsRowDxfId="43"/>
-    <tableColumn id="21" name="Naves 6*" dataDxfId="40" totalsRowDxfId="41"/>
-    <tableColumn id="10" name="Naves 7*" dataDxfId="38" totalsRowDxfId="39"/>
-    <tableColumn id="11" name="Vader" dataDxfId="36" totalsRowDxfId="37"/>
-    <tableColumn id="32" name="Thrawn" dataDxfId="34" totalsRowDxfId="35"/>
-    <tableColumn id="12" name=" Veers 5*" dataDxfId="32" totalsRowDxfId="33"/>
-    <tableColumn id="26" name=" Veers 7*" dataDxfId="30" totalsRowDxfId="31"/>
-    <tableColumn id="13" name="S.Nieves 5*" dataDxfId="28" totalsRowDxfId="29"/>
-    <tableColumn id="25" name="S.Nieves 7*" dataDxfId="26" totalsRowDxfId="27"/>
-    <tableColumn id="27" name="Starck 5*" dataDxfId="24" totalsRowDxfId="25"/>
-    <tableColumn id="28" name="Starck 7*" dataDxfId="22" totalsRowDxfId="23"/>
-    <tableColumn id="14" name="Cazarrecompensas" dataDxfId="20" totalsRowDxfId="21"/>
-    <tableColumn id="15" name="Executrix 6*" dataDxfId="18" totalsRowDxfId="19"/>
-    <tableColumn id="23" name="Executrix 7*" dataDxfId="16" totalsRowDxfId="17"/>
-    <tableColumn id="20" name="Chimera 5*" dataDxfId="14" totalsRowDxfId="15"/>
-    <tableColumn id="16" name="Chimera 7*" dataDxfId="12" totalsRowDxfId="13"/>
-    <tableColumn id="19" name="Total" dataDxfId="10" totalsRowDxfId="11">
+  <tableColumns count="36">
+    <tableColumn id="1" name="Jugador" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="2" name="PG" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="24" name="Arena" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="22" name="Gremio" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="4" name="CLS" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="17" name="CLS+" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="29" name="GK" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="30" name="GK+" dataDxfId="12" totalsRowDxfId="13"/>
+    <tableColumn id="31" name="BB8" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="5" name="Chan 5*" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="18" name="Chan 7*" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="6" name="ERH 6*" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="7" name="SRH 5*" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="3" name="ROLO" dataDxfId="14" totalsRowDxfId="15"/>
+    <tableColumn id="34" name="Hermit Yoda" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="8" name="Rogue One" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="9" name="Fénix" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="21" name="Naves 6*" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="10" name="Naves 7*" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="11" name="Vader" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="32" name="Thrawn" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="12" name=" Veers 5*" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="26" name=" Veers 7*" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="13" name="S.Nieves 5*" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="25" name="S.Nieves 7*" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="27" name="Starck 5*" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="28" name="Starck 7*" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="35" name="Imp. Probe Droid" dataDxfId="6" totalsRowDxfId="7"/>
+    <tableColumn id="36" name="Wampa" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="33" name="S. Imperiales" dataDxfId="10" totalsRowDxfId="11"/>
+    <tableColumn id="14" name="Cazarrecompensas" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="15" name="Executrix 6*" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="23" name="Executrix 7*" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="20" name="Chimera 5*" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="16" name="Chimera 7*" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="19" name="Total" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2478,12 +2794,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD251"/>
+  <dimension ref="A1:AJ251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A93" sqref="A93"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2491,20 +2807,20 @@
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10" customWidth="1"/>
-    <col min="9" max="14" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" customWidth="1"/>
-    <col min="17" max="18" width="10.5703125" customWidth="1"/>
-    <col min="19" max="20" width="10.85546875" customWidth="1"/>
-    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="11" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" customWidth="1"/>
-    <col min="26" max="28" width="13" customWidth="1"/>
-    <col min="29" max="29" width="15.5703125" customWidth="1"/>
+    <col min="5" max="9" width="10" customWidth="1"/>
+    <col min="10" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" customWidth="1"/>
+    <col min="20" max="21" width="10.5703125" customWidth="1"/>
+    <col min="22" max="23" width="10.85546875" customWidth="1"/>
+    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="30" width="11" customWidth="1"/>
+    <col min="31" max="31" width="11.140625" customWidth="1"/>
+    <col min="32" max="34" width="13" customWidth="1"/>
+    <col min="35" max="35" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2527,76 +2843,94 @@
         <v>28</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="4">
         <v>0</v>
@@ -2630,12 +2964,18 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
-      <c r="AD2" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="4">
         <v>0</v>
@@ -2669,12 +3009,18 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
-      <c r="AD3" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="4">
         <v>0</v>
@@ -2708,12 +3054,18 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
-      <c r="AD4" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="4">
         <v>0</v>
@@ -2747,12 +3099,18 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
-      <c r="AD5" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="4">
         <v>0</v>
@@ -2786,12 +3144,18 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
-      <c r="AD6" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="4">
         <v>0</v>
@@ -2825,12 +3189,18 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
-      <c r="AD7" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="4">
         <v>0</v>
@@ -2864,12 +3234,18 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
-      <c r="AD8" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="4">
         <v>0</v>
@@ -2903,12 +3279,18 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
-      <c r="AD9" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="4">
         <v>0</v>
@@ -2942,12 +3324,18 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
-      <c r="AD10" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="4">
         <v>0</v>
@@ -2981,12 +3369,18 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-      <c r="AD11" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="4">
         <v>0</v>
@@ -3020,12 +3414,18 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
-      <c r="AD12" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="4">
         <v>0</v>
@@ -3059,12 +3459,18 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
-      <c r="AD13" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="4">
         <v>0</v>
@@ -3098,12 +3504,18 @@
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
-      <c r="AD14" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="4">
         <v>0</v>
@@ -3137,12 +3549,18 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
-      <c r="AD15" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="4">
         <v>0</v>
@@ -3176,12 +3594,18 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-      <c r="AD16" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="4">
         <v>0</v>
@@ -3215,12 +3639,18 @@
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
-      <c r="AD17" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="4">
         <v>0</v>
@@ -3254,12 +3684,18 @@
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
-      <c r="AD18" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="4">
         <v>0</v>
@@ -3293,12 +3729,18 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-      <c r="AD19" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="4">
         <v>0</v>
@@ -3332,12 +3774,18 @@
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
-      <c r="AD20" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="4">
         <v>0</v>
@@ -3371,12 +3819,18 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
-      <c r="AD21" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="4">
         <v>0</v>
@@ -3410,12 +3864,18 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
-      <c r="AD22" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="4">
         <v>0</v>
@@ -3449,12 +3909,18 @@
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
-      <c r="AD23" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="4">
         <v>0</v>
@@ -3488,12 +3954,18 @@
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
-      <c r="AD24" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="4">
         <v>0</v>
@@ -3527,12 +3999,18 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
-      <c r="AD25" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="4">
         <v>0</v>
@@ -3566,12 +4044,18 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
-      <c r="AD26" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="4">
         <v>0</v>
@@ -3605,12 +4089,18 @@
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
-      <c r="AD27" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="4">
         <v>0</v>
@@ -3644,12 +4134,18 @@
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
-      <c r="AD28" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="4">
         <v>0</v>
@@ -3683,12 +4179,18 @@
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
-      <c r="AD29" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="4">
         <v>0</v>
@@ -3722,12 +4224,18 @@
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
-      <c r="AD30" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="4">
         <v>0</v>
@@ -3761,12 +4269,18 @@
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
-      <c r="AD31" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="4">
         <v>0</v>
@@ -3800,12 +4314,18 @@
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
-      <c r="AD32" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="4">
         <v>0</v>
@@ -3839,12 +4359,18 @@
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
-      <c r="AD33" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="4">
         <v>0</v>
@@ -3878,12 +4404,18 @@
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
-      <c r="AD34" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="4">
         <v>0</v>
@@ -3917,12 +4449,18 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
-      <c r="AD35" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="4">
         <v>0</v>
@@ -3956,12 +4494,18 @@
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
-      <c r="AD36" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="4">
         <v>0</v>
@@ -3995,12 +4539,18 @@
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
-      <c r="AD37" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="4">
         <v>0</v>
@@ -4034,12 +4584,18 @@
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
-      <c r="AD38" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="4">
         <v>0</v>
@@ -4073,12 +4629,18 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-      <c r="AD39" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="4">
         <v>0</v>
@@ -4112,12 +4674,18 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-      <c r="AD40" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3"/>
+      <c r="AJ40" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="4">
         <v>0</v>
@@ -4151,12 +4719,18 @@
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
-      <c r="AD41" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="3"/>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="4">
         <v>0</v>
@@ -4190,12 +4764,18 @@
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
-      <c r="AD42" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="3"/>
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="4">
         <v>0</v>
@@ -4229,12 +4809,18 @@
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
-      <c r="AD43" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3"/>
+      <c r="AG43" s="3"/>
+      <c r="AH43" s="3"/>
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="4">
         <v>0</v>
@@ -4268,12 +4854,18 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
-      <c r="AD44" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="3"/>
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="4">
         <v>0</v>
@@ -4307,12 +4899,18 @@
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
-      <c r="AD45" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="4">
         <v>0</v>
@@ -4346,12 +4944,18 @@
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
-      <c r="AD46" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="3"/>
+      <c r="AG46" s="3"/>
+      <c r="AH46" s="3"/>
+      <c r="AI46" s="3"/>
+      <c r="AJ46" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="4">
         <v>0</v>
@@ -4385,12 +4989,18 @@
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
       <c r="AC47" s="3"/>
-      <c r="AD47" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="3"/>
+      <c r="AG47" s="3"/>
+      <c r="AH47" s="3"/>
+      <c r="AI47" s="3"/>
+      <c r="AJ47" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="4">
         <v>0</v>
@@ -4424,12 +5034,18 @@
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
-      <c r="AD48" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3"/>
+      <c r="AG48" s="3"/>
+      <c r="AH48" s="3"/>
+      <c r="AI48" s="3"/>
+      <c r="AJ48" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="4">
         <v>0</v>
@@ -4463,12 +5079,18 @@
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
-      <c r="AD49" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3"/>
+      <c r="AG49" s="3"/>
+      <c r="AH49" s="3"/>
+      <c r="AI49" s="3"/>
+      <c r="AJ49" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="4">
         <v>0</v>
@@ -4502,12 +5124,18 @@
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
-      <c r="AD50" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="3"/>
+      <c r="AF50" s="3"/>
+      <c r="AG50" s="3"/>
+      <c r="AH50" s="3"/>
+      <c r="AI50" s="3"/>
+      <c r="AJ50" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="4">
         <v>0</v>
@@ -4541,12 +5169,18 @@
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
-      <c r="AD51" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="3"/>
+      <c r="AF51" s="3"/>
+      <c r="AG51" s="3"/>
+      <c r="AH51" s="3"/>
+      <c r="AI51" s="3"/>
+      <c r="AJ51" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="4">
         <v>0</v>
@@ -4580,12 +5214,18 @@
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
-      <c r="AD52" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="3"/>
+      <c r="AF52" s="3"/>
+      <c r="AG52" s="3"/>
+      <c r="AH52" s="3"/>
+      <c r="AI52" s="3"/>
+      <c r="AJ52" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="4">
         <v>0</v>
@@ -4619,12 +5259,18 @@
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
       <c r="AC53" s="3"/>
-      <c r="AD53" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
+      <c r="AG53" s="3"/>
+      <c r="AH53" s="3"/>
+      <c r="AI53" s="3"/>
+      <c r="AJ53" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="4">
         <v>0</v>
@@ -4658,12 +5304,18 @@
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
       <c r="AC54" s="3"/>
-      <c r="AD54" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD54" s="3"/>
+      <c r="AE54" s="3"/>
+      <c r="AF54" s="3"/>
+      <c r="AG54" s="3"/>
+      <c r="AH54" s="3"/>
+      <c r="AI54" s="3"/>
+      <c r="AJ54" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="4">
         <v>0</v>
@@ -4697,12 +5349,18 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-      <c r="AD55" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+      <c r="AG55" s="3"/>
+      <c r="AH55" s="3"/>
+      <c r="AI55" s="3"/>
+      <c r="AJ55" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="4">
         <v>0</v>
@@ -4736,12 +5394,18 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-      <c r="AD56" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+      <c r="AG56" s="3"/>
+      <c r="AH56" s="3"/>
+      <c r="AI56" s="3"/>
+      <c r="AJ56" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="4">
         <v>0</v>
@@ -4775,12 +5439,18 @@
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
-      <c r="AD57" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD57" s="3"/>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
+      <c r="AG57" s="3"/>
+      <c r="AH57" s="3"/>
+      <c r="AI57" s="3"/>
+      <c r="AJ57" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="4">
         <v>0</v>
@@ -4814,12 +5484,18 @@
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
-      <c r="AD58" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD58" s="3"/>
+      <c r="AE58" s="3"/>
+      <c r="AF58" s="3"/>
+      <c r="AG58" s="3"/>
+      <c r="AH58" s="3"/>
+      <c r="AI58" s="3"/>
+      <c r="AJ58" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="4">
         <v>0</v>
@@ -4853,12 +5529,18 @@
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
-      <c r="AD59" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD59" s="3"/>
+      <c r="AE59" s="3"/>
+      <c r="AF59" s="3"/>
+      <c r="AG59" s="3"/>
+      <c r="AH59" s="3"/>
+      <c r="AI59" s="3"/>
+      <c r="AJ59" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="4">
         <v>0</v>
@@ -4892,12 +5574,18 @@
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
-      <c r="AD60" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD60" s="3"/>
+      <c r="AE60" s="3"/>
+      <c r="AF60" s="3"/>
+      <c r="AG60" s="3"/>
+      <c r="AH60" s="3"/>
+      <c r="AI60" s="3"/>
+      <c r="AJ60" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="4">
         <v>0</v>
@@ -4931,12 +5619,18 @@
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
-      <c r="AD61" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD61" s="3"/>
+      <c r="AE61" s="3"/>
+      <c r="AF61" s="3"/>
+      <c r="AG61" s="3"/>
+      <c r="AH61" s="3"/>
+      <c r="AI61" s="3"/>
+      <c r="AJ61" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="4">
         <v>0</v>
@@ -4970,12 +5664,18 @@
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
-      <c r="AD62" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD62" s="3"/>
+      <c r="AE62" s="3"/>
+      <c r="AF62" s="3"/>
+      <c r="AG62" s="3"/>
+      <c r="AH62" s="3"/>
+      <c r="AI62" s="3"/>
+      <c r="AJ62" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="4">
         <v>0</v>
@@ -5009,12 +5709,18 @@
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
       <c r="AC63" s="3"/>
-      <c r="AD63" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD63" s="3"/>
+      <c r="AE63" s="3"/>
+      <c r="AF63" s="3"/>
+      <c r="AG63" s="3"/>
+      <c r="AH63" s="3"/>
+      <c r="AI63" s="3"/>
+      <c r="AJ63" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="4">
         <v>0</v>
@@ -5048,12 +5754,18 @@
       <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
-      <c r="AD64" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD64" s="3"/>
+      <c r="AE64" s="3"/>
+      <c r="AF64" s="3"/>
+      <c r="AG64" s="3"/>
+      <c r="AH64" s="3"/>
+      <c r="AI64" s="3"/>
+      <c r="AJ64" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="4">
         <v>0</v>
@@ -5087,12 +5799,18 @@
       <c r="AA65" s="3"/>
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
-      <c r="AD65" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD65" s="3"/>
+      <c r="AE65" s="3"/>
+      <c r="AF65" s="3"/>
+      <c r="AG65" s="3"/>
+      <c r="AH65" s="3"/>
+      <c r="AI65" s="3"/>
+      <c r="AJ65" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="4">
         <v>0</v>
@@ -5126,12 +5844,18 @@
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
-      <c r="AD66" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD66" s="3"/>
+      <c r="AE66" s="3"/>
+      <c r="AF66" s="3"/>
+      <c r="AG66" s="3"/>
+      <c r="AH66" s="3"/>
+      <c r="AI66" s="3"/>
+      <c r="AJ66" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="4">
         <v>0</v>
@@ -5165,12 +5889,18 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-      <c r="AD67" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+      <c r="AG67" s="3"/>
+      <c r="AH67" s="3"/>
+      <c r="AI67" s="3"/>
+      <c r="AJ67" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="4">
         <v>0</v>
@@ -5204,12 +5934,18 @@
       <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
-      <c r="AD68" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD68" s="3"/>
+      <c r="AE68" s="3"/>
+      <c r="AF68" s="3"/>
+      <c r="AG68" s="3"/>
+      <c r="AH68" s="3"/>
+      <c r="AI68" s="3"/>
+      <c r="AJ68" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="4">
         <v>0</v>
@@ -5243,12 +5979,18 @@
       <c r="AA69" s="3"/>
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
-      <c r="AD69" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD69" s="3"/>
+      <c r="AE69" s="3"/>
+      <c r="AF69" s="3"/>
+      <c r="AG69" s="3"/>
+      <c r="AH69" s="3"/>
+      <c r="AI69" s="3"/>
+      <c r="AJ69" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="4">
         <v>0</v>
@@ -5282,12 +6024,18 @@
       <c r="AA70" s="3"/>
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
-      <c r="AD70" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD70" s="3"/>
+      <c r="AE70" s="3"/>
+      <c r="AF70" s="3"/>
+      <c r="AG70" s="3"/>
+      <c r="AH70" s="3"/>
+      <c r="AI70" s="3"/>
+      <c r="AJ70" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="4">
         <v>0</v>
@@ -5321,12 +6069,18 @@
       <c r="AA71" s="3"/>
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
-      <c r="AD71" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD71" s="3"/>
+      <c r="AE71" s="3"/>
+      <c r="AF71" s="3"/>
+      <c r="AG71" s="3"/>
+      <c r="AH71" s="3"/>
+      <c r="AI71" s="3"/>
+      <c r="AJ71" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="4">
         <v>0</v>
@@ -5360,12 +6114,18 @@
       <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
-      <c r="AD72" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD72" s="3"/>
+      <c r="AE72" s="3"/>
+      <c r="AF72" s="3"/>
+      <c r="AG72" s="3"/>
+      <c r="AH72" s="3"/>
+      <c r="AI72" s="3"/>
+      <c r="AJ72" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="4">
         <v>0</v>
@@ -5399,12 +6159,18 @@
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
-      <c r="AD73" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD73" s="3"/>
+      <c r="AE73" s="3"/>
+      <c r="AF73" s="3"/>
+      <c r="AG73" s="3"/>
+      <c r="AH73" s="3"/>
+      <c r="AI73" s="3"/>
+      <c r="AJ73" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="4">
         <v>0</v>
@@ -5438,12 +6204,18 @@
       <c r="AA74" s="3"/>
       <c r="AB74" s="3"/>
       <c r="AC74" s="3"/>
-      <c r="AD74" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD74" s="3"/>
+      <c r="AE74" s="3"/>
+      <c r="AF74" s="3"/>
+      <c r="AG74" s="3"/>
+      <c r="AH74" s="3"/>
+      <c r="AI74" s="3"/>
+      <c r="AJ74" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="4">
         <v>0</v>
@@ -5477,12 +6249,18 @@
       <c r="AA75" s="3"/>
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
-      <c r="AD75" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD75" s="3"/>
+      <c r="AE75" s="3"/>
+      <c r="AF75" s="3"/>
+      <c r="AG75" s="3"/>
+      <c r="AH75" s="3"/>
+      <c r="AI75" s="3"/>
+      <c r="AJ75" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="4">
         <v>0</v>
@@ -5516,12 +6294,18 @@
       <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
-      <c r="AD76" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD76" s="3"/>
+      <c r="AE76" s="3"/>
+      <c r="AF76" s="3"/>
+      <c r="AG76" s="3"/>
+      <c r="AH76" s="3"/>
+      <c r="AI76" s="3"/>
+      <c r="AJ76" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="4">
         <v>0</v>
@@ -5555,12 +6339,18 @@
       <c r="AA77" s="3"/>
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
-      <c r="AD77" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD77" s="3"/>
+      <c r="AE77" s="3"/>
+      <c r="AF77" s="3"/>
+      <c r="AG77" s="3"/>
+      <c r="AH77" s="3"/>
+      <c r="AI77" s="3"/>
+      <c r="AJ77" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="4">
         <v>0</v>
@@ -5594,12 +6384,18 @@
       <c r="AA78" s="3"/>
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
-      <c r="AD78" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD78" s="3"/>
+      <c r="AE78" s="3"/>
+      <c r="AF78" s="3"/>
+      <c r="AG78" s="3"/>
+      <c r="AH78" s="3"/>
+      <c r="AI78" s="3"/>
+      <c r="AJ78" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="4">
         <v>0</v>
@@ -5633,12 +6429,18 @@
       <c r="AA79" s="3"/>
       <c r="AB79" s="3"/>
       <c r="AC79" s="3"/>
-      <c r="AD79" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD79" s="3"/>
+      <c r="AE79" s="3"/>
+      <c r="AF79" s="3"/>
+      <c r="AG79" s="3"/>
+      <c r="AH79" s="3"/>
+      <c r="AI79" s="3"/>
+      <c r="AJ79" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="4">
         <v>0</v>
@@ -5672,12 +6474,18 @@
       <c r="AA80" s="3"/>
       <c r="AB80" s="3"/>
       <c r="AC80" s="3"/>
-      <c r="AD80" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD80" s="3"/>
+      <c r="AE80" s="3"/>
+      <c r="AF80" s="3"/>
+      <c r="AG80" s="3"/>
+      <c r="AH80" s="3"/>
+      <c r="AI80" s="3"/>
+      <c r="AJ80" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="4">
         <v>0</v>
@@ -5711,12 +6519,18 @@
       <c r="AA81" s="3"/>
       <c r="AB81" s="3"/>
       <c r="AC81" s="3"/>
-      <c r="AD81" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD81" s="3"/>
+      <c r="AE81" s="3"/>
+      <c r="AF81" s="3"/>
+      <c r="AG81" s="3"/>
+      <c r="AH81" s="3"/>
+      <c r="AI81" s="3"/>
+      <c r="AJ81" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="4">
         <v>0</v>
@@ -5750,12 +6564,18 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-      <c r="AD82" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+      <c r="AG82" s="3"/>
+      <c r="AH82" s="3"/>
+      <c r="AI82" s="3"/>
+      <c r="AJ82" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="4">
         <v>0</v>
@@ -5789,12 +6609,18 @@
       <c r="AA83" s="3"/>
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
-      <c r="AD83" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD83" s="3"/>
+      <c r="AE83" s="3"/>
+      <c r="AF83" s="3"/>
+      <c r="AG83" s="3"/>
+      <c r="AH83" s="3"/>
+      <c r="AI83" s="3"/>
+      <c r="AJ83" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="4">
         <v>0</v>
@@ -5828,12 +6654,18 @@
       <c r="AA84" s="3"/>
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
-      <c r="AD84" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD84" s="3"/>
+      <c r="AE84" s="3"/>
+      <c r="AF84" s="3"/>
+      <c r="AG84" s="3"/>
+      <c r="AH84" s="3"/>
+      <c r="AI84" s="3"/>
+      <c r="AJ84" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="4">
         <v>0</v>
@@ -5867,12 +6699,18 @@
       <c r="AA85" s="3"/>
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
-      <c r="AD85" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD85" s="3"/>
+      <c r="AE85" s="3"/>
+      <c r="AF85" s="3"/>
+      <c r="AG85" s="3"/>
+      <c r="AH85" s="3"/>
+      <c r="AI85" s="3"/>
+      <c r="AJ85" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="4">
         <v>0</v>
@@ -5906,12 +6744,18 @@
       <c r="AA86" s="3"/>
       <c r="AB86" s="3"/>
       <c r="AC86" s="3"/>
-      <c r="AD86" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD86" s="3"/>
+      <c r="AE86" s="3"/>
+      <c r="AF86" s="3"/>
+      <c r="AG86" s="3"/>
+      <c r="AH86" s="3"/>
+      <c r="AI86" s="3"/>
+      <c r="AJ86" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="4">
         <v>0</v>
@@ -5945,12 +6789,18 @@
       <c r="AA87" s="3"/>
       <c r="AB87" s="3"/>
       <c r="AC87" s="3"/>
-      <c r="AD87" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD87" s="3"/>
+      <c r="AE87" s="3"/>
+      <c r="AF87" s="3"/>
+      <c r="AG87" s="3"/>
+      <c r="AH87" s="3"/>
+      <c r="AI87" s="3"/>
+      <c r="AJ87" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="4">
         <v>0</v>
@@ -5984,12 +6834,18 @@
       <c r="AA88" s="3"/>
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
-      <c r="AD88" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD88" s="3"/>
+      <c r="AE88" s="3"/>
+      <c r="AF88" s="3"/>
+      <c r="AG88" s="3"/>
+      <c r="AH88" s="3"/>
+      <c r="AI88" s="3"/>
+      <c r="AJ88" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="4">
         <v>0</v>
@@ -6023,12 +6879,18 @@
       <c r="AA89" s="3"/>
       <c r="AB89" s="3"/>
       <c r="AC89" s="3"/>
-      <c r="AD89" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD89" s="3"/>
+      <c r="AE89" s="3"/>
+      <c r="AF89" s="3"/>
+      <c r="AG89" s="3"/>
+      <c r="AH89" s="3"/>
+      <c r="AI89" s="3"/>
+      <c r="AJ89" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="4">
         <v>0</v>
@@ -6062,12 +6924,18 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-      <c r="AD90" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+      <c r="AF90" s="3"/>
+      <c r="AG90" s="3"/>
+      <c r="AH90" s="3"/>
+      <c r="AI90" s="3"/>
+      <c r="AJ90" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="4">
         <v>0</v>
@@ -6101,12 +6969,18 @@
       <c r="AA91" s="3"/>
       <c r="AB91" s="3"/>
       <c r="AC91" s="3"/>
-      <c r="AD91" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD91" s="3"/>
+      <c r="AE91" s="3"/>
+      <c r="AF91" s="3"/>
+      <c r="AG91" s="3"/>
+      <c r="AH91" s="3"/>
+      <c r="AI91" s="3"/>
+      <c r="AJ91" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="4">
         <v>0</v>
@@ -6140,12 +7014,18 @@
       <c r="AA92" s="3"/>
       <c r="AB92" s="3"/>
       <c r="AC92" s="3"/>
-      <c r="AD92" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD92" s="3"/>
+      <c r="AE92" s="3"/>
+      <c r="AF92" s="3"/>
+      <c r="AG92" s="3"/>
+      <c r="AH92" s="3"/>
+      <c r="AI92" s="3"/>
+      <c r="AJ92" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="4">
         <v>0</v>
@@ -6179,12 +7059,18 @@
       <c r="AA93" s="3"/>
       <c r="AB93" s="3"/>
       <c r="AC93" s="3"/>
-      <c r="AD93" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD93" s="3"/>
+      <c r="AE93" s="3"/>
+      <c r="AF93" s="3"/>
+      <c r="AG93" s="3"/>
+      <c r="AH93" s="3"/>
+      <c r="AI93" s="3"/>
+      <c r="AJ93" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="4">
         <v>0</v>
@@ -6218,12 +7104,18 @@
       <c r="AA94" s="3"/>
       <c r="AB94" s="3"/>
       <c r="AC94" s="3"/>
-      <c r="AD94" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD94" s="3"/>
+      <c r="AE94" s="3"/>
+      <c r="AF94" s="3"/>
+      <c r="AG94" s="3"/>
+      <c r="AH94" s="3"/>
+      <c r="AI94" s="3"/>
+      <c r="AJ94" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="4">
         <v>0</v>
@@ -6257,12 +7149,18 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-      <c r="AD95" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+      <c r="AF95" s="3"/>
+      <c r="AG95" s="3"/>
+      <c r="AH95" s="3"/>
+      <c r="AI95" s="3"/>
+      <c r="AJ95" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="4">
         <v>0</v>
@@ -6296,12 +7194,18 @@
       <c r="AA96" s="3"/>
       <c r="AB96" s="3"/>
       <c r="AC96" s="3"/>
-      <c r="AD96" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD96" s="3"/>
+      <c r="AE96" s="3"/>
+      <c r="AF96" s="3"/>
+      <c r="AG96" s="3"/>
+      <c r="AH96" s="3"/>
+      <c r="AI96" s="3"/>
+      <c r="AJ96" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="4">
         <v>0</v>
@@ -6335,12 +7239,18 @@
       <c r="AA97" s="3"/>
       <c r="AB97" s="3"/>
       <c r="AC97" s="3"/>
-      <c r="AD97" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD97" s="3"/>
+      <c r="AE97" s="3"/>
+      <c r="AF97" s="3"/>
+      <c r="AG97" s="3"/>
+      <c r="AH97" s="3"/>
+      <c r="AI97" s="3"/>
+      <c r="AJ97" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="4">
         <v>0</v>
@@ -6374,12 +7284,18 @@
       <c r="AA98" s="3"/>
       <c r="AB98" s="3"/>
       <c r="AC98" s="3"/>
-      <c r="AD98" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD98" s="3"/>
+      <c r="AE98" s="3"/>
+      <c r="AF98" s="3"/>
+      <c r="AG98" s="3"/>
+      <c r="AH98" s="3"/>
+      <c r="AI98" s="3"/>
+      <c r="AJ98" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="4">
         <v>0</v>
@@ -6413,12 +7329,18 @@
       <c r="AA99" s="3"/>
       <c r="AB99" s="3"/>
       <c r="AC99" s="3"/>
-      <c r="AD99" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD99" s="3"/>
+      <c r="AE99" s="3"/>
+      <c r="AF99" s="3"/>
+      <c r="AG99" s="3"/>
+      <c r="AH99" s="3"/>
+      <c r="AI99" s="3"/>
+      <c r="AJ99" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="4">
         <v>0</v>
@@ -6452,12 +7374,18 @@
       <c r="AA100" s="3"/>
       <c r="AB100" s="3"/>
       <c r="AC100" s="3"/>
-      <c r="AD100" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD100" s="3"/>
+      <c r="AE100" s="3"/>
+      <c r="AF100" s="3"/>
+      <c r="AG100" s="3"/>
+      <c r="AH100" s="3"/>
+      <c r="AI100" s="3"/>
+      <c r="AJ100" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="4">
         <v>0</v>
@@ -6491,12 +7419,18 @@
       <c r="AA101" s="3"/>
       <c r="AB101" s="3"/>
       <c r="AC101" s="3"/>
-      <c r="AD101" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD101" s="3"/>
+      <c r="AE101" s="3"/>
+      <c r="AF101" s="3"/>
+      <c r="AG101" s="3"/>
+      <c r="AH101" s="3"/>
+      <c r="AI101" s="3"/>
+      <c r="AJ101" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="4">
         <v>0</v>
@@ -6530,12 +7464,18 @@
       <c r="AA102" s="3"/>
       <c r="AB102" s="3"/>
       <c r="AC102" s="3"/>
-      <c r="AD102" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD102" s="3"/>
+      <c r="AE102" s="3"/>
+      <c r="AF102" s="3"/>
+      <c r="AG102" s="3"/>
+      <c r="AH102" s="3"/>
+      <c r="AI102" s="3"/>
+      <c r="AJ102" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="4">
         <v>0</v>
@@ -6569,12 +7509,18 @@
       <c r="AA103" s="3"/>
       <c r="AB103" s="3"/>
       <c r="AC103" s="3"/>
-      <c r="AD103" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD103" s="3"/>
+      <c r="AE103" s="3"/>
+      <c r="AF103" s="3"/>
+      <c r="AG103" s="3"/>
+      <c r="AH103" s="3"/>
+      <c r="AI103" s="3"/>
+      <c r="AJ103" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="4">
         <v>0</v>
@@ -6608,12 +7554,18 @@
       <c r="AA104" s="3"/>
       <c r="AB104" s="3"/>
       <c r="AC104" s="3"/>
-      <c r="AD104" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD104" s="3"/>
+      <c r="AE104" s="3"/>
+      <c r="AF104" s="3"/>
+      <c r="AG104" s="3"/>
+      <c r="AH104" s="3"/>
+      <c r="AI104" s="3"/>
+      <c r="AJ104" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="4">
         <v>0</v>
@@ -6647,12 +7599,18 @@
       <c r="AA105" s="3"/>
       <c r="AB105" s="3"/>
       <c r="AC105" s="3"/>
-      <c r="AD105" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD105" s="3"/>
+      <c r="AE105" s="3"/>
+      <c r="AF105" s="3"/>
+      <c r="AG105" s="3"/>
+      <c r="AH105" s="3"/>
+      <c r="AI105" s="3"/>
+      <c r="AJ105" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="4">
         <v>0</v>
@@ -6686,12 +7644,18 @@
       <c r="AA106" s="3"/>
       <c r="AB106" s="3"/>
       <c r="AC106" s="3"/>
-      <c r="AD106" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD106" s="3"/>
+      <c r="AE106" s="3"/>
+      <c r="AF106" s="3"/>
+      <c r="AG106" s="3"/>
+      <c r="AH106" s="3"/>
+      <c r="AI106" s="3"/>
+      <c r="AJ106" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="4">
         <v>0</v>
@@ -6725,12 +7689,18 @@
       <c r="AA107" s="3"/>
       <c r="AB107" s="3"/>
       <c r="AC107" s="3"/>
-      <c r="AD107" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD107" s="3"/>
+      <c r="AE107" s="3"/>
+      <c r="AF107" s="3"/>
+      <c r="AG107" s="3"/>
+      <c r="AH107" s="3"/>
+      <c r="AI107" s="3"/>
+      <c r="AJ107" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="4">
         <v>0</v>
@@ -6764,12 +7734,18 @@
       <c r="AA108" s="3"/>
       <c r="AB108" s="3"/>
       <c r="AC108" s="3"/>
-      <c r="AD108" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD108" s="3"/>
+      <c r="AE108" s="3"/>
+      <c r="AF108" s="3"/>
+      <c r="AG108" s="3"/>
+      <c r="AH108" s="3"/>
+      <c r="AI108" s="3"/>
+      <c r="AJ108" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="4">
         <v>0</v>
@@ -6803,12 +7779,18 @@
       <c r="AA109" s="3"/>
       <c r="AB109" s="3"/>
       <c r="AC109" s="3"/>
-      <c r="AD109" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD109" s="3"/>
+      <c r="AE109" s="3"/>
+      <c r="AF109" s="3"/>
+      <c r="AG109" s="3"/>
+      <c r="AH109" s="3"/>
+      <c r="AI109" s="3"/>
+      <c r="AJ109" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="4">
         <v>0</v>
@@ -6842,12 +7824,18 @@
       <c r="AA110" s="3"/>
       <c r="AB110" s="3"/>
       <c r="AC110" s="3"/>
-      <c r="AD110" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD110" s="3"/>
+      <c r="AE110" s="3"/>
+      <c r="AF110" s="3"/>
+      <c r="AG110" s="3"/>
+      <c r="AH110" s="3"/>
+      <c r="AI110" s="3"/>
+      <c r="AJ110" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="4">
         <v>0</v>
@@ -6881,12 +7869,18 @@
       <c r="AA111" s="3"/>
       <c r="AB111" s="3"/>
       <c r="AC111" s="3"/>
-      <c r="AD111" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD111" s="3"/>
+      <c r="AE111" s="3"/>
+      <c r="AF111" s="3"/>
+      <c r="AG111" s="3"/>
+      <c r="AH111" s="3"/>
+      <c r="AI111" s="3"/>
+      <c r="AJ111" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="4">
         <v>0</v>
@@ -6920,12 +7914,18 @@
       <c r="AA112" s="3"/>
       <c r="AB112" s="3"/>
       <c r="AC112" s="3"/>
-      <c r="AD112" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD112" s="3"/>
+      <c r="AE112" s="3"/>
+      <c r="AF112" s="3"/>
+      <c r="AG112" s="3"/>
+      <c r="AH112" s="3"/>
+      <c r="AI112" s="3"/>
+      <c r="AJ112" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="4">
         <v>0</v>
@@ -6959,12 +7959,18 @@
       <c r="AA113" s="3"/>
       <c r="AB113" s="3"/>
       <c r="AC113" s="3"/>
-      <c r="AD113" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD113" s="3"/>
+      <c r="AE113" s="3"/>
+      <c r="AF113" s="3"/>
+      <c r="AG113" s="3"/>
+      <c r="AH113" s="3"/>
+      <c r="AI113" s="3"/>
+      <c r="AJ113" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="4">
         <v>0</v>
@@ -6998,12 +8004,18 @@
       <c r="AA114" s="3"/>
       <c r="AB114" s="3"/>
       <c r="AC114" s="3"/>
-      <c r="AD114" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD114" s="3"/>
+      <c r="AE114" s="3"/>
+      <c r="AF114" s="3"/>
+      <c r="AG114" s="3"/>
+      <c r="AH114" s="3"/>
+      <c r="AI114" s="3"/>
+      <c r="AJ114" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="4">
         <v>0</v>
@@ -7037,12 +8049,18 @@
       <c r="AA115" s="3"/>
       <c r="AB115" s="3"/>
       <c r="AC115" s="3"/>
-      <c r="AD115" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD115" s="3"/>
+      <c r="AE115" s="3"/>
+      <c r="AF115" s="3"/>
+      <c r="AG115" s="3"/>
+      <c r="AH115" s="3"/>
+      <c r="AI115" s="3"/>
+      <c r="AJ115" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="4">
         <v>0</v>
@@ -7076,12 +8094,18 @@
       <c r="AA116" s="3"/>
       <c r="AB116" s="3"/>
       <c r="AC116" s="3"/>
-      <c r="AD116" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD116" s="3"/>
+      <c r="AE116" s="3"/>
+      <c r="AF116" s="3"/>
+      <c r="AG116" s="3"/>
+      <c r="AH116" s="3"/>
+      <c r="AI116" s="3"/>
+      <c r="AJ116" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="4">
         <v>0</v>
@@ -7115,12 +8139,18 @@
       <c r="AA117" s="3"/>
       <c r="AB117" s="3"/>
       <c r="AC117" s="3"/>
-      <c r="AD117" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD117" s="3"/>
+      <c r="AE117" s="3"/>
+      <c r="AF117" s="3"/>
+      <c r="AG117" s="3"/>
+      <c r="AH117" s="3"/>
+      <c r="AI117" s="3"/>
+      <c r="AJ117" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="4">
         <v>0</v>
@@ -7154,12 +8184,18 @@
       <c r="AA118" s="3"/>
       <c r="AB118" s="3"/>
       <c r="AC118" s="3"/>
-      <c r="AD118" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD118" s="3"/>
+      <c r="AE118" s="3"/>
+      <c r="AF118" s="3"/>
+      <c r="AG118" s="3"/>
+      <c r="AH118" s="3"/>
+      <c r="AI118" s="3"/>
+      <c r="AJ118" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="4">
         <v>0</v>
@@ -7193,12 +8229,18 @@
       <c r="AA119" s="3"/>
       <c r="AB119" s="3"/>
       <c r="AC119" s="3"/>
-      <c r="AD119" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD119" s="3"/>
+      <c r="AE119" s="3"/>
+      <c r="AF119" s="3"/>
+      <c r="AG119" s="3"/>
+      <c r="AH119" s="3"/>
+      <c r="AI119" s="3"/>
+      <c r="AJ119" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="4">
         <v>0</v>
@@ -7232,12 +8274,18 @@
       <c r="AA120" s="3"/>
       <c r="AB120" s="3"/>
       <c r="AC120" s="3"/>
-      <c r="AD120" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD120" s="3"/>
+      <c r="AE120" s="3"/>
+      <c r="AF120" s="3"/>
+      <c r="AG120" s="3"/>
+      <c r="AH120" s="3"/>
+      <c r="AI120" s="3"/>
+      <c r="AJ120" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="4">
         <v>0</v>
@@ -7271,12 +8319,18 @@
       <c r="AA121" s="3"/>
       <c r="AB121" s="3"/>
       <c r="AC121" s="3"/>
-      <c r="AD121" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD121" s="3"/>
+      <c r="AE121" s="3"/>
+      <c r="AF121" s="3"/>
+      <c r="AG121" s="3"/>
+      <c r="AH121" s="3"/>
+      <c r="AI121" s="3"/>
+      <c r="AJ121" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="4">
         <v>0</v>
@@ -7310,12 +8364,18 @@
       <c r="AA122" s="3"/>
       <c r="AB122" s="3"/>
       <c r="AC122" s="3"/>
-      <c r="AD122" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD122" s="3"/>
+      <c r="AE122" s="3"/>
+      <c r="AF122" s="3"/>
+      <c r="AG122" s="3"/>
+      <c r="AH122" s="3"/>
+      <c r="AI122" s="3"/>
+      <c r="AJ122" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="4">
         <v>0</v>
@@ -7349,12 +8409,18 @@
       <c r="AA123" s="3"/>
       <c r="AB123" s="3"/>
       <c r="AC123" s="3"/>
-      <c r="AD123" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD123" s="3"/>
+      <c r="AE123" s="3"/>
+      <c r="AF123" s="3"/>
+      <c r="AG123" s="3"/>
+      <c r="AH123" s="3"/>
+      <c r="AI123" s="3"/>
+      <c r="AJ123" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="4">
         <v>0</v>
@@ -7388,12 +8454,18 @@
       <c r="AA124" s="3"/>
       <c r="AB124" s="3"/>
       <c r="AC124" s="3"/>
-      <c r="AD124" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD124" s="3"/>
+      <c r="AE124" s="3"/>
+      <c r="AF124" s="3"/>
+      <c r="AG124" s="3"/>
+      <c r="AH124" s="3"/>
+      <c r="AI124" s="3"/>
+      <c r="AJ124" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="4">
         <v>0</v>
@@ -7427,12 +8499,18 @@
       <c r="AA125" s="3"/>
       <c r="AB125" s="3"/>
       <c r="AC125" s="3"/>
-      <c r="AD125" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD125" s="3"/>
+      <c r="AE125" s="3"/>
+      <c r="AF125" s="3"/>
+      <c r="AG125" s="3"/>
+      <c r="AH125" s="3"/>
+      <c r="AI125" s="3"/>
+      <c r="AJ125" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="4">
         <v>0</v>
@@ -7466,12 +8544,18 @@
       <c r="AA126" s="3"/>
       <c r="AB126" s="3"/>
       <c r="AC126" s="3"/>
-      <c r="AD126" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD126" s="3"/>
+      <c r="AE126" s="3"/>
+      <c r="AF126" s="3"/>
+      <c r="AG126" s="3"/>
+      <c r="AH126" s="3"/>
+      <c r="AI126" s="3"/>
+      <c r="AJ126" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="4">
         <v>0</v>
@@ -7505,12 +8589,18 @@
       <c r="AA127" s="3"/>
       <c r="AB127" s="3"/>
       <c r="AC127" s="3"/>
-      <c r="AD127" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD127" s="3"/>
+      <c r="AE127" s="3"/>
+      <c r="AF127" s="3"/>
+      <c r="AG127" s="3"/>
+      <c r="AH127" s="3"/>
+      <c r="AI127" s="3"/>
+      <c r="AJ127" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="4">
         <v>0</v>
@@ -7544,12 +8634,18 @@
       <c r="AA128" s="3"/>
       <c r="AB128" s="3"/>
       <c r="AC128" s="3"/>
-      <c r="AD128" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD128" s="3"/>
+      <c r="AE128" s="3"/>
+      <c r="AF128" s="3"/>
+      <c r="AG128" s="3"/>
+      <c r="AH128" s="3"/>
+      <c r="AI128" s="3"/>
+      <c r="AJ128" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="4">
         <v>0</v>
@@ -7583,12 +8679,18 @@
       <c r="AA129" s="3"/>
       <c r="AB129" s="3"/>
       <c r="AC129" s="3"/>
-      <c r="AD129" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD129" s="3"/>
+      <c r="AE129" s="3"/>
+      <c r="AF129" s="3"/>
+      <c r="AG129" s="3"/>
+      <c r="AH129" s="3"/>
+      <c r="AI129" s="3"/>
+      <c r="AJ129" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="4">
         <v>0</v>
@@ -7622,12 +8724,18 @@
       <c r="AA130" s="3"/>
       <c r="AB130" s="3"/>
       <c r="AC130" s="3"/>
-      <c r="AD130" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD130" s="3"/>
+      <c r="AE130" s="3"/>
+      <c r="AF130" s="3"/>
+      <c r="AG130" s="3"/>
+      <c r="AH130" s="3"/>
+      <c r="AI130" s="3"/>
+      <c r="AJ130" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="4">
         <v>0</v>
@@ -7661,12 +8769,18 @@
       <c r="AA131" s="3"/>
       <c r="AB131" s="3"/>
       <c r="AC131" s="3"/>
-      <c r="AD131" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD131" s="3"/>
+      <c r="AE131" s="3"/>
+      <c r="AF131" s="3"/>
+      <c r="AG131" s="3"/>
+      <c r="AH131" s="3"/>
+      <c r="AI131" s="3"/>
+      <c r="AJ131" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="4">
         <v>0</v>
@@ -7700,12 +8814,18 @@
       <c r="AA132" s="3"/>
       <c r="AB132" s="3"/>
       <c r="AC132" s="3"/>
-      <c r="AD132" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD132" s="3"/>
+      <c r="AE132" s="3"/>
+      <c r="AF132" s="3"/>
+      <c r="AG132" s="3"/>
+      <c r="AH132" s="3"/>
+      <c r="AI132" s="3"/>
+      <c r="AJ132" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="4">
         <v>0</v>
@@ -7739,12 +8859,18 @@
       <c r="AA133" s="3"/>
       <c r="AB133" s="3"/>
       <c r="AC133" s="3"/>
-      <c r="AD133" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD133" s="3"/>
+      <c r="AE133" s="3"/>
+      <c r="AF133" s="3"/>
+      <c r="AG133" s="3"/>
+      <c r="AH133" s="3"/>
+      <c r="AI133" s="3"/>
+      <c r="AJ133" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="4">
         <v>0</v>
@@ -7778,12 +8904,18 @@
       <c r="AA134" s="3"/>
       <c r="AB134" s="3"/>
       <c r="AC134" s="3"/>
-      <c r="AD134" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD134" s="3"/>
+      <c r="AE134" s="3"/>
+      <c r="AF134" s="3"/>
+      <c r="AG134" s="3"/>
+      <c r="AH134" s="3"/>
+      <c r="AI134" s="3"/>
+      <c r="AJ134" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="4">
         <v>0</v>
@@ -7817,12 +8949,18 @@
       <c r="AA135" s="3"/>
       <c r="AB135" s="3"/>
       <c r="AC135" s="3"/>
-      <c r="AD135" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD135" s="3"/>
+      <c r="AE135" s="3"/>
+      <c r="AF135" s="3"/>
+      <c r="AG135" s="3"/>
+      <c r="AH135" s="3"/>
+      <c r="AI135" s="3"/>
+      <c r="AJ135" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="4">
         <v>0</v>
@@ -7856,12 +8994,18 @@
       <c r="AA136" s="3"/>
       <c r="AB136" s="3"/>
       <c r="AC136" s="3"/>
-      <c r="AD136" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD136" s="3"/>
+      <c r="AE136" s="3"/>
+      <c r="AF136" s="3"/>
+      <c r="AG136" s="3"/>
+      <c r="AH136" s="3"/>
+      <c r="AI136" s="3"/>
+      <c r="AJ136" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="4">
         <v>0</v>
@@ -7895,12 +9039,18 @@
       <c r="AA137" s="3"/>
       <c r="AB137" s="3"/>
       <c r="AC137" s="3"/>
-      <c r="AD137" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD137" s="3"/>
+      <c r="AE137" s="3"/>
+      <c r="AF137" s="3"/>
+      <c r="AG137" s="3"/>
+      <c r="AH137" s="3"/>
+      <c r="AI137" s="3"/>
+      <c r="AJ137" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="4">
         <v>0</v>
@@ -7934,12 +9084,18 @@
       <c r="AA138" s="3"/>
       <c r="AB138" s="3"/>
       <c r="AC138" s="3"/>
-      <c r="AD138" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD138" s="3"/>
+      <c r="AE138" s="3"/>
+      <c r="AF138" s="3"/>
+      <c r="AG138" s="3"/>
+      <c r="AH138" s="3"/>
+      <c r="AI138" s="3"/>
+      <c r="AJ138" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="4">
         <v>0</v>
@@ -7973,12 +9129,18 @@
       <c r="AA139" s="3"/>
       <c r="AB139" s="3"/>
       <c r="AC139" s="3"/>
-      <c r="AD139" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD139" s="3"/>
+      <c r="AE139" s="3"/>
+      <c r="AF139" s="3"/>
+      <c r="AG139" s="3"/>
+      <c r="AH139" s="3"/>
+      <c r="AI139" s="3"/>
+      <c r="AJ139" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="4">
         <v>0</v>
@@ -8012,12 +9174,18 @@
       <c r="AA140" s="3"/>
       <c r="AB140" s="3"/>
       <c r="AC140" s="3"/>
-      <c r="AD140" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD140" s="3"/>
+      <c r="AE140" s="3"/>
+      <c r="AF140" s="3"/>
+      <c r="AG140" s="3"/>
+      <c r="AH140" s="3"/>
+      <c r="AI140" s="3"/>
+      <c r="AJ140" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="4">
         <v>0</v>
@@ -8051,12 +9219,18 @@
       <c r="AA141" s="3"/>
       <c r="AB141" s="3"/>
       <c r="AC141" s="3"/>
-      <c r="AD141" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD141" s="3"/>
+      <c r="AE141" s="3"/>
+      <c r="AF141" s="3"/>
+      <c r="AG141" s="3"/>
+      <c r="AH141" s="3"/>
+      <c r="AI141" s="3"/>
+      <c r="AJ141" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="4">
         <v>0</v>
@@ -8090,12 +9264,18 @@
       <c r="AA142" s="3"/>
       <c r="AB142" s="3"/>
       <c r="AC142" s="3"/>
-      <c r="AD142" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD142" s="3"/>
+      <c r="AE142" s="3"/>
+      <c r="AF142" s="3"/>
+      <c r="AG142" s="3"/>
+      <c r="AH142" s="3"/>
+      <c r="AI142" s="3"/>
+      <c r="AJ142" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="4">
         <v>0</v>
@@ -8129,12 +9309,18 @@
       <c r="AA143" s="3"/>
       <c r="AB143" s="3"/>
       <c r="AC143" s="3"/>
-      <c r="AD143" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD143" s="3"/>
+      <c r="AE143" s="3"/>
+      <c r="AF143" s="3"/>
+      <c r="AG143" s="3"/>
+      <c r="AH143" s="3"/>
+      <c r="AI143" s="3"/>
+      <c r="AJ143" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="4">
         <v>0</v>
@@ -8168,12 +9354,18 @@
       <c r="AA144" s="3"/>
       <c r="AB144" s="3"/>
       <c r="AC144" s="3"/>
-      <c r="AD144" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD144" s="3"/>
+      <c r="AE144" s="3"/>
+      <c r="AF144" s="3"/>
+      <c r="AG144" s="3"/>
+      <c r="AH144" s="3"/>
+      <c r="AI144" s="3"/>
+      <c r="AJ144" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="4">
         <v>0</v>
@@ -8207,12 +9399,18 @@
       <c r="AA145" s="3"/>
       <c r="AB145" s="3"/>
       <c r="AC145" s="3"/>
-      <c r="AD145" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD145" s="3"/>
+      <c r="AE145" s="3"/>
+      <c r="AF145" s="3"/>
+      <c r="AG145" s="3"/>
+      <c r="AH145" s="3"/>
+      <c r="AI145" s="3"/>
+      <c r="AJ145" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
       <c r="B146" s="4">
         <v>0</v>
@@ -8246,12 +9444,18 @@
       <c r="AA146" s="3"/>
       <c r="AB146" s="3"/>
       <c r="AC146" s="3"/>
-      <c r="AD146" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD146" s="3"/>
+      <c r="AE146" s="3"/>
+      <c r="AF146" s="3"/>
+      <c r="AG146" s="3"/>
+      <c r="AH146" s="3"/>
+      <c r="AI146" s="3"/>
+      <c r="AJ146" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="4">
         <v>0</v>
@@ -8285,12 +9489,18 @@
       <c r="AA147" s="3"/>
       <c r="AB147" s="3"/>
       <c r="AC147" s="3"/>
-      <c r="AD147" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD147" s="3"/>
+      <c r="AE147" s="3"/>
+      <c r="AF147" s="3"/>
+      <c r="AG147" s="3"/>
+      <c r="AH147" s="3"/>
+      <c r="AI147" s="3"/>
+      <c r="AJ147" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="4">
         <v>0</v>
@@ -8324,12 +9534,18 @@
       <c r="AA148" s="3"/>
       <c r="AB148" s="3"/>
       <c r="AC148" s="3"/>
-      <c r="AD148" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD148" s="3"/>
+      <c r="AE148" s="3"/>
+      <c r="AF148" s="3"/>
+      <c r="AG148" s="3"/>
+      <c r="AH148" s="3"/>
+      <c r="AI148" s="3"/>
+      <c r="AJ148" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
       <c r="B149" s="4">
         <v>0</v>
@@ -8363,12 +9579,18 @@
       <c r="AA149" s="3"/>
       <c r="AB149" s="3"/>
       <c r="AC149" s="3"/>
-      <c r="AD149" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD149" s="3"/>
+      <c r="AE149" s="3"/>
+      <c r="AF149" s="3"/>
+      <c r="AG149" s="3"/>
+      <c r="AH149" s="3"/>
+      <c r="AI149" s="3"/>
+      <c r="AJ149" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="4">
         <v>0</v>
@@ -8402,12 +9624,18 @@
       <c r="AA150" s="3"/>
       <c r="AB150" s="3"/>
       <c r="AC150" s="3"/>
-      <c r="AD150" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD150" s="3"/>
+      <c r="AE150" s="3"/>
+      <c r="AF150" s="3"/>
+      <c r="AG150" s="3"/>
+      <c r="AH150" s="3"/>
+      <c r="AI150" s="3"/>
+      <c r="AJ150" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="4">
         <v>0</v>
@@ -8441,12 +9669,18 @@
       <c r="AA151" s="3"/>
       <c r="AB151" s="3"/>
       <c r="AC151" s="3"/>
-      <c r="AD151" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD151" s="3"/>
+      <c r="AE151" s="3"/>
+      <c r="AF151" s="3"/>
+      <c r="AG151" s="3"/>
+      <c r="AH151" s="3"/>
+      <c r="AI151" s="3"/>
+      <c r="AJ151" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="4">
         <v>0</v>
@@ -8480,12 +9714,18 @@
       <c r="AA152" s="3"/>
       <c r="AB152" s="3"/>
       <c r="AC152" s="3"/>
-      <c r="AD152" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD152" s="3"/>
+      <c r="AE152" s="3"/>
+      <c r="AF152" s="3"/>
+      <c r="AG152" s="3"/>
+      <c r="AH152" s="3"/>
+      <c r="AI152" s="3"/>
+      <c r="AJ152" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
       <c r="B153" s="4">
         <v>0</v>
@@ -8519,12 +9759,18 @@
       <c r="AA153" s="3"/>
       <c r="AB153" s="3"/>
       <c r="AC153" s="3"/>
-      <c r="AD153" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD153" s="3"/>
+      <c r="AE153" s="3"/>
+      <c r="AF153" s="3"/>
+      <c r="AG153" s="3"/>
+      <c r="AH153" s="3"/>
+      <c r="AI153" s="3"/>
+      <c r="AJ153" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
       <c r="B154" s="4">
         <v>0</v>
@@ -8558,12 +9804,18 @@
       <c r="AA154" s="3"/>
       <c r="AB154" s="3"/>
       <c r="AC154" s="3"/>
-      <c r="AD154" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD154" s="3"/>
+      <c r="AE154" s="3"/>
+      <c r="AF154" s="3"/>
+      <c r="AG154" s="3"/>
+      <c r="AH154" s="3"/>
+      <c r="AI154" s="3"/>
+      <c r="AJ154" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
       <c r="B155" s="4">
         <v>0</v>
@@ -8597,12 +9849,18 @@
       <c r="AA155" s="3"/>
       <c r="AB155" s="3"/>
       <c r="AC155" s="3"/>
-      <c r="AD155" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD155" s="3"/>
+      <c r="AE155" s="3"/>
+      <c r="AF155" s="3"/>
+      <c r="AG155" s="3"/>
+      <c r="AH155" s="3"/>
+      <c r="AI155" s="3"/>
+      <c r="AJ155" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="4">
         <v>0</v>
@@ -8636,12 +9894,18 @@
       <c r="AA156" s="3"/>
       <c r="AB156" s="3"/>
       <c r="AC156" s="3"/>
-      <c r="AD156" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD156" s="3"/>
+      <c r="AE156" s="3"/>
+      <c r="AF156" s="3"/>
+      <c r="AG156" s="3"/>
+      <c r="AH156" s="3"/>
+      <c r="AI156" s="3"/>
+      <c r="AJ156" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="4">
         <v>0</v>
@@ -8675,12 +9939,18 @@
       <c r="AA157" s="3"/>
       <c r="AB157" s="3"/>
       <c r="AC157" s="3"/>
-      <c r="AD157" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD157" s="3"/>
+      <c r="AE157" s="3"/>
+      <c r="AF157" s="3"/>
+      <c r="AG157" s="3"/>
+      <c r="AH157" s="3"/>
+      <c r="AI157" s="3"/>
+      <c r="AJ157" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="4">
         <v>0</v>
@@ -8714,12 +9984,18 @@
       <c r="AA158" s="3"/>
       <c r="AB158" s="3"/>
       <c r="AC158" s="3"/>
-      <c r="AD158" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD158" s="3"/>
+      <c r="AE158" s="3"/>
+      <c r="AF158" s="3"/>
+      <c r="AG158" s="3"/>
+      <c r="AH158" s="3"/>
+      <c r="AI158" s="3"/>
+      <c r="AJ158" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
       <c r="B159" s="4">
         <v>0</v>
@@ -8753,12 +10029,18 @@
       <c r="AA159" s="3"/>
       <c r="AB159" s="3"/>
       <c r="AC159" s="3"/>
-      <c r="AD159" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD159" s="3"/>
+      <c r="AE159" s="3"/>
+      <c r="AF159" s="3"/>
+      <c r="AG159" s="3"/>
+      <c r="AH159" s="3"/>
+      <c r="AI159" s="3"/>
+      <c r="AJ159" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="4">
         <v>0</v>
@@ -8792,12 +10074,18 @@
       <c r="AA160" s="3"/>
       <c r="AB160" s="3"/>
       <c r="AC160" s="3"/>
-      <c r="AD160" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD160" s="3"/>
+      <c r="AE160" s="3"/>
+      <c r="AF160" s="3"/>
+      <c r="AG160" s="3"/>
+      <c r="AH160" s="3"/>
+      <c r="AI160" s="3"/>
+      <c r="AJ160" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
       <c r="B161" s="4">
         <v>0</v>
@@ -8831,12 +10119,18 @@
       <c r="AA161" s="3"/>
       <c r="AB161" s="3"/>
       <c r="AC161" s="3"/>
-      <c r="AD161" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD161" s="3"/>
+      <c r="AE161" s="3"/>
+      <c r="AF161" s="3"/>
+      <c r="AG161" s="3"/>
+      <c r="AH161" s="3"/>
+      <c r="AI161" s="3"/>
+      <c r="AJ161" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
       <c r="B162" s="4">
         <v>0</v>
@@ -8870,12 +10164,18 @@
       <c r="AA162" s="3"/>
       <c r="AB162" s="3"/>
       <c r="AC162" s="3"/>
-      <c r="AD162" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD162" s="3"/>
+      <c r="AE162" s="3"/>
+      <c r="AF162" s="3"/>
+      <c r="AG162" s="3"/>
+      <c r="AH162" s="3"/>
+      <c r="AI162" s="3"/>
+      <c r="AJ162" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
       <c r="B163" s="4">
         <v>0</v>
@@ -8909,12 +10209,18 @@
       <c r="AA163" s="3"/>
       <c r="AB163" s="3"/>
       <c r="AC163" s="3"/>
-      <c r="AD163" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD163" s="3"/>
+      <c r="AE163" s="3"/>
+      <c r="AF163" s="3"/>
+      <c r="AG163" s="3"/>
+      <c r="AH163" s="3"/>
+      <c r="AI163" s="3"/>
+      <c r="AJ163" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A164" s="8"/>
       <c r="B164" s="4">
         <v>0</v>
@@ -8948,12 +10254,18 @@
       <c r="AA164" s="3"/>
       <c r="AB164" s="3"/>
       <c r="AC164" s="3"/>
-      <c r="AD164" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD164" s="3"/>
+      <c r="AE164" s="3"/>
+      <c r="AF164" s="3"/>
+      <c r="AG164" s="3"/>
+      <c r="AH164" s="3"/>
+      <c r="AI164" s="3"/>
+      <c r="AJ164" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A165" s="8"/>
       <c r="B165" s="4">
         <v>0</v>
@@ -8987,12 +10299,18 @@
       <c r="AA165" s="3"/>
       <c r="AB165" s="3"/>
       <c r="AC165" s="3"/>
-      <c r="AD165" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD165" s="3"/>
+      <c r="AE165" s="3"/>
+      <c r="AF165" s="3"/>
+      <c r="AG165" s="3"/>
+      <c r="AH165" s="3"/>
+      <c r="AI165" s="3"/>
+      <c r="AJ165" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A166" s="8"/>
       <c r="B166" s="4">
         <v>0</v>
@@ -9026,12 +10344,18 @@
       <c r="AA166" s="3"/>
       <c r="AB166" s="3"/>
       <c r="AC166" s="3"/>
-      <c r="AD166" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD166" s="3"/>
+      <c r="AE166" s="3"/>
+      <c r="AF166" s="3"/>
+      <c r="AG166" s="3"/>
+      <c r="AH166" s="3"/>
+      <c r="AI166" s="3"/>
+      <c r="AJ166" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A167" s="8"/>
       <c r="B167" s="4">
         <v>0</v>
@@ -9065,12 +10389,18 @@
       <c r="AA167" s="3"/>
       <c r="AB167" s="3"/>
       <c r="AC167" s="3"/>
-      <c r="AD167" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD167" s="3"/>
+      <c r="AE167" s="3"/>
+      <c r="AF167" s="3"/>
+      <c r="AG167" s="3"/>
+      <c r="AH167" s="3"/>
+      <c r="AI167" s="3"/>
+      <c r="AJ167" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
       <c r="B168" s="4">
         <v>0</v>
@@ -9104,12 +10434,18 @@
       <c r="AA168" s="3"/>
       <c r="AB168" s="3"/>
       <c r="AC168" s="3"/>
-      <c r="AD168" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD168" s="3"/>
+      <c r="AE168" s="3"/>
+      <c r="AF168" s="3"/>
+      <c r="AG168" s="3"/>
+      <c r="AH168" s="3"/>
+      <c r="AI168" s="3"/>
+      <c r="AJ168" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A169" s="8"/>
       <c r="B169" s="4">
         <v>0</v>
@@ -9143,12 +10479,18 @@
       <c r="AA169" s="3"/>
       <c r="AB169" s="3"/>
       <c r="AC169" s="3"/>
-      <c r="AD169" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD169" s="3"/>
+      <c r="AE169" s="3"/>
+      <c r="AF169" s="3"/>
+      <c r="AG169" s="3"/>
+      <c r="AH169" s="3"/>
+      <c r="AI169" s="3"/>
+      <c r="AJ169" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A170" s="8"/>
       <c r="B170" s="4">
         <v>0</v>
@@ -9182,12 +10524,18 @@
       <c r="AA170" s="3"/>
       <c r="AB170" s="3"/>
       <c r="AC170" s="3"/>
-      <c r="AD170" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD170" s="3"/>
+      <c r="AE170" s="3"/>
+      <c r="AF170" s="3"/>
+      <c r="AG170" s="3"/>
+      <c r="AH170" s="3"/>
+      <c r="AI170" s="3"/>
+      <c r="AJ170" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A171" s="8"/>
       <c r="B171" s="4">
         <v>0</v>
@@ -9221,12 +10569,18 @@
       <c r="AA171" s="3"/>
       <c r="AB171" s="3"/>
       <c r="AC171" s="3"/>
-      <c r="AD171" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD171" s="3"/>
+      <c r="AE171" s="3"/>
+      <c r="AF171" s="3"/>
+      <c r="AG171" s="3"/>
+      <c r="AH171" s="3"/>
+      <c r="AI171" s="3"/>
+      <c r="AJ171" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A172" s="8"/>
       <c r="B172" s="4">
         <v>0</v>
@@ -9260,12 +10614,18 @@
       <c r="AA172" s="3"/>
       <c r="AB172" s="3"/>
       <c r="AC172" s="3"/>
-      <c r="AD172" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD172" s="3"/>
+      <c r="AE172" s="3"/>
+      <c r="AF172" s="3"/>
+      <c r="AG172" s="3"/>
+      <c r="AH172" s="3"/>
+      <c r="AI172" s="3"/>
+      <c r="AJ172" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A173" s="8"/>
       <c r="B173" s="4">
         <v>0</v>
@@ -9299,12 +10659,18 @@
       <c r="AA173" s="3"/>
       <c r="AB173" s="3"/>
       <c r="AC173" s="3"/>
-      <c r="AD173" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD173" s="3"/>
+      <c r="AE173" s="3"/>
+      <c r="AF173" s="3"/>
+      <c r="AG173" s="3"/>
+      <c r="AH173" s="3"/>
+      <c r="AI173" s="3"/>
+      <c r="AJ173" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A174" s="8"/>
       <c r="B174" s="4">
         <v>0</v>
@@ -9338,12 +10704,18 @@
       <c r="AA174" s="3"/>
       <c r="AB174" s="3"/>
       <c r="AC174" s="3"/>
-      <c r="AD174" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD174" s="3"/>
+      <c r="AE174" s="3"/>
+      <c r="AF174" s="3"/>
+      <c r="AG174" s="3"/>
+      <c r="AH174" s="3"/>
+      <c r="AI174" s="3"/>
+      <c r="AJ174" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A175" s="8"/>
       <c r="B175" s="4">
         <v>0</v>
@@ -9377,12 +10749,18 @@
       <c r="AA175" s="3"/>
       <c r="AB175" s="3"/>
       <c r="AC175" s="3"/>
-      <c r="AD175" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD175" s="3"/>
+      <c r="AE175" s="3"/>
+      <c r="AF175" s="3"/>
+      <c r="AG175" s="3"/>
+      <c r="AH175" s="3"/>
+      <c r="AI175" s="3"/>
+      <c r="AJ175" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
       <c r="B176" s="4">
         <v>0</v>
@@ -9416,12 +10794,18 @@
       <c r="AA176" s="3"/>
       <c r="AB176" s="3"/>
       <c r="AC176" s="3"/>
-      <c r="AD176" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD176" s="3"/>
+      <c r="AE176" s="3"/>
+      <c r="AF176" s="3"/>
+      <c r="AG176" s="3"/>
+      <c r="AH176" s="3"/>
+      <c r="AI176" s="3"/>
+      <c r="AJ176" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A177" s="8"/>
       <c r="B177" s="4">
         <v>0</v>
@@ -9455,12 +10839,18 @@
       <c r="AA177" s="3"/>
       <c r="AB177" s="3"/>
       <c r="AC177" s="3"/>
-      <c r="AD177" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD177" s="3"/>
+      <c r="AE177" s="3"/>
+      <c r="AF177" s="3"/>
+      <c r="AG177" s="3"/>
+      <c r="AH177" s="3"/>
+      <c r="AI177" s="3"/>
+      <c r="AJ177" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A178" s="8"/>
       <c r="B178" s="4">
         <v>0</v>
@@ -9494,12 +10884,18 @@
       <c r="AA178" s="3"/>
       <c r="AB178" s="3"/>
       <c r="AC178" s="3"/>
-      <c r="AD178" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD178" s="3"/>
+      <c r="AE178" s="3"/>
+      <c r="AF178" s="3"/>
+      <c r="AG178" s="3"/>
+      <c r="AH178" s="3"/>
+      <c r="AI178" s="3"/>
+      <c r="AJ178" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A179" s="8"/>
       <c r="B179" s="4">
         <v>0</v>
@@ -9533,12 +10929,18 @@
       <c r="AA179" s="3"/>
       <c r="AB179" s="3"/>
       <c r="AC179" s="3"/>
-      <c r="AD179" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD179" s="3"/>
+      <c r="AE179" s="3"/>
+      <c r="AF179" s="3"/>
+      <c r="AG179" s="3"/>
+      <c r="AH179" s="3"/>
+      <c r="AI179" s="3"/>
+      <c r="AJ179" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
       <c r="B180" s="4">
         <v>0</v>
@@ -9572,12 +10974,18 @@
       <c r="AA180" s="3"/>
       <c r="AB180" s="3"/>
       <c r="AC180" s="3"/>
-      <c r="AD180" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD180" s="3"/>
+      <c r="AE180" s="3"/>
+      <c r="AF180" s="3"/>
+      <c r="AG180" s="3"/>
+      <c r="AH180" s="3"/>
+      <c r="AI180" s="3"/>
+      <c r="AJ180" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A181" s="8"/>
       <c r="B181" s="4">
         <v>0</v>
@@ -9611,12 +11019,18 @@
       <c r="AA181" s="3"/>
       <c r="AB181" s="3"/>
       <c r="AC181" s="3"/>
-      <c r="AD181" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD181" s="3"/>
+      <c r="AE181" s="3"/>
+      <c r="AF181" s="3"/>
+      <c r="AG181" s="3"/>
+      <c r="AH181" s="3"/>
+      <c r="AI181" s="3"/>
+      <c r="AJ181" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A182" s="8"/>
       <c r="B182" s="4">
         <v>0</v>
@@ -9650,12 +11064,18 @@
       <c r="AA182" s="3"/>
       <c r="AB182" s="3"/>
       <c r="AC182" s="3"/>
-      <c r="AD182" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD182" s="3"/>
+      <c r="AE182" s="3"/>
+      <c r="AF182" s="3"/>
+      <c r="AG182" s="3"/>
+      <c r="AH182" s="3"/>
+      <c r="AI182" s="3"/>
+      <c r="AJ182" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A183" s="8"/>
       <c r="B183" s="4">
         <v>0</v>
@@ -9689,12 +11109,18 @@
       <c r="AA183" s="3"/>
       <c r="AB183" s="3"/>
       <c r="AC183" s="3"/>
-      <c r="AD183" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD183" s="3"/>
+      <c r="AE183" s="3"/>
+      <c r="AF183" s="3"/>
+      <c r="AG183" s="3"/>
+      <c r="AH183" s="3"/>
+      <c r="AI183" s="3"/>
+      <c r="AJ183" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
       <c r="B184" s="4">
         <v>0</v>
@@ -9728,12 +11154,18 @@
       <c r="AA184" s="3"/>
       <c r="AB184" s="3"/>
       <c r="AC184" s="3"/>
-      <c r="AD184" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD184" s="3"/>
+      <c r="AE184" s="3"/>
+      <c r="AF184" s="3"/>
+      <c r="AG184" s="3"/>
+      <c r="AH184" s="3"/>
+      <c r="AI184" s="3"/>
+      <c r="AJ184" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
       <c r="B185" s="4">
         <v>0</v>
@@ -9767,12 +11199,18 @@
       <c r="AA185" s="3"/>
       <c r="AB185" s="3"/>
       <c r="AC185" s="3"/>
-      <c r="AD185" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD185" s="3"/>
+      <c r="AE185" s="3"/>
+      <c r="AF185" s="3"/>
+      <c r="AG185" s="3"/>
+      <c r="AH185" s="3"/>
+      <c r="AI185" s="3"/>
+      <c r="AJ185" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A186" s="8"/>
       <c r="B186" s="4">
         <v>0</v>
@@ -9806,12 +11244,18 @@
       <c r="AA186" s="3"/>
       <c r="AB186" s="3"/>
       <c r="AC186" s="3"/>
-      <c r="AD186" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD186" s="3"/>
+      <c r="AE186" s="3"/>
+      <c r="AF186" s="3"/>
+      <c r="AG186" s="3"/>
+      <c r="AH186" s="3"/>
+      <c r="AI186" s="3"/>
+      <c r="AJ186" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A187" s="8"/>
       <c r="B187" s="4">
         <v>0</v>
@@ -9845,12 +11289,18 @@
       <c r="AA187" s="3"/>
       <c r="AB187" s="3"/>
       <c r="AC187" s="3"/>
-      <c r="AD187" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD187" s="3"/>
+      <c r="AE187" s="3"/>
+      <c r="AF187" s="3"/>
+      <c r="AG187" s="3"/>
+      <c r="AH187" s="3"/>
+      <c r="AI187" s="3"/>
+      <c r="AJ187" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A188" s="8"/>
       <c r="B188" s="4">
         <v>0</v>
@@ -9884,12 +11334,18 @@
       <c r="AA188" s="3"/>
       <c r="AB188" s="3"/>
       <c r="AC188" s="3"/>
-      <c r="AD188" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD188" s="3"/>
+      <c r="AE188" s="3"/>
+      <c r="AF188" s="3"/>
+      <c r="AG188" s="3"/>
+      <c r="AH188" s="3"/>
+      <c r="AI188" s="3"/>
+      <c r="AJ188" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A189" s="8"/>
       <c r="B189" s="4">
         <v>0</v>
@@ -9923,12 +11379,18 @@
       <c r="AA189" s="3"/>
       <c r="AB189" s="3"/>
       <c r="AC189" s="3"/>
-      <c r="AD189" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD189" s="3"/>
+      <c r="AE189" s="3"/>
+      <c r="AF189" s="3"/>
+      <c r="AG189" s="3"/>
+      <c r="AH189" s="3"/>
+      <c r="AI189" s="3"/>
+      <c r="AJ189" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A190" s="8"/>
       <c r="B190" s="4">
         <v>0</v>
@@ -9962,12 +11424,18 @@
       <c r="AA190" s="3"/>
       <c r="AB190" s="3"/>
       <c r="AC190" s="3"/>
-      <c r="AD190" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD190" s="3"/>
+      <c r="AE190" s="3"/>
+      <c r="AF190" s="3"/>
+      <c r="AG190" s="3"/>
+      <c r="AH190" s="3"/>
+      <c r="AI190" s="3"/>
+      <c r="AJ190" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A191" s="8"/>
       <c r="B191" s="4">
         <v>0</v>
@@ -10001,12 +11469,18 @@
       <c r="AA191" s="3"/>
       <c r="AB191" s="3"/>
       <c r="AC191" s="3"/>
-      <c r="AD191" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD191" s="3"/>
+      <c r="AE191" s="3"/>
+      <c r="AF191" s="3"/>
+      <c r="AG191" s="3"/>
+      <c r="AH191" s="3"/>
+      <c r="AI191" s="3"/>
+      <c r="AJ191" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A192" s="8"/>
       <c r="B192" s="4">
         <v>0</v>
@@ -10040,12 +11514,18 @@
       <c r="AA192" s="3"/>
       <c r="AB192" s="3"/>
       <c r="AC192" s="3"/>
-      <c r="AD192" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD192" s="3"/>
+      <c r="AE192" s="3"/>
+      <c r="AF192" s="3"/>
+      <c r="AG192" s="3"/>
+      <c r="AH192" s="3"/>
+      <c r="AI192" s="3"/>
+      <c r="AJ192" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A193" s="8"/>
       <c r="B193" s="4">
         <v>0</v>
@@ -10079,12 +11559,18 @@
       <c r="AA193" s="3"/>
       <c r="AB193" s="3"/>
       <c r="AC193" s="3"/>
-      <c r="AD193" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD193" s="3"/>
+      <c r="AE193" s="3"/>
+      <c r="AF193" s="3"/>
+      <c r="AG193" s="3"/>
+      <c r="AH193" s="3"/>
+      <c r="AI193" s="3"/>
+      <c r="AJ193" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A194" s="8"/>
       <c r="B194" s="4">
         <v>0</v>
@@ -10118,12 +11604,18 @@
       <c r="AA194" s="3"/>
       <c r="AB194" s="3"/>
       <c r="AC194" s="3"/>
-      <c r="AD194" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD194" s="3"/>
+      <c r="AE194" s="3"/>
+      <c r="AF194" s="3"/>
+      <c r="AG194" s="3"/>
+      <c r="AH194" s="3"/>
+      <c r="AI194" s="3"/>
+      <c r="AJ194" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A195" s="8"/>
       <c r="B195" s="4">
         <v>0</v>
@@ -10157,12 +11649,18 @@
       <c r="AA195" s="3"/>
       <c r="AB195" s="3"/>
       <c r="AC195" s="3"/>
-      <c r="AD195" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD195" s="3"/>
+      <c r="AE195" s="3"/>
+      <c r="AF195" s="3"/>
+      <c r="AG195" s="3"/>
+      <c r="AH195" s="3"/>
+      <c r="AI195" s="3"/>
+      <c r="AJ195" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A196" s="8"/>
       <c r="B196" s="4">
         <v>0</v>
@@ -10196,12 +11694,18 @@
       <c r="AA196" s="3"/>
       <c r="AB196" s="3"/>
       <c r="AC196" s="3"/>
-      <c r="AD196" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD196" s="3"/>
+      <c r="AE196" s="3"/>
+      <c r="AF196" s="3"/>
+      <c r="AG196" s="3"/>
+      <c r="AH196" s="3"/>
+      <c r="AI196" s="3"/>
+      <c r="AJ196" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A197" s="8"/>
       <c r="B197" s="4">
         <v>0</v>
@@ -10235,12 +11739,18 @@
       <c r="AA197" s="3"/>
       <c r="AB197" s="3"/>
       <c r="AC197" s="3"/>
-      <c r="AD197" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD197" s="3"/>
+      <c r="AE197" s="3"/>
+      <c r="AF197" s="3"/>
+      <c r="AG197" s="3"/>
+      <c r="AH197" s="3"/>
+      <c r="AI197" s="3"/>
+      <c r="AJ197" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A198" s="8"/>
       <c r="B198" s="4">
         <v>0</v>
@@ -10274,12 +11784,18 @@
       <c r="AA198" s="3"/>
       <c r="AB198" s="3"/>
       <c r="AC198" s="3"/>
-      <c r="AD198" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD198" s="3"/>
+      <c r="AE198" s="3"/>
+      <c r="AF198" s="3"/>
+      <c r="AG198" s="3"/>
+      <c r="AH198" s="3"/>
+      <c r="AI198" s="3"/>
+      <c r="AJ198" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A199" s="8"/>
       <c r="B199" s="4">
         <v>0</v>
@@ -10313,12 +11829,18 @@
       <c r="AA199" s="3"/>
       <c r="AB199" s="3"/>
       <c r="AC199" s="3"/>
-      <c r="AD199" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD199" s="3"/>
+      <c r="AE199" s="3"/>
+      <c r="AF199" s="3"/>
+      <c r="AG199" s="3"/>
+      <c r="AH199" s="3"/>
+      <c r="AI199" s="3"/>
+      <c r="AJ199" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A200" s="8"/>
       <c r="B200" s="4">
         <v>0</v>
@@ -10352,12 +11874,18 @@
       <c r="AA200" s="3"/>
       <c r="AB200" s="3"/>
       <c r="AC200" s="3"/>
-      <c r="AD200" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD200" s="3"/>
+      <c r="AE200" s="3"/>
+      <c r="AF200" s="3"/>
+      <c r="AG200" s="3"/>
+      <c r="AH200" s="3"/>
+      <c r="AI200" s="3"/>
+      <c r="AJ200" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A201" s="8"/>
       <c r="B201" s="4">
         <v>0</v>
@@ -10391,12 +11919,18 @@
       <c r="AA201" s="3"/>
       <c r="AB201" s="3"/>
       <c r="AC201" s="3"/>
-      <c r="AD201" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD201" s="3"/>
+      <c r="AE201" s="3"/>
+      <c r="AF201" s="3"/>
+      <c r="AG201" s="3"/>
+      <c r="AH201" s="3"/>
+      <c r="AI201" s="3"/>
+      <c r="AJ201" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A202" s="8"/>
       <c r="B202" s="4">
         <v>0</v>
@@ -10430,12 +11964,18 @@
       <c r="AA202" s="3"/>
       <c r="AB202" s="3"/>
       <c r="AC202" s="3"/>
-      <c r="AD202" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD202" s="3"/>
+      <c r="AE202" s="3"/>
+      <c r="AF202" s="3"/>
+      <c r="AG202" s="3"/>
+      <c r="AH202" s="3"/>
+      <c r="AI202" s="3"/>
+      <c r="AJ202" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A203" s="8"/>
       <c r="B203" s="4">
         <v>0</v>
@@ -10469,12 +12009,18 @@
       <c r="AA203" s="3"/>
       <c r="AB203" s="3"/>
       <c r="AC203" s="3"/>
-      <c r="AD203" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD203" s="3"/>
+      <c r="AE203" s="3"/>
+      <c r="AF203" s="3"/>
+      <c r="AG203" s="3"/>
+      <c r="AH203" s="3"/>
+      <c r="AI203" s="3"/>
+      <c r="AJ203" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A204" s="8"/>
       <c r="B204" s="4">
         <v>0</v>
@@ -10508,12 +12054,18 @@
       <c r="AA204" s="3"/>
       <c r="AB204" s="3"/>
       <c r="AC204" s="3"/>
-      <c r="AD204" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD204" s="3"/>
+      <c r="AE204" s="3"/>
+      <c r="AF204" s="3"/>
+      <c r="AG204" s="3"/>
+      <c r="AH204" s="3"/>
+      <c r="AI204" s="3"/>
+      <c r="AJ204" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A205" s="8"/>
       <c r="B205" s="4">
         <v>0</v>
@@ -10547,12 +12099,18 @@
       <c r="AA205" s="3"/>
       <c r="AB205" s="3"/>
       <c r="AC205" s="3"/>
-      <c r="AD205" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD205" s="3"/>
+      <c r="AE205" s="3"/>
+      <c r="AF205" s="3"/>
+      <c r="AG205" s="3"/>
+      <c r="AH205" s="3"/>
+      <c r="AI205" s="3"/>
+      <c r="AJ205" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A206" s="8"/>
       <c r="B206" s="4">
         <v>0</v>
@@ -10586,12 +12144,18 @@
       <c r="AA206" s="3"/>
       <c r="AB206" s="3"/>
       <c r="AC206" s="3"/>
-      <c r="AD206" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD206" s="3"/>
+      <c r="AE206" s="3"/>
+      <c r="AF206" s="3"/>
+      <c r="AG206" s="3"/>
+      <c r="AH206" s="3"/>
+      <c r="AI206" s="3"/>
+      <c r="AJ206" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A207" s="8"/>
       <c r="B207" s="4">
         <v>0</v>
@@ -10625,12 +12189,18 @@
       <c r="AA207" s="3"/>
       <c r="AB207" s="3"/>
       <c r="AC207" s="3"/>
-      <c r="AD207" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD207" s="3"/>
+      <c r="AE207" s="3"/>
+      <c r="AF207" s="3"/>
+      <c r="AG207" s="3"/>
+      <c r="AH207" s="3"/>
+      <c r="AI207" s="3"/>
+      <c r="AJ207" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A208" s="8"/>
       <c r="B208" s="4">
         <v>0</v>
@@ -10664,12 +12234,18 @@
       <c r="AA208" s="3"/>
       <c r="AB208" s="3"/>
       <c r="AC208" s="3"/>
-      <c r="AD208" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD208" s="3"/>
+      <c r="AE208" s="3"/>
+      <c r="AF208" s="3"/>
+      <c r="AG208" s="3"/>
+      <c r="AH208" s="3"/>
+      <c r="AI208" s="3"/>
+      <c r="AJ208" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A209" s="8"/>
       <c r="B209" s="4">
         <v>0</v>
@@ -10703,12 +12279,18 @@
       <c r="AA209" s="3"/>
       <c r="AB209" s="3"/>
       <c r="AC209" s="3"/>
-      <c r="AD209" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD209" s="3"/>
+      <c r="AE209" s="3"/>
+      <c r="AF209" s="3"/>
+      <c r="AG209" s="3"/>
+      <c r="AH209" s="3"/>
+      <c r="AI209" s="3"/>
+      <c r="AJ209" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A210" s="8"/>
       <c r="B210" s="4">
         <v>0</v>
@@ -10742,12 +12324,18 @@
       <c r="AA210" s="3"/>
       <c r="AB210" s="3"/>
       <c r="AC210" s="3"/>
-      <c r="AD210" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD210" s="3"/>
+      <c r="AE210" s="3"/>
+      <c r="AF210" s="3"/>
+      <c r="AG210" s="3"/>
+      <c r="AH210" s="3"/>
+      <c r="AI210" s="3"/>
+      <c r="AJ210" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A211" s="8"/>
       <c r="B211" s="4">
         <v>0</v>
@@ -10781,12 +12369,18 @@
       <c r="AA211" s="3"/>
       <c r="AB211" s="3"/>
       <c r="AC211" s="3"/>
-      <c r="AD211" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD211" s="3"/>
+      <c r="AE211" s="3"/>
+      <c r="AF211" s="3"/>
+      <c r="AG211" s="3"/>
+      <c r="AH211" s="3"/>
+      <c r="AI211" s="3"/>
+      <c r="AJ211" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A212" s="8"/>
       <c r="B212" s="4">
         <v>0</v>
@@ -10820,12 +12414,18 @@
       <c r="AA212" s="3"/>
       <c r="AB212" s="3"/>
       <c r="AC212" s="3"/>
-      <c r="AD212" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD212" s="3"/>
+      <c r="AE212" s="3"/>
+      <c r="AF212" s="3"/>
+      <c r="AG212" s="3"/>
+      <c r="AH212" s="3"/>
+      <c r="AI212" s="3"/>
+      <c r="AJ212" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A213" s="8"/>
       <c r="B213" s="4">
         <v>0</v>
@@ -10859,12 +12459,18 @@
       <c r="AA213" s="3"/>
       <c r="AB213" s="3"/>
       <c r="AC213" s="3"/>
-      <c r="AD213" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD213" s="3"/>
+      <c r="AE213" s="3"/>
+      <c r="AF213" s="3"/>
+      <c r="AG213" s="3"/>
+      <c r="AH213" s="3"/>
+      <c r="AI213" s="3"/>
+      <c r="AJ213" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A214" s="8"/>
       <c r="B214" s="4">
         <v>0</v>
@@ -10898,12 +12504,18 @@
       <c r="AA214" s="3"/>
       <c r="AB214" s="3"/>
       <c r="AC214" s="3"/>
-      <c r="AD214" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD214" s="3"/>
+      <c r="AE214" s="3"/>
+      <c r="AF214" s="3"/>
+      <c r="AG214" s="3"/>
+      <c r="AH214" s="3"/>
+      <c r="AI214" s="3"/>
+      <c r="AJ214" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A215" s="8"/>
       <c r="B215" s="4">
         <v>0</v>
@@ -10937,12 +12549,18 @@
       <c r="AA215" s="3"/>
       <c r="AB215" s="3"/>
       <c r="AC215" s="3"/>
-      <c r="AD215" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD215" s="3"/>
+      <c r="AE215" s="3"/>
+      <c r="AF215" s="3"/>
+      <c r="AG215" s="3"/>
+      <c r="AH215" s="3"/>
+      <c r="AI215" s="3"/>
+      <c r="AJ215" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A216" s="8"/>
       <c r="B216" s="4">
         <v>0</v>
@@ -10976,12 +12594,18 @@
       <c r="AA216" s="3"/>
       <c r="AB216" s="3"/>
       <c r="AC216" s="3"/>
-      <c r="AD216" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD216" s="3"/>
+      <c r="AE216" s="3"/>
+      <c r="AF216" s="3"/>
+      <c r="AG216" s="3"/>
+      <c r="AH216" s="3"/>
+      <c r="AI216" s="3"/>
+      <c r="AJ216" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A217" s="8"/>
       <c r="B217" s="4">
         <v>0</v>
@@ -11015,12 +12639,18 @@
       <c r="AA217" s="3"/>
       <c r="AB217" s="3"/>
       <c r="AC217" s="3"/>
-      <c r="AD217" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD217" s="3"/>
+      <c r="AE217" s="3"/>
+      <c r="AF217" s="3"/>
+      <c r="AG217" s="3"/>
+      <c r="AH217" s="3"/>
+      <c r="AI217" s="3"/>
+      <c r="AJ217" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A218" s="8"/>
       <c r="B218" s="4">
         <v>0</v>
@@ -11054,12 +12684,18 @@
       <c r="AA218" s="3"/>
       <c r="AB218" s="3"/>
       <c r="AC218" s="3"/>
-      <c r="AD218" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD218" s="3"/>
+      <c r="AE218" s="3"/>
+      <c r="AF218" s="3"/>
+      <c r="AG218" s="3"/>
+      <c r="AH218" s="3"/>
+      <c r="AI218" s="3"/>
+      <c r="AJ218" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A219" s="8"/>
       <c r="B219" s="4">
         <v>0</v>
@@ -11093,12 +12729,18 @@
       <c r="AA219" s="3"/>
       <c r="AB219" s="3"/>
       <c r="AC219" s="3"/>
-      <c r="AD219" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD219" s="3"/>
+      <c r="AE219" s="3"/>
+      <c r="AF219" s="3"/>
+      <c r="AG219" s="3"/>
+      <c r="AH219" s="3"/>
+      <c r="AI219" s="3"/>
+      <c r="AJ219" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A220" s="8"/>
       <c r="B220" s="4">
         <v>0</v>
@@ -11132,12 +12774,18 @@
       <c r="AA220" s="3"/>
       <c r="AB220" s="3"/>
       <c r="AC220" s="3"/>
-      <c r="AD220" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD220" s="3"/>
+      <c r="AE220" s="3"/>
+      <c r="AF220" s="3"/>
+      <c r="AG220" s="3"/>
+      <c r="AH220" s="3"/>
+      <c r="AI220" s="3"/>
+      <c r="AJ220" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A221" s="8"/>
       <c r="B221" s="4">
         <v>0</v>
@@ -11171,12 +12819,18 @@
       <c r="AA221" s="3"/>
       <c r="AB221" s="3"/>
       <c r="AC221" s="3"/>
-      <c r="AD221" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD221" s="3"/>
+      <c r="AE221" s="3"/>
+      <c r="AF221" s="3"/>
+      <c r="AG221" s="3"/>
+      <c r="AH221" s="3"/>
+      <c r="AI221" s="3"/>
+      <c r="AJ221" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A222" s="8"/>
       <c r="B222" s="4">
         <v>0</v>
@@ -11210,12 +12864,18 @@
       <c r="AA222" s="3"/>
       <c r="AB222" s="3"/>
       <c r="AC222" s="3"/>
-      <c r="AD222" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD222" s="3"/>
+      <c r="AE222" s="3"/>
+      <c r="AF222" s="3"/>
+      <c r="AG222" s="3"/>
+      <c r="AH222" s="3"/>
+      <c r="AI222" s="3"/>
+      <c r="AJ222" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A223" s="8"/>
       <c r="B223" s="4">
         <v>0</v>
@@ -11249,12 +12909,18 @@
       <c r="AA223" s="3"/>
       <c r="AB223" s="3"/>
       <c r="AC223" s="3"/>
-      <c r="AD223" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD223" s="3"/>
+      <c r="AE223" s="3"/>
+      <c r="AF223" s="3"/>
+      <c r="AG223" s="3"/>
+      <c r="AH223" s="3"/>
+      <c r="AI223" s="3"/>
+      <c r="AJ223" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A224" s="8"/>
       <c r="B224" s="4">
         <v>0</v>
@@ -11288,12 +12954,18 @@
       <c r="AA224" s="3"/>
       <c r="AB224" s="3"/>
       <c r="AC224" s="3"/>
-      <c r="AD224" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD224" s="3"/>
+      <c r="AE224" s="3"/>
+      <c r="AF224" s="3"/>
+      <c r="AG224" s="3"/>
+      <c r="AH224" s="3"/>
+      <c r="AI224" s="3"/>
+      <c r="AJ224" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A225" s="8"/>
       <c r="B225" s="4">
         <v>0</v>
@@ -11327,12 +12999,18 @@
       <c r="AA225" s="3"/>
       <c r="AB225" s="3"/>
       <c r="AC225" s="3"/>
-      <c r="AD225" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD225" s="3"/>
+      <c r="AE225" s="3"/>
+      <c r="AF225" s="3"/>
+      <c r="AG225" s="3"/>
+      <c r="AH225" s="3"/>
+      <c r="AI225" s="3"/>
+      <c r="AJ225" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A226" s="8"/>
       <c r="B226" s="4">
         <v>0</v>
@@ -11366,12 +13044,18 @@
       <c r="AA226" s="3"/>
       <c r="AB226" s="3"/>
       <c r="AC226" s="3"/>
-      <c r="AD226" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD226" s="3"/>
+      <c r="AE226" s="3"/>
+      <c r="AF226" s="3"/>
+      <c r="AG226" s="3"/>
+      <c r="AH226" s="3"/>
+      <c r="AI226" s="3"/>
+      <c r="AJ226" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A227" s="8"/>
       <c r="B227" s="4">
         <v>0</v>
@@ -11405,12 +13089,18 @@
       <c r="AA227" s="3"/>
       <c r="AB227" s="3"/>
       <c r="AC227" s="3"/>
-      <c r="AD227" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD227" s="3"/>
+      <c r="AE227" s="3"/>
+      <c r="AF227" s="3"/>
+      <c r="AG227" s="3"/>
+      <c r="AH227" s="3"/>
+      <c r="AI227" s="3"/>
+      <c r="AJ227" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A228" s="8"/>
       <c r="B228" s="4">
         <v>0</v>
@@ -11444,12 +13134,18 @@
       <c r="AA228" s="3"/>
       <c r="AB228" s="3"/>
       <c r="AC228" s="3"/>
-      <c r="AD228" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD228" s="3"/>
+      <c r="AE228" s="3"/>
+      <c r="AF228" s="3"/>
+      <c r="AG228" s="3"/>
+      <c r="AH228" s="3"/>
+      <c r="AI228" s="3"/>
+      <c r="AJ228" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A229" s="8"/>
       <c r="B229" s="4">
         <v>0</v>
@@ -11483,12 +13179,18 @@
       <c r="AA229" s="3"/>
       <c r="AB229" s="3"/>
       <c r="AC229" s="3"/>
-      <c r="AD229" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD229" s="3"/>
+      <c r="AE229" s="3"/>
+      <c r="AF229" s="3"/>
+      <c r="AG229" s="3"/>
+      <c r="AH229" s="3"/>
+      <c r="AI229" s="3"/>
+      <c r="AJ229" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A230" s="8"/>
       <c r="B230" s="4">
         <v>0</v>
@@ -11522,12 +13224,18 @@
       <c r="AA230" s="3"/>
       <c r="AB230" s="3"/>
       <c r="AC230" s="3"/>
-      <c r="AD230" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD230" s="3"/>
+      <c r="AE230" s="3"/>
+      <c r="AF230" s="3"/>
+      <c r="AG230" s="3"/>
+      <c r="AH230" s="3"/>
+      <c r="AI230" s="3"/>
+      <c r="AJ230" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A231" s="8"/>
       <c r="B231" s="4">
         <v>0</v>
@@ -11561,12 +13269,18 @@
       <c r="AA231" s="3"/>
       <c r="AB231" s="3"/>
       <c r="AC231" s="3"/>
-      <c r="AD231" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD231" s="3"/>
+      <c r="AE231" s="3"/>
+      <c r="AF231" s="3"/>
+      <c r="AG231" s="3"/>
+      <c r="AH231" s="3"/>
+      <c r="AI231" s="3"/>
+      <c r="AJ231" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A232" s="8"/>
       <c r="B232" s="4">
         <v>0</v>
@@ -11600,12 +13314,18 @@
       <c r="AA232" s="3"/>
       <c r="AB232" s="3"/>
       <c r="AC232" s="3"/>
-      <c r="AD232" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD232" s="3"/>
+      <c r="AE232" s="3"/>
+      <c r="AF232" s="3"/>
+      <c r="AG232" s="3"/>
+      <c r="AH232" s="3"/>
+      <c r="AI232" s="3"/>
+      <c r="AJ232" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A233" s="8"/>
       <c r="B233" s="4">
         <v>0</v>
@@ -11639,12 +13359,18 @@
       <c r="AA233" s="3"/>
       <c r="AB233" s="3"/>
       <c r="AC233" s="3"/>
-      <c r="AD233" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD233" s="3"/>
+      <c r="AE233" s="3"/>
+      <c r="AF233" s="3"/>
+      <c r="AG233" s="3"/>
+      <c r="AH233" s="3"/>
+      <c r="AI233" s="3"/>
+      <c r="AJ233" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A234" s="8"/>
       <c r="B234" s="4">
         <v>0</v>
@@ -11678,12 +13404,18 @@
       <c r="AA234" s="3"/>
       <c r="AB234" s="3"/>
       <c r="AC234" s="3"/>
-      <c r="AD234" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD234" s="3"/>
+      <c r="AE234" s="3"/>
+      <c r="AF234" s="3"/>
+      <c r="AG234" s="3"/>
+      <c r="AH234" s="3"/>
+      <c r="AI234" s="3"/>
+      <c r="AJ234" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A235" s="8"/>
       <c r="B235" s="4">
         <v>0</v>
@@ -11717,12 +13449,18 @@
       <c r="AA235" s="3"/>
       <c r="AB235" s="3"/>
       <c r="AC235" s="3"/>
-      <c r="AD235" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD235" s="3"/>
+      <c r="AE235" s="3"/>
+      <c r="AF235" s="3"/>
+      <c r="AG235" s="3"/>
+      <c r="AH235" s="3"/>
+      <c r="AI235" s="3"/>
+      <c r="AJ235" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A236" s="8"/>
       <c r="B236" s="4">
         <v>0</v>
@@ -11756,12 +13494,18 @@
       <c r="AA236" s="3"/>
       <c r="AB236" s="3"/>
       <c r="AC236" s="3"/>
-      <c r="AD236" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD236" s="3"/>
+      <c r="AE236" s="3"/>
+      <c r="AF236" s="3"/>
+      <c r="AG236" s="3"/>
+      <c r="AH236" s="3"/>
+      <c r="AI236" s="3"/>
+      <c r="AJ236" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A237" s="8"/>
       <c r="B237" s="4">
         <v>0</v>
@@ -11795,12 +13539,18 @@
       <c r="AA237" s="3"/>
       <c r="AB237" s="3"/>
       <c r="AC237" s="3"/>
-      <c r="AD237" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD237" s="3"/>
+      <c r="AE237" s="3"/>
+      <c r="AF237" s="3"/>
+      <c r="AG237" s="3"/>
+      <c r="AH237" s="3"/>
+      <c r="AI237" s="3"/>
+      <c r="AJ237" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A238" s="8"/>
       <c r="B238" s="4">
         <v>0</v>
@@ -11834,12 +13584,18 @@
       <c r="AA238" s="3"/>
       <c r="AB238" s="3"/>
       <c r="AC238" s="3"/>
-      <c r="AD238" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD238" s="3"/>
+      <c r="AE238" s="3"/>
+      <c r="AF238" s="3"/>
+      <c r="AG238" s="3"/>
+      <c r="AH238" s="3"/>
+      <c r="AI238" s="3"/>
+      <c r="AJ238" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A239" s="8"/>
       <c r="B239" s="4">
         <v>0</v>
@@ -11873,12 +13629,18 @@
       <c r="AA239" s="3"/>
       <c r="AB239" s="3"/>
       <c r="AC239" s="3"/>
-      <c r="AD239" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD239" s="3"/>
+      <c r="AE239" s="3"/>
+      <c r="AF239" s="3"/>
+      <c r="AG239" s="3"/>
+      <c r="AH239" s="3"/>
+      <c r="AI239" s="3"/>
+      <c r="AJ239" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A240" s="8"/>
       <c r="B240" s="4">
         <v>0</v>
@@ -11912,12 +13674,18 @@
       <c r="AA240" s="3"/>
       <c r="AB240" s="3"/>
       <c r="AC240" s="3"/>
-      <c r="AD240" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD240" s="3"/>
+      <c r="AE240" s="3"/>
+      <c r="AF240" s="3"/>
+      <c r="AG240" s="3"/>
+      <c r="AH240" s="3"/>
+      <c r="AI240" s="3"/>
+      <c r="AJ240" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A241" s="8"/>
       <c r="B241" s="4">
         <v>0</v>
@@ -11951,12 +13719,18 @@
       <c r="AA241" s="3"/>
       <c r="AB241" s="3"/>
       <c r="AC241" s="3"/>
-      <c r="AD241" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD241" s="3"/>
+      <c r="AE241" s="3"/>
+      <c r="AF241" s="3"/>
+      <c r="AG241" s="3"/>
+      <c r="AH241" s="3"/>
+      <c r="AI241" s="3"/>
+      <c r="AJ241" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A242" s="8"/>
       <c r="B242" s="4">
         <v>0</v>
@@ -11990,12 +13764,18 @@
       <c r="AA242" s="3"/>
       <c r="AB242" s="3"/>
       <c r="AC242" s="3"/>
-      <c r="AD242" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD242" s="3"/>
+      <c r="AE242" s="3"/>
+      <c r="AF242" s="3"/>
+      <c r="AG242" s="3"/>
+      <c r="AH242" s="3"/>
+      <c r="AI242" s="3"/>
+      <c r="AJ242" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A243" s="8"/>
       <c r="B243" s="4">
         <v>0</v>
@@ -12029,12 +13809,18 @@
       <c r="AA243" s="3"/>
       <c r="AB243" s="3"/>
       <c r="AC243" s="3"/>
-      <c r="AD243" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD243" s="3"/>
+      <c r="AE243" s="3"/>
+      <c r="AF243" s="3"/>
+      <c r="AG243" s="3"/>
+      <c r="AH243" s="3"/>
+      <c r="AI243" s="3"/>
+      <c r="AJ243" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A244" s="8"/>
       <c r="B244" s="4">
         <v>0</v>
@@ -12068,12 +13854,18 @@
       <c r="AA244" s="3"/>
       <c r="AB244" s="3"/>
       <c r="AC244" s="3"/>
-      <c r="AD244" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD244" s="3"/>
+      <c r="AE244" s="3"/>
+      <c r="AF244" s="3"/>
+      <c r="AG244" s="3"/>
+      <c r="AH244" s="3"/>
+      <c r="AI244" s="3"/>
+      <c r="AJ244" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A245" s="8"/>
       <c r="B245" s="4">
         <v>0</v>
@@ -12107,12 +13899,18 @@
       <c r="AA245" s="3"/>
       <c r="AB245" s="3"/>
       <c r="AC245" s="3"/>
-      <c r="AD245" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD245" s="3"/>
+      <c r="AE245" s="3"/>
+      <c r="AF245" s="3"/>
+      <c r="AG245" s="3"/>
+      <c r="AH245" s="3"/>
+      <c r="AI245" s="3"/>
+      <c r="AJ245" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A246" s="8"/>
       <c r="B246" s="4">
         <v>0</v>
@@ -12146,12 +13944,18 @@
       <c r="AA246" s="3"/>
       <c r="AB246" s="3"/>
       <c r="AC246" s="3"/>
-      <c r="AD246" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD246" s="3"/>
+      <c r="AE246" s="3"/>
+      <c r="AF246" s="3"/>
+      <c r="AG246" s="3"/>
+      <c r="AH246" s="3"/>
+      <c r="AI246" s="3"/>
+      <c r="AJ246" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A247" s="8"/>
       <c r="B247" s="4">
         <v>0</v>
@@ -12185,12 +13989,18 @@
       <c r="AA247" s="3"/>
       <c r="AB247" s="3"/>
       <c r="AC247" s="3"/>
-      <c r="AD247" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD247" s="3"/>
+      <c r="AE247" s="3"/>
+      <c r="AF247" s="3"/>
+      <c r="AG247" s="3"/>
+      <c r="AH247" s="3"/>
+      <c r="AI247" s="3"/>
+      <c r="AJ247" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A248" s="8"/>
       <c r="B248" s="4">
         <v>0</v>
@@ -12224,12 +14034,18 @@
       <c r="AA248" s="3"/>
       <c r="AB248" s="3"/>
       <c r="AC248" s="3"/>
-      <c r="AD248" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD248" s="3"/>
+      <c r="AE248" s="3"/>
+      <c r="AF248" s="3"/>
+      <c r="AG248" s="3"/>
+      <c r="AH248" s="3"/>
+      <c r="AI248" s="3"/>
+      <c r="AJ248" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A249" s="8"/>
       <c r="B249" s="4">
         <v>0</v>
@@ -12263,12 +14079,18 @@
       <c r="AA249" s="3"/>
       <c r="AB249" s="3"/>
       <c r="AC249" s="3"/>
-      <c r="AD249" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD249" s="3"/>
+      <c r="AE249" s="3"/>
+      <c r="AF249" s="3"/>
+      <c r="AG249" s="3"/>
+      <c r="AH249" s="3"/>
+      <c r="AI249" s="3"/>
+      <c r="AJ249" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A250" s="11"/>
       <c r="B250" s="12"/>
       <c r="C250" s="15"/>
@@ -12298,12 +14120,18 @@
       <c r="AA250" s="13"/>
       <c r="AB250" s="13"/>
       <c r="AC250" s="13"/>
-      <c r="AD250" s="14">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD250" s="13"/>
+      <c r="AE250" s="13"/>
+      <c r="AF250" s="13"/>
+      <c r="AG250" s="13"/>
+      <c r="AH250" s="13"/>
+      <c r="AI250" s="13"/>
+      <c r="AJ250" s="14">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A251" s="8"/>
       <c r="B251" s="4">
         <v>0</v>
@@ -12337,25 +14165,31 @@
       <c r="AA251" s="3"/>
       <c r="AB251" s="3"/>
       <c r="AC251" s="3"/>
-      <c r="AD251" s="10">
+      <c r="AD251" s="3"/>
+      <c r="AE251" s="3"/>
+      <c r="AF251" s="3"/>
+      <c r="AG251" s="3"/>
+      <c r="AH251" s="3"/>
+      <c r="AI251" s="3"/>
+      <c r="AJ251" s="10">
         <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:AC200">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="E2:AI200">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E201:AC251">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="E201:AI251">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/main/resources/templates/roastatstemplate.xlsx
+++ b/src/main/resources/templates/roastatstemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Jugador</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>Wampa</t>
+  </si>
+  <si>
+    <t>RJT</t>
+  </si>
+  <si>
+    <t>RJT+</t>
   </si>
 </sst>
 </file>
@@ -270,7 +276,7 @@
     <cellStyle name="Millares 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="86">
     <dxf>
       <font>
         <b val="0"/>
@@ -332,6 +338,26 @@
         </top>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -451,6 +477,373 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -623,6 +1016,342 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -685,429 +1414,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1450,6 +1756,68 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1674,33 +2042,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1715,7 +2056,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1725,202 +2066,11 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2458,27 +2608,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:AJ251" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78" totalsRowDxfId="76" tableBorderDxfId="77">
-  <autoFilter ref="A1:AJ251"/>
-  <sortState ref="A2:AL197">
-    <sortCondition descending="1" ref="AJ1:AJ197"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:AL251" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84" totalsRowDxfId="82" tableBorderDxfId="83">
+  <autoFilter ref="A1:AL251"/>
+  <sortState ref="A2:AN197">
+    <sortCondition descending="1" ref="AL1:AL197"/>
   </sortState>
-  <tableColumns count="36">
-    <tableColumn id="1" name="Jugador" dataDxfId="75" totalsRowDxfId="74"/>
-    <tableColumn id="2" name="PG" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="24" name="Arena" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="22" name="Gremio" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="4" name="CLS" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="17" name="CLS+" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="29" name="GK" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="30" name="GK+" dataDxfId="12" totalsRowDxfId="13"/>
-    <tableColumn id="31" name="BB8" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="5" name="Chan 5*" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="18" name="Chan 7*" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="6" name="ERH 6*" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="7" name="SRH 5*" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="3" name="ROLO" dataDxfId="14" totalsRowDxfId="15"/>
-    <tableColumn id="34" name="Hermit Yoda" dataDxfId="8" totalsRowDxfId="9"/>
+  <tableColumns count="38">
+    <tableColumn id="1" name="Jugador" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="2" name="PG" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="24" name="Arena" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="22" name="Gremio" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="4" name="CLS" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="17" name="CLS+" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="29" name="GK" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="30" name="GK+" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="31" name="BB8" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="37" name="RJT" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="38" name="RJT+" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="5" name="Chan 5*" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="18" name="Chan 7*" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="6" name="ERH 6*" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="7" name="SRH 5*" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="3" name="ROLO" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="34" name="Hermit Yoda" dataDxfId="53" totalsRowDxfId="52"/>
     <tableColumn id="8" name="Rogue One" dataDxfId="51" totalsRowDxfId="50"/>
     <tableColumn id="9" name="Fénix" dataDxfId="49" totalsRowDxfId="48"/>
     <tableColumn id="21" name="Naves 6*" dataDxfId="47" totalsRowDxfId="46"/>
@@ -2491,15 +2643,15 @@
     <tableColumn id="25" name="S.Nieves 7*" dataDxfId="33" totalsRowDxfId="32"/>
     <tableColumn id="27" name="Starck 5*" dataDxfId="31" totalsRowDxfId="30"/>
     <tableColumn id="28" name="Starck 7*" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="35" name="Imp. Probe Droid" dataDxfId="6" totalsRowDxfId="7"/>
-    <tableColumn id="36" name="Wampa" dataDxfId="0" totalsRowDxfId="1"/>
-    <tableColumn id="33" name="S. Imperiales" dataDxfId="10" totalsRowDxfId="11"/>
-    <tableColumn id="14" name="Cazarrecompensas" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="15" name="Executrix 6*" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="23" name="Executrix 7*" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="20" name="Chimera 5*" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="16" name="Chimera 7*" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="19" name="Total" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="35" name="Imp. Probe Droid" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="36" name="Wampa" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="33" name="S. Imperiales" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="14" name="Cazarrecompensas" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="15" name="Executrix 6*" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="23" name="Executrix 7*" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="20" name="Chimera 5*" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="16" name="Chimera 7*" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="19" name="Total" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2794,12 +2946,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ251"/>
+  <dimension ref="A1:AL251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A93" sqref="A93"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2807,20 +2959,20 @@
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="10" customWidth="1"/>
-    <col min="10" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" customWidth="1"/>
-    <col min="20" max="21" width="10.5703125" customWidth="1"/>
-    <col min="22" max="23" width="10.85546875" customWidth="1"/>
-    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="30" width="11" customWidth="1"/>
-    <col min="31" max="31" width="11.140625" customWidth="1"/>
-    <col min="32" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="15.5703125" customWidth="1"/>
+    <col min="5" max="11" width="10" customWidth="1"/>
+    <col min="12" max="19" width="9.140625" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1"/>
+    <col min="22" max="23" width="10.5703125" customWidth="1"/>
+    <col min="24" max="25" width="10.85546875" customWidth="1"/>
+    <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="32" width="11" customWidth="1"/>
+    <col min="33" max="33" width="11.140625" customWidth="1"/>
+    <col min="34" max="36" width="13" customWidth="1"/>
+    <col min="37" max="37" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2849,88 +3001,94 @@
         <v>27</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AL1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="4">
         <v>0</v>
@@ -2970,12 +3128,14 @@
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
-      <c r="AJ2" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="4">
         <v>0</v>
@@ -3015,12 +3175,14 @@
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
-      <c r="AJ3" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="4">
         <v>0</v>
@@ -3060,12 +3222,14 @@
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
       <c r="AI4" s="3"/>
-      <c r="AJ4" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="4">
         <v>0</v>
@@ -3105,12 +3269,14 @@
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
-      <c r="AJ5" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="4">
         <v>0</v>
@@ -3150,12 +3316,14 @@
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
-      <c r="AJ6" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="4">
         <v>0</v>
@@ -3195,12 +3363,14 @@
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
-      <c r="AJ7" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="4">
         <v>0</v>
@@ -3240,12 +3410,14 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
-      <c r="AJ8" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="4">
         <v>0</v>
@@ -3285,12 +3457,14 @@
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
-      <c r="AJ9" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="4">
         <v>0</v>
@@ -3330,12 +3504,14 @@
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
-      <c r="AJ10" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="4">
         <v>0</v>
@@ -3375,12 +3551,14 @@
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
-      <c r="AJ11" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="4">
         <v>0</v>
@@ -3420,12 +3598,14 @@
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
-      <c r="AJ12" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="4">
         <v>0</v>
@@ -3465,12 +3645,14 @@
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
-      <c r="AJ13" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="4">
         <v>0</v>
@@ -3510,12 +3692,14 @@
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
-      <c r="AJ14" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="4">
         <v>0</v>
@@ -3555,12 +3739,14 @@
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
-      <c r="AJ15" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="4">
         <v>0</v>
@@ -3600,12 +3786,14 @@
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
-      <c r="AJ16" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="4">
         <v>0</v>
@@ -3645,12 +3833,14 @@
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
-      <c r="AJ17" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="4">
         <v>0</v>
@@ -3690,12 +3880,14 @@
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
-      <c r="AJ18" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="4">
         <v>0</v>
@@ -3735,12 +3927,14 @@
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
-      <c r="AJ19" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="4">
         <v>0</v>
@@ -3780,12 +3974,14 @@
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
-      <c r="AJ20" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="4">
         <v>0</v>
@@ -3825,12 +4021,14 @@
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
-      <c r="AJ21" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="4">
         <v>0</v>
@@ -3870,12 +4068,14 @@
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
-      <c r="AJ22" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="4">
         <v>0</v>
@@ -3915,12 +4115,14 @@
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
-      <c r="AJ23" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="4">
         <v>0</v>
@@ -3960,12 +4162,14 @@
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
-      <c r="AJ24" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="4">
         <v>0</v>
@@ -4005,12 +4209,14 @@
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
-      <c r="AJ25" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="4">
         <v>0</v>
@@ -4050,12 +4256,14 @@
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
-      <c r="AJ26" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="4">
         <v>0</v>
@@ -4095,12 +4303,14 @@
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
-      <c r="AJ27" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="4">
         <v>0</v>
@@ -4140,12 +4350,14 @@
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
       <c r="AI28" s="3"/>
-      <c r="AJ28" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="4">
         <v>0</v>
@@ -4185,12 +4397,14 @@
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
-      <c r="AJ29" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="4">
         <v>0</v>
@@ -4230,12 +4444,14 @@
       <c r="AG30" s="3"/>
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
-      <c r="AJ30" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="4">
         <v>0</v>
@@ -4275,12 +4491,14 @@
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
-      <c r="AJ31" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="4">
         <v>0</v>
@@ -4320,12 +4538,14 @@
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
       <c r="AI32" s="3"/>
-      <c r="AJ32" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="4">
         <v>0</v>
@@ -4365,12 +4585,14 @@
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
-      <c r="AJ33" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="4">
         <v>0</v>
@@ -4410,12 +4632,14 @@
       <c r="AG34" s="3"/>
       <c r="AH34" s="3"/>
       <c r="AI34" s="3"/>
-      <c r="AJ34" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="4">
         <v>0</v>
@@ -4455,12 +4679,14 @@
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
       <c r="AI35" s="3"/>
-      <c r="AJ35" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="4">
         <v>0</v>
@@ -4500,12 +4726,14 @@
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
       <c r="AI36" s="3"/>
-      <c r="AJ36" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="4">
         <v>0</v>
@@ -4545,12 +4773,14 @@
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
       <c r="AI37" s="3"/>
-      <c r="AJ37" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3"/>
+      <c r="AL37" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="4">
         <v>0</v>
@@ -4590,12 +4820,14 @@
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
       <c r="AI38" s="3"/>
-      <c r="AJ38" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="4">
         <v>0</v>
@@ -4635,12 +4867,14 @@
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="3"/>
-      <c r="AJ39" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ39" s="3"/>
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="4">
         <v>0</v>
@@ -4680,12 +4914,14 @@
       <c r="AG40" s="3"/>
       <c r="AH40" s="3"/>
       <c r="AI40" s="3"/>
-      <c r="AJ40" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ40" s="3"/>
+      <c r="AK40" s="3"/>
+      <c r="AL40" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="4">
         <v>0</v>
@@ -4725,12 +4961,14 @@
       <c r="AG41" s="3"/>
       <c r="AH41" s="3"/>
       <c r="AI41" s="3"/>
-      <c r="AJ41" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ41" s="3"/>
+      <c r="AK41" s="3"/>
+      <c r="AL41" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="4">
         <v>0</v>
@@ -4770,12 +5008,14 @@
       <c r="AG42" s="3"/>
       <c r="AH42" s="3"/>
       <c r="AI42" s="3"/>
-      <c r="AJ42" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ42" s="3"/>
+      <c r="AK42" s="3"/>
+      <c r="AL42" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="4">
         <v>0</v>
@@ -4815,12 +5055,14 @@
       <c r="AG43" s="3"/>
       <c r="AH43" s="3"/>
       <c r="AI43" s="3"/>
-      <c r="AJ43" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ43" s="3"/>
+      <c r="AK43" s="3"/>
+      <c r="AL43" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="4">
         <v>0</v>
@@ -4860,12 +5102,14 @@
       <c r="AG44" s="3"/>
       <c r="AH44" s="3"/>
       <c r="AI44" s="3"/>
-      <c r="AJ44" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ44" s="3"/>
+      <c r="AK44" s="3"/>
+      <c r="AL44" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="4">
         <v>0</v>
@@ -4905,12 +5149,14 @@
       <c r="AG45" s="3"/>
       <c r="AH45" s="3"/>
       <c r="AI45" s="3"/>
-      <c r="AJ45" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ45" s="3"/>
+      <c r="AK45" s="3"/>
+      <c r="AL45" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="4">
         <v>0</v>
@@ -4950,12 +5196,14 @@
       <c r="AG46" s="3"/>
       <c r="AH46" s="3"/>
       <c r="AI46" s="3"/>
-      <c r="AJ46" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ46" s="3"/>
+      <c r="AK46" s="3"/>
+      <c r="AL46" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="4">
         <v>0</v>
@@ -4995,12 +5243,14 @@
       <c r="AG47" s="3"/>
       <c r="AH47" s="3"/>
       <c r="AI47" s="3"/>
-      <c r="AJ47" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ47" s="3"/>
+      <c r="AK47" s="3"/>
+      <c r="AL47" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="4">
         <v>0</v>
@@ -5040,12 +5290,14 @@
       <c r="AG48" s="3"/>
       <c r="AH48" s="3"/>
       <c r="AI48" s="3"/>
-      <c r="AJ48" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ48" s="3"/>
+      <c r="AK48" s="3"/>
+      <c r="AL48" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="4">
         <v>0</v>
@@ -5085,12 +5337,14 @@
       <c r="AG49" s="3"/>
       <c r="AH49" s="3"/>
       <c r="AI49" s="3"/>
-      <c r="AJ49" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ49" s="3"/>
+      <c r="AK49" s="3"/>
+      <c r="AL49" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="4">
         <v>0</v>
@@ -5130,12 +5384,14 @@
       <c r="AG50" s="3"/>
       <c r="AH50" s="3"/>
       <c r="AI50" s="3"/>
-      <c r="AJ50" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ50" s="3"/>
+      <c r="AK50" s="3"/>
+      <c r="AL50" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="4">
         <v>0</v>
@@ -5175,12 +5431,14 @@
       <c r="AG51" s="3"/>
       <c r="AH51" s="3"/>
       <c r="AI51" s="3"/>
-      <c r="AJ51" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ51" s="3"/>
+      <c r="AK51" s="3"/>
+      <c r="AL51" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="4">
         <v>0</v>
@@ -5220,12 +5478,14 @@
       <c r="AG52" s="3"/>
       <c r="AH52" s="3"/>
       <c r="AI52" s="3"/>
-      <c r="AJ52" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ52" s="3"/>
+      <c r="AK52" s="3"/>
+      <c r="AL52" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="4">
         <v>0</v>
@@ -5265,12 +5525,14 @@
       <c r="AG53" s="3"/>
       <c r="AH53" s="3"/>
       <c r="AI53" s="3"/>
-      <c r="AJ53" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ53" s="3"/>
+      <c r="AK53" s="3"/>
+      <c r="AL53" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="4">
         <v>0</v>
@@ -5310,12 +5572,14 @@
       <c r="AG54" s="3"/>
       <c r="AH54" s="3"/>
       <c r="AI54" s="3"/>
-      <c r="AJ54" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ54" s="3"/>
+      <c r="AK54" s="3"/>
+      <c r="AL54" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="4">
         <v>0</v>
@@ -5355,12 +5619,14 @@
       <c r="AG55" s="3"/>
       <c r="AH55" s="3"/>
       <c r="AI55" s="3"/>
-      <c r="AJ55" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ55" s="3"/>
+      <c r="AK55" s="3"/>
+      <c r="AL55" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="4">
         <v>0</v>
@@ -5400,12 +5666,14 @@
       <c r="AG56" s="3"/>
       <c r="AH56" s="3"/>
       <c r="AI56" s="3"/>
-      <c r="AJ56" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ56" s="3"/>
+      <c r="AK56" s="3"/>
+      <c r="AL56" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="4">
         <v>0</v>
@@ -5445,12 +5713,14 @@
       <c r="AG57" s="3"/>
       <c r="AH57" s="3"/>
       <c r="AI57" s="3"/>
-      <c r="AJ57" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ57" s="3"/>
+      <c r="AK57" s="3"/>
+      <c r="AL57" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="4">
         <v>0</v>
@@ -5490,12 +5760,14 @@
       <c r="AG58" s="3"/>
       <c r="AH58" s="3"/>
       <c r="AI58" s="3"/>
-      <c r="AJ58" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ58" s="3"/>
+      <c r="AK58" s="3"/>
+      <c r="AL58" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="4">
         <v>0</v>
@@ -5535,12 +5807,14 @@
       <c r="AG59" s="3"/>
       <c r="AH59" s="3"/>
       <c r="AI59" s="3"/>
-      <c r="AJ59" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ59" s="3"/>
+      <c r="AK59" s="3"/>
+      <c r="AL59" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="4">
         <v>0</v>
@@ -5580,12 +5854,14 @@
       <c r="AG60" s="3"/>
       <c r="AH60" s="3"/>
       <c r="AI60" s="3"/>
-      <c r="AJ60" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ60" s="3"/>
+      <c r="AK60" s="3"/>
+      <c r="AL60" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="4">
         <v>0</v>
@@ -5625,12 +5901,14 @@
       <c r="AG61" s="3"/>
       <c r="AH61" s="3"/>
       <c r="AI61" s="3"/>
-      <c r="AJ61" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ61" s="3"/>
+      <c r="AK61" s="3"/>
+      <c r="AL61" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="4">
         <v>0</v>
@@ -5670,12 +5948,14 @@
       <c r="AG62" s="3"/>
       <c r="AH62" s="3"/>
       <c r="AI62" s="3"/>
-      <c r="AJ62" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ62" s="3"/>
+      <c r="AK62" s="3"/>
+      <c r="AL62" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="4">
         <v>0</v>
@@ -5715,12 +5995,14 @@
       <c r="AG63" s="3"/>
       <c r="AH63" s="3"/>
       <c r="AI63" s="3"/>
-      <c r="AJ63" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ63" s="3"/>
+      <c r="AK63" s="3"/>
+      <c r="AL63" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="4">
         <v>0</v>
@@ -5760,12 +6042,14 @@
       <c r="AG64" s="3"/>
       <c r="AH64" s="3"/>
       <c r="AI64" s="3"/>
-      <c r="AJ64" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ64" s="3"/>
+      <c r="AK64" s="3"/>
+      <c r="AL64" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="4">
         <v>0</v>
@@ -5805,12 +6089,14 @@
       <c r="AG65" s="3"/>
       <c r="AH65" s="3"/>
       <c r="AI65" s="3"/>
-      <c r="AJ65" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ65" s="3"/>
+      <c r="AK65" s="3"/>
+      <c r="AL65" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="4">
         <v>0</v>
@@ -5850,12 +6136,14 @@
       <c r="AG66" s="3"/>
       <c r="AH66" s="3"/>
       <c r="AI66" s="3"/>
-      <c r="AJ66" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ66" s="3"/>
+      <c r="AK66" s="3"/>
+      <c r="AL66" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="4">
         <v>0</v>
@@ -5895,12 +6183,14 @@
       <c r="AG67" s="3"/>
       <c r="AH67" s="3"/>
       <c r="AI67" s="3"/>
-      <c r="AJ67" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ67" s="3"/>
+      <c r="AK67" s="3"/>
+      <c r="AL67" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="4">
         <v>0</v>
@@ -5940,12 +6230,14 @@
       <c r="AG68" s="3"/>
       <c r="AH68" s="3"/>
       <c r="AI68" s="3"/>
-      <c r="AJ68" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ68" s="3"/>
+      <c r="AK68" s="3"/>
+      <c r="AL68" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="4">
         <v>0</v>
@@ -5985,12 +6277,14 @@
       <c r="AG69" s="3"/>
       <c r="AH69" s="3"/>
       <c r="AI69" s="3"/>
-      <c r="AJ69" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ69" s="3"/>
+      <c r="AK69" s="3"/>
+      <c r="AL69" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="4">
         <v>0</v>
@@ -6030,12 +6324,14 @@
       <c r="AG70" s="3"/>
       <c r="AH70" s="3"/>
       <c r="AI70" s="3"/>
-      <c r="AJ70" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ70" s="3"/>
+      <c r="AK70" s="3"/>
+      <c r="AL70" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="4">
         <v>0</v>
@@ -6075,12 +6371,14 @@
       <c r="AG71" s="3"/>
       <c r="AH71" s="3"/>
       <c r="AI71" s="3"/>
-      <c r="AJ71" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ71" s="3"/>
+      <c r="AK71" s="3"/>
+      <c r="AL71" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="4">
         <v>0</v>
@@ -6120,12 +6418,14 @@
       <c r="AG72" s="3"/>
       <c r="AH72" s="3"/>
       <c r="AI72" s="3"/>
-      <c r="AJ72" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ72" s="3"/>
+      <c r="AK72" s="3"/>
+      <c r="AL72" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="4">
         <v>0</v>
@@ -6165,12 +6465,14 @@
       <c r="AG73" s="3"/>
       <c r="AH73" s="3"/>
       <c r="AI73" s="3"/>
-      <c r="AJ73" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ73" s="3"/>
+      <c r="AK73" s="3"/>
+      <c r="AL73" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="4">
         <v>0</v>
@@ -6210,12 +6512,14 @@
       <c r="AG74" s="3"/>
       <c r="AH74" s="3"/>
       <c r="AI74" s="3"/>
-      <c r="AJ74" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ74" s="3"/>
+      <c r="AK74" s="3"/>
+      <c r="AL74" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="4">
         <v>0</v>
@@ -6255,12 +6559,14 @@
       <c r="AG75" s="3"/>
       <c r="AH75" s="3"/>
       <c r="AI75" s="3"/>
-      <c r="AJ75" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ75" s="3"/>
+      <c r="AK75" s="3"/>
+      <c r="AL75" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="4">
         <v>0</v>
@@ -6300,12 +6606,14 @@
       <c r="AG76" s="3"/>
       <c r="AH76" s="3"/>
       <c r="AI76" s="3"/>
-      <c r="AJ76" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ76" s="3"/>
+      <c r="AK76" s="3"/>
+      <c r="AL76" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="4">
         <v>0</v>
@@ -6345,12 +6653,14 @@
       <c r="AG77" s="3"/>
       <c r="AH77" s="3"/>
       <c r="AI77" s="3"/>
-      <c r="AJ77" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ77" s="3"/>
+      <c r="AK77" s="3"/>
+      <c r="AL77" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="4">
         <v>0</v>
@@ -6390,12 +6700,14 @@
       <c r="AG78" s="3"/>
       <c r="AH78" s="3"/>
       <c r="AI78" s="3"/>
-      <c r="AJ78" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ78" s="3"/>
+      <c r="AK78" s="3"/>
+      <c r="AL78" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="4">
         <v>0</v>
@@ -6435,12 +6747,14 @@
       <c r="AG79" s="3"/>
       <c r="AH79" s="3"/>
       <c r="AI79" s="3"/>
-      <c r="AJ79" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ79" s="3"/>
+      <c r="AK79" s="3"/>
+      <c r="AL79" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="4">
         <v>0</v>
@@ -6480,12 +6794,14 @@
       <c r="AG80" s="3"/>
       <c r="AH80" s="3"/>
       <c r="AI80" s="3"/>
-      <c r="AJ80" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ80" s="3"/>
+      <c r="AK80" s="3"/>
+      <c r="AL80" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="4">
         <v>0</v>
@@ -6525,12 +6841,14 @@
       <c r="AG81" s="3"/>
       <c r="AH81" s="3"/>
       <c r="AI81" s="3"/>
-      <c r="AJ81" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ81" s="3"/>
+      <c r="AK81" s="3"/>
+      <c r="AL81" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="4">
         <v>0</v>
@@ -6570,12 +6888,14 @@
       <c r="AG82" s="3"/>
       <c r="AH82" s="3"/>
       <c r="AI82" s="3"/>
-      <c r="AJ82" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ82" s="3"/>
+      <c r="AK82" s="3"/>
+      <c r="AL82" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="4">
         <v>0</v>
@@ -6615,12 +6935,14 @@
       <c r="AG83" s="3"/>
       <c r="AH83" s="3"/>
       <c r="AI83" s="3"/>
-      <c r="AJ83" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ83" s="3"/>
+      <c r="AK83" s="3"/>
+      <c r="AL83" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="4">
         <v>0</v>
@@ -6660,12 +6982,14 @@
       <c r="AG84" s="3"/>
       <c r="AH84" s="3"/>
       <c r="AI84" s="3"/>
-      <c r="AJ84" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ84" s="3"/>
+      <c r="AK84" s="3"/>
+      <c r="AL84" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="4">
         <v>0</v>
@@ -6705,12 +7029,14 @@
       <c r="AG85" s="3"/>
       <c r="AH85" s="3"/>
       <c r="AI85" s="3"/>
-      <c r="AJ85" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ85" s="3"/>
+      <c r="AK85" s="3"/>
+      <c r="AL85" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="4">
         <v>0</v>
@@ -6750,12 +7076,14 @@
       <c r="AG86" s="3"/>
       <c r="AH86" s="3"/>
       <c r="AI86" s="3"/>
-      <c r="AJ86" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ86" s="3"/>
+      <c r="AK86" s="3"/>
+      <c r="AL86" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="4">
         <v>0</v>
@@ -6795,12 +7123,14 @@
       <c r="AG87" s="3"/>
       <c r="AH87" s="3"/>
       <c r="AI87" s="3"/>
-      <c r="AJ87" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ87" s="3"/>
+      <c r="AK87" s="3"/>
+      <c r="AL87" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="4">
         <v>0</v>
@@ -6840,12 +7170,14 @@
       <c r="AG88" s="3"/>
       <c r="AH88" s="3"/>
       <c r="AI88" s="3"/>
-      <c r="AJ88" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ88" s="3"/>
+      <c r="AK88" s="3"/>
+      <c r="AL88" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="4">
         <v>0</v>
@@ -6885,12 +7217,14 @@
       <c r="AG89" s="3"/>
       <c r="AH89" s="3"/>
       <c r="AI89" s="3"/>
-      <c r="AJ89" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ89" s="3"/>
+      <c r="AK89" s="3"/>
+      <c r="AL89" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="4">
         <v>0</v>
@@ -6930,12 +7264,14 @@
       <c r="AG90" s="3"/>
       <c r="AH90" s="3"/>
       <c r="AI90" s="3"/>
-      <c r="AJ90" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ90" s="3"/>
+      <c r="AK90" s="3"/>
+      <c r="AL90" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="4">
         <v>0</v>
@@ -6975,12 +7311,14 @@
       <c r="AG91" s="3"/>
       <c r="AH91" s="3"/>
       <c r="AI91" s="3"/>
-      <c r="AJ91" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ91" s="3"/>
+      <c r="AK91" s="3"/>
+      <c r="AL91" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="4">
         <v>0</v>
@@ -7020,12 +7358,14 @@
       <c r="AG92" s="3"/>
       <c r="AH92" s="3"/>
       <c r="AI92" s="3"/>
-      <c r="AJ92" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ92" s="3"/>
+      <c r="AK92" s="3"/>
+      <c r="AL92" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="4">
         <v>0</v>
@@ -7065,12 +7405,14 @@
       <c r="AG93" s="3"/>
       <c r="AH93" s="3"/>
       <c r="AI93" s="3"/>
-      <c r="AJ93" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ93" s="3"/>
+      <c r="AK93" s="3"/>
+      <c r="AL93" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="4">
         <v>0</v>
@@ -7110,12 +7452,14 @@
       <c r="AG94" s="3"/>
       <c r="AH94" s="3"/>
       <c r="AI94" s="3"/>
-      <c r="AJ94" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ94" s="3"/>
+      <c r="AK94" s="3"/>
+      <c r="AL94" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="4">
         <v>0</v>
@@ -7155,12 +7499,14 @@
       <c r="AG95" s="3"/>
       <c r="AH95" s="3"/>
       <c r="AI95" s="3"/>
-      <c r="AJ95" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ95" s="3"/>
+      <c r="AK95" s="3"/>
+      <c r="AL95" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="4">
         <v>0</v>
@@ -7200,12 +7546,14 @@
       <c r="AG96" s="3"/>
       <c r="AH96" s="3"/>
       <c r="AI96" s="3"/>
-      <c r="AJ96" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ96" s="3"/>
+      <c r="AK96" s="3"/>
+      <c r="AL96" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="4">
         <v>0</v>
@@ -7245,12 +7593,14 @@
       <c r="AG97" s="3"/>
       <c r="AH97" s="3"/>
       <c r="AI97" s="3"/>
-      <c r="AJ97" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ97" s="3"/>
+      <c r="AK97" s="3"/>
+      <c r="AL97" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="4">
         <v>0</v>
@@ -7290,12 +7640,14 @@
       <c r="AG98" s="3"/>
       <c r="AH98" s="3"/>
       <c r="AI98" s="3"/>
-      <c r="AJ98" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ98" s="3"/>
+      <c r="AK98" s="3"/>
+      <c r="AL98" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="4">
         <v>0</v>
@@ -7335,12 +7687,14 @@
       <c r="AG99" s="3"/>
       <c r="AH99" s="3"/>
       <c r="AI99" s="3"/>
-      <c r="AJ99" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ99" s="3"/>
+      <c r="AK99" s="3"/>
+      <c r="AL99" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="4">
         <v>0</v>
@@ -7380,12 +7734,14 @@
       <c r="AG100" s="3"/>
       <c r="AH100" s="3"/>
       <c r="AI100" s="3"/>
-      <c r="AJ100" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ100" s="3"/>
+      <c r="AK100" s="3"/>
+      <c r="AL100" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="4">
         <v>0</v>
@@ -7425,12 +7781,14 @@
       <c r="AG101" s="3"/>
       <c r="AH101" s="3"/>
       <c r="AI101" s="3"/>
-      <c r="AJ101" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ101" s="3"/>
+      <c r="AK101" s="3"/>
+      <c r="AL101" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="4">
         <v>0</v>
@@ -7470,12 +7828,14 @@
       <c r="AG102" s="3"/>
       <c r="AH102" s="3"/>
       <c r="AI102" s="3"/>
-      <c r="AJ102" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ102" s="3"/>
+      <c r="AK102" s="3"/>
+      <c r="AL102" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="4">
         <v>0</v>
@@ -7515,12 +7875,14 @@
       <c r="AG103" s="3"/>
       <c r="AH103" s="3"/>
       <c r="AI103" s="3"/>
-      <c r="AJ103" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ103" s="3"/>
+      <c r="AK103" s="3"/>
+      <c r="AL103" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="4">
         <v>0</v>
@@ -7560,12 +7922,14 @@
       <c r="AG104" s="3"/>
       <c r="AH104" s="3"/>
       <c r="AI104" s="3"/>
-      <c r="AJ104" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ104" s="3"/>
+      <c r="AK104" s="3"/>
+      <c r="AL104" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="4">
         <v>0</v>
@@ -7605,12 +7969,14 @@
       <c r="AG105" s="3"/>
       <c r="AH105" s="3"/>
       <c r="AI105" s="3"/>
-      <c r="AJ105" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ105" s="3"/>
+      <c r="AK105" s="3"/>
+      <c r="AL105" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="4">
         <v>0</v>
@@ -7650,12 +8016,14 @@
       <c r="AG106" s="3"/>
       <c r="AH106" s="3"/>
       <c r="AI106" s="3"/>
-      <c r="AJ106" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ106" s="3"/>
+      <c r="AK106" s="3"/>
+      <c r="AL106" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="4">
         <v>0</v>
@@ -7695,12 +8063,14 @@
       <c r="AG107" s="3"/>
       <c r="AH107" s="3"/>
       <c r="AI107" s="3"/>
-      <c r="AJ107" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ107" s="3"/>
+      <c r="AK107" s="3"/>
+      <c r="AL107" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="4">
         <v>0</v>
@@ -7740,12 +8110,14 @@
       <c r="AG108" s="3"/>
       <c r="AH108" s="3"/>
       <c r="AI108" s="3"/>
-      <c r="AJ108" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ108" s="3"/>
+      <c r="AK108" s="3"/>
+      <c r="AL108" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="4">
         <v>0</v>
@@ -7785,12 +8157,14 @@
       <c r="AG109" s="3"/>
       <c r="AH109" s="3"/>
       <c r="AI109" s="3"/>
-      <c r="AJ109" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ109" s="3"/>
+      <c r="AK109" s="3"/>
+      <c r="AL109" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="4">
         <v>0</v>
@@ -7830,12 +8204,14 @@
       <c r="AG110" s="3"/>
       <c r="AH110" s="3"/>
       <c r="AI110" s="3"/>
-      <c r="AJ110" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ110" s="3"/>
+      <c r="AK110" s="3"/>
+      <c r="AL110" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="4">
         <v>0</v>
@@ -7875,12 +8251,14 @@
       <c r="AG111" s="3"/>
       <c r="AH111" s="3"/>
       <c r="AI111" s="3"/>
-      <c r="AJ111" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ111" s="3"/>
+      <c r="AK111" s="3"/>
+      <c r="AL111" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="4">
         <v>0</v>
@@ -7920,12 +8298,14 @@
       <c r="AG112" s="3"/>
       <c r="AH112" s="3"/>
       <c r="AI112" s="3"/>
-      <c r="AJ112" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ112" s="3"/>
+      <c r="AK112" s="3"/>
+      <c r="AL112" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="4">
         <v>0</v>
@@ -7965,12 +8345,14 @@
       <c r="AG113" s="3"/>
       <c r="AH113" s="3"/>
       <c r="AI113" s="3"/>
-      <c r="AJ113" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ113" s="3"/>
+      <c r="AK113" s="3"/>
+      <c r="AL113" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="4">
         <v>0</v>
@@ -8010,12 +8392,14 @@
       <c r="AG114" s="3"/>
       <c r="AH114" s="3"/>
       <c r="AI114" s="3"/>
-      <c r="AJ114" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ114" s="3"/>
+      <c r="AK114" s="3"/>
+      <c r="AL114" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="4">
         <v>0</v>
@@ -8055,12 +8439,14 @@
       <c r="AG115" s="3"/>
       <c r="AH115" s="3"/>
       <c r="AI115" s="3"/>
-      <c r="AJ115" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ115" s="3"/>
+      <c r="AK115" s="3"/>
+      <c r="AL115" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="4">
         <v>0</v>
@@ -8100,12 +8486,14 @@
       <c r="AG116" s="3"/>
       <c r="AH116" s="3"/>
       <c r="AI116" s="3"/>
-      <c r="AJ116" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ116" s="3"/>
+      <c r="AK116" s="3"/>
+      <c r="AL116" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="4">
         <v>0</v>
@@ -8145,12 +8533,14 @@
       <c r="AG117" s="3"/>
       <c r="AH117" s="3"/>
       <c r="AI117" s="3"/>
-      <c r="AJ117" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ117" s="3"/>
+      <c r="AK117" s="3"/>
+      <c r="AL117" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="4">
         <v>0</v>
@@ -8190,12 +8580,14 @@
       <c r="AG118" s="3"/>
       <c r="AH118" s="3"/>
       <c r="AI118" s="3"/>
-      <c r="AJ118" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ118" s="3"/>
+      <c r="AK118" s="3"/>
+      <c r="AL118" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="4">
         <v>0</v>
@@ -8235,12 +8627,14 @@
       <c r="AG119" s="3"/>
       <c r="AH119" s="3"/>
       <c r="AI119" s="3"/>
-      <c r="AJ119" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ119" s="3"/>
+      <c r="AK119" s="3"/>
+      <c r="AL119" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="4">
         <v>0</v>
@@ -8280,12 +8674,14 @@
       <c r="AG120" s="3"/>
       <c r="AH120" s="3"/>
       <c r="AI120" s="3"/>
-      <c r="AJ120" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ120" s="3"/>
+      <c r="AK120" s="3"/>
+      <c r="AL120" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="4">
         <v>0</v>
@@ -8325,12 +8721,14 @@
       <c r="AG121" s="3"/>
       <c r="AH121" s="3"/>
       <c r="AI121" s="3"/>
-      <c r="AJ121" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ121" s="3"/>
+      <c r="AK121" s="3"/>
+      <c r="AL121" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="4">
         <v>0</v>
@@ -8370,12 +8768,14 @@
       <c r="AG122" s="3"/>
       <c r="AH122" s="3"/>
       <c r="AI122" s="3"/>
-      <c r="AJ122" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ122" s="3"/>
+      <c r="AK122" s="3"/>
+      <c r="AL122" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="4">
         <v>0</v>
@@ -8415,12 +8815,14 @@
       <c r="AG123" s="3"/>
       <c r="AH123" s="3"/>
       <c r="AI123" s="3"/>
-      <c r="AJ123" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ123" s="3"/>
+      <c r="AK123" s="3"/>
+      <c r="AL123" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="4">
         <v>0</v>
@@ -8460,12 +8862,14 @@
       <c r="AG124" s="3"/>
       <c r="AH124" s="3"/>
       <c r="AI124" s="3"/>
-      <c r="AJ124" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ124" s="3"/>
+      <c r="AK124" s="3"/>
+      <c r="AL124" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="4">
         <v>0</v>
@@ -8505,12 +8909,14 @@
       <c r="AG125" s="3"/>
       <c r="AH125" s="3"/>
       <c r="AI125" s="3"/>
-      <c r="AJ125" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ125" s="3"/>
+      <c r="AK125" s="3"/>
+      <c r="AL125" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="4">
         <v>0</v>
@@ -8550,12 +8956,14 @@
       <c r="AG126" s="3"/>
       <c r="AH126" s="3"/>
       <c r="AI126" s="3"/>
-      <c r="AJ126" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ126" s="3"/>
+      <c r="AK126" s="3"/>
+      <c r="AL126" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="4">
         <v>0</v>
@@ -8595,12 +9003,14 @@
       <c r="AG127" s="3"/>
       <c r="AH127" s="3"/>
       <c r="AI127" s="3"/>
-      <c r="AJ127" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ127" s="3"/>
+      <c r="AK127" s="3"/>
+      <c r="AL127" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="4">
         <v>0</v>
@@ -8640,12 +9050,14 @@
       <c r="AG128" s="3"/>
       <c r="AH128" s="3"/>
       <c r="AI128" s="3"/>
-      <c r="AJ128" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ128" s="3"/>
+      <c r="AK128" s="3"/>
+      <c r="AL128" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="4">
         <v>0</v>
@@ -8685,12 +9097,14 @@
       <c r="AG129" s="3"/>
       <c r="AH129" s="3"/>
       <c r="AI129" s="3"/>
-      <c r="AJ129" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ129" s="3"/>
+      <c r="AK129" s="3"/>
+      <c r="AL129" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="4">
         <v>0</v>
@@ -8730,12 +9144,14 @@
       <c r="AG130" s="3"/>
       <c r="AH130" s="3"/>
       <c r="AI130" s="3"/>
-      <c r="AJ130" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ130" s="3"/>
+      <c r="AK130" s="3"/>
+      <c r="AL130" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="4">
         <v>0</v>
@@ -8775,12 +9191,14 @@
       <c r="AG131" s="3"/>
       <c r="AH131" s="3"/>
       <c r="AI131" s="3"/>
-      <c r="AJ131" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ131" s="3"/>
+      <c r="AK131" s="3"/>
+      <c r="AL131" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="4">
         <v>0</v>
@@ -8820,12 +9238,14 @@
       <c r="AG132" s="3"/>
       <c r="AH132" s="3"/>
       <c r="AI132" s="3"/>
-      <c r="AJ132" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ132" s="3"/>
+      <c r="AK132" s="3"/>
+      <c r="AL132" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="4">
         <v>0</v>
@@ -8865,12 +9285,14 @@
       <c r="AG133" s="3"/>
       <c r="AH133" s="3"/>
       <c r="AI133" s="3"/>
-      <c r="AJ133" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ133" s="3"/>
+      <c r="AK133" s="3"/>
+      <c r="AL133" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="4">
         <v>0</v>
@@ -8910,12 +9332,14 @@
       <c r="AG134" s="3"/>
       <c r="AH134" s="3"/>
       <c r="AI134" s="3"/>
-      <c r="AJ134" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ134" s="3"/>
+      <c r="AK134" s="3"/>
+      <c r="AL134" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="4">
         <v>0</v>
@@ -8955,12 +9379,14 @@
       <c r="AG135" s="3"/>
       <c r="AH135" s="3"/>
       <c r="AI135" s="3"/>
-      <c r="AJ135" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ135" s="3"/>
+      <c r="AK135" s="3"/>
+      <c r="AL135" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="4">
         <v>0</v>
@@ -9000,12 +9426,14 @@
       <c r="AG136" s="3"/>
       <c r="AH136" s="3"/>
       <c r="AI136" s="3"/>
-      <c r="AJ136" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ136" s="3"/>
+      <c r="AK136" s="3"/>
+      <c r="AL136" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="4">
         <v>0</v>
@@ -9045,12 +9473,14 @@
       <c r="AG137" s="3"/>
       <c r="AH137" s="3"/>
       <c r="AI137" s="3"/>
-      <c r="AJ137" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ137" s="3"/>
+      <c r="AK137" s="3"/>
+      <c r="AL137" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="4">
         <v>0</v>
@@ -9090,12 +9520,14 @@
       <c r="AG138" s="3"/>
       <c r="AH138" s="3"/>
       <c r="AI138" s="3"/>
-      <c r="AJ138" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ138" s="3"/>
+      <c r="AK138" s="3"/>
+      <c r="AL138" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="4">
         <v>0</v>
@@ -9135,12 +9567,14 @@
       <c r="AG139" s="3"/>
       <c r="AH139" s="3"/>
       <c r="AI139" s="3"/>
-      <c r="AJ139" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ139" s="3"/>
+      <c r="AK139" s="3"/>
+      <c r="AL139" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="4">
         <v>0</v>
@@ -9180,12 +9614,14 @@
       <c r="AG140" s="3"/>
       <c r="AH140" s="3"/>
       <c r="AI140" s="3"/>
-      <c r="AJ140" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ140" s="3"/>
+      <c r="AK140" s="3"/>
+      <c r="AL140" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="4">
         <v>0</v>
@@ -9225,12 +9661,14 @@
       <c r="AG141" s="3"/>
       <c r="AH141" s="3"/>
       <c r="AI141" s="3"/>
-      <c r="AJ141" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ141" s="3"/>
+      <c r="AK141" s="3"/>
+      <c r="AL141" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="4">
         <v>0</v>
@@ -9270,12 +9708,14 @@
       <c r="AG142" s="3"/>
       <c r="AH142" s="3"/>
       <c r="AI142" s="3"/>
-      <c r="AJ142" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ142" s="3"/>
+      <c r="AK142" s="3"/>
+      <c r="AL142" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="4">
         <v>0</v>
@@ -9315,12 +9755,14 @@
       <c r="AG143" s="3"/>
       <c r="AH143" s="3"/>
       <c r="AI143" s="3"/>
-      <c r="AJ143" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ143" s="3"/>
+      <c r="AK143" s="3"/>
+      <c r="AL143" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="4">
         <v>0</v>
@@ -9360,12 +9802,14 @@
       <c r="AG144" s="3"/>
       <c r="AH144" s="3"/>
       <c r="AI144" s="3"/>
-      <c r="AJ144" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ144" s="3"/>
+      <c r="AK144" s="3"/>
+      <c r="AL144" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="4">
         <v>0</v>
@@ -9405,12 +9849,14 @@
       <c r="AG145" s="3"/>
       <c r="AH145" s="3"/>
       <c r="AI145" s="3"/>
-      <c r="AJ145" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ145" s="3"/>
+      <c r="AK145" s="3"/>
+      <c r="AL145" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
       <c r="B146" s="4">
         <v>0</v>
@@ -9450,12 +9896,14 @@
       <c r="AG146" s="3"/>
       <c r="AH146" s="3"/>
       <c r="AI146" s="3"/>
-      <c r="AJ146" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ146" s="3"/>
+      <c r="AK146" s="3"/>
+      <c r="AL146" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="4">
         <v>0</v>
@@ -9495,12 +9943,14 @@
       <c r="AG147" s="3"/>
       <c r="AH147" s="3"/>
       <c r="AI147" s="3"/>
-      <c r="AJ147" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ147" s="3"/>
+      <c r="AK147" s="3"/>
+      <c r="AL147" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="4">
         <v>0</v>
@@ -9540,12 +9990,14 @@
       <c r="AG148" s="3"/>
       <c r="AH148" s="3"/>
       <c r="AI148" s="3"/>
-      <c r="AJ148" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ148" s="3"/>
+      <c r="AK148" s="3"/>
+      <c r="AL148" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
       <c r="B149" s="4">
         <v>0</v>
@@ -9585,12 +10037,14 @@
       <c r="AG149" s="3"/>
       <c r="AH149" s="3"/>
       <c r="AI149" s="3"/>
-      <c r="AJ149" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ149" s="3"/>
+      <c r="AK149" s="3"/>
+      <c r="AL149" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="4">
         <v>0</v>
@@ -9630,12 +10084,14 @@
       <c r="AG150" s="3"/>
       <c r="AH150" s="3"/>
       <c r="AI150" s="3"/>
-      <c r="AJ150" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ150" s="3"/>
+      <c r="AK150" s="3"/>
+      <c r="AL150" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="4">
         <v>0</v>
@@ -9675,12 +10131,14 @@
       <c r="AG151" s="3"/>
       <c r="AH151" s="3"/>
       <c r="AI151" s="3"/>
-      <c r="AJ151" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ151" s="3"/>
+      <c r="AK151" s="3"/>
+      <c r="AL151" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="4">
         <v>0</v>
@@ -9720,12 +10178,14 @@
       <c r="AG152" s="3"/>
       <c r="AH152" s="3"/>
       <c r="AI152" s="3"/>
-      <c r="AJ152" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ152" s="3"/>
+      <c r="AK152" s="3"/>
+      <c r="AL152" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
       <c r="B153" s="4">
         <v>0</v>
@@ -9765,12 +10225,14 @@
       <c r="AG153" s="3"/>
       <c r="AH153" s="3"/>
       <c r="AI153" s="3"/>
-      <c r="AJ153" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ153" s="3"/>
+      <c r="AK153" s="3"/>
+      <c r="AL153" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
       <c r="B154" s="4">
         <v>0</v>
@@ -9810,12 +10272,14 @@
       <c r="AG154" s="3"/>
       <c r="AH154" s="3"/>
       <c r="AI154" s="3"/>
-      <c r="AJ154" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ154" s="3"/>
+      <c r="AK154" s="3"/>
+      <c r="AL154" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
       <c r="B155" s="4">
         <v>0</v>
@@ -9855,12 +10319,14 @@
       <c r="AG155" s="3"/>
       <c r="AH155" s="3"/>
       <c r="AI155" s="3"/>
-      <c r="AJ155" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ155" s="3"/>
+      <c r="AK155" s="3"/>
+      <c r="AL155" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="4">
         <v>0</v>
@@ -9900,12 +10366,14 @@
       <c r="AG156" s="3"/>
       <c r="AH156" s="3"/>
       <c r="AI156" s="3"/>
-      <c r="AJ156" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ156" s="3"/>
+      <c r="AK156" s="3"/>
+      <c r="AL156" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="4">
         <v>0</v>
@@ -9945,12 +10413,14 @@
       <c r="AG157" s="3"/>
       <c r="AH157" s="3"/>
       <c r="AI157" s="3"/>
-      <c r="AJ157" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ157" s="3"/>
+      <c r="AK157" s="3"/>
+      <c r="AL157" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="4">
         <v>0</v>
@@ -9990,12 +10460,14 @@
       <c r="AG158" s="3"/>
       <c r="AH158" s="3"/>
       <c r="AI158" s="3"/>
-      <c r="AJ158" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ158" s="3"/>
+      <c r="AK158" s="3"/>
+      <c r="AL158" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
       <c r="B159" s="4">
         <v>0</v>
@@ -10035,12 +10507,14 @@
       <c r="AG159" s="3"/>
       <c r="AH159" s="3"/>
       <c r="AI159" s="3"/>
-      <c r="AJ159" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ159" s="3"/>
+      <c r="AK159" s="3"/>
+      <c r="AL159" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="4">
         <v>0</v>
@@ -10080,12 +10554,14 @@
       <c r="AG160" s="3"/>
       <c r="AH160" s="3"/>
       <c r="AI160" s="3"/>
-      <c r="AJ160" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ160" s="3"/>
+      <c r="AK160" s="3"/>
+      <c r="AL160" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
       <c r="B161" s="4">
         <v>0</v>
@@ -10125,12 +10601,14 @@
       <c r="AG161" s="3"/>
       <c r="AH161" s="3"/>
       <c r="AI161" s="3"/>
-      <c r="AJ161" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ161" s="3"/>
+      <c r="AK161" s="3"/>
+      <c r="AL161" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
       <c r="B162" s="4">
         <v>0</v>
@@ -10170,12 +10648,14 @@
       <c r="AG162" s="3"/>
       <c r="AH162" s="3"/>
       <c r="AI162" s="3"/>
-      <c r="AJ162" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ162" s="3"/>
+      <c r="AK162" s="3"/>
+      <c r="AL162" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
       <c r="B163" s="4">
         <v>0</v>
@@ -10215,12 +10695,14 @@
       <c r="AG163" s="3"/>
       <c r="AH163" s="3"/>
       <c r="AI163" s="3"/>
-      <c r="AJ163" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ163" s="3"/>
+      <c r="AK163" s="3"/>
+      <c r="AL163" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A164" s="8"/>
       <c r="B164" s="4">
         <v>0</v>
@@ -10260,12 +10742,14 @@
       <c r="AG164" s="3"/>
       <c r="AH164" s="3"/>
       <c r="AI164" s="3"/>
-      <c r="AJ164" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ164" s="3"/>
+      <c r="AK164" s="3"/>
+      <c r="AL164" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A165" s="8"/>
       <c r="B165" s="4">
         <v>0</v>
@@ -10305,12 +10789,14 @@
       <c r="AG165" s="3"/>
       <c r="AH165" s="3"/>
       <c r="AI165" s="3"/>
-      <c r="AJ165" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ165" s="3"/>
+      <c r="AK165" s="3"/>
+      <c r="AL165" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A166" s="8"/>
       <c r="B166" s="4">
         <v>0</v>
@@ -10350,12 +10836,14 @@
       <c r="AG166" s="3"/>
       <c r="AH166" s="3"/>
       <c r="AI166" s="3"/>
-      <c r="AJ166" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ166" s="3"/>
+      <c r="AK166" s="3"/>
+      <c r="AL166" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A167" s="8"/>
       <c r="B167" s="4">
         <v>0</v>
@@ -10395,12 +10883,14 @@
       <c r="AG167" s="3"/>
       <c r="AH167" s="3"/>
       <c r="AI167" s="3"/>
-      <c r="AJ167" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ167" s="3"/>
+      <c r="AK167" s="3"/>
+      <c r="AL167" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
       <c r="B168" s="4">
         <v>0</v>
@@ -10440,12 +10930,14 @@
       <c r="AG168" s="3"/>
       <c r="AH168" s="3"/>
       <c r="AI168" s="3"/>
-      <c r="AJ168" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ168" s="3"/>
+      <c r="AK168" s="3"/>
+      <c r="AL168" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A169" s="8"/>
       <c r="B169" s="4">
         <v>0</v>
@@ -10485,12 +10977,14 @@
       <c r="AG169" s="3"/>
       <c r="AH169" s="3"/>
       <c r="AI169" s="3"/>
-      <c r="AJ169" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ169" s="3"/>
+      <c r="AK169" s="3"/>
+      <c r="AL169" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A170" s="8"/>
       <c r="B170" s="4">
         <v>0</v>
@@ -10530,12 +11024,14 @@
       <c r="AG170" s="3"/>
       <c r="AH170" s="3"/>
       <c r="AI170" s="3"/>
-      <c r="AJ170" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ170" s="3"/>
+      <c r="AK170" s="3"/>
+      <c r="AL170" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A171" s="8"/>
       <c r="B171" s="4">
         <v>0</v>
@@ -10575,12 +11071,14 @@
       <c r="AG171" s="3"/>
       <c r="AH171" s="3"/>
       <c r="AI171" s="3"/>
-      <c r="AJ171" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ171" s="3"/>
+      <c r="AK171" s="3"/>
+      <c r="AL171" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A172" s="8"/>
       <c r="B172" s="4">
         <v>0</v>
@@ -10620,12 +11118,14 @@
       <c r="AG172" s="3"/>
       <c r="AH172" s="3"/>
       <c r="AI172" s="3"/>
-      <c r="AJ172" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ172" s="3"/>
+      <c r="AK172" s="3"/>
+      <c r="AL172" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A173" s="8"/>
       <c r="B173" s="4">
         <v>0</v>
@@ -10665,12 +11165,14 @@
       <c r="AG173" s="3"/>
       <c r="AH173" s="3"/>
       <c r="AI173" s="3"/>
-      <c r="AJ173" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ173" s="3"/>
+      <c r="AK173" s="3"/>
+      <c r="AL173" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A174" s="8"/>
       <c r="B174" s="4">
         <v>0</v>
@@ -10710,12 +11212,14 @@
       <c r="AG174" s="3"/>
       <c r="AH174" s="3"/>
       <c r="AI174" s="3"/>
-      <c r="AJ174" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ174" s="3"/>
+      <c r="AK174" s="3"/>
+      <c r="AL174" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A175" s="8"/>
       <c r="B175" s="4">
         <v>0</v>
@@ -10755,12 +11259,14 @@
       <c r="AG175" s="3"/>
       <c r="AH175" s="3"/>
       <c r="AI175" s="3"/>
-      <c r="AJ175" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ175" s="3"/>
+      <c r="AK175" s="3"/>
+      <c r="AL175" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
       <c r="B176" s="4">
         <v>0</v>
@@ -10800,12 +11306,14 @@
       <c r="AG176" s="3"/>
       <c r="AH176" s="3"/>
       <c r="AI176" s="3"/>
-      <c r="AJ176" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ176" s="3"/>
+      <c r="AK176" s="3"/>
+      <c r="AL176" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A177" s="8"/>
       <c r="B177" s="4">
         <v>0</v>
@@ -10845,12 +11353,14 @@
       <c r="AG177" s="3"/>
       <c r="AH177" s="3"/>
       <c r="AI177" s="3"/>
-      <c r="AJ177" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ177" s="3"/>
+      <c r="AK177" s="3"/>
+      <c r="AL177" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A178" s="8"/>
       <c r="B178" s="4">
         <v>0</v>
@@ -10890,12 +11400,14 @@
       <c r="AG178" s="3"/>
       <c r="AH178" s="3"/>
       <c r="AI178" s="3"/>
-      <c r="AJ178" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ178" s="3"/>
+      <c r="AK178" s="3"/>
+      <c r="AL178" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A179" s="8"/>
       <c r="B179" s="4">
         <v>0</v>
@@ -10935,12 +11447,14 @@
       <c r="AG179" s="3"/>
       <c r="AH179" s="3"/>
       <c r="AI179" s="3"/>
-      <c r="AJ179" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ179" s="3"/>
+      <c r="AK179" s="3"/>
+      <c r="AL179" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
       <c r="B180" s="4">
         <v>0</v>
@@ -10980,12 +11494,14 @@
       <c r="AG180" s="3"/>
       <c r="AH180" s="3"/>
       <c r="AI180" s="3"/>
-      <c r="AJ180" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ180" s="3"/>
+      <c r="AK180" s="3"/>
+      <c r="AL180" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A181" s="8"/>
       <c r="B181" s="4">
         <v>0</v>
@@ -11025,12 +11541,14 @@
       <c r="AG181" s="3"/>
       <c r="AH181" s="3"/>
       <c r="AI181" s="3"/>
-      <c r="AJ181" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ181" s="3"/>
+      <c r="AK181" s="3"/>
+      <c r="AL181" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A182" s="8"/>
       <c r="B182" s="4">
         <v>0</v>
@@ -11070,12 +11588,14 @@
       <c r="AG182" s="3"/>
       <c r="AH182" s="3"/>
       <c r="AI182" s="3"/>
-      <c r="AJ182" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ182" s="3"/>
+      <c r="AK182" s="3"/>
+      <c r="AL182" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A183" s="8"/>
       <c r="B183" s="4">
         <v>0</v>
@@ -11115,12 +11635,14 @@
       <c r="AG183" s="3"/>
       <c r="AH183" s="3"/>
       <c r="AI183" s="3"/>
-      <c r="AJ183" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ183" s="3"/>
+      <c r="AK183" s="3"/>
+      <c r="AL183" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
       <c r="B184" s="4">
         <v>0</v>
@@ -11160,12 +11682,14 @@
       <c r="AG184" s="3"/>
       <c r="AH184" s="3"/>
       <c r="AI184" s="3"/>
-      <c r="AJ184" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ184" s="3"/>
+      <c r="AK184" s="3"/>
+      <c r="AL184" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
       <c r="B185" s="4">
         <v>0</v>
@@ -11205,12 +11729,14 @@
       <c r="AG185" s="3"/>
       <c r="AH185" s="3"/>
       <c r="AI185" s="3"/>
-      <c r="AJ185" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ185" s="3"/>
+      <c r="AK185" s="3"/>
+      <c r="AL185" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A186" s="8"/>
       <c r="B186" s="4">
         <v>0</v>
@@ -11250,12 +11776,14 @@
       <c r="AG186" s="3"/>
       <c r="AH186" s="3"/>
       <c r="AI186" s="3"/>
-      <c r="AJ186" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ186" s="3"/>
+      <c r="AK186" s="3"/>
+      <c r="AL186" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A187" s="8"/>
       <c r="B187" s="4">
         <v>0</v>
@@ -11295,12 +11823,14 @@
       <c r="AG187" s="3"/>
       <c r="AH187" s="3"/>
       <c r="AI187" s="3"/>
-      <c r="AJ187" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ187" s="3"/>
+      <c r="AK187" s="3"/>
+      <c r="AL187" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A188" s="8"/>
       <c r="B188" s="4">
         <v>0</v>
@@ -11340,12 +11870,14 @@
       <c r="AG188" s="3"/>
       <c r="AH188" s="3"/>
       <c r="AI188" s="3"/>
-      <c r="AJ188" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ188" s="3"/>
+      <c r="AK188" s="3"/>
+      <c r="AL188" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A189" s="8"/>
       <c r="B189" s="4">
         <v>0</v>
@@ -11385,12 +11917,14 @@
       <c r="AG189" s="3"/>
       <c r="AH189" s="3"/>
       <c r="AI189" s="3"/>
-      <c r="AJ189" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ189" s="3"/>
+      <c r="AK189" s="3"/>
+      <c r="AL189" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A190" s="8"/>
       <c r="B190" s="4">
         <v>0</v>
@@ -11430,12 +11964,14 @@
       <c r="AG190" s="3"/>
       <c r="AH190" s="3"/>
       <c r="AI190" s="3"/>
-      <c r="AJ190" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ190" s="3"/>
+      <c r="AK190" s="3"/>
+      <c r="AL190" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A191" s="8"/>
       <c r="B191" s="4">
         <v>0</v>
@@ -11475,12 +12011,14 @@
       <c r="AG191" s="3"/>
       <c r="AH191" s="3"/>
       <c r="AI191" s="3"/>
-      <c r="AJ191" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ191" s="3"/>
+      <c r="AK191" s="3"/>
+      <c r="AL191" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A192" s="8"/>
       <c r="B192" s="4">
         <v>0</v>
@@ -11520,12 +12058,14 @@
       <c r="AG192" s="3"/>
       <c r="AH192" s="3"/>
       <c r="AI192" s="3"/>
-      <c r="AJ192" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ192" s="3"/>
+      <c r="AK192" s="3"/>
+      <c r="AL192" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A193" s="8"/>
       <c r="B193" s="4">
         <v>0</v>
@@ -11565,12 +12105,14 @@
       <c r="AG193" s="3"/>
       <c r="AH193" s="3"/>
       <c r="AI193" s="3"/>
-      <c r="AJ193" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ193" s="3"/>
+      <c r="AK193" s="3"/>
+      <c r="AL193" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A194" s="8"/>
       <c r="B194" s="4">
         <v>0</v>
@@ -11610,12 +12152,14 @@
       <c r="AG194" s="3"/>
       <c r="AH194" s="3"/>
       <c r="AI194" s="3"/>
-      <c r="AJ194" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ194" s="3"/>
+      <c r="AK194" s="3"/>
+      <c r="AL194" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A195" s="8"/>
       <c r="B195" s="4">
         <v>0</v>
@@ -11655,12 +12199,14 @@
       <c r="AG195" s="3"/>
       <c r="AH195" s="3"/>
       <c r="AI195" s="3"/>
-      <c r="AJ195" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ195" s="3"/>
+      <c r="AK195" s="3"/>
+      <c r="AL195" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A196" s="8"/>
       <c r="B196" s="4">
         <v>0</v>
@@ -11700,12 +12246,14 @@
       <c r="AG196" s="3"/>
       <c r="AH196" s="3"/>
       <c r="AI196" s="3"/>
-      <c r="AJ196" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ196" s="3"/>
+      <c r="AK196" s="3"/>
+      <c r="AL196" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A197" s="8"/>
       <c r="B197" s="4">
         <v>0</v>
@@ -11745,12 +12293,14 @@
       <c r="AG197" s="3"/>
       <c r="AH197" s="3"/>
       <c r="AI197" s="3"/>
-      <c r="AJ197" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ197" s="3"/>
+      <c r="AK197" s="3"/>
+      <c r="AL197" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A198" s="8"/>
       <c r="B198" s="4">
         <v>0</v>
@@ -11790,12 +12340,14 @@
       <c r="AG198" s="3"/>
       <c r="AH198" s="3"/>
       <c r="AI198" s="3"/>
-      <c r="AJ198" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ198" s="3"/>
+      <c r="AK198" s="3"/>
+      <c r="AL198" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A199" s="8"/>
       <c r="B199" s="4">
         <v>0</v>
@@ -11835,12 +12387,14 @@
       <c r="AG199" s="3"/>
       <c r="AH199" s="3"/>
       <c r="AI199" s="3"/>
-      <c r="AJ199" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ199" s="3"/>
+      <c r="AK199" s="3"/>
+      <c r="AL199" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A200" s="8"/>
       <c r="B200" s="4">
         <v>0</v>
@@ -11880,12 +12434,14 @@
       <c r="AG200" s="3"/>
       <c r="AH200" s="3"/>
       <c r="AI200" s="3"/>
-      <c r="AJ200" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ200" s="3"/>
+      <c r="AK200" s="3"/>
+      <c r="AL200" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A201" s="8"/>
       <c r="B201" s="4">
         <v>0</v>
@@ -11925,12 +12481,14 @@
       <c r="AG201" s="3"/>
       <c r="AH201" s="3"/>
       <c r="AI201" s="3"/>
-      <c r="AJ201" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ201" s="3"/>
+      <c r="AK201" s="3"/>
+      <c r="AL201" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A202" s="8"/>
       <c r="B202" s="4">
         <v>0</v>
@@ -11970,12 +12528,14 @@
       <c r="AG202" s="3"/>
       <c r="AH202" s="3"/>
       <c r="AI202" s="3"/>
-      <c r="AJ202" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ202" s="3"/>
+      <c r="AK202" s="3"/>
+      <c r="AL202" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A203" s="8"/>
       <c r="B203" s="4">
         <v>0</v>
@@ -12015,12 +12575,14 @@
       <c r="AG203" s="3"/>
       <c r="AH203" s="3"/>
       <c r="AI203" s="3"/>
-      <c r="AJ203" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ203" s="3"/>
+      <c r="AK203" s="3"/>
+      <c r="AL203" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A204" s="8"/>
       <c r="B204" s="4">
         <v>0</v>
@@ -12060,12 +12622,14 @@
       <c r="AG204" s="3"/>
       <c r="AH204" s="3"/>
       <c r="AI204" s="3"/>
-      <c r="AJ204" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ204" s="3"/>
+      <c r="AK204" s="3"/>
+      <c r="AL204" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A205" s="8"/>
       <c r="B205" s="4">
         <v>0</v>
@@ -12105,12 +12669,14 @@
       <c r="AG205" s="3"/>
       <c r="AH205" s="3"/>
       <c r="AI205" s="3"/>
-      <c r="AJ205" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ205" s="3"/>
+      <c r="AK205" s="3"/>
+      <c r="AL205" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A206" s="8"/>
       <c r="B206" s="4">
         <v>0</v>
@@ -12150,12 +12716,14 @@
       <c r="AG206" s="3"/>
       <c r="AH206" s="3"/>
       <c r="AI206" s="3"/>
-      <c r="AJ206" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ206" s="3"/>
+      <c r="AK206" s="3"/>
+      <c r="AL206" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A207" s="8"/>
       <c r="B207" s="4">
         <v>0</v>
@@ -12195,12 +12763,14 @@
       <c r="AG207" s="3"/>
       <c r="AH207" s="3"/>
       <c r="AI207" s="3"/>
-      <c r="AJ207" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ207" s="3"/>
+      <c r="AK207" s="3"/>
+      <c r="AL207" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A208" s="8"/>
       <c r="B208" s="4">
         <v>0</v>
@@ -12240,12 +12810,14 @@
       <c r="AG208" s="3"/>
       <c r="AH208" s="3"/>
       <c r="AI208" s="3"/>
-      <c r="AJ208" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ208" s="3"/>
+      <c r="AK208" s="3"/>
+      <c r="AL208" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A209" s="8"/>
       <c r="B209" s="4">
         <v>0</v>
@@ -12285,12 +12857,14 @@
       <c r="AG209" s="3"/>
       <c r="AH209" s="3"/>
       <c r="AI209" s="3"/>
-      <c r="AJ209" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ209" s="3"/>
+      <c r="AK209" s="3"/>
+      <c r="AL209" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A210" s="8"/>
       <c r="B210" s="4">
         <v>0</v>
@@ -12330,12 +12904,14 @@
       <c r="AG210" s="3"/>
       <c r="AH210" s="3"/>
       <c r="AI210" s="3"/>
-      <c r="AJ210" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ210" s="3"/>
+      <c r="AK210" s="3"/>
+      <c r="AL210" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A211" s="8"/>
       <c r="B211" s="4">
         <v>0</v>
@@ -12375,12 +12951,14 @@
       <c r="AG211" s="3"/>
       <c r="AH211" s="3"/>
       <c r="AI211" s="3"/>
-      <c r="AJ211" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ211" s="3"/>
+      <c r="AK211" s="3"/>
+      <c r="AL211" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A212" s="8"/>
       <c r="B212" s="4">
         <v>0</v>
@@ -12420,12 +12998,14 @@
       <c r="AG212" s="3"/>
       <c r="AH212" s="3"/>
       <c r="AI212" s="3"/>
-      <c r="AJ212" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ212" s="3"/>
+      <c r="AK212" s="3"/>
+      <c r="AL212" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A213" s="8"/>
       <c r="B213" s="4">
         <v>0</v>
@@ -12465,12 +13045,14 @@
       <c r="AG213" s="3"/>
       <c r="AH213" s="3"/>
       <c r="AI213" s="3"/>
-      <c r="AJ213" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ213" s="3"/>
+      <c r="AK213" s="3"/>
+      <c r="AL213" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A214" s="8"/>
       <c r="B214" s="4">
         <v>0</v>
@@ -12510,12 +13092,14 @@
       <c r="AG214" s="3"/>
       <c r="AH214" s="3"/>
       <c r="AI214" s="3"/>
-      <c r="AJ214" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ214" s="3"/>
+      <c r="AK214" s="3"/>
+      <c r="AL214" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A215" s="8"/>
       <c r="B215" s="4">
         <v>0</v>
@@ -12555,12 +13139,14 @@
       <c r="AG215" s="3"/>
       <c r="AH215" s="3"/>
       <c r="AI215" s="3"/>
-      <c r="AJ215" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ215" s="3"/>
+      <c r="AK215" s="3"/>
+      <c r="AL215" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A216" s="8"/>
       <c r="B216" s="4">
         <v>0</v>
@@ -12600,12 +13186,14 @@
       <c r="AG216" s="3"/>
       <c r="AH216" s="3"/>
       <c r="AI216" s="3"/>
-      <c r="AJ216" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ216" s="3"/>
+      <c r="AK216" s="3"/>
+      <c r="AL216" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A217" s="8"/>
       <c r="B217" s="4">
         <v>0</v>
@@ -12645,12 +13233,14 @@
       <c r="AG217" s="3"/>
       <c r="AH217" s="3"/>
       <c r="AI217" s="3"/>
-      <c r="AJ217" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ217" s="3"/>
+      <c r="AK217" s="3"/>
+      <c r="AL217" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A218" s="8"/>
       <c r="B218" s="4">
         <v>0</v>
@@ -12690,12 +13280,14 @@
       <c r="AG218" s="3"/>
       <c r="AH218" s="3"/>
       <c r="AI218" s="3"/>
-      <c r="AJ218" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ218" s="3"/>
+      <c r="AK218" s="3"/>
+      <c r="AL218" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A219" s="8"/>
       <c r="B219" s="4">
         <v>0</v>
@@ -12735,12 +13327,14 @@
       <c r="AG219" s="3"/>
       <c r="AH219" s="3"/>
       <c r="AI219" s="3"/>
-      <c r="AJ219" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ219" s="3"/>
+      <c r="AK219" s="3"/>
+      <c r="AL219" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A220" s="8"/>
       <c r="B220" s="4">
         <v>0</v>
@@ -12780,12 +13374,14 @@
       <c r="AG220" s="3"/>
       <c r="AH220" s="3"/>
       <c r="AI220" s="3"/>
-      <c r="AJ220" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ220" s="3"/>
+      <c r="AK220" s="3"/>
+      <c r="AL220" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A221" s="8"/>
       <c r="B221" s="4">
         <v>0</v>
@@ -12825,12 +13421,14 @@
       <c r="AG221" s="3"/>
       <c r="AH221" s="3"/>
       <c r="AI221" s="3"/>
-      <c r="AJ221" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ221" s="3"/>
+      <c r="AK221" s="3"/>
+      <c r="AL221" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A222" s="8"/>
       <c r="B222" s="4">
         <v>0</v>
@@ -12870,12 +13468,14 @@
       <c r="AG222" s="3"/>
       <c r="AH222" s="3"/>
       <c r="AI222" s="3"/>
-      <c r="AJ222" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ222" s="3"/>
+      <c r="AK222" s="3"/>
+      <c r="AL222" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A223" s="8"/>
       <c r="B223" s="4">
         <v>0</v>
@@ -12915,12 +13515,14 @@
       <c r="AG223" s="3"/>
       <c r="AH223" s="3"/>
       <c r="AI223" s="3"/>
-      <c r="AJ223" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ223" s="3"/>
+      <c r="AK223" s="3"/>
+      <c r="AL223" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A224" s="8"/>
       <c r="B224" s="4">
         <v>0</v>
@@ -12960,12 +13562,14 @@
       <c r="AG224" s="3"/>
       <c r="AH224" s="3"/>
       <c r="AI224" s="3"/>
-      <c r="AJ224" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ224" s="3"/>
+      <c r="AK224" s="3"/>
+      <c r="AL224" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A225" s="8"/>
       <c r="B225" s="4">
         <v>0</v>
@@ -13005,12 +13609,14 @@
       <c r="AG225" s="3"/>
       <c r="AH225" s="3"/>
       <c r="AI225" s="3"/>
-      <c r="AJ225" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ225" s="3"/>
+      <c r="AK225" s="3"/>
+      <c r="AL225" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A226" s="8"/>
       <c r="B226" s="4">
         <v>0</v>
@@ -13050,12 +13656,14 @@
       <c r="AG226" s="3"/>
       <c r="AH226" s="3"/>
       <c r="AI226" s="3"/>
-      <c r="AJ226" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ226" s="3"/>
+      <c r="AK226" s="3"/>
+      <c r="AL226" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A227" s="8"/>
       <c r="B227" s="4">
         <v>0</v>
@@ -13095,12 +13703,14 @@
       <c r="AG227" s="3"/>
       <c r="AH227" s="3"/>
       <c r="AI227" s="3"/>
-      <c r="AJ227" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ227" s="3"/>
+      <c r="AK227" s="3"/>
+      <c r="AL227" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A228" s="8"/>
       <c r="B228" s="4">
         <v>0</v>
@@ -13140,12 +13750,14 @@
       <c r="AG228" s="3"/>
       <c r="AH228" s="3"/>
       <c r="AI228" s="3"/>
-      <c r="AJ228" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ228" s="3"/>
+      <c r="AK228" s="3"/>
+      <c r="AL228" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A229" s="8"/>
       <c r="B229" s="4">
         <v>0</v>
@@ -13185,12 +13797,14 @@
       <c r="AG229" s="3"/>
       <c r="AH229" s="3"/>
       <c r="AI229" s="3"/>
-      <c r="AJ229" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ229" s="3"/>
+      <c r="AK229" s="3"/>
+      <c r="AL229" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A230" s="8"/>
       <c r="B230" s="4">
         <v>0</v>
@@ -13230,12 +13844,14 @@
       <c r="AG230" s="3"/>
       <c r="AH230" s="3"/>
       <c r="AI230" s="3"/>
-      <c r="AJ230" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ230" s="3"/>
+      <c r="AK230" s="3"/>
+      <c r="AL230" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A231" s="8"/>
       <c r="B231" s="4">
         <v>0</v>
@@ -13275,12 +13891,14 @@
       <c r="AG231" s="3"/>
       <c r="AH231" s="3"/>
       <c r="AI231" s="3"/>
-      <c r="AJ231" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ231" s="3"/>
+      <c r="AK231" s="3"/>
+      <c r="AL231" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A232" s="8"/>
       <c r="B232" s="4">
         <v>0</v>
@@ -13320,12 +13938,14 @@
       <c r="AG232" s="3"/>
       <c r="AH232" s="3"/>
       <c r="AI232" s="3"/>
-      <c r="AJ232" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ232" s="3"/>
+      <c r="AK232" s="3"/>
+      <c r="AL232" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A233" s="8"/>
       <c r="B233" s="4">
         <v>0</v>
@@ -13365,12 +13985,14 @@
       <c r="AG233" s="3"/>
       <c r="AH233" s="3"/>
       <c r="AI233" s="3"/>
-      <c r="AJ233" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ233" s="3"/>
+      <c r="AK233" s="3"/>
+      <c r="AL233" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A234" s="8"/>
       <c r="B234" s="4">
         <v>0</v>
@@ -13410,12 +14032,14 @@
       <c r="AG234" s="3"/>
       <c r="AH234" s="3"/>
       <c r="AI234" s="3"/>
-      <c r="AJ234" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ234" s="3"/>
+      <c r="AK234" s="3"/>
+      <c r="AL234" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A235" s="8"/>
       <c r="B235" s="4">
         <v>0</v>
@@ -13455,12 +14079,14 @@
       <c r="AG235" s="3"/>
       <c r="AH235" s="3"/>
       <c r="AI235" s="3"/>
-      <c r="AJ235" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ235" s="3"/>
+      <c r="AK235" s="3"/>
+      <c r="AL235" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A236" s="8"/>
       <c r="B236" s="4">
         <v>0</v>
@@ -13500,12 +14126,14 @@
       <c r="AG236" s="3"/>
       <c r="AH236" s="3"/>
       <c r="AI236" s="3"/>
-      <c r="AJ236" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ236" s="3"/>
+      <c r="AK236" s="3"/>
+      <c r="AL236" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A237" s="8"/>
       <c r="B237" s="4">
         <v>0</v>
@@ -13545,12 +14173,14 @@
       <c r="AG237" s="3"/>
       <c r="AH237" s="3"/>
       <c r="AI237" s="3"/>
-      <c r="AJ237" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ237" s="3"/>
+      <c r="AK237" s="3"/>
+      <c r="AL237" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A238" s="8"/>
       <c r="B238" s="4">
         <v>0</v>
@@ -13590,12 +14220,14 @@
       <c r="AG238" s="3"/>
       <c r="AH238" s="3"/>
       <c r="AI238" s="3"/>
-      <c r="AJ238" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ238" s="3"/>
+      <c r="AK238" s="3"/>
+      <c r="AL238" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A239" s="8"/>
       <c r="B239" s="4">
         <v>0</v>
@@ -13635,12 +14267,14 @@
       <c r="AG239" s="3"/>
       <c r="AH239" s="3"/>
       <c r="AI239" s="3"/>
-      <c r="AJ239" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ239" s="3"/>
+      <c r="AK239" s="3"/>
+      <c r="AL239" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A240" s="8"/>
       <c r="B240" s="4">
         <v>0</v>
@@ -13680,12 +14314,14 @@
       <c r="AG240" s="3"/>
       <c r="AH240" s="3"/>
       <c r="AI240" s="3"/>
-      <c r="AJ240" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ240" s="3"/>
+      <c r="AK240" s="3"/>
+      <c r="AL240" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A241" s="8"/>
       <c r="B241" s="4">
         <v>0</v>
@@ -13725,12 +14361,14 @@
       <c r="AG241" s="3"/>
       <c r="AH241" s="3"/>
       <c r="AI241" s="3"/>
-      <c r="AJ241" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ241" s="3"/>
+      <c r="AK241" s="3"/>
+      <c r="AL241" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A242" s="8"/>
       <c r="B242" s="4">
         <v>0</v>
@@ -13770,12 +14408,14 @@
       <c r="AG242" s="3"/>
       <c r="AH242" s="3"/>
       <c r="AI242" s="3"/>
-      <c r="AJ242" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ242" s="3"/>
+      <c r="AK242" s="3"/>
+      <c r="AL242" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A243" s="8"/>
       <c r="B243" s="4">
         <v>0</v>
@@ -13815,12 +14455,14 @@
       <c r="AG243" s="3"/>
       <c r="AH243" s="3"/>
       <c r="AI243" s="3"/>
-      <c r="AJ243" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ243" s="3"/>
+      <c r="AK243" s="3"/>
+      <c r="AL243" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A244" s="8"/>
       <c r="B244" s="4">
         <v>0</v>
@@ -13860,12 +14502,14 @@
       <c r="AG244" s="3"/>
       <c r="AH244" s="3"/>
       <c r="AI244" s="3"/>
-      <c r="AJ244" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ244" s="3"/>
+      <c r="AK244" s="3"/>
+      <c r="AL244" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A245" s="8"/>
       <c r="B245" s="4">
         <v>0</v>
@@ -13905,12 +14549,14 @@
       <c r="AG245" s="3"/>
       <c r="AH245" s="3"/>
       <c r="AI245" s="3"/>
-      <c r="AJ245" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ245" s="3"/>
+      <c r="AK245" s="3"/>
+      <c r="AL245" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A246" s="8"/>
       <c r="B246" s="4">
         <v>0</v>
@@ -13950,12 +14596,14 @@
       <c r="AG246" s="3"/>
       <c r="AH246" s="3"/>
       <c r="AI246" s="3"/>
-      <c r="AJ246" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ246" s="3"/>
+      <c r="AK246" s="3"/>
+      <c r="AL246" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A247" s="8"/>
       <c r="B247" s="4">
         <v>0</v>
@@ -13995,12 +14643,14 @@
       <c r="AG247" s="3"/>
       <c r="AH247" s="3"/>
       <c r="AI247" s="3"/>
-      <c r="AJ247" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ247" s="3"/>
+      <c r="AK247" s="3"/>
+      <c r="AL247" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A248" s="8"/>
       <c r="B248" s="4">
         <v>0</v>
@@ -14040,12 +14690,14 @@
       <c r="AG248" s="3"/>
       <c r="AH248" s="3"/>
       <c r="AI248" s="3"/>
-      <c r="AJ248" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ248" s="3"/>
+      <c r="AK248" s="3"/>
+      <c r="AL248" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A249" s="8"/>
       <c r="B249" s="4">
         <v>0</v>
@@ -14085,12 +14737,14 @@
       <c r="AG249" s="3"/>
       <c r="AH249" s="3"/>
       <c r="AI249" s="3"/>
-      <c r="AJ249" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ249" s="3"/>
+      <c r="AK249" s="3"/>
+      <c r="AL249" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A250" s="11"/>
       <c r="B250" s="12"/>
       <c r="C250" s="15"/>
@@ -14126,12 +14780,14 @@
       <c r="AG250" s="13"/>
       <c r="AH250" s="13"/>
       <c r="AI250" s="13"/>
-      <c r="AJ250" s="14">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ250" s="13"/>
+      <c r="AK250" s="13"/>
+      <c r="AL250" s="14">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A251" s="8"/>
       <c r="B251" s="4">
         <v>0</v>
@@ -14171,25 +14827,19 @@
       <c r="AG251" s="3"/>
       <c r="AH251" s="3"/>
       <c r="AI251" s="3"/>
-      <c r="AJ251" s="10">
+      <c r="AJ251" s="3"/>
+      <c r="AK251" s="3"/>
+      <c r="AL251" s="10">
         <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:AI200">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="E2:AK251">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E201:AI251">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/main/resources/templates/roastatstemplate.xlsx
+++ b/src/main/resources/templates/roastatstemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Jugador</t>
   </si>
@@ -128,6 +128,18 @@
   </si>
   <si>
     <t>RJT+</t>
+  </si>
+  <si>
+    <t>Fénix+</t>
+  </si>
+  <si>
+    <t>Rogue One +</t>
+  </si>
+  <si>
+    <t>S. Imp +</t>
+  </si>
+  <si>
+    <t>Cazarre +</t>
   </si>
 </sst>
 </file>
@@ -276,7 +288,7 @@
     <cellStyle name="Millares 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="86">
+  <dxfs count="90">
     <dxf>
       <font>
         <b val="0"/>
@@ -338,46 +350,6 @@
         </top>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1582,118 +1554,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1756,6 +1616,62 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1874,6 +1790,130 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2009,6 +2049,186 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2608,23 +2828,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:AL251" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84" totalsRowDxfId="82" tableBorderDxfId="83">
-  <autoFilter ref="A1:AL251"/>
-  <sortState ref="A2:AN197">
-    <sortCondition descending="1" ref="AL1:AL197"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:AP251" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88" totalsRowDxfId="86" tableBorderDxfId="87">
+  <autoFilter ref="A1:AP251"/>
+  <sortState ref="A2:AR197">
+    <sortCondition descending="1" ref="AP1:AP197"/>
   </sortState>
-  <tableColumns count="38">
-    <tableColumn id="1" name="Jugador" dataDxfId="81" totalsRowDxfId="80"/>
-    <tableColumn id="2" name="PG" dataDxfId="79" totalsRowDxfId="78"/>
-    <tableColumn id="24" name="Arena" dataDxfId="77" totalsRowDxfId="76"/>
-    <tableColumn id="22" name="Gremio" dataDxfId="75" totalsRowDxfId="74"/>
-    <tableColumn id="4" name="CLS" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="17" name="CLS+" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="29" name="GK" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="30" name="GK+" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="31" name="BB8" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="37" name="RJT" dataDxfId="8" totalsRowDxfId="9"/>
-    <tableColumn id="38" name="RJT+" dataDxfId="0" totalsRowDxfId="1"/>
+  <tableColumns count="42">
+    <tableColumn id="1" name="Jugador" dataDxfId="85" totalsRowDxfId="84"/>
+    <tableColumn id="2" name="PG" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="24" name="Arena" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="22" name="Gremio" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="4" name="CLS" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="17" name="CLS+" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="29" name="GK" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="30" name="GK+" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="31" name="BB8" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="37" name="RJT" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="38" name="RJT+" dataDxfId="65" totalsRowDxfId="64"/>
     <tableColumn id="5" name="Chan 5*" dataDxfId="63" totalsRowDxfId="62"/>
     <tableColumn id="18" name="Chan 7*" dataDxfId="61" totalsRowDxfId="60"/>
     <tableColumn id="6" name="ERH 6*" dataDxfId="59" totalsRowDxfId="58"/>
@@ -2632,26 +2852,30 @@
     <tableColumn id="3" name="ROLO" dataDxfId="55" totalsRowDxfId="54"/>
     <tableColumn id="34" name="Hermit Yoda" dataDxfId="53" totalsRowDxfId="52"/>
     <tableColumn id="8" name="Rogue One" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="9" name="Fénix" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="21" name="Naves 6*" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="10" name="Naves 7*" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="11" name="Vader" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="32" name="Thrawn" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="12" name=" Veers 5*" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="26" name=" Veers 7*" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="13" name="S.Nieves 5*" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="25" name="S.Nieves 7*" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="27" name="Starck 5*" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="28" name="Starck 7*" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="35" name="Imp. Probe Droid" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="36" name="Wampa" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="33" name="S. Imperiales" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="14" name="Cazarrecompensas" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="15" name="Executrix 6*" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="23" name="Executrix 7*" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="20" name="Chimera 5*" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="16" name="Chimera 7*" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="19" name="Total" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="40" name="Rogue One +" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="9" name="Fénix" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="39" name="Fénix+" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="21" name="Naves 6*" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="10" name="Naves 7*" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="11" name="Vader" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="32" name="Thrawn" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="12" name=" Veers 5*" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="26" name=" Veers 7*" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="13" name="S.Nieves 5*" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="25" name="S.Nieves 7*" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="27" name="Starck 5*" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="28" name="Starck 7*" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="35" name="Imp. Probe Droid" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="36" name="Wampa" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="33" name="S. Imperiales" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="41" name="S. Imp +" dataDxfId="4" totalsRowDxfId="5"/>
+    <tableColumn id="14" name="Cazarrecompensas" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="42" name="Cazarre +" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="15" name="Executrix 6*" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="23" name="Executrix 7*" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="20" name="Chimera 5*" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="16" name="Chimera 7*" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="19" name="Total" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2946,12 +3170,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL251"/>
+  <dimension ref="A1:AP251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A93" sqref="A93"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2960,19 +3184,19 @@
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="11" width="10" customWidth="1"/>
-    <col min="12" max="19" width="9.140625" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1"/>
-    <col min="22" max="23" width="10.5703125" customWidth="1"/>
-    <col min="24" max="25" width="10.85546875" customWidth="1"/>
-    <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="32" width="11" customWidth="1"/>
-    <col min="33" max="33" width="11.140625" customWidth="1"/>
-    <col min="34" max="36" width="13" customWidth="1"/>
-    <col min="37" max="37" width="15.5703125" customWidth="1"/>
+    <col min="12" max="21" width="9.140625" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" customWidth="1"/>
+    <col min="24" max="25" width="10.5703125" customWidth="1"/>
+    <col min="26" max="27" width="10.85546875" customWidth="1"/>
+    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="35" width="11" customWidth="1"/>
+    <col min="36" max="37" width="11.140625" customWidth="1"/>
+    <col min="38" max="40" width="13" customWidth="1"/>
+    <col min="41" max="41" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3028,67 +3252,79 @@
         <v>16</v>
       </c>
       <c r="S1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AP1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="4">
         <v>0</v>
@@ -3130,12 +3366,16 @@
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
       <c r="AK2" s="3"/>
-      <c r="AL2" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="4">
         <v>0</v>
@@ -3177,12 +3417,16 @@
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
       <c r="AK3" s="3"/>
-      <c r="AL3" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="4">
         <v>0</v>
@@ -3224,12 +3468,16 @@
       <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
       <c r="AK4" s="3"/>
-      <c r="AL4" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="4">
         <v>0</v>
@@ -3271,12 +3519,16 @@
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
       <c r="AK5" s="3"/>
-      <c r="AL5" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="4">
         <v>0</v>
@@ -3318,12 +3570,16 @@
       <c r="AI6" s="3"/>
       <c r="AJ6" s="3"/>
       <c r="AK6" s="3"/>
-      <c r="AL6" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="4">
         <v>0</v>
@@ -3365,12 +3621,16 @@
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
-      <c r="AL7" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="4">
         <v>0</v>
@@ -3412,12 +3672,16 @@
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
-      <c r="AL8" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="4">
         <v>0</v>
@@ -3459,12 +3723,16 @@
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
       <c r="AK9" s="3"/>
-      <c r="AL9" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="4">
         <v>0</v>
@@ -3506,12 +3774,16 @@
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
-      <c r="AL10" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="4">
         <v>0</v>
@@ -3553,12 +3825,16 @@
       <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
-      <c r="AL11" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="4">
         <v>0</v>
@@ -3600,12 +3876,16 @@
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
-      <c r="AL12" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="4">
         <v>0</v>
@@ -3647,12 +3927,16 @@
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
       <c r="AK13" s="3"/>
-      <c r="AL13" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="4">
         <v>0</v>
@@ -3694,12 +3978,16 @@
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
-      <c r="AL14" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="4">
         <v>0</v>
@@ -3741,12 +4029,16 @@
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
-      <c r="AL15" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="4">
         <v>0</v>
@@ -3788,12 +4080,16 @@
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
-      <c r="AL16" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="4">
         <v>0</v>
@@ -3835,12 +4131,16 @@
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
-      <c r="AL17" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="4">
         <v>0</v>
@@ -3882,12 +4182,16 @@
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
-      <c r="AL18" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="4">
         <v>0</v>
@@ -3929,12 +4233,16 @@
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
       <c r="AK19" s="3"/>
-      <c r="AL19" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="4">
         <v>0</v>
@@ -3976,12 +4284,16 @@
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
       <c r="AK20" s="3"/>
-      <c r="AL20" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="4">
         <v>0</v>
@@ -4023,12 +4335,16 @@
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3"/>
       <c r="AK21" s="3"/>
-      <c r="AL21" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="4">
         <v>0</v>
@@ -4070,12 +4386,16 @@
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
-      <c r="AL22" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="4">
         <v>0</v>
@@ -4117,12 +4437,16 @@
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
-      <c r="AL23" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="4">
         <v>0</v>
@@ -4164,12 +4488,16 @@
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
-      <c r="AL24" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="4">
         <v>0</v>
@@ -4211,12 +4539,16 @@
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
-      <c r="AL25" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="4">
         <v>0</v>
@@ -4258,12 +4590,16 @@
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
-      <c r="AL26" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="4">
         <v>0</v>
@@ -4305,12 +4641,16 @@
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
       <c r="AK27" s="3"/>
-      <c r="AL27" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="4">
         <v>0</v>
@@ -4352,12 +4692,16 @@
       <c r="AI28" s="3"/>
       <c r="AJ28" s="3"/>
       <c r="AK28" s="3"/>
-      <c r="AL28" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="4">
         <v>0</v>
@@ -4399,12 +4743,16 @@
       <c r="AI29" s="3"/>
       <c r="AJ29" s="3"/>
       <c r="AK29" s="3"/>
-      <c r="AL29" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="4">
         <v>0</v>
@@ -4446,12 +4794,16 @@
       <c r="AI30" s="3"/>
       <c r="AJ30" s="3"/>
       <c r="AK30" s="3"/>
-      <c r="AL30" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="4">
         <v>0</v>
@@ -4493,12 +4845,16 @@
       <c r="AI31" s="3"/>
       <c r="AJ31" s="3"/>
       <c r="AK31" s="3"/>
-      <c r="AL31" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="4">
         <v>0</v>
@@ -4540,12 +4896,16 @@
       <c r="AI32" s="3"/>
       <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
-      <c r="AL32" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="4">
         <v>0</v>
@@ -4587,12 +4947,16 @@
       <c r="AI33" s="3"/>
       <c r="AJ33" s="3"/>
       <c r="AK33" s="3"/>
-      <c r="AL33" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="4">
         <v>0</v>
@@ -4634,12 +4998,16 @@
       <c r="AI34" s="3"/>
       <c r="AJ34" s="3"/>
       <c r="AK34" s="3"/>
-      <c r="AL34" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="4">
         <v>0</v>
@@ -4681,12 +5049,16 @@
       <c r="AI35" s="3"/>
       <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
-      <c r="AL35" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL35" s="3"/>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="4">
         <v>0</v>
@@ -4728,12 +5100,16 @@
       <c r="AI36" s="3"/>
       <c r="AJ36" s="3"/>
       <c r="AK36" s="3"/>
-      <c r="AL36" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="4">
         <v>0</v>
@@ -4775,12 +5151,16 @@
       <c r="AI37" s="3"/>
       <c r="AJ37" s="3"/>
       <c r="AK37" s="3"/>
-      <c r="AL37" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="4">
         <v>0</v>
@@ -4822,12 +5202,16 @@
       <c r="AI38" s="3"/>
       <c r="AJ38" s="3"/>
       <c r="AK38" s="3"/>
-      <c r="AL38" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL38" s="3"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="4">
         <v>0</v>
@@ -4869,12 +5253,16 @@
       <c r="AI39" s="3"/>
       <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
-      <c r="AL39" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL39" s="3"/>
+      <c r="AM39" s="3"/>
+      <c r="AN39" s="3"/>
+      <c r="AO39" s="3"/>
+      <c r="AP39" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="4">
         <v>0</v>
@@ -4916,12 +5304,16 @@
       <c r="AI40" s="3"/>
       <c r="AJ40" s="3"/>
       <c r="AK40" s="3"/>
-      <c r="AL40" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL40" s="3"/>
+      <c r="AM40" s="3"/>
+      <c r="AN40" s="3"/>
+      <c r="AO40" s="3"/>
+      <c r="AP40" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="4">
         <v>0</v>
@@ -4963,12 +5355,16 @@
       <c r="AI41" s="3"/>
       <c r="AJ41" s="3"/>
       <c r="AK41" s="3"/>
-      <c r="AL41" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL41" s="3"/>
+      <c r="AM41" s="3"/>
+      <c r="AN41" s="3"/>
+      <c r="AO41" s="3"/>
+      <c r="AP41" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="4">
         <v>0</v>
@@ -5010,12 +5406,16 @@
       <c r="AI42" s="3"/>
       <c r="AJ42" s="3"/>
       <c r="AK42" s="3"/>
-      <c r="AL42" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL42" s="3"/>
+      <c r="AM42" s="3"/>
+      <c r="AN42" s="3"/>
+      <c r="AO42" s="3"/>
+      <c r="AP42" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="4">
         <v>0</v>
@@ -5057,12 +5457,16 @@
       <c r="AI43" s="3"/>
       <c r="AJ43" s="3"/>
       <c r="AK43" s="3"/>
-      <c r="AL43" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL43" s="3"/>
+      <c r="AM43" s="3"/>
+      <c r="AN43" s="3"/>
+      <c r="AO43" s="3"/>
+      <c r="AP43" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="4">
         <v>0</v>
@@ -5104,12 +5508,16 @@
       <c r="AI44" s="3"/>
       <c r="AJ44" s="3"/>
       <c r="AK44" s="3"/>
-      <c r="AL44" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL44" s="3"/>
+      <c r="AM44" s="3"/>
+      <c r="AN44" s="3"/>
+      <c r="AO44" s="3"/>
+      <c r="AP44" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="4">
         <v>0</v>
@@ -5151,12 +5559,16 @@
       <c r="AI45" s="3"/>
       <c r="AJ45" s="3"/>
       <c r="AK45" s="3"/>
-      <c r="AL45" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL45" s="3"/>
+      <c r="AM45" s="3"/>
+      <c r="AN45" s="3"/>
+      <c r="AO45" s="3"/>
+      <c r="AP45" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="4">
         <v>0</v>
@@ -5198,12 +5610,16 @@
       <c r="AI46" s="3"/>
       <c r="AJ46" s="3"/>
       <c r="AK46" s="3"/>
-      <c r="AL46" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL46" s="3"/>
+      <c r="AM46" s="3"/>
+      <c r="AN46" s="3"/>
+      <c r="AO46" s="3"/>
+      <c r="AP46" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="4">
         <v>0</v>
@@ -5245,12 +5661,16 @@
       <c r="AI47" s="3"/>
       <c r="AJ47" s="3"/>
       <c r="AK47" s="3"/>
-      <c r="AL47" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL47" s="3"/>
+      <c r="AM47" s="3"/>
+      <c r="AN47" s="3"/>
+      <c r="AO47" s="3"/>
+      <c r="AP47" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="4">
         <v>0</v>
@@ -5292,12 +5712,16 @@
       <c r="AI48" s="3"/>
       <c r="AJ48" s="3"/>
       <c r="AK48" s="3"/>
-      <c r="AL48" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL48" s="3"/>
+      <c r="AM48" s="3"/>
+      <c r="AN48" s="3"/>
+      <c r="AO48" s="3"/>
+      <c r="AP48" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="4">
         <v>0</v>
@@ -5339,12 +5763,16 @@
       <c r="AI49" s="3"/>
       <c r="AJ49" s="3"/>
       <c r="AK49" s="3"/>
-      <c r="AL49" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL49" s="3"/>
+      <c r="AM49" s="3"/>
+      <c r="AN49" s="3"/>
+      <c r="AO49" s="3"/>
+      <c r="AP49" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="4">
         <v>0</v>
@@ -5386,12 +5814,16 @@
       <c r="AI50" s="3"/>
       <c r="AJ50" s="3"/>
       <c r="AK50" s="3"/>
-      <c r="AL50" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL50" s="3"/>
+      <c r="AM50" s="3"/>
+      <c r="AN50" s="3"/>
+      <c r="AO50" s="3"/>
+      <c r="AP50" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="4">
         <v>0</v>
@@ -5433,12 +5865,16 @@
       <c r="AI51" s="3"/>
       <c r="AJ51" s="3"/>
       <c r="AK51" s="3"/>
-      <c r="AL51" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL51" s="3"/>
+      <c r="AM51" s="3"/>
+      <c r="AN51" s="3"/>
+      <c r="AO51" s="3"/>
+      <c r="AP51" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="4">
         <v>0</v>
@@ -5480,12 +5916,16 @@
       <c r="AI52" s="3"/>
       <c r="AJ52" s="3"/>
       <c r="AK52" s="3"/>
-      <c r="AL52" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL52" s="3"/>
+      <c r="AM52" s="3"/>
+      <c r="AN52" s="3"/>
+      <c r="AO52" s="3"/>
+      <c r="AP52" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="4">
         <v>0</v>
@@ -5527,12 +5967,16 @@
       <c r="AI53" s="3"/>
       <c r="AJ53" s="3"/>
       <c r="AK53" s="3"/>
-      <c r="AL53" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL53" s="3"/>
+      <c r="AM53" s="3"/>
+      <c r="AN53" s="3"/>
+      <c r="AO53" s="3"/>
+      <c r="AP53" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="4">
         <v>0</v>
@@ -5574,12 +6018,16 @@
       <c r="AI54" s="3"/>
       <c r="AJ54" s="3"/>
       <c r="AK54" s="3"/>
-      <c r="AL54" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL54" s="3"/>
+      <c r="AM54" s="3"/>
+      <c r="AN54" s="3"/>
+      <c r="AO54" s="3"/>
+      <c r="AP54" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="4">
         <v>0</v>
@@ -5621,12 +6069,16 @@
       <c r="AI55" s="3"/>
       <c r="AJ55" s="3"/>
       <c r="AK55" s="3"/>
-      <c r="AL55" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL55" s="3"/>
+      <c r="AM55" s="3"/>
+      <c r="AN55" s="3"/>
+      <c r="AO55" s="3"/>
+      <c r="AP55" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="4">
         <v>0</v>
@@ -5668,12 +6120,16 @@
       <c r="AI56" s="3"/>
       <c r="AJ56" s="3"/>
       <c r="AK56" s="3"/>
-      <c r="AL56" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL56" s="3"/>
+      <c r="AM56" s="3"/>
+      <c r="AN56" s="3"/>
+      <c r="AO56" s="3"/>
+      <c r="AP56" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="4">
         <v>0</v>
@@ -5715,12 +6171,16 @@
       <c r="AI57" s="3"/>
       <c r="AJ57" s="3"/>
       <c r="AK57" s="3"/>
-      <c r="AL57" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL57" s="3"/>
+      <c r="AM57" s="3"/>
+      <c r="AN57" s="3"/>
+      <c r="AO57" s="3"/>
+      <c r="AP57" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="4">
         <v>0</v>
@@ -5762,12 +6222,16 @@
       <c r="AI58" s="3"/>
       <c r="AJ58" s="3"/>
       <c r="AK58" s="3"/>
-      <c r="AL58" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL58" s="3"/>
+      <c r="AM58" s="3"/>
+      <c r="AN58" s="3"/>
+      <c r="AO58" s="3"/>
+      <c r="AP58" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="4">
         <v>0</v>
@@ -5809,12 +6273,16 @@
       <c r="AI59" s="3"/>
       <c r="AJ59" s="3"/>
       <c r="AK59" s="3"/>
-      <c r="AL59" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL59" s="3"/>
+      <c r="AM59" s="3"/>
+      <c r="AN59" s="3"/>
+      <c r="AO59" s="3"/>
+      <c r="AP59" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="4">
         <v>0</v>
@@ -5856,12 +6324,16 @@
       <c r="AI60" s="3"/>
       <c r="AJ60" s="3"/>
       <c r="AK60" s="3"/>
-      <c r="AL60" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL60" s="3"/>
+      <c r="AM60" s="3"/>
+      <c r="AN60" s="3"/>
+      <c r="AO60" s="3"/>
+      <c r="AP60" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="4">
         <v>0</v>
@@ -5903,12 +6375,16 @@
       <c r="AI61" s="3"/>
       <c r="AJ61" s="3"/>
       <c r="AK61" s="3"/>
-      <c r="AL61" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL61" s="3"/>
+      <c r="AM61" s="3"/>
+      <c r="AN61" s="3"/>
+      <c r="AO61" s="3"/>
+      <c r="AP61" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="4">
         <v>0</v>
@@ -5950,12 +6426,16 @@
       <c r="AI62" s="3"/>
       <c r="AJ62" s="3"/>
       <c r="AK62" s="3"/>
-      <c r="AL62" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL62" s="3"/>
+      <c r="AM62" s="3"/>
+      <c r="AN62" s="3"/>
+      <c r="AO62" s="3"/>
+      <c r="AP62" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="4">
         <v>0</v>
@@ -5997,12 +6477,16 @@
       <c r="AI63" s="3"/>
       <c r="AJ63" s="3"/>
       <c r="AK63" s="3"/>
-      <c r="AL63" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL63" s="3"/>
+      <c r="AM63" s="3"/>
+      <c r="AN63" s="3"/>
+      <c r="AO63" s="3"/>
+      <c r="AP63" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="4">
         <v>0</v>
@@ -6044,12 +6528,16 @@
       <c r="AI64" s="3"/>
       <c r="AJ64" s="3"/>
       <c r="AK64" s="3"/>
-      <c r="AL64" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL64" s="3"/>
+      <c r="AM64" s="3"/>
+      <c r="AN64" s="3"/>
+      <c r="AO64" s="3"/>
+      <c r="AP64" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="4">
         <v>0</v>
@@ -6091,12 +6579,16 @@
       <c r="AI65" s="3"/>
       <c r="AJ65" s="3"/>
       <c r="AK65" s="3"/>
-      <c r="AL65" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL65" s="3"/>
+      <c r="AM65" s="3"/>
+      <c r="AN65" s="3"/>
+      <c r="AO65" s="3"/>
+      <c r="AP65" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="4">
         <v>0</v>
@@ -6138,12 +6630,16 @@
       <c r="AI66" s="3"/>
       <c r="AJ66" s="3"/>
       <c r="AK66" s="3"/>
-      <c r="AL66" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL66" s="3"/>
+      <c r="AM66" s="3"/>
+      <c r="AN66" s="3"/>
+      <c r="AO66" s="3"/>
+      <c r="AP66" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="4">
         <v>0</v>
@@ -6185,12 +6681,16 @@
       <c r="AI67" s="3"/>
       <c r="AJ67" s="3"/>
       <c r="AK67" s="3"/>
-      <c r="AL67" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL67" s="3"/>
+      <c r="AM67" s="3"/>
+      <c r="AN67" s="3"/>
+      <c r="AO67" s="3"/>
+      <c r="AP67" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="4">
         <v>0</v>
@@ -6232,12 +6732,16 @@
       <c r="AI68" s="3"/>
       <c r="AJ68" s="3"/>
       <c r="AK68" s="3"/>
-      <c r="AL68" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL68" s="3"/>
+      <c r="AM68" s="3"/>
+      <c r="AN68" s="3"/>
+      <c r="AO68" s="3"/>
+      <c r="AP68" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="4">
         <v>0</v>
@@ -6279,12 +6783,16 @@
       <c r="AI69" s="3"/>
       <c r="AJ69" s="3"/>
       <c r="AK69" s="3"/>
-      <c r="AL69" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL69" s="3"/>
+      <c r="AM69" s="3"/>
+      <c r="AN69" s="3"/>
+      <c r="AO69" s="3"/>
+      <c r="AP69" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="4">
         <v>0</v>
@@ -6326,12 +6834,16 @@
       <c r="AI70" s="3"/>
       <c r="AJ70" s="3"/>
       <c r="AK70" s="3"/>
-      <c r="AL70" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL70" s="3"/>
+      <c r="AM70" s="3"/>
+      <c r="AN70" s="3"/>
+      <c r="AO70" s="3"/>
+      <c r="AP70" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="4">
         <v>0</v>
@@ -6373,12 +6885,16 @@
       <c r="AI71" s="3"/>
       <c r="AJ71" s="3"/>
       <c r="AK71" s="3"/>
-      <c r="AL71" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL71" s="3"/>
+      <c r="AM71" s="3"/>
+      <c r="AN71" s="3"/>
+      <c r="AO71" s="3"/>
+      <c r="AP71" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="4">
         <v>0</v>
@@ -6420,12 +6936,16 @@
       <c r="AI72" s="3"/>
       <c r="AJ72" s="3"/>
       <c r="AK72" s="3"/>
-      <c r="AL72" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL72" s="3"/>
+      <c r="AM72" s="3"/>
+      <c r="AN72" s="3"/>
+      <c r="AO72" s="3"/>
+      <c r="AP72" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="4">
         <v>0</v>
@@ -6467,12 +6987,16 @@
       <c r="AI73" s="3"/>
       <c r="AJ73" s="3"/>
       <c r="AK73" s="3"/>
-      <c r="AL73" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL73" s="3"/>
+      <c r="AM73" s="3"/>
+      <c r="AN73" s="3"/>
+      <c r="AO73" s="3"/>
+      <c r="AP73" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="4">
         <v>0</v>
@@ -6514,12 +7038,16 @@
       <c r="AI74" s="3"/>
       <c r="AJ74" s="3"/>
       <c r="AK74" s="3"/>
-      <c r="AL74" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL74" s="3"/>
+      <c r="AM74" s="3"/>
+      <c r="AN74" s="3"/>
+      <c r="AO74" s="3"/>
+      <c r="AP74" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="4">
         <v>0</v>
@@ -6561,12 +7089,16 @@
       <c r="AI75" s="3"/>
       <c r="AJ75" s="3"/>
       <c r="AK75" s="3"/>
-      <c r="AL75" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL75" s="3"/>
+      <c r="AM75" s="3"/>
+      <c r="AN75" s="3"/>
+      <c r="AO75" s="3"/>
+      <c r="AP75" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="4">
         <v>0</v>
@@ -6608,12 +7140,16 @@
       <c r="AI76" s="3"/>
       <c r="AJ76" s="3"/>
       <c r="AK76" s="3"/>
-      <c r="AL76" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL76" s="3"/>
+      <c r="AM76" s="3"/>
+      <c r="AN76" s="3"/>
+      <c r="AO76" s="3"/>
+      <c r="AP76" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="4">
         <v>0</v>
@@ -6655,12 +7191,16 @@
       <c r="AI77" s="3"/>
       <c r="AJ77" s="3"/>
       <c r="AK77" s="3"/>
-      <c r="AL77" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL77" s="3"/>
+      <c r="AM77" s="3"/>
+      <c r="AN77" s="3"/>
+      <c r="AO77" s="3"/>
+      <c r="AP77" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="4">
         <v>0</v>
@@ -6702,12 +7242,16 @@
       <c r="AI78" s="3"/>
       <c r="AJ78" s="3"/>
       <c r="AK78" s="3"/>
-      <c r="AL78" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL78" s="3"/>
+      <c r="AM78" s="3"/>
+      <c r="AN78" s="3"/>
+      <c r="AO78" s="3"/>
+      <c r="AP78" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="4">
         <v>0</v>
@@ -6749,12 +7293,16 @@
       <c r="AI79" s="3"/>
       <c r="AJ79" s="3"/>
       <c r="AK79" s="3"/>
-      <c r="AL79" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL79" s="3"/>
+      <c r="AM79" s="3"/>
+      <c r="AN79" s="3"/>
+      <c r="AO79" s="3"/>
+      <c r="AP79" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="4">
         <v>0</v>
@@ -6796,12 +7344,16 @@
       <c r="AI80" s="3"/>
       <c r="AJ80" s="3"/>
       <c r="AK80" s="3"/>
-      <c r="AL80" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL80" s="3"/>
+      <c r="AM80" s="3"/>
+      <c r="AN80" s="3"/>
+      <c r="AO80" s="3"/>
+      <c r="AP80" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="4">
         <v>0</v>
@@ -6843,12 +7395,16 @@
       <c r="AI81" s="3"/>
       <c r="AJ81" s="3"/>
       <c r="AK81" s="3"/>
-      <c r="AL81" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL81" s="3"/>
+      <c r="AM81" s="3"/>
+      <c r="AN81" s="3"/>
+      <c r="AO81" s="3"/>
+      <c r="AP81" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="4">
         <v>0</v>
@@ -6890,12 +7446,16 @@
       <c r="AI82" s="3"/>
       <c r="AJ82" s="3"/>
       <c r="AK82" s="3"/>
-      <c r="AL82" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL82" s="3"/>
+      <c r="AM82" s="3"/>
+      <c r="AN82" s="3"/>
+      <c r="AO82" s="3"/>
+      <c r="AP82" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="4">
         <v>0</v>
@@ -6937,12 +7497,16 @@
       <c r="AI83" s="3"/>
       <c r="AJ83" s="3"/>
       <c r="AK83" s="3"/>
-      <c r="AL83" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL83" s="3"/>
+      <c r="AM83" s="3"/>
+      <c r="AN83" s="3"/>
+      <c r="AO83" s="3"/>
+      <c r="AP83" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="4">
         <v>0</v>
@@ -6984,12 +7548,16 @@
       <c r="AI84" s="3"/>
       <c r="AJ84" s="3"/>
       <c r="AK84" s="3"/>
-      <c r="AL84" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL84" s="3"/>
+      <c r="AM84" s="3"/>
+      <c r="AN84" s="3"/>
+      <c r="AO84" s="3"/>
+      <c r="AP84" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="4">
         <v>0</v>
@@ -7031,12 +7599,16 @@
       <c r="AI85" s="3"/>
       <c r="AJ85" s="3"/>
       <c r="AK85" s="3"/>
-      <c r="AL85" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL85" s="3"/>
+      <c r="AM85" s="3"/>
+      <c r="AN85" s="3"/>
+      <c r="AO85" s="3"/>
+      <c r="AP85" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="4">
         <v>0</v>
@@ -7078,12 +7650,16 @@
       <c r="AI86" s="3"/>
       <c r="AJ86" s="3"/>
       <c r="AK86" s="3"/>
-      <c r="AL86" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL86" s="3"/>
+      <c r="AM86" s="3"/>
+      <c r="AN86" s="3"/>
+      <c r="AO86" s="3"/>
+      <c r="AP86" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="4">
         <v>0</v>
@@ -7125,12 +7701,16 @@
       <c r="AI87" s="3"/>
       <c r="AJ87" s="3"/>
       <c r="AK87" s="3"/>
-      <c r="AL87" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL87" s="3"/>
+      <c r="AM87" s="3"/>
+      <c r="AN87" s="3"/>
+      <c r="AO87" s="3"/>
+      <c r="AP87" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="4">
         <v>0</v>
@@ -7172,12 +7752,16 @@
       <c r="AI88" s="3"/>
       <c r="AJ88" s="3"/>
       <c r="AK88" s="3"/>
-      <c r="AL88" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL88" s="3"/>
+      <c r="AM88" s="3"/>
+      <c r="AN88" s="3"/>
+      <c r="AO88" s="3"/>
+      <c r="AP88" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="4">
         <v>0</v>
@@ -7219,12 +7803,16 @@
       <c r="AI89" s="3"/>
       <c r="AJ89" s="3"/>
       <c r="AK89" s="3"/>
-      <c r="AL89" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL89" s="3"/>
+      <c r="AM89" s="3"/>
+      <c r="AN89" s="3"/>
+      <c r="AO89" s="3"/>
+      <c r="AP89" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="4">
         <v>0</v>
@@ -7266,12 +7854,16 @@
       <c r="AI90" s="3"/>
       <c r="AJ90" s="3"/>
       <c r="AK90" s="3"/>
-      <c r="AL90" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL90" s="3"/>
+      <c r="AM90" s="3"/>
+      <c r="AN90" s="3"/>
+      <c r="AO90" s="3"/>
+      <c r="AP90" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="4">
         <v>0</v>
@@ -7313,12 +7905,16 @@
       <c r="AI91" s="3"/>
       <c r="AJ91" s="3"/>
       <c r="AK91" s="3"/>
-      <c r="AL91" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL91" s="3"/>
+      <c r="AM91" s="3"/>
+      <c r="AN91" s="3"/>
+      <c r="AO91" s="3"/>
+      <c r="AP91" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="4">
         <v>0</v>
@@ -7360,12 +7956,16 @@
       <c r="AI92" s="3"/>
       <c r="AJ92" s="3"/>
       <c r="AK92" s="3"/>
-      <c r="AL92" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL92" s="3"/>
+      <c r="AM92" s="3"/>
+      <c r="AN92" s="3"/>
+      <c r="AO92" s="3"/>
+      <c r="AP92" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="4">
         <v>0</v>
@@ -7407,12 +8007,16 @@
       <c r="AI93" s="3"/>
       <c r="AJ93" s="3"/>
       <c r="AK93" s="3"/>
-      <c r="AL93" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL93" s="3"/>
+      <c r="AM93" s="3"/>
+      <c r="AN93" s="3"/>
+      <c r="AO93" s="3"/>
+      <c r="AP93" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="4">
         <v>0</v>
@@ -7454,12 +8058,16 @@
       <c r="AI94" s="3"/>
       <c r="AJ94" s="3"/>
       <c r="AK94" s="3"/>
-      <c r="AL94" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL94" s="3"/>
+      <c r="AM94" s="3"/>
+      <c r="AN94" s="3"/>
+      <c r="AO94" s="3"/>
+      <c r="AP94" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="4">
         <v>0</v>
@@ -7501,12 +8109,16 @@
       <c r="AI95" s="3"/>
       <c r="AJ95" s="3"/>
       <c r="AK95" s="3"/>
-      <c r="AL95" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL95" s="3"/>
+      <c r="AM95" s="3"/>
+      <c r="AN95" s="3"/>
+      <c r="AO95" s="3"/>
+      <c r="AP95" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="4">
         <v>0</v>
@@ -7548,12 +8160,16 @@
       <c r="AI96" s="3"/>
       <c r="AJ96" s="3"/>
       <c r="AK96" s="3"/>
-      <c r="AL96" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL96" s="3"/>
+      <c r="AM96" s="3"/>
+      <c r="AN96" s="3"/>
+      <c r="AO96" s="3"/>
+      <c r="AP96" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="4">
         <v>0</v>
@@ -7595,12 +8211,16 @@
       <c r="AI97" s="3"/>
       <c r="AJ97" s="3"/>
       <c r="AK97" s="3"/>
-      <c r="AL97" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL97" s="3"/>
+      <c r="AM97" s="3"/>
+      <c r="AN97" s="3"/>
+      <c r="AO97" s="3"/>
+      <c r="AP97" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="4">
         <v>0</v>
@@ -7642,12 +8262,16 @@
       <c r="AI98" s="3"/>
       <c r="AJ98" s="3"/>
       <c r="AK98" s="3"/>
-      <c r="AL98" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL98" s="3"/>
+      <c r="AM98" s="3"/>
+      <c r="AN98" s="3"/>
+      <c r="AO98" s="3"/>
+      <c r="AP98" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="4">
         <v>0</v>
@@ -7689,12 +8313,16 @@
       <c r="AI99" s="3"/>
       <c r="AJ99" s="3"/>
       <c r="AK99" s="3"/>
-      <c r="AL99" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL99" s="3"/>
+      <c r="AM99" s="3"/>
+      <c r="AN99" s="3"/>
+      <c r="AO99" s="3"/>
+      <c r="AP99" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="4">
         <v>0</v>
@@ -7736,12 +8364,16 @@
       <c r="AI100" s="3"/>
       <c r="AJ100" s="3"/>
       <c r="AK100" s="3"/>
-      <c r="AL100" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL100" s="3"/>
+      <c r="AM100" s="3"/>
+      <c r="AN100" s="3"/>
+      <c r="AO100" s="3"/>
+      <c r="AP100" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="4">
         <v>0</v>
@@ -7783,12 +8415,16 @@
       <c r="AI101" s="3"/>
       <c r="AJ101" s="3"/>
       <c r="AK101" s="3"/>
-      <c r="AL101" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL101" s="3"/>
+      <c r="AM101" s="3"/>
+      <c r="AN101" s="3"/>
+      <c r="AO101" s="3"/>
+      <c r="AP101" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="4">
         <v>0</v>
@@ -7830,12 +8466,16 @@
       <c r="AI102" s="3"/>
       <c r="AJ102" s="3"/>
       <c r="AK102" s="3"/>
-      <c r="AL102" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL102" s="3"/>
+      <c r="AM102" s="3"/>
+      <c r="AN102" s="3"/>
+      <c r="AO102" s="3"/>
+      <c r="AP102" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="4">
         <v>0</v>
@@ -7877,12 +8517,16 @@
       <c r="AI103" s="3"/>
       <c r="AJ103" s="3"/>
       <c r="AK103" s="3"/>
-      <c r="AL103" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL103" s="3"/>
+      <c r="AM103" s="3"/>
+      <c r="AN103" s="3"/>
+      <c r="AO103" s="3"/>
+      <c r="AP103" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="4">
         <v>0</v>
@@ -7924,12 +8568,16 @@
       <c r="AI104" s="3"/>
       <c r="AJ104" s="3"/>
       <c r="AK104" s="3"/>
-      <c r="AL104" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL104" s="3"/>
+      <c r="AM104" s="3"/>
+      <c r="AN104" s="3"/>
+      <c r="AO104" s="3"/>
+      <c r="AP104" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="4">
         <v>0</v>
@@ -7971,12 +8619,16 @@
       <c r="AI105" s="3"/>
       <c r="AJ105" s="3"/>
       <c r="AK105" s="3"/>
-      <c r="AL105" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL105" s="3"/>
+      <c r="AM105" s="3"/>
+      <c r="AN105" s="3"/>
+      <c r="AO105" s="3"/>
+      <c r="AP105" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="4">
         <v>0</v>
@@ -8018,12 +8670,16 @@
       <c r="AI106" s="3"/>
       <c r="AJ106" s="3"/>
       <c r="AK106" s="3"/>
-      <c r="AL106" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL106" s="3"/>
+      <c r="AM106" s="3"/>
+      <c r="AN106" s="3"/>
+      <c r="AO106" s="3"/>
+      <c r="AP106" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="4">
         <v>0</v>
@@ -8065,12 +8721,16 @@
       <c r="AI107" s="3"/>
       <c r="AJ107" s="3"/>
       <c r="AK107" s="3"/>
-      <c r="AL107" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL107" s="3"/>
+      <c r="AM107" s="3"/>
+      <c r="AN107" s="3"/>
+      <c r="AO107" s="3"/>
+      <c r="AP107" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="4">
         <v>0</v>
@@ -8112,12 +8772,16 @@
       <c r="AI108" s="3"/>
       <c r="AJ108" s="3"/>
       <c r="AK108" s="3"/>
-      <c r="AL108" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL108" s="3"/>
+      <c r="AM108" s="3"/>
+      <c r="AN108" s="3"/>
+      <c r="AO108" s="3"/>
+      <c r="AP108" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="4">
         <v>0</v>
@@ -8159,12 +8823,16 @@
       <c r="AI109" s="3"/>
       <c r="AJ109" s="3"/>
       <c r="AK109" s="3"/>
-      <c r="AL109" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL109" s="3"/>
+      <c r="AM109" s="3"/>
+      <c r="AN109" s="3"/>
+      <c r="AO109" s="3"/>
+      <c r="AP109" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="4">
         <v>0</v>
@@ -8206,12 +8874,16 @@
       <c r="AI110" s="3"/>
       <c r="AJ110" s="3"/>
       <c r="AK110" s="3"/>
-      <c r="AL110" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL110" s="3"/>
+      <c r="AM110" s="3"/>
+      <c r="AN110" s="3"/>
+      <c r="AO110" s="3"/>
+      <c r="AP110" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="4">
         <v>0</v>
@@ -8253,12 +8925,16 @@
       <c r="AI111" s="3"/>
       <c r="AJ111" s="3"/>
       <c r="AK111" s="3"/>
-      <c r="AL111" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL111" s="3"/>
+      <c r="AM111" s="3"/>
+      <c r="AN111" s="3"/>
+      <c r="AO111" s="3"/>
+      <c r="AP111" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="4">
         <v>0</v>
@@ -8300,12 +8976,16 @@
       <c r="AI112" s="3"/>
       <c r="AJ112" s="3"/>
       <c r="AK112" s="3"/>
-      <c r="AL112" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL112" s="3"/>
+      <c r="AM112" s="3"/>
+      <c r="AN112" s="3"/>
+      <c r="AO112" s="3"/>
+      <c r="AP112" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="4">
         <v>0</v>
@@ -8347,12 +9027,16 @@
       <c r="AI113" s="3"/>
       <c r="AJ113" s="3"/>
       <c r="AK113" s="3"/>
-      <c r="AL113" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL113" s="3"/>
+      <c r="AM113" s="3"/>
+      <c r="AN113" s="3"/>
+      <c r="AO113" s="3"/>
+      <c r="AP113" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="4">
         <v>0</v>
@@ -8394,12 +9078,16 @@
       <c r="AI114" s="3"/>
       <c r="AJ114" s="3"/>
       <c r="AK114" s="3"/>
-      <c r="AL114" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL114" s="3"/>
+      <c r="AM114" s="3"/>
+      <c r="AN114" s="3"/>
+      <c r="AO114" s="3"/>
+      <c r="AP114" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="4">
         <v>0</v>
@@ -8441,12 +9129,16 @@
       <c r="AI115" s="3"/>
       <c r="AJ115" s="3"/>
       <c r="AK115" s="3"/>
-      <c r="AL115" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL115" s="3"/>
+      <c r="AM115" s="3"/>
+      <c r="AN115" s="3"/>
+      <c r="AO115" s="3"/>
+      <c r="AP115" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="4">
         <v>0</v>
@@ -8488,12 +9180,16 @@
       <c r="AI116" s="3"/>
       <c r="AJ116" s="3"/>
       <c r="AK116" s="3"/>
-      <c r="AL116" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL116" s="3"/>
+      <c r="AM116" s="3"/>
+      <c r="AN116" s="3"/>
+      <c r="AO116" s="3"/>
+      <c r="AP116" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="4">
         <v>0</v>
@@ -8535,12 +9231,16 @@
       <c r="AI117" s="3"/>
       <c r="AJ117" s="3"/>
       <c r="AK117" s="3"/>
-      <c r="AL117" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL117" s="3"/>
+      <c r="AM117" s="3"/>
+      <c r="AN117" s="3"/>
+      <c r="AO117" s="3"/>
+      <c r="AP117" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="4">
         <v>0</v>
@@ -8582,12 +9282,16 @@
       <c r="AI118" s="3"/>
       <c r="AJ118" s="3"/>
       <c r="AK118" s="3"/>
-      <c r="AL118" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL118" s="3"/>
+      <c r="AM118" s="3"/>
+      <c r="AN118" s="3"/>
+      <c r="AO118" s="3"/>
+      <c r="AP118" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="4">
         <v>0</v>
@@ -8629,12 +9333,16 @@
       <c r="AI119" s="3"/>
       <c r="AJ119" s="3"/>
       <c r="AK119" s="3"/>
-      <c r="AL119" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL119" s="3"/>
+      <c r="AM119" s="3"/>
+      <c r="AN119" s="3"/>
+      <c r="AO119" s="3"/>
+      <c r="AP119" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="4">
         <v>0</v>
@@ -8676,12 +9384,16 @@
       <c r="AI120" s="3"/>
       <c r="AJ120" s="3"/>
       <c r="AK120" s="3"/>
-      <c r="AL120" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL120" s="3"/>
+      <c r="AM120" s="3"/>
+      <c r="AN120" s="3"/>
+      <c r="AO120" s="3"/>
+      <c r="AP120" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="4">
         <v>0</v>
@@ -8723,12 +9435,16 @@
       <c r="AI121" s="3"/>
       <c r="AJ121" s="3"/>
       <c r="AK121" s="3"/>
-      <c r="AL121" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL121" s="3"/>
+      <c r="AM121" s="3"/>
+      <c r="AN121" s="3"/>
+      <c r="AO121" s="3"/>
+      <c r="AP121" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="4">
         <v>0</v>
@@ -8770,12 +9486,16 @@
       <c r="AI122" s="3"/>
       <c r="AJ122" s="3"/>
       <c r="AK122" s="3"/>
-      <c r="AL122" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL122" s="3"/>
+      <c r="AM122" s="3"/>
+      <c r="AN122" s="3"/>
+      <c r="AO122" s="3"/>
+      <c r="AP122" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="4">
         <v>0</v>
@@ -8817,12 +9537,16 @@
       <c r="AI123" s="3"/>
       <c r="AJ123" s="3"/>
       <c r="AK123" s="3"/>
-      <c r="AL123" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL123" s="3"/>
+      <c r="AM123" s="3"/>
+      <c r="AN123" s="3"/>
+      <c r="AO123" s="3"/>
+      <c r="AP123" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="4">
         <v>0</v>
@@ -8864,12 +9588,16 @@
       <c r="AI124" s="3"/>
       <c r="AJ124" s="3"/>
       <c r="AK124" s="3"/>
-      <c r="AL124" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL124" s="3"/>
+      <c r="AM124" s="3"/>
+      <c r="AN124" s="3"/>
+      <c r="AO124" s="3"/>
+      <c r="AP124" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="4">
         <v>0</v>
@@ -8911,12 +9639,16 @@
       <c r="AI125" s="3"/>
       <c r="AJ125" s="3"/>
       <c r="AK125" s="3"/>
-      <c r="AL125" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL125" s="3"/>
+      <c r="AM125" s="3"/>
+      <c r="AN125" s="3"/>
+      <c r="AO125" s="3"/>
+      <c r="AP125" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="4">
         <v>0</v>
@@ -8958,12 +9690,16 @@
       <c r="AI126" s="3"/>
       <c r="AJ126" s="3"/>
       <c r="AK126" s="3"/>
-      <c r="AL126" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL126" s="3"/>
+      <c r="AM126" s="3"/>
+      <c r="AN126" s="3"/>
+      <c r="AO126" s="3"/>
+      <c r="AP126" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="4">
         <v>0</v>
@@ -9005,12 +9741,16 @@
       <c r="AI127" s="3"/>
       <c r="AJ127" s="3"/>
       <c r="AK127" s="3"/>
-      <c r="AL127" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL127" s="3"/>
+      <c r="AM127" s="3"/>
+      <c r="AN127" s="3"/>
+      <c r="AO127" s="3"/>
+      <c r="AP127" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="4">
         <v>0</v>
@@ -9052,12 +9792,16 @@
       <c r="AI128" s="3"/>
       <c r="AJ128" s="3"/>
       <c r="AK128" s="3"/>
-      <c r="AL128" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL128" s="3"/>
+      <c r="AM128" s="3"/>
+      <c r="AN128" s="3"/>
+      <c r="AO128" s="3"/>
+      <c r="AP128" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="4">
         <v>0</v>
@@ -9099,12 +9843,16 @@
       <c r="AI129" s="3"/>
       <c r="AJ129" s="3"/>
       <c r="AK129" s="3"/>
-      <c r="AL129" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL129" s="3"/>
+      <c r="AM129" s="3"/>
+      <c r="AN129" s="3"/>
+      <c r="AO129" s="3"/>
+      <c r="AP129" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="4">
         <v>0</v>
@@ -9146,12 +9894,16 @@
       <c r="AI130" s="3"/>
       <c r="AJ130" s="3"/>
       <c r="AK130" s="3"/>
-      <c r="AL130" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL130" s="3"/>
+      <c r="AM130" s="3"/>
+      <c r="AN130" s="3"/>
+      <c r="AO130" s="3"/>
+      <c r="AP130" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="4">
         <v>0</v>
@@ -9193,12 +9945,16 @@
       <c r="AI131" s="3"/>
       <c r="AJ131" s="3"/>
       <c r="AK131" s="3"/>
-      <c r="AL131" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL131" s="3"/>
+      <c r="AM131" s="3"/>
+      <c r="AN131" s="3"/>
+      <c r="AO131" s="3"/>
+      <c r="AP131" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="4">
         <v>0</v>
@@ -9240,12 +9996,16 @@
       <c r="AI132" s="3"/>
       <c r="AJ132" s="3"/>
       <c r="AK132" s="3"/>
-      <c r="AL132" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL132" s="3"/>
+      <c r="AM132" s="3"/>
+      <c r="AN132" s="3"/>
+      <c r="AO132" s="3"/>
+      <c r="AP132" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="4">
         <v>0</v>
@@ -9287,12 +10047,16 @@
       <c r="AI133" s="3"/>
       <c r="AJ133" s="3"/>
       <c r="AK133" s="3"/>
-      <c r="AL133" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL133" s="3"/>
+      <c r="AM133" s="3"/>
+      <c r="AN133" s="3"/>
+      <c r="AO133" s="3"/>
+      <c r="AP133" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="4">
         <v>0</v>
@@ -9334,12 +10098,16 @@
       <c r="AI134" s="3"/>
       <c r="AJ134" s="3"/>
       <c r="AK134" s="3"/>
-      <c r="AL134" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL134" s="3"/>
+      <c r="AM134" s="3"/>
+      <c r="AN134" s="3"/>
+      <c r="AO134" s="3"/>
+      <c r="AP134" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="4">
         <v>0</v>
@@ -9381,12 +10149,16 @@
       <c r="AI135" s="3"/>
       <c r="AJ135" s="3"/>
       <c r="AK135" s="3"/>
-      <c r="AL135" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL135" s="3"/>
+      <c r="AM135" s="3"/>
+      <c r="AN135" s="3"/>
+      <c r="AO135" s="3"/>
+      <c r="AP135" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="4">
         <v>0</v>
@@ -9428,12 +10200,16 @@
       <c r="AI136" s="3"/>
       <c r="AJ136" s="3"/>
       <c r="AK136" s="3"/>
-      <c r="AL136" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL136" s="3"/>
+      <c r="AM136" s="3"/>
+      <c r="AN136" s="3"/>
+      <c r="AO136" s="3"/>
+      <c r="AP136" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="4">
         <v>0</v>
@@ -9475,12 +10251,16 @@
       <c r="AI137" s="3"/>
       <c r="AJ137" s="3"/>
       <c r="AK137" s="3"/>
-      <c r="AL137" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL137" s="3"/>
+      <c r="AM137" s="3"/>
+      <c r="AN137" s="3"/>
+      <c r="AO137" s="3"/>
+      <c r="AP137" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="4">
         <v>0</v>
@@ -9522,12 +10302,16 @@
       <c r="AI138" s="3"/>
       <c r="AJ138" s="3"/>
       <c r="AK138" s="3"/>
-      <c r="AL138" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL138" s="3"/>
+      <c r="AM138" s="3"/>
+      <c r="AN138" s="3"/>
+      <c r="AO138" s="3"/>
+      <c r="AP138" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="4">
         <v>0</v>
@@ -9569,12 +10353,16 @@
       <c r="AI139" s="3"/>
       <c r="AJ139" s="3"/>
       <c r="AK139" s="3"/>
-      <c r="AL139" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL139" s="3"/>
+      <c r="AM139" s="3"/>
+      <c r="AN139" s="3"/>
+      <c r="AO139" s="3"/>
+      <c r="AP139" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="4">
         <v>0</v>
@@ -9616,12 +10404,16 @@
       <c r="AI140" s="3"/>
       <c r="AJ140" s="3"/>
       <c r="AK140" s="3"/>
-      <c r="AL140" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL140" s="3"/>
+      <c r="AM140" s="3"/>
+      <c r="AN140" s="3"/>
+      <c r="AO140" s="3"/>
+      <c r="AP140" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="4">
         <v>0</v>
@@ -9663,12 +10455,16 @@
       <c r="AI141" s="3"/>
       <c r="AJ141" s="3"/>
       <c r="AK141" s="3"/>
-      <c r="AL141" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL141" s="3"/>
+      <c r="AM141" s="3"/>
+      <c r="AN141" s="3"/>
+      <c r="AO141" s="3"/>
+      <c r="AP141" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="4">
         <v>0</v>
@@ -9710,12 +10506,16 @@
       <c r="AI142" s="3"/>
       <c r="AJ142" s="3"/>
       <c r="AK142" s="3"/>
-      <c r="AL142" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL142" s="3"/>
+      <c r="AM142" s="3"/>
+      <c r="AN142" s="3"/>
+      <c r="AO142" s="3"/>
+      <c r="AP142" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="4">
         <v>0</v>
@@ -9757,12 +10557,16 @@
       <c r="AI143" s="3"/>
       <c r="AJ143" s="3"/>
       <c r="AK143" s="3"/>
-      <c r="AL143" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL143" s="3"/>
+      <c r="AM143" s="3"/>
+      <c r="AN143" s="3"/>
+      <c r="AO143" s="3"/>
+      <c r="AP143" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="4">
         <v>0</v>
@@ -9804,12 +10608,16 @@
       <c r="AI144" s="3"/>
       <c r="AJ144" s="3"/>
       <c r="AK144" s="3"/>
-      <c r="AL144" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL144" s="3"/>
+      <c r="AM144" s="3"/>
+      <c r="AN144" s="3"/>
+      <c r="AO144" s="3"/>
+      <c r="AP144" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="4">
         <v>0</v>
@@ -9851,12 +10659,16 @@
       <c r="AI145" s="3"/>
       <c r="AJ145" s="3"/>
       <c r="AK145" s="3"/>
-      <c r="AL145" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL145" s="3"/>
+      <c r="AM145" s="3"/>
+      <c r="AN145" s="3"/>
+      <c r="AO145" s="3"/>
+      <c r="AP145" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
       <c r="B146" s="4">
         <v>0</v>
@@ -9898,12 +10710,16 @@
       <c r="AI146" s="3"/>
       <c r="AJ146" s="3"/>
       <c r="AK146" s="3"/>
-      <c r="AL146" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL146" s="3"/>
+      <c r="AM146" s="3"/>
+      <c r="AN146" s="3"/>
+      <c r="AO146" s="3"/>
+      <c r="AP146" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="4">
         <v>0</v>
@@ -9945,12 +10761,16 @@
       <c r="AI147" s="3"/>
       <c r="AJ147" s="3"/>
       <c r="AK147" s="3"/>
-      <c r="AL147" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL147" s="3"/>
+      <c r="AM147" s="3"/>
+      <c r="AN147" s="3"/>
+      <c r="AO147" s="3"/>
+      <c r="AP147" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="4">
         <v>0</v>
@@ -9992,12 +10812,16 @@
       <c r="AI148" s="3"/>
       <c r="AJ148" s="3"/>
       <c r="AK148" s="3"/>
-      <c r="AL148" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL148" s="3"/>
+      <c r="AM148" s="3"/>
+      <c r="AN148" s="3"/>
+      <c r="AO148" s="3"/>
+      <c r="AP148" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
       <c r="B149" s="4">
         <v>0</v>
@@ -10039,12 +10863,16 @@
       <c r="AI149" s="3"/>
       <c r="AJ149" s="3"/>
       <c r="AK149" s="3"/>
-      <c r="AL149" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL149" s="3"/>
+      <c r="AM149" s="3"/>
+      <c r="AN149" s="3"/>
+      <c r="AO149" s="3"/>
+      <c r="AP149" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="4">
         <v>0</v>
@@ -10086,12 +10914,16 @@
       <c r="AI150" s="3"/>
       <c r="AJ150" s="3"/>
       <c r="AK150" s="3"/>
-      <c r="AL150" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL150" s="3"/>
+      <c r="AM150" s="3"/>
+      <c r="AN150" s="3"/>
+      <c r="AO150" s="3"/>
+      <c r="AP150" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="4">
         <v>0</v>
@@ -10133,12 +10965,16 @@
       <c r="AI151" s="3"/>
       <c r="AJ151" s="3"/>
       <c r="AK151" s="3"/>
-      <c r="AL151" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL151" s="3"/>
+      <c r="AM151" s="3"/>
+      <c r="AN151" s="3"/>
+      <c r="AO151" s="3"/>
+      <c r="AP151" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="4">
         <v>0</v>
@@ -10180,12 +11016,16 @@
       <c r="AI152" s="3"/>
       <c r="AJ152" s="3"/>
       <c r="AK152" s="3"/>
-      <c r="AL152" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL152" s="3"/>
+      <c r="AM152" s="3"/>
+      <c r="AN152" s="3"/>
+      <c r="AO152" s="3"/>
+      <c r="AP152" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
       <c r="B153" s="4">
         <v>0</v>
@@ -10227,12 +11067,16 @@
       <c r="AI153" s="3"/>
       <c r="AJ153" s="3"/>
       <c r="AK153" s="3"/>
-      <c r="AL153" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL153" s="3"/>
+      <c r="AM153" s="3"/>
+      <c r="AN153" s="3"/>
+      <c r="AO153" s="3"/>
+      <c r="AP153" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
       <c r="B154" s="4">
         <v>0</v>
@@ -10274,12 +11118,16 @@
       <c r="AI154" s="3"/>
       <c r="AJ154" s="3"/>
       <c r="AK154" s="3"/>
-      <c r="AL154" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL154" s="3"/>
+      <c r="AM154" s="3"/>
+      <c r="AN154" s="3"/>
+      <c r="AO154" s="3"/>
+      <c r="AP154" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
       <c r="B155" s="4">
         <v>0</v>
@@ -10321,12 +11169,16 @@
       <c r="AI155" s="3"/>
       <c r="AJ155" s="3"/>
       <c r="AK155" s="3"/>
-      <c r="AL155" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL155" s="3"/>
+      <c r="AM155" s="3"/>
+      <c r="AN155" s="3"/>
+      <c r="AO155" s="3"/>
+      <c r="AP155" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="4">
         <v>0</v>
@@ -10368,12 +11220,16 @@
       <c r="AI156" s="3"/>
       <c r="AJ156" s="3"/>
       <c r="AK156" s="3"/>
-      <c r="AL156" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL156" s="3"/>
+      <c r="AM156" s="3"/>
+      <c r="AN156" s="3"/>
+      <c r="AO156" s="3"/>
+      <c r="AP156" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="4">
         <v>0</v>
@@ -10415,12 +11271,16 @@
       <c r="AI157" s="3"/>
       <c r="AJ157" s="3"/>
       <c r="AK157" s="3"/>
-      <c r="AL157" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL157" s="3"/>
+      <c r="AM157" s="3"/>
+      <c r="AN157" s="3"/>
+      <c r="AO157" s="3"/>
+      <c r="AP157" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="4">
         <v>0</v>
@@ -10462,12 +11322,16 @@
       <c r="AI158" s="3"/>
       <c r="AJ158" s="3"/>
       <c r="AK158" s="3"/>
-      <c r="AL158" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL158" s="3"/>
+      <c r="AM158" s="3"/>
+      <c r="AN158" s="3"/>
+      <c r="AO158" s="3"/>
+      <c r="AP158" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
       <c r="B159" s="4">
         <v>0</v>
@@ -10509,12 +11373,16 @@
       <c r="AI159" s="3"/>
       <c r="AJ159" s="3"/>
       <c r="AK159" s="3"/>
-      <c r="AL159" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL159" s="3"/>
+      <c r="AM159" s="3"/>
+      <c r="AN159" s="3"/>
+      <c r="AO159" s="3"/>
+      <c r="AP159" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="4">
         <v>0</v>
@@ -10556,12 +11424,16 @@
       <c r="AI160" s="3"/>
       <c r="AJ160" s="3"/>
       <c r="AK160" s="3"/>
-      <c r="AL160" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL160" s="3"/>
+      <c r="AM160" s="3"/>
+      <c r="AN160" s="3"/>
+      <c r="AO160" s="3"/>
+      <c r="AP160" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
       <c r="B161" s="4">
         <v>0</v>
@@ -10603,12 +11475,16 @@
       <c r="AI161" s="3"/>
       <c r="AJ161" s="3"/>
       <c r="AK161" s="3"/>
-      <c r="AL161" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL161" s="3"/>
+      <c r="AM161" s="3"/>
+      <c r="AN161" s="3"/>
+      <c r="AO161" s="3"/>
+      <c r="AP161" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
       <c r="B162" s="4">
         <v>0</v>
@@ -10650,12 +11526,16 @@
       <c r="AI162" s="3"/>
       <c r="AJ162" s="3"/>
       <c r="AK162" s="3"/>
-      <c r="AL162" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL162" s="3"/>
+      <c r="AM162" s="3"/>
+      <c r="AN162" s="3"/>
+      <c r="AO162" s="3"/>
+      <c r="AP162" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
       <c r="B163" s="4">
         <v>0</v>
@@ -10697,12 +11577,16 @@
       <c r="AI163" s="3"/>
       <c r="AJ163" s="3"/>
       <c r="AK163" s="3"/>
-      <c r="AL163" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL163" s="3"/>
+      <c r="AM163" s="3"/>
+      <c r="AN163" s="3"/>
+      <c r="AO163" s="3"/>
+      <c r="AP163" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A164" s="8"/>
       <c r="B164" s="4">
         <v>0</v>
@@ -10744,12 +11628,16 @@
       <c r="AI164" s="3"/>
       <c r="AJ164" s="3"/>
       <c r="AK164" s="3"/>
-      <c r="AL164" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL164" s="3"/>
+      <c r="AM164" s="3"/>
+      <c r="AN164" s="3"/>
+      <c r="AO164" s="3"/>
+      <c r="AP164" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A165" s="8"/>
       <c r="B165" s="4">
         <v>0</v>
@@ -10791,12 +11679,16 @@
       <c r="AI165" s="3"/>
       <c r="AJ165" s="3"/>
       <c r="AK165" s="3"/>
-      <c r="AL165" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL165" s="3"/>
+      <c r="AM165" s="3"/>
+      <c r="AN165" s="3"/>
+      <c r="AO165" s="3"/>
+      <c r="AP165" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A166" s="8"/>
       <c r="B166" s="4">
         <v>0</v>
@@ -10838,12 +11730,16 @@
       <c r="AI166" s="3"/>
       <c r="AJ166" s="3"/>
       <c r="AK166" s="3"/>
-      <c r="AL166" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL166" s="3"/>
+      <c r="AM166" s="3"/>
+      <c r="AN166" s="3"/>
+      <c r="AO166" s="3"/>
+      <c r="AP166" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A167" s="8"/>
       <c r="B167" s="4">
         <v>0</v>
@@ -10885,12 +11781,16 @@
       <c r="AI167" s="3"/>
       <c r="AJ167" s="3"/>
       <c r="AK167" s="3"/>
-      <c r="AL167" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL167" s="3"/>
+      <c r="AM167" s="3"/>
+      <c r="AN167" s="3"/>
+      <c r="AO167" s="3"/>
+      <c r="AP167" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
       <c r="B168" s="4">
         <v>0</v>
@@ -10932,12 +11832,16 @@
       <c r="AI168" s="3"/>
       <c r="AJ168" s="3"/>
       <c r="AK168" s="3"/>
-      <c r="AL168" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL168" s="3"/>
+      <c r="AM168" s="3"/>
+      <c r="AN168" s="3"/>
+      <c r="AO168" s="3"/>
+      <c r="AP168" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A169" s="8"/>
       <c r="B169" s="4">
         <v>0</v>
@@ -10979,12 +11883,16 @@
       <c r="AI169" s="3"/>
       <c r="AJ169" s="3"/>
       <c r="AK169" s="3"/>
-      <c r="AL169" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL169" s="3"/>
+      <c r="AM169" s="3"/>
+      <c r="AN169" s="3"/>
+      <c r="AO169" s="3"/>
+      <c r="AP169" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A170" s="8"/>
       <c r="B170" s="4">
         <v>0</v>
@@ -11026,12 +11934,16 @@
       <c r="AI170" s="3"/>
       <c r="AJ170" s="3"/>
       <c r="AK170" s="3"/>
-      <c r="AL170" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL170" s="3"/>
+      <c r="AM170" s="3"/>
+      <c r="AN170" s="3"/>
+      <c r="AO170" s="3"/>
+      <c r="AP170" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A171" s="8"/>
       <c r="B171" s="4">
         <v>0</v>
@@ -11073,12 +11985,16 @@
       <c r="AI171" s="3"/>
       <c r="AJ171" s="3"/>
       <c r="AK171" s="3"/>
-      <c r="AL171" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL171" s="3"/>
+      <c r="AM171" s="3"/>
+      <c r="AN171" s="3"/>
+      <c r="AO171" s="3"/>
+      <c r="AP171" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A172" s="8"/>
       <c r="B172" s="4">
         <v>0</v>
@@ -11120,12 +12036,16 @@
       <c r="AI172" s="3"/>
       <c r="AJ172" s="3"/>
       <c r="AK172" s="3"/>
-      <c r="AL172" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL172" s="3"/>
+      <c r="AM172" s="3"/>
+      <c r="AN172" s="3"/>
+      <c r="AO172" s="3"/>
+      <c r="AP172" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A173" s="8"/>
       <c r="B173" s="4">
         <v>0</v>
@@ -11167,12 +12087,16 @@
       <c r="AI173" s="3"/>
       <c r="AJ173" s="3"/>
       <c r="AK173" s="3"/>
-      <c r="AL173" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL173" s="3"/>
+      <c r="AM173" s="3"/>
+      <c r="AN173" s="3"/>
+      <c r="AO173" s="3"/>
+      <c r="AP173" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A174" s="8"/>
       <c r="B174" s="4">
         <v>0</v>
@@ -11214,12 +12138,16 @@
       <c r="AI174" s="3"/>
       <c r="AJ174" s="3"/>
       <c r="AK174" s="3"/>
-      <c r="AL174" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL174" s="3"/>
+      <c r="AM174" s="3"/>
+      <c r="AN174" s="3"/>
+      <c r="AO174" s="3"/>
+      <c r="AP174" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A175" s="8"/>
       <c r="B175" s="4">
         <v>0</v>
@@ -11261,12 +12189,16 @@
       <c r="AI175" s="3"/>
       <c r="AJ175" s="3"/>
       <c r="AK175" s="3"/>
-      <c r="AL175" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL175" s="3"/>
+      <c r="AM175" s="3"/>
+      <c r="AN175" s="3"/>
+      <c r="AO175" s="3"/>
+      <c r="AP175" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
       <c r="B176" s="4">
         <v>0</v>
@@ -11308,12 +12240,16 @@
       <c r="AI176" s="3"/>
       <c r="AJ176" s="3"/>
       <c r="AK176" s="3"/>
-      <c r="AL176" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL176" s="3"/>
+      <c r="AM176" s="3"/>
+      <c r="AN176" s="3"/>
+      <c r="AO176" s="3"/>
+      <c r="AP176" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A177" s="8"/>
       <c r="B177" s="4">
         <v>0</v>
@@ -11355,12 +12291,16 @@
       <c r="AI177" s="3"/>
       <c r="AJ177" s="3"/>
       <c r="AK177" s="3"/>
-      <c r="AL177" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL177" s="3"/>
+      <c r="AM177" s="3"/>
+      <c r="AN177" s="3"/>
+      <c r="AO177" s="3"/>
+      <c r="AP177" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A178" s="8"/>
       <c r="B178" s="4">
         <v>0</v>
@@ -11402,12 +12342,16 @@
       <c r="AI178" s="3"/>
       <c r="AJ178" s="3"/>
       <c r="AK178" s="3"/>
-      <c r="AL178" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL178" s="3"/>
+      <c r="AM178" s="3"/>
+      <c r="AN178" s="3"/>
+      <c r="AO178" s="3"/>
+      <c r="AP178" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A179" s="8"/>
       <c r="B179" s="4">
         <v>0</v>
@@ -11449,12 +12393,16 @@
       <c r="AI179" s="3"/>
       <c r="AJ179" s="3"/>
       <c r="AK179" s="3"/>
-      <c r="AL179" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL179" s="3"/>
+      <c r="AM179" s="3"/>
+      <c r="AN179" s="3"/>
+      <c r="AO179" s="3"/>
+      <c r="AP179" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
       <c r="B180" s="4">
         <v>0</v>
@@ -11496,12 +12444,16 @@
       <c r="AI180" s="3"/>
       <c r="AJ180" s="3"/>
       <c r="AK180" s="3"/>
-      <c r="AL180" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL180" s="3"/>
+      <c r="AM180" s="3"/>
+      <c r="AN180" s="3"/>
+      <c r="AO180" s="3"/>
+      <c r="AP180" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A181" s="8"/>
       <c r="B181" s="4">
         <v>0</v>
@@ -11543,12 +12495,16 @@
       <c r="AI181" s="3"/>
       <c r="AJ181" s="3"/>
       <c r="AK181" s="3"/>
-      <c r="AL181" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL181" s="3"/>
+      <c r="AM181" s="3"/>
+      <c r="AN181" s="3"/>
+      <c r="AO181" s="3"/>
+      <c r="AP181" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A182" s="8"/>
       <c r="B182" s="4">
         <v>0</v>
@@ -11590,12 +12546,16 @@
       <c r="AI182" s="3"/>
       <c r="AJ182" s="3"/>
       <c r="AK182" s="3"/>
-      <c r="AL182" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL182" s="3"/>
+      <c r="AM182" s="3"/>
+      <c r="AN182" s="3"/>
+      <c r="AO182" s="3"/>
+      <c r="AP182" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A183" s="8"/>
       <c r="B183" s="4">
         <v>0</v>
@@ -11637,12 +12597,16 @@
       <c r="AI183" s="3"/>
       <c r="AJ183" s="3"/>
       <c r="AK183" s="3"/>
-      <c r="AL183" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL183" s="3"/>
+      <c r="AM183" s="3"/>
+      <c r="AN183" s="3"/>
+      <c r="AO183" s="3"/>
+      <c r="AP183" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
       <c r="B184" s="4">
         <v>0</v>
@@ -11684,12 +12648,16 @@
       <c r="AI184" s="3"/>
       <c r="AJ184" s="3"/>
       <c r="AK184" s="3"/>
-      <c r="AL184" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL184" s="3"/>
+      <c r="AM184" s="3"/>
+      <c r="AN184" s="3"/>
+      <c r="AO184" s="3"/>
+      <c r="AP184" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
       <c r="B185" s="4">
         <v>0</v>
@@ -11731,12 +12699,16 @@
       <c r="AI185" s="3"/>
       <c r="AJ185" s="3"/>
       <c r="AK185" s="3"/>
-      <c r="AL185" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL185" s="3"/>
+      <c r="AM185" s="3"/>
+      <c r="AN185" s="3"/>
+      <c r="AO185" s="3"/>
+      <c r="AP185" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A186" s="8"/>
       <c r="B186" s="4">
         <v>0</v>
@@ -11778,12 +12750,16 @@
       <c r="AI186" s="3"/>
       <c r="AJ186" s="3"/>
       <c r="AK186" s="3"/>
-      <c r="AL186" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL186" s="3"/>
+      <c r="AM186" s="3"/>
+      <c r="AN186" s="3"/>
+      <c r="AO186" s="3"/>
+      <c r="AP186" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A187" s="8"/>
       <c r="B187" s="4">
         <v>0</v>
@@ -11825,12 +12801,16 @@
       <c r="AI187" s="3"/>
       <c r="AJ187" s="3"/>
       <c r="AK187" s="3"/>
-      <c r="AL187" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL187" s="3"/>
+      <c r="AM187" s="3"/>
+      <c r="AN187" s="3"/>
+      <c r="AO187" s="3"/>
+      <c r="AP187" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A188" s="8"/>
       <c r="B188" s="4">
         <v>0</v>
@@ -11872,12 +12852,16 @@
       <c r="AI188" s="3"/>
       <c r="AJ188" s="3"/>
       <c r="AK188" s="3"/>
-      <c r="AL188" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL188" s="3"/>
+      <c r="AM188" s="3"/>
+      <c r="AN188" s="3"/>
+      <c r="AO188" s="3"/>
+      <c r="AP188" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A189" s="8"/>
       <c r="B189" s="4">
         <v>0</v>
@@ -11919,12 +12903,16 @@
       <c r="AI189" s="3"/>
       <c r="AJ189" s="3"/>
       <c r="AK189" s="3"/>
-      <c r="AL189" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL189" s="3"/>
+      <c r="AM189" s="3"/>
+      <c r="AN189" s="3"/>
+      <c r="AO189" s="3"/>
+      <c r="AP189" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A190" s="8"/>
       <c r="B190" s="4">
         <v>0</v>
@@ -11966,12 +12954,16 @@
       <c r="AI190" s="3"/>
       <c r="AJ190" s="3"/>
       <c r="AK190" s="3"/>
-      <c r="AL190" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL190" s="3"/>
+      <c r="AM190" s="3"/>
+      <c r="AN190" s="3"/>
+      <c r="AO190" s="3"/>
+      <c r="AP190" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A191" s="8"/>
       <c r="B191" s="4">
         <v>0</v>
@@ -12013,12 +13005,16 @@
       <c r="AI191" s="3"/>
       <c r="AJ191" s="3"/>
       <c r="AK191" s="3"/>
-      <c r="AL191" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL191" s="3"/>
+      <c r="AM191" s="3"/>
+      <c r="AN191" s="3"/>
+      <c r="AO191" s="3"/>
+      <c r="AP191" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A192" s="8"/>
       <c r="B192" s="4">
         <v>0</v>
@@ -12060,12 +13056,16 @@
       <c r="AI192" s="3"/>
       <c r="AJ192" s="3"/>
       <c r="AK192" s="3"/>
-      <c r="AL192" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL192" s="3"/>
+      <c r="AM192" s="3"/>
+      <c r="AN192" s="3"/>
+      <c r="AO192" s="3"/>
+      <c r="AP192" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A193" s="8"/>
       <c r="B193" s="4">
         <v>0</v>
@@ -12107,12 +13107,16 @@
       <c r="AI193" s="3"/>
       <c r="AJ193" s="3"/>
       <c r="AK193" s="3"/>
-      <c r="AL193" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL193" s="3"/>
+      <c r="AM193" s="3"/>
+      <c r="AN193" s="3"/>
+      <c r="AO193" s="3"/>
+      <c r="AP193" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A194" s="8"/>
       <c r="B194" s="4">
         <v>0</v>
@@ -12154,12 +13158,16 @@
       <c r="AI194" s="3"/>
       <c r="AJ194" s="3"/>
       <c r="AK194" s="3"/>
-      <c r="AL194" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL194" s="3"/>
+      <c r="AM194" s="3"/>
+      <c r="AN194" s="3"/>
+      <c r="AO194" s="3"/>
+      <c r="AP194" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A195" s="8"/>
       <c r="B195" s="4">
         <v>0</v>
@@ -12201,12 +13209,16 @@
       <c r="AI195" s="3"/>
       <c r="AJ195" s="3"/>
       <c r="AK195" s="3"/>
-      <c r="AL195" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL195" s="3"/>
+      <c r="AM195" s="3"/>
+      <c r="AN195" s="3"/>
+      <c r="AO195" s="3"/>
+      <c r="AP195" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A196" s="8"/>
       <c r="B196" s="4">
         <v>0</v>
@@ -12248,12 +13260,16 @@
       <c r="AI196" s="3"/>
       <c r="AJ196" s="3"/>
       <c r="AK196" s="3"/>
-      <c r="AL196" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL196" s="3"/>
+      <c r="AM196" s="3"/>
+      <c r="AN196" s="3"/>
+      <c r="AO196" s="3"/>
+      <c r="AP196" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A197" s="8"/>
       <c r="B197" s="4">
         <v>0</v>
@@ -12295,12 +13311,16 @@
       <c r="AI197" s="3"/>
       <c r="AJ197" s="3"/>
       <c r="AK197" s="3"/>
-      <c r="AL197" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL197" s="3"/>
+      <c r="AM197" s="3"/>
+      <c r="AN197" s="3"/>
+      <c r="AO197" s="3"/>
+      <c r="AP197" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A198" s="8"/>
       <c r="B198" s="4">
         <v>0</v>
@@ -12342,12 +13362,16 @@
       <c r="AI198" s="3"/>
       <c r="AJ198" s="3"/>
       <c r="AK198" s="3"/>
-      <c r="AL198" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL198" s="3"/>
+      <c r="AM198" s="3"/>
+      <c r="AN198" s="3"/>
+      <c r="AO198" s="3"/>
+      <c r="AP198" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A199" s="8"/>
       <c r="B199" s="4">
         <v>0</v>
@@ -12389,12 +13413,16 @@
       <c r="AI199" s="3"/>
       <c r="AJ199" s="3"/>
       <c r="AK199" s="3"/>
-      <c r="AL199" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL199" s="3"/>
+      <c r="AM199" s="3"/>
+      <c r="AN199" s="3"/>
+      <c r="AO199" s="3"/>
+      <c r="AP199" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A200" s="8"/>
       <c r="B200" s="4">
         <v>0</v>
@@ -12436,12 +13464,16 @@
       <c r="AI200" s="3"/>
       <c r="AJ200" s="3"/>
       <c r="AK200" s="3"/>
-      <c r="AL200" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL200" s="3"/>
+      <c r="AM200" s="3"/>
+      <c r="AN200" s="3"/>
+      <c r="AO200" s="3"/>
+      <c r="AP200" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A201" s="8"/>
       <c r="B201" s="4">
         <v>0</v>
@@ -12483,12 +13515,16 @@
       <c r="AI201" s="3"/>
       <c r="AJ201" s="3"/>
       <c r="AK201" s="3"/>
-      <c r="AL201" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL201" s="3"/>
+      <c r="AM201" s="3"/>
+      <c r="AN201" s="3"/>
+      <c r="AO201" s="3"/>
+      <c r="AP201" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A202" s="8"/>
       <c r="B202" s="4">
         <v>0</v>
@@ -12530,12 +13566,16 @@
       <c r="AI202" s="3"/>
       <c r="AJ202" s="3"/>
       <c r="AK202" s="3"/>
-      <c r="AL202" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL202" s="3"/>
+      <c r="AM202" s="3"/>
+      <c r="AN202" s="3"/>
+      <c r="AO202" s="3"/>
+      <c r="AP202" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A203" s="8"/>
       <c r="B203" s="4">
         <v>0</v>
@@ -12577,12 +13617,16 @@
       <c r="AI203" s="3"/>
       <c r="AJ203" s="3"/>
       <c r="AK203" s="3"/>
-      <c r="AL203" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL203" s="3"/>
+      <c r="AM203" s="3"/>
+      <c r="AN203" s="3"/>
+      <c r="AO203" s="3"/>
+      <c r="AP203" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A204" s="8"/>
       <c r="B204" s="4">
         <v>0</v>
@@ -12624,12 +13668,16 @@
       <c r="AI204" s="3"/>
       <c r="AJ204" s="3"/>
       <c r="AK204" s="3"/>
-      <c r="AL204" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL204" s="3"/>
+      <c r="AM204" s="3"/>
+      <c r="AN204" s="3"/>
+      <c r="AO204" s="3"/>
+      <c r="AP204" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A205" s="8"/>
       <c r="B205" s="4">
         <v>0</v>
@@ -12671,12 +13719,16 @@
       <c r="AI205" s="3"/>
       <c r="AJ205" s="3"/>
       <c r="AK205" s="3"/>
-      <c r="AL205" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL205" s="3"/>
+      <c r="AM205" s="3"/>
+      <c r="AN205" s="3"/>
+      <c r="AO205" s="3"/>
+      <c r="AP205" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A206" s="8"/>
       <c r="B206" s="4">
         <v>0</v>
@@ -12718,12 +13770,16 @@
       <c r="AI206" s="3"/>
       <c r="AJ206" s="3"/>
       <c r="AK206" s="3"/>
-      <c r="AL206" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL206" s="3"/>
+      <c r="AM206" s="3"/>
+      <c r="AN206" s="3"/>
+      <c r="AO206" s="3"/>
+      <c r="AP206" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A207" s="8"/>
       <c r="B207" s="4">
         <v>0</v>
@@ -12765,12 +13821,16 @@
       <c r="AI207" s="3"/>
       <c r="AJ207" s="3"/>
       <c r="AK207" s="3"/>
-      <c r="AL207" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL207" s="3"/>
+      <c r="AM207" s="3"/>
+      <c r="AN207" s="3"/>
+      <c r="AO207" s="3"/>
+      <c r="AP207" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A208" s="8"/>
       <c r="B208" s="4">
         <v>0</v>
@@ -12812,12 +13872,16 @@
       <c r="AI208" s="3"/>
       <c r="AJ208" s="3"/>
       <c r="AK208" s="3"/>
-      <c r="AL208" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL208" s="3"/>
+      <c r="AM208" s="3"/>
+      <c r="AN208" s="3"/>
+      <c r="AO208" s="3"/>
+      <c r="AP208" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A209" s="8"/>
       <c r="B209" s="4">
         <v>0</v>
@@ -12859,12 +13923,16 @@
       <c r="AI209" s="3"/>
       <c r="AJ209" s="3"/>
       <c r="AK209" s="3"/>
-      <c r="AL209" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL209" s="3"/>
+      <c r="AM209" s="3"/>
+      <c r="AN209" s="3"/>
+      <c r="AO209" s="3"/>
+      <c r="AP209" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A210" s="8"/>
       <c r="B210" s="4">
         <v>0</v>
@@ -12906,12 +13974,16 @@
       <c r="AI210" s="3"/>
       <c r="AJ210" s="3"/>
       <c r="AK210" s="3"/>
-      <c r="AL210" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL210" s="3"/>
+      <c r="AM210" s="3"/>
+      <c r="AN210" s="3"/>
+      <c r="AO210" s="3"/>
+      <c r="AP210" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A211" s="8"/>
       <c r="B211" s="4">
         <v>0</v>
@@ -12953,12 +14025,16 @@
       <c r="AI211" s="3"/>
       <c r="AJ211" s="3"/>
       <c r="AK211" s="3"/>
-      <c r="AL211" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL211" s="3"/>
+      <c r="AM211" s="3"/>
+      <c r="AN211" s="3"/>
+      <c r="AO211" s="3"/>
+      <c r="AP211" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A212" s="8"/>
       <c r="B212" s="4">
         <v>0</v>
@@ -13000,12 +14076,16 @@
       <c r="AI212" s="3"/>
       <c r="AJ212" s="3"/>
       <c r="AK212" s="3"/>
-      <c r="AL212" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL212" s="3"/>
+      <c r="AM212" s="3"/>
+      <c r="AN212" s="3"/>
+      <c r="AO212" s="3"/>
+      <c r="AP212" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A213" s="8"/>
       <c r="B213" s="4">
         <v>0</v>
@@ -13047,12 +14127,16 @@
       <c r="AI213" s="3"/>
       <c r="AJ213" s="3"/>
       <c r="AK213" s="3"/>
-      <c r="AL213" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL213" s="3"/>
+      <c r="AM213" s="3"/>
+      <c r="AN213" s="3"/>
+      <c r="AO213" s="3"/>
+      <c r="AP213" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A214" s="8"/>
       <c r="B214" s="4">
         <v>0</v>
@@ -13094,12 +14178,16 @@
       <c r="AI214" s="3"/>
       <c r="AJ214" s="3"/>
       <c r="AK214" s="3"/>
-      <c r="AL214" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL214" s="3"/>
+      <c r="AM214" s="3"/>
+      <c r="AN214" s="3"/>
+      <c r="AO214" s="3"/>
+      <c r="AP214" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A215" s="8"/>
       <c r="B215" s="4">
         <v>0</v>
@@ -13141,12 +14229,16 @@
       <c r="AI215" s="3"/>
       <c r="AJ215" s="3"/>
       <c r="AK215" s="3"/>
-      <c r="AL215" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL215" s="3"/>
+      <c r="AM215" s="3"/>
+      <c r="AN215" s="3"/>
+      <c r="AO215" s="3"/>
+      <c r="AP215" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A216" s="8"/>
       <c r="B216" s="4">
         <v>0</v>
@@ -13188,12 +14280,16 @@
       <c r="AI216" s="3"/>
       <c r="AJ216" s="3"/>
       <c r="AK216" s="3"/>
-      <c r="AL216" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL216" s="3"/>
+      <c r="AM216" s="3"/>
+      <c r="AN216" s="3"/>
+      <c r="AO216" s="3"/>
+      <c r="AP216" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A217" s="8"/>
       <c r="B217" s="4">
         <v>0</v>
@@ -13235,12 +14331,16 @@
       <c r="AI217" s="3"/>
       <c r="AJ217" s="3"/>
       <c r="AK217" s="3"/>
-      <c r="AL217" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL217" s="3"/>
+      <c r="AM217" s="3"/>
+      <c r="AN217" s="3"/>
+      <c r="AO217" s="3"/>
+      <c r="AP217" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A218" s="8"/>
       <c r="B218" s="4">
         <v>0</v>
@@ -13282,12 +14382,16 @@
       <c r="AI218" s="3"/>
       <c r="AJ218" s="3"/>
       <c r="AK218" s="3"/>
-      <c r="AL218" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL218" s="3"/>
+      <c r="AM218" s="3"/>
+      <c r="AN218" s="3"/>
+      <c r="AO218" s="3"/>
+      <c r="AP218" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A219" s="8"/>
       <c r="B219" s="4">
         <v>0</v>
@@ -13329,12 +14433,16 @@
       <c r="AI219" s="3"/>
       <c r="AJ219" s="3"/>
       <c r="AK219" s="3"/>
-      <c r="AL219" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL219" s="3"/>
+      <c r="AM219" s="3"/>
+      <c r="AN219" s="3"/>
+      <c r="AO219" s="3"/>
+      <c r="AP219" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A220" s="8"/>
       <c r="B220" s="4">
         <v>0</v>
@@ -13376,12 +14484,16 @@
       <c r="AI220" s="3"/>
       <c r="AJ220" s="3"/>
       <c r="AK220" s="3"/>
-      <c r="AL220" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL220" s="3"/>
+      <c r="AM220" s="3"/>
+      <c r="AN220" s="3"/>
+      <c r="AO220" s="3"/>
+      <c r="AP220" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A221" s="8"/>
       <c r="B221" s="4">
         <v>0</v>
@@ -13423,12 +14535,16 @@
       <c r="AI221" s="3"/>
       <c r="AJ221" s="3"/>
       <c r="AK221" s="3"/>
-      <c r="AL221" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL221" s="3"/>
+      <c r="AM221" s="3"/>
+      <c r="AN221" s="3"/>
+      <c r="AO221" s="3"/>
+      <c r="AP221" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A222" s="8"/>
       <c r="B222" s="4">
         <v>0</v>
@@ -13470,12 +14586,16 @@
       <c r="AI222" s="3"/>
       <c r="AJ222" s="3"/>
       <c r="AK222" s="3"/>
-      <c r="AL222" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL222" s="3"/>
+      <c r="AM222" s="3"/>
+      <c r="AN222" s="3"/>
+      <c r="AO222" s="3"/>
+      <c r="AP222" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A223" s="8"/>
       <c r="B223" s="4">
         <v>0</v>
@@ -13517,12 +14637,16 @@
       <c r="AI223" s="3"/>
       <c r="AJ223" s="3"/>
       <c r="AK223" s="3"/>
-      <c r="AL223" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL223" s="3"/>
+      <c r="AM223" s="3"/>
+      <c r="AN223" s="3"/>
+      <c r="AO223" s="3"/>
+      <c r="AP223" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A224" s="8"/>
       <c r="B224" s="4">
         <v>0</v>
@@ -13564,12 +14688,16 @@
       <c r="AI224" s="3"/>
       <c r="AJ224" s="3"/>
       <c r="AK224" s="3"/>
-      <c r="AL224" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL224" s="3"/>
+      <c r="AM224" s="3"/>
+      <c r="AN224" s="3"/>
+      <c r="AO224" s="3"/>
+      <c r="AP224" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A225" s="8"/>
       <c r="B225" s="4">
         <v>0</v>
@@ -13611,12 +14739,16 @@
       <c r="AI225" s="3"/>
       <c r="AJ225" s="3"/>
       <c r="AK225" s="3"/>
-      <c r="AL225" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL225" s="3"/>
+      <c r="AM225" s="3"/>
+      <c r="AN225" s="3"/>
+      <c r="AO225" s="3"/>
+      <c r="AP225" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A226" s="8"/>
       <c r="B226" s="4">
         <v>0</v>
@@ -13658,12 +14790,16 @@
       <c r="AI226" s="3"/>
       <c r="AJ226" s="3"/>
       <c r="AK226" s="3"/>
-      <c r="AL226" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL226" s="3"/>
+      <c r="AM226" s="3"/>
+      <c r="AN226" s="3"/>
+      <c r="AO226" s="3"/>
+      <c r="AP226" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A227" s="8"/>
       <c r="B227" s="4">
         <v>0</v>
@@ -13705,12 +14841,16 @@
       <c r="AI227" s="3"/>
       <c r="AJ227" s="3"/>
       <c r="AK227" s="3"/>
-      <c r="AL227" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL227" s="3"/>
+      <c r="AM227" s="3"/>
+      <c r="AN227" s="3"/>
+      <c r="AO227" s="3"/>
+      <c r="AP227" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A228" s="8"/>
       <c r="B228" s="4">
         <v>0</v>
@@ -13752,12 +14892,16 @@
       <c r="AI228" s="3"/>
       <c r="AJ228" s="3"/>
       <c r="AK228" s="3"/>
-      <c r="AL228" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL228" s="3"/>
+      <c r="AM228" s="3"/>
+      <c r="AN228" s="3"/>
+      <c r="AO228" s="3"/>
+      <c r="AP228" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A229" s="8"/>
       <c r="B229" s="4">
         <v>0</v>
@@ -13799,12 +14943,16 @@
       <c r="AI229" s="3"/>
       <c r="AJ229" s="3"/>
       <c r="AK229" s="3"/>
-      <c r="AL229" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL229" s="3"/>
+      <c r="AM229" s="3"/>
+      <c r="AN229" s="3"/>
+      <c r="AO229" s="3"/>
+      <c r="AP229" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A230" s="8"/>
       <c r="B230" s="4">
         <v>0</v>
@@ -13846,12 +14994,16 @@
       <c r="AI230" s="3"/>
       <c r="AJ230" s="3"/>
       <c r="AK230" s="3"/>
-      <c r="AL230" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL230" s="3"/>
+      <c r="AM230" s="3"/>
+      <c r="AN230" s="3"/>
+      <c r="AO230" s="3"/>
+      <c r="AP230" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A231" s="8"/>
       <c r="B231" s="4">
         <v>0</v>
@@ -13893,12 +15045,16 @@
       <c r="AI231" s="3"/>
       <c r="AJ231" s="3"/>
       <c r="AK231" s="3"/>
-      <c r="AL231" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL231" s="3"/>
+      <c r="AM231" s="3"/>
+      <c r="AN231" s="3"/>
+      <c r="AO231" s="3"/>
+      <c r="AP231" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A232" s="8"/>
       <c r="B232" s="4">
         <v>0</v>
@@ -13940,12 +15096,16 @@
       <c r="AI232" s="3"/>
       <c r="AJ232" s="3"/>
       <c r="AK232" s="3"/>
-      <c r="AL232" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL232" s="3"/>
+      <c r="AM232" s="3"/>
+      <c r="AN232" s="3"/>
+      <c r="AO232" s="3"/>
+      <c r="AP232" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A233" s="8"/>
       <c r="B233" s="4">
         <v>0</v>
@@ -13987,12 +15147,16 @@
       <c r="AI233" s="3"/>
       <c r="AJ233" s="3"/>
       <c r="AK233" s="3"/>
-      <c r="AL233" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL233" s="3"/>
+      <c r="AM233" s="3"/>
+      <c r="AN233" s="3"/>
+      <c r="AO233" s="3"/>
+      <c r="AP233" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A234" s="8"/>
       <c r="B234" s="4">
         <v>0</v>
@@ -14034,12 +15198,16 @@
       <c r="AI234" s="3"/>
       <c r="AJ234" s="3"/>
       <c r="AK234" s="3"/>
-      <c r="AL234" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL234" s="3"/>
+      <c r="AM234" s="3"/>
+      <c r="AN234" s="3"/>
+      <c r="AO234" s="3"/>
+      <c r="AP234" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A235" s="8"/>
       <c r="B235" s="4">
         <v>0</v>
@@ -14081,12 +15249,16 @@
       <c r="AI235" s="3"/>
       <c r="AJ235" s="3"/>
       <c r="AK235" s="3"/>
-      <c r="AL235" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL235" s="3"/>
+      <c r="AM235" s="3"/>
+      <c r="AN235" s="3"/>
+      <c r="AO235" s="3"/>
+      <c r="AP235" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A236" s="8"/>
       <c r="B236" s="4">
         <v>0</v>
@@ -14128,12 +15300,16 @@
       <c r="AI236" s="3"/>
       <c r="AJ236" s="3"/>
       <c r="AK236" s="3"/>
-      <c r="AL236" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL236" s="3"/>
+      <c r="AM236" s="3"/>
+      <c r="AN236" s="3"/>
+      <c r="AO236" s="3"/>
+      <c r="AP236" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A237" s="8"/>
       <c r="B237" s="4">
         <v>0</v>
@@ -14175,12 +15351,16 @@
       <c r="AI237" s="3"/>
       <c r="AJ237" s="3"/>
       <c r="AK237" s="3"/>
-      <c r="AL237" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL237" s="3"/>
+      <c r="AM237" s="3"/>
+      <c r="AN237" s="3"/>
+      <c r="AO237" s="3"/>
+      <c r="AP237" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A238" s="8"/>
       <c r="B238" s="4">
         <v>0</v>
@@ -14222,12 +15402,16 @@
       <c r="AI238" s="3"/>
       <c r="AJ238" s="3"/>
       <c r="AK238" s="3"/>
-      <c r="AL238" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL238" s="3"/>
+      <c r="AM238" s="3"/>
+      <c r="AN238" s="3"/>
+      <c r="AO238" s="3"/>
+      <c r="AP238" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A239" s="8"/>
       <c r="B239" s="4">
         <v>0</v>
@@ -14269,12 +15453,16 @@
       <c r="AI239" s="3"/>
       <c r="AJ239" s="3"/>
       <c r="AK239" s="3"/>
-      <c r="AL239" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL239" s="3"/>
+      <c r="AM239" s="3"/>
+      <c r="AN239" s="3"/>
+      <c r="AO239" s="3"/>
+      <c r="AP239" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A240" s="8"/>
       <c r="B240" s="4">
         <v>0</v>
@@ -14316,12 +15504,16 @@
       <c r="AI240" s="3"/>
       <c r="AJ240" s="3"/>
       <c r="AK240" s="3"/>
-      <c r="AL240" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL240" s="3"/>
+      <c r="AM240" s="3"/>
+      <c r="AN240" s="3"/>
+      <c r="AO240" s="3"/>
+      <c r="AP240" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A241" s="8"/>
       <c r="B241" s="4">
         <v>0</v>
@@ -14363,12 +15555,16 @@
       <c r="AI241" s="3"/>
       <c r="AJ241" s="3"/>
       <c r="AK241" s="3"/>
-      <c r="AL241" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL241" s="3"/>
+      <c r="AM241" s="3"/>
+      <c r="AN241" s="3"/>
+      <c r="AO241" s="3"/>
+      <c r="AP241" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A242" s="8"/>
       <c r="B242" s="4">
         <v>0</v>
@@ -14410,12 +15606,16 @@
       <c r="AI242" s="3"/>
       <c r="AJ242" s="3"/>
       <c r="AK242" s="3"/>
-      <c r="AL242" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL242" s="3"/>
+      <c r="AM242" s="3"/>
+      <c r="AN242" s="3"/>
+      <c r="AO242" s="3"/>
+      <c r="AP242" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A243" s="8"/>
       <c r="B243" s="4">
         <v>0</v>
@@ -14457,12 +15657,16 @@
       <c r="AI243" s="3"/>
       <c r="AJ243" s="3"/>
       <c r="AK243" s="3"/>
-      <c r="AL243" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL243" s="3"/>
+      <c r="AM243" s="3"/>
+      <c r="AN243" s="3"/>
+      <c r="AO243" s="3"/>
+      <c r="AP243" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A244" s="8"/>
       <c r="B244" s="4">
         <v>0</v>
@@ -14504,12 +15708,16 @@
       <c r="AI244" s="3"/>
       <c r="AJ244" s="3"/>
       <c r="AK244" s="3"/>
-      <c r="AL244" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL244" s="3"/>
+      <c r="AM244" s="3"/>
+      <c r="AN244" s="3"/>
+      <c r="AO244" s="3"/>
+      <c r="AP244" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A245" s="8"/>
       <c r="B245" s="4">
         <v>0</v>
@@ -14551,12 +15759,16 @@
       <c r="AI245" s="3"/>
       <c r="AJ245" s="3"/>
       <c r="AK245" s="3"/>
-      <c r="AL245" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL245" s="3"/>
+      <c r="AM245" s="3"/>
+      <c r="AN245" s="3"/>
+      <c r="AO245" s="3"/>
+      <c r="AP245" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A246" s="8"/>
       <c r="B246" s="4">
         <v>0</v>
@@ -14598,12 +15810,16 @@
       <c r="AI246" s="3"/>
       <c r="AJ246" s="3"/>
       <c r="AK246" s="3"/>
-      <c r="AL246" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL246" s="3"/>
+      <c r="AM246" s="3"/>
+      <c r="AN246" s="3"/>
+      <c r="AO246" s="3"/>
+      <c r="AP246" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A247" s="8"/>
       <c r="B247" s="4">
         <v>0</v>
@@ -14645,12 +15861,16 @@
       <c r="AI247" s="3"/>
       <c r="AJ247" s="3"/>
       <c r="AK247" s="3"/>
-      <c r="AL247" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL247" s="3"/>
+      <c r="AM247" s="3"/>
+      <c r="AN247" s="3"/>
+      <c r="AO247" s="3"/>
+      <c r="AP247" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A248" s="8"/>
       <c r="B248" s="4">
         <v>0</v>
@@ -14692,12 +15912,16 @@
       <c r="AI248" s="3"/>
       <c r="AJ248" s="3"/>
       <c r="AK248" s="3"/>
-      <c r="AL248" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL248" s="3"/>
+      <c r="AM248" s="3"/>
+      <c r="AN248" s="3"/>
+      <c r="AO248" s="3"/>
+      <c r="AP248" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A249" s="8"/>
       <c r="B249" s="4">
         <v>0</v>
@@ -14739,12 +15963,16 @@
       <c r="AI249" s="3"/>
       <c r="AJ249" s="3"/>
       <c r="AK249" s="3"/>
-      <c r="AL249" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL249" s="3"/>
+      <c r="AM249" s="3"/>
+      <c r="AN249" s="3"/>
+      <c r="AO249" s="3"/>
+      <c r="AP249" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A250" s="11"/>
       <c r="B250" s="12"/>
       <c r="C250" s="15"/>
@@ -14782,12 +16010,16 @@
       <c r="AI250" s="13"/>
       <c r="AJ250" s="13"/>
       <c r="AK250" s="13"/>
-      <c r="AL250" s="14">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL250" s="13"/>
+      <c r="AM250" s="13"/>
+      <c r="AN250" s="13"/>
+      <c r="AO250" s="13"/>
+      <c r="AP250" s="14">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A251" s="8"/>
       <c r="B251" s="4">
         <v>0</v>
@@ -14829,13 +16061,17 @@
       <c r="AI251" s="3"/>
       <c r="AJ251" s="3"/>
       <c r="AK251" s="3"/>
-      <c r="AL251" s="10">
+      <c r="AL251" s="3"/>
+      <c r="AM251" s="3"/>
+      <c r="AN251" s="3"/>
+      <c r="AO251" s="3"/>
+      <c r="AP251" s="10">
         <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:AK251">
+  <conditionalFormatting sqref="E2:AO251">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/src/main/resources/templates/roastatstemplate.xlsx
+++ b/src/main/resources/templates/roastatstemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Jugador</t>
   </si>
@@ -140,6 +140,27 @@
   </si>
   <si>
     <t>Cazarre +</t>
+  </si>
+  <si>
+    <t>BB8+</t>
+  </si>
+  <si>
+    <t>R2-D2</t>
+  </si>
+  <si>
+    <t>R2-D2+</t>
+  </si>
+  <si>
+    <t>Vader+</t>
+  </si>
+  <si>
+    <t>Thrawn+</t>
+  </si>
+  <si>
+    <t>Palpatine</t>
+  </si>
+  <si>
+    <t>Palpatine+</t>
   </si>
 </sst>
 </file>
@@ -288,7 +309,7 @@
     <cellStyle name="Millares 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="104">
     <dxf>
       <font>
         <b val="0"/>
@@ -449,6 +470,316 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -746,6 +1077,68 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -769,6 +1162,68 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2828,54 +3283,61 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:AP251" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88" totalsRowDxfId="86" tableBorderDxfId="87">
-  <autoFilter ref="A1:AP251"/>
-  <sortState ref="A2:AR197">
-    <sortCondition descending="1" ref="AP1:AP197"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:AW251" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102" totalsRowDxfId="100" tableBorderDxfId="101">
+  <autoFilter ref="A1:AW251"/>
+  <sortState ref="A2:AY197">
+    <sortCondition descending="1" ref="AW1:AW197"/>
   </sortState>
-  <tableColumns count="42">
-    <tableColumn id="1" name="Jugador" dataDxfId="85" totalsRowDxfId="84"/>
-    <tableColumn id="2" name="PG" dataDxfId="83" totalsRowDxfId="82"/>
-    <tableColumn id="24" name="Arena" dataDxfId="81" totalsRowDxfId="80"/>
-    <tableColumn id="22" name="Gremio" dataDxfId="79" totalsRowDxfId="78"/>
-    <tableColumn id="4" name="CLS" dataDxfId="77" totalsRowDxfId="76"/>
-    <tableColumn id="17" name="CLS+" dataDxfId="75" totalsRowDxfId="74"/>
-    <tableColumn id="29" name="GK" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="30" name="GK+" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="31" name="BB8" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="37" name="RJT" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="38" name="RJT+" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="5" name="Chan 5*" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="18" name="Chan 7*" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="6" name="ERH 6*" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="7" name="SRH 5*" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="3" name="ROLO" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="34" name="Hermit Yoda" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="8" name="Rogue One" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="40" name="Rogue One +" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="9" name="Fénix" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="39" name="Fénix+" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="21" name="Naves 6*" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="10" name="Naves 7*" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="11" name="Vader" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="32" name="Thrawn" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="12" name=" Veers 5*" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="26" name=" Veers 7*" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="13" name="S.Nieves 5*" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="25" name="S.Nieves 7*" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="27" name="Starck 5*" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="28" name="Starck 7*" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="35" name="Imp. Probe Droid" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="36" name="Wampa" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="33" name="S. Imperiales" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="41" name="S. Imp +" dataDxfId="4" totalsRowDxfId="5"/>
-    <tableColumn id="14" name="Cazarrecompensas" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="42" name="Cazarre +" dataDxfId="0" totalsRowDxfId="1"/>
-    <tableColumn id="15" name="Executrix 6*" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="23" name="Executrix 7*" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="20" name="Chimera 5*" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="16" name="Chimera 7*" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="19" name="Total" dataDxfId="7" totalsRowDxfId="6">
+  <tableColumns count="49">
+    <tableColumn id="1" name="Jugador" dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="2" name="PG" dataDxfId="97" totalsRowDxfId="96"/>
+    <tableColumn id="24" name="Arena" dataDxfId="95" totalsRowDxfId="94"/>
+    <tableColumn id="22" name="Gremio" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="4" name="CLS" dataDxfId="91" totalsRowDxfId="90"/>
+    <tableColumn id="17" name="CLS+" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="29" name="GK" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="30" name="GK+" dataDxfId="85" totalsRowDxfId="84"/>
+    <tableColumn id="31" name="BB8" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="43" name="BB8+" dataDxfId="14" totalsRowDxfId="15"/>
+    <tableColumn id="45" name="R2-D2" dataDxfId="10" totalsRowDxfId="11"/>
+    <tableColumn id="44" name="R2-D2+" dataDxfId="12" totalsRowDxfId="13"/>
+    <tableColumn id="37" name="RJT" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="38" name="RJT+" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="5" name="Chan 5*" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="18" name="Chan 7*" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="6" name="ERH 6*" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="7" name="SRH 5*" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="3" name="ROLO" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="34" name="Hermit Yoda" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="8" name="Rogue One" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="40" name="Rogue One +" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="9" name="Fénix" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="39" name="Fénix+" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="21" name="Naves 6*" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="10" name="Naves 7*" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="11" name="Palpatine" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="50" name="Palpatine+" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="49" name="Vader" dataDxfId="4" totalsRowDxfId="5"/>
+    <tableColumn id="46" name="Vader+" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="32" name="Thrawn" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="47" name="Thrawn+" dataDxfId="6" totalsRowDxfId="7"/>
+    <tableColumn id="12" name=" Veers 5*" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="26" name=" Veers 7*" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="13" name="S.Nieves 5*" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="25" name="S.Nieves 7*" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="27" name="Starck 5*" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="28" name="Starck 7*" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="35" name="Imp. Probe Droid" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="36" name="Wampa" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="33" name="S. Imperiales" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="41" name="S. Imp +" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="14" name="Cazarrecompensas" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="42" name="Cazarre +" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="15" name="Executrix 6*" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="23" name="Executrix 7*" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="20" name="Chimera 5*" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="16" name="Chimera 7*" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="19" name="Total" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3170,12 +3632,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP251"/>
+  <dimension ref="A1:AW251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A93" sqref="A93"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3183,20 +3645,20 @@
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="10" customWidth="1"/>
-    <col min="12" max="21" width="9.140625" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" customWidth="1"/>
-    <col min="24" max="25" width="10.5703125" customWidth="1"/>
-    <col min="26" max="27" width="10.85546875" customWidth="1"/>
-    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="35" width="11" customWidth="1"/>
-    <col min="36" max="37" width="11.140625" customWidth="1"/>
-    <col min="38" max="40" width="13" customWidth="1"/>
-    <col min="41" max="41" width="15.5703125" customWidth="1"/>
+    <col min="5" max="14" width="10" customWidth="1"/>
+    <col min="15" max="24" width="9.140625" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" customWidth="1"/>
+    <col min="27" max="32" width="10.5703125" customWidth="1"/>
+    <col min="33" max="34" width="10.85546875" customWidth="1"/>
+    <col min="35" max="35" width="11" bestFit="1" customWidth="1"/>
+    <col min="36" max="42" width="11" customWidth="1"/>
+    <col min="43" max="44" width="11.140625" customWidth="1"/>
+    <col min="45" max="47" width="13" customWidth="1"/>
+    <col min="48" max="48" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3225,106 +3687,127 @@
         <v>27</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AT1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AV1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AW1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="4">
         <v>0</v>
@@ -3370,12 +3853,19 @@
       <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
-      <c r="AP2" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="4">
         <v>0</v>
@@ -3421,12 +3911,19 @@
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
-      <c r="AP3" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="4">
         <v>0</v>
@@ -3472,12 +3969,19 @@
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
-      <c r="AP4" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="4">
         <v>0</v>
@@ -3523,12 +4027,19 @@
       <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
-      <c r="AP5" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="4">
         <v>0</v>
@@ -3574,12 +4085,19 @@
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
       <c r="AO6" s="3"/>
-      <c r="AP6" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="4">
         <v>0</v>
@@ -3625,12 +4143,19 @@
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
-      <c r="AP7" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="4">
         <v>0</v>
@@ -3676,12 +4201,19 @@
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
-      <c r="AP8" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="4">
         <v>0</v>
@@ -3727,12 +4259,19 @@
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
       <c r="AO9" s="3"/>
-      <c r="AP9" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="4">
         <v>0</v>
@@ -3778,12 +4317,19 @@
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
       <c r="AO10" s="3"/>
-      <c r="AP10" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="4">
         <v>0</v>
@@ -3829,12 +4375,19 @@
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
-      <c r="AP11" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
+      <c r="AW11" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="4">
         <v>0</v>
@@ -3880,12 +4433,19 @@
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
-      <c r="AP12" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="AW12" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="4">
         <v>0</v>
@@ -3931,12 +4491,19 @@
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
-      <c r="AP13" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="4">
         <v>0</v>
@@ -3982,12 +4549,19 @@
       <c r="AM14" s="3"/>
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
-      <c r="AP14" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="4">
         <v>0</v>
@@ -4033,12 +4607,19 @@
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
-      <c r="AP15" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="4">
         <v>0</v>
@@ -4084,12 +4665,19 @@
       <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
-      <c r="AP16" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3"/>
+      <c r="AU16" s="3"/>
+      <c r="AV16" s="3"/>
+      <c r="AW16" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="4">
         <v>0</v>
@@ -4135,12 +4723,19 @@
       <c r="AM17" s="3"/>
       <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
-      <c r="AP17" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="4">
         <v>0</v>
@@ -4186,12 +4781,19 @@
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
-      <c r="AP18" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="4">
         <v>0</v>
@@ -4237,12 +4839,19 @@
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
-      <c r="AP19" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="4">
         <v>0</v>
@@ -4288,12 +4897,19 @@
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
-      <c r="AP20" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="4">
         <v>0</v>
@@ -4339,12 +4955,19 @@
       <c r="AM21" s="3"/>
       <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
-      <c r="AP21" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="4">
         <v>0</v>
@@ -4390,12 +5013,19 @@
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
-      <c r="AP22" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="4">
         <v>0</v>
@@ -4441,12 +5071,19 @@
       <c r="AM23" s="3"/>
       <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
-      <c r="AP23" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="4">
         <v>0</v>
@@ -4492,12 +5129,19 @@
       <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
-      <c r="AP24" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="4">
         <v>0</v>
@@ -4543,12 +5187,19 @@
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
-      <c r="AP25" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="4">
         <v>0</v>
@@ -4594,12 +5245,19 @@
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
-      <c r="AP26" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="4">
         <v>0</v>
@@ -4645,12 +5303,19 @@
       <c r="AM27" s="3"/>
       <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
-      <c r="AP27" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="4">
         <v>0</v>
@@ -4696,12 +5361,19 @@
       <c r="AM28" s="3"/>
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
-      <c r="AP28" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="4">
         <v>0</v>
@@ -4747,12 +5419,19 @@
       <c r="AM29" s="3"/>
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
-      <c r="AP29" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="4">
         <v>0</v>
@@ -4798,12 +5477,19 @@
       <c r="AM30" s="3"/>
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
-      <c r="AP30" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
+      <c r="AU30" s="3"/>
+      <c r="AV30" s="3"/>
+      <c r="AW30" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="4">
         <v>0</v>
@@ -4849,12 +5535,19 @@
       <c r="AM31" s="3"/>
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
-      <c r="AP31" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="4">
         <v>0</v>
@@ -4900,12 +5593,19 @@
       <c r="AM32" s="3"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
-      <c r="AP32" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
+      <c r="AV32" s="3"/>
+      <c r="AW32" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="4">
         <v>0</v>
@@ -4951,12 +5651,19 @@
       <c r="AM33" s="3"/>
       <c r="AN33" s="3"/>
       <c r="AO33" s="3"/>
-      <c r="AP33" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="4">
         <v>0</v>
@@ -5002,12 +5709,19 @@
       <c r="AM34" s="3"/>
       <c r="AN34" s="3"/>
       <c r="AO34" s="3"/>
-      <c r="AP34" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="4">
         <v>0</v>
@@ -5053,12 +5767,19 @@
       <c r="AM35" s="3"/>
       <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
-      <c r="AP35" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="3"/>
+      <c r="AR35" s="3"/>
+      <c r="AS35" s="3"/>
+      <c r="AT35" s="3"/>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="3"/>
+      <c r="AW35" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="4">
         <v>0</v>
@@ -5104,12 +5825,19 @@
       <c r="AM36" s="3"/>
       <c r="AN36" s="3"/>
       <c r="AO36" s="3"/>
-      <c r="AP36" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="3"/>
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="4">
         <v>0</v>
@@ -5155,12 +5883,19 @@
       <c r="AM37" s="3"/>
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
-      <c r="AP37" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="3"/>
+      <c r="AR37" s="3"/>
+      <c r="AS37" s="3"/>
+      <c r="AT37" s="3"/>
+      <c r="AU37" s="3"/>
+      <c r="AV37" s="3"/>
+      <c r="AW37" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="4">
         <v>0</v>
@@ -5206,12 +5941,19 @@
       <c r="AM38" s="3"/>
       <c r="AN38" s="3"/>
       <c r="AO38" s="3"/>
-      <c r="AP38" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP38" s="3"/>
+      <c r="AQ38" s="3"/>
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="3"/>
+      <c r="AW38" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="4">
         <v>0</v>
@@ -5257,12 +5999,19 @@
       <c r="AM39" s="3"/>
       <c r="AN39" s="3"/>
       <c r="AO39" s="3"/>
-      <c r="AP39" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP39" s="3"/>
+      <c r="AQ39" s="3"/>
+      <c r="AR39" s="3"/>
+      <c r="AS39" s="3"/>
+      <c r="AT39" s="3"/>
+      <c r="AU39" s="3"/>
+      <c r="AV39" s="3"/>
+      <c r="AW39" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="4">
         <v>0</v>
@@ -5308,12 +6057,19 @@
       <c r="AM40" s="3"/>
       <c r="AN40" s="3"/>
       <c r="AO40" s="3"/>
-      <c r="AP40" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP40" s="3"/>
+      <c r="AQ40" s="3"/>
+      <c r="AR40" s="3"/>
+      <c r="AS40" s="3"/>
+      <c r="AT40" s="3"/>
+      <c r="AU40" s="3"/>
+      <c r="AV40" s="3"/>
+      <c r="AW40" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="4">
         <v>0</v>
@@ -5359,12 +6115,19 @@
       <c r="AM41" s="3"/>
       <c r="AN41" s="3"/>
       <c r="AO41" s="3"/>
-      <c r="AP41" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP41" s="3"/>
+      <c r="AQ41" s="3"/>
+      <c r="AR41" s="3"/>
+      <c r="AS41" s="3"/>
+      <c r="AT41" s="3"/>
+      <c r="AU41" s="3"/>
+      <c r="AV41" s="3"/>
+      <c r="AW41" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="4">
         <v>0</v>
@@ -5410,12 +6173,19 @@
       <c r="AM42" s="3"/>
       <c r="AN42" s="3"/>
       <c r="AO42" s="3"/>
-      <c r="AP42" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP42" s="3"/>
+      <c r="AQ42" s="3"/>
+      <c r="AR42" s="3"/>
+      <c r="AS42" s="3"/>
+      <c r="AT42" s="3"/>
+      <c r="AU42" s="3"/>
+      <c r="AV42" s="3"/>
+      <c r="AW42" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="4">
         <v>0</v>
@@ -5461,12 +6231,19 @@
       <c r="AM43" s="3"/>
       <c r="AN43" s="3"/>
       <c r="AO43" s="3"/>
-      <c r="AP43" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP43" s="3"/>
+      <c r="AQ43" s="3"/>
+      <c r="AR43" s="3"/>
+      <c r="AS43" s="3"/>
+      <c r="AT43" s="3"/>
+      <c r="AU43" s="3"/>
+      <c r="AV43" s="3"/>
+      <c r="AW43" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="4">
         <v>0</v>
@@ -5512,12 +6289,19 @@
       <c r="AM44" s="3"/>
       <c r="AN44" s="3"/>
       <c r="AO44" s="3"/>
-      <c r="AP44" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP44" s="3"/>
+      <c r="AQ44" s="3"/>
+      <c r="AR44" s="3"/>
+      <c r="AS44" s="3"/>
+      <c r="AT44" s="3"/>
+      <c r="AU44" s="3"/>
+      <c r="AV44" s="3"/>
+      <c r="AW44" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="4">
         <v>0</v>
@@ -5563,12 +6347,19 @@
       <c r="AM45" s="3"/>
       <c r="AN45" s="3"/>
       <c r="AO45" s="3"/>
-      <c r="AP45" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP45" s="3"/>
+      <c r="AQ45" s="3"/>
+      <c r="AR45" s="3"/>
+      <c r="AS45" s="3"/>
+      <c r="AT45" s="3"/>
+      <c r="AU45" s="3"/>
+      <c r="AV45" s="3"/>
+      <c r="AW45" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="4">
         <v>0</v>
@@ -5614,12 +6405,19 @@
       <c r="AM46" s="3"/>
       <c r="AN46" s="3"/>
       <c r="AO46" s="3"/>
-      <c r="AP46" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP46" s="3"/>
+      <c r="AQ46" s="3"/>
+      <c r="AR46" s="3"/>
+      <c r="AS46" s="3"/>
+      <c r="AT46" s="3"/>
+      <c r="AU46" s="3"/>
+      <c r="AV46" s="3"/>
+      <c r="AW46" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="4">
         <v>0</v>
@@ -5665,12 +6463,19 @@
       <c r="AM47" s="3"/>
       <c r="AN47" s="3"/>
       <c r="AO47" s="3"/>
-      <c r="AP47" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP47" s="3"/>
+      <c r="AQ47" s="3"/>
+      <c r="AR47" s="3"/>
+      <c r="AS47" s="3"/>
+      <c r="AT47" s="3"/>
+      <c r="AU47" s="3"/>
+      <c r="AV47" s="3"/>
+      <c r="AW47" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="4">
         <v>0</v>
@@ -5716,12 +6521,19 @@
       <c r="AM48" s="3"/>
       <c r="AN48" s="3"/>
       <c r="AO48" s="3"/>
-      <c r="AP48" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP48" s="3"/>
+      <c r="AQ48" s="3"/>
+      <c r="AR48" s="3"/>
+      <c r="AS48" s="3"/>
+      <c r="AT48" s="3"/>
+      <c r="AU48" s="3"/>
+      <c r="AV48" s="3"/>
+      <c r="AW48" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="4">
         <v>0</v>
@@ -5767,12 +6579,19 @@
       <c r="AM49" s="3"/>
       <c r="AN49" s="3"/>
       <c r="AO49" s="3"/>
-      <c r="AP49" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP49" s="3"/>
+      <c r="AQ49" s="3"/>
+      <c r="AR49" s="3"/>
+      <c r="AS49" s="3"/>
+      <c r="AT49" s="3"/>
+      <c r="AU49" s="3"/>
+      <c r="AV49" s="3"/>
+      <c r="AW49" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="4">
         <v>0</v>
@@ -5818,12 +6637,19 @@
       <c r="AM50" s="3"/>
       <c r="AN50" s="3"/>
       <c r="AO50" s="3"/>
-      <c r="AP50" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP50" s="3"/>
+      <c r="AQ50" s="3"/>
+      <c r="AR50" s="3"/>
+      <c r="AS50" s="3"/>
+      <c r="AT50" s="3"/>
+      <c r="AU50" s="3"/>
+      <c r="AV50" s="3"/>
+      <c r="AW50" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="4">
         <v>0</v>
@@ -5869,12 +6695,19 @@
       <c r="AM51" s="3"/>
       <c r="AN51" s="3"/>
       <c r="AO51" s="3"/>
-      <c r="AP51" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP51" s="3"/>
+      <c r="AQ51" s="3"/>
+      <c r="AR51" s="3"/>
+      <c r="AS51" s="3"/>
+      <c r="AT51" s="3"/>
+      <c r="AU51" s="3"/>
+      <c r="AV51" s="3"/>
+      <c r="AW51" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="4">
         <v>0</v>
@@ -5920,12 +6753,19 @@
       <c r="AM52" s="3"/>
       <c r="AN52" s="3"/>
       <c r="AO52" s="3"/>
-      <c r="AP52" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP52" s="3"/>
+      <c r="AQ52" s="3"/>
+      <c r="AR52" s="3"/>
+      <c r="AS52" s="3"/>
+      <c r="AT52" s="3"/>
+      <c r="AU52" s="3"/>
+      <c r="AV52" s="3"/>
+      <c r="AW52" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="4">
         <v>0</v>
@@ -5971,12 +6811,19 @@
       <c r="AM53" s="3"/>
       <c r="AN53" s="3"/>
       <c r="AO53" s="3"/>
-      <c r="AP53" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP53" s="3"/>
+      <c r="AQ53" s="3"/>
+      <c r="AR53" s="3"/>
+      <c r="AS53" s="3"/>
+      <c r="AT53" s="3"/>
+      <c r="AU53" s="3"/>
+      <c r="AV53" s="3"/>
+      <c r="AW53" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="4">
         <v>0</v>
@@ -6022,12 +6869,19 @@
       <c r="AM54" s="3"/>
       <c r="AN54" s="3"/>
       <c r="AO54" s="3"/>
-      <c r="AP54" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP54" s="3"/>
+      <c r="AQ54" s="3"/>
+      <c r="AR54" s="3"/>
+      <c r="AS54" s="3"/>
+      <c r="AT54" s="3"/>
+      <c r="AU54" s="3"/>
+      <c r="AV54" s="3"/>
+      <c r="AW54" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="4">
         <v>0</v>
@@ -6073,12 +6927,19 @@
       <c r="AM55" s="3"/>
       <c r="AN55" s="3"/>
       <c r="AO55" s="3"/>
-      <c r="AP55" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP55" s="3"/>
+      <c r="AQ55" s="3"/>
+      <c r="AR55" s="3"/>
+      <c r="AS55" s="3"/>
+      <c r="AT55" s="3"/>
+      <c r="AU55" s="3"/>
+      <c r="AV55" s="3"/>
+      <c r="AW55" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="4">
         <v>0</v>
@@ -6124,12 +6985,19 @@
       <c r="AM56" s="3"/>
       <c r="AN56" s="3"/>
       <c r="AO56" s="3"/>
-      <c r="AP56" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP56" s="3"/>
+      <c r="AQ56" s="3"/>
+      <c r="AR56" s="3"/>
+      <c r="AS56" s="3"/>
+      <c r="AT56" s="3"/>
+      <c r="AU56" s="3"/>
+      <c r="AV56" s="3"/>
+      <c r="AW56" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="4">
         <v>0</v>
@@ -6175,12 +7043,19 @@
       <c r="AM57" s="3"/>
       <c r="AN57" s="3"/>
       <c r="AO57" s="3"/>
-      <c r="AP57" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP57" s="3"/>
+      <c r="AQ57" s="3"/>
+      <c r="AR57" s="3"/>
+      <c r="AS57" s="3"/>
+      <c r="AT57" s="3"/>
+      <c r="AU57" s="3"/>
+      <c r="AV57" s="3"/>
+      <c r="AW57" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="4">
         <v>0</v>
@@ -6226,12 +7101,19 @@
       <c r="AM58" s="3"/>
       <c r="AN58" s="3"/>
       <c r="AO58" s="3"/>
-      <c r="AP58" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP58" s="3"/>
+      <c r="AQ58" s="3"/>
+      <c r="AR58" s="3"/>
+      <c r="AS58" s="3"/>
+      <c r="AT58" s="3"/>
+      <c r="AU58" s="3"/>
+      <c r="AV58" s="3"/>
+      <c r="AW58" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="4">
         <v>0</v>
@@ -6277,12 +7159,19 @@
       <c r="AM59" s="3"/>
       <c r="AN59" s="3"/>
       <c r="AO59" s="3"/>
-      <c r="AP59" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP59" s="3"/>
+      <c r="AQ59" s="3"/>
+      <c r="AR59" s="3"/>
+      <c r="AS59" s="3"/>
+      <c r="AT59" s="3"/>
+      <c r="AU59" s="3"/>
+      <c r="AV59" s="3"/>
+      <c r="AW59" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="4">
         <v>0</v>
@@ -6328,12 +7217,19 @@
       <c r="AM60" s="3"/>
       <c r="AN60" s="3"/>
       <c r="AO60" s="3"/>
-      <c r="AP60" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP60" s="3"/>
+      <c r="AQ60" s="3"/>
+      <c r="AR60" s="3"/>
+      <c r="AS60" s="3"/>
+      <c r="AT60" s="3"/>
+      <c r="AU60" s="3"/>
+      <c r="AV60" s="3"/>
+      <c r="AW60" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="4">
         <v>0</v>
@@ -6379,12 +7275,19 @@
       <c r="AM61" s="3"/>
       <c r="AN61" s="3"/>
       <c r="AO61" s="3"/>
-      <c r="AP61" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP61" s="3"/>
+      <c r="AQ61" s="3"/>
+      <c r="AR61" s="3"/>
+      <c r="AS61" s="3"/>
+      <c r="AT61" s="3"/>
+      <c r="AU61" s="3"/>
+      <c r="AV61" s="3"/>
+      <c r="AW61" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="4">
         <v>0</v>
@@ -6430,12 +7333,19 @@
       <c r="AM62" s="3"/>
       <c r="AN62" s="3"/>
       <c r="AO62" s="3"/>
-      <c r="AP62" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP62" s="3"/>
+      <c r="AQ62" s="3"/>
+      <c r="AR62" s="3"/>
+      <c r="AS62" s="3"/>
+      <c r="AT62" s="3"/>
+      <c r="AU62" s="3"/>
+      <c r="AV62" s="3"/>
+      <c r="AW62" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="4">
         <v>0</v>
@@ -6481,12 +7391,19 @@
       <c r="AM63" s="3"/>
       <c r="AN63" s="3"/>
       <c r="AO63" s="3"/>
-      <c r="AP63" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP63" s="3"/>
+      <c r="AQ63" s="3"/>
+      <c r="AR63" s="3"/>
+      <c r="AS63" s="3"/>
+      <c r="AT63" s="3"/>
+      <c r="AU63" s="3"/>
+      <c r="AV63" s="3"/>
+      <c r="AW63" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="4">
         <v>0</v>
@@ -6532,12 +7449,19 @@
       <c r="AM64" s="3"/>
       <c r="AN64" s="3"/>
       <c r="AO64" s="3"/>
-      <c r="AP64" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP64" s="3"/>
+      <c r="AQ64" s="3"/>
+      <c r="AR64" s="3"/>
+      <c r="AS64" s="3"/>
+      <c r="AT64" s="3"/>
+      <c r="AU64" s="3"/>
+      <c r="AV64" s="3"/>
+      <c r="AW64" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="4">
         <v>0</v>
@@ -6583,12 +7507,19 @@
       <c r="AM65" s="3"/>
       <c r="AN65" s="3"/>
       <c r="AO65" s="3"/>
-      <c r="AP65" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP65" s="3"/>
+      <c r="AQ65" s="3"/>
+      <c r="AR65" s="3"/>
+      <c r="AS65" s="3"/>
+      <c r="AT65" s="3"/>
+      <c r="AU65" s="3"/>
+      <c r="AV65" s="3"/>
+      <c r="AW65" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="4">
         <v>0</v>
@@ -6634,12 +7565,19 @@
       <c r="AM66" s="3"/>
       <c r="AN66" s="3"/>
       <c r="AO66" s="3"/>
-      <c r="AP66" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP66" s="3"/>
+      <c r="AQ66" s="3"/>
+      <c r="AR66" s="3"/>
+      <c r="AS66" s="3"/>
+      <c r="AT66" s="3"/>
+      <c r="AU66" s="3"/>
+      <c r="AV66" s="3"/>
+      <c r="AW66" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="4">
         <v>0</v>
@@ -6685,12 +7623,19 @@
       <c r="AM67" s="3"/>
       <c r="AN67" s="3"/>
       <c r="AO67" s="3"/>
-      <c r="AP67" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP67" s="3"/>
+      <c r="AQ67" s="3"/>
+      <c r="AR67" s="3"/>
+      <c r="AS67" s="3"/>
+      <c r="AT67" s="3"/>
+      <c r="AU67" s="3"/>
+      <c r="AV67" s="3"/>
+      <c r="AW67" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="4">
         <v>0</v>
@@ -6736,12 +7681,19 @@
       <c r="AM68" s="3"/>
       <c r="AN68" s="3"/>
       <c r="AO68" s="3"/>
-      <c r="AP68" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP68" s="3"/>
+      <c r="AQ68" s="3"/>
+      <c r="AR68" s="3"/>
+      <c r="AS68" s="3"/>
+      <c r="AT68" s="3"/>
+      <c r="AU68" s="3"/>
+      <c r="AV68" s="3"/>
+      <c r="AW68" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="4">
         <v>0</v>
@@ -6787,12 +7739,19 @@
       <c r="AM69" s="3"/>
       <c r="AN69" s="3"/>
       <c r="AO69" s="3"/>
-      <c r="AP69" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP69" s="3"/>
+      <c r="AQ69" s="3"/>
+      <c r="AR69" s="3"/>
+      <c r="AS69" s="3"/>
+      <c r="AT69" s="3"/>
+      <c r="AU69" s="3"/>
+      <c r="AV69" s="3"/>
+      <c r="AW69" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="4">
         <v>0</v>
@@ -6838,12 +7797,19 @@
       <c r="AM70" s="3"/>
       <c r="AN70" s="3"/>
       <c r="AO70" s="3"/>
-      <c r="AP70" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP70" s="3"/>
+      <c r="AQ70" s="3"/>
+      <c r="AR70" s="3"/>
+      <c r="AS70" s="3"/>
+      <c r="AT70" s="3"/>
+      <c r="AU70" s="3"/>
+      <c r="AV70" s="3"/>
+      <c r="AW70" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="4">
         <v>0</v>
@@ -6889,12 +7855,19 @@
       <c r="AM71" s="3"/>
       <c r="AN71" s="3"/>
       <c r="AO71" s="3"/>
-      <c r="AP71" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP71" s="3"/>
+      <c r="AQ71" s="3"/>
+      <c r="AR71" s="3"/>
+      <c r="AS71" s="3"/>
+      <c r="AT71" s="3"/>
+      <c r="AU71" s="3"/>
+      <c r="AV71" s="3"/>
+      <c r="AW71" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="4">
         <v>0</v>
@@ -6940,12 +7913,19 @@
       <c r="AM72" s="3"/>
       <c r="AN72" s="3"/>
       <c r="AO72" s="3"/>
-      <c r="AP72" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP72" s="3"/>
+      <c r="AQ72" s="3"/>
+      <c r="AR72" s="3"/>
+      <c r="AS72" s="3"/>
+      <c r="AT72" s="3"/>
+      <c r="AU72" s="3"/>
+      <c r="AV72" s="3"/>
+      <c r="AW72" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="4">
         <v>0</v>
@@ -6991,12 +7971,19 @@
       <c r="AM73" s="3"/>
       <c r="AN73" s="3"/>
       <c r="AO73" s="3"/>
-      <c r="AP73" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP73" s="3"/>
+      <c r="AQ73" s="3"/>
+      <c r="AR73" s="3"/>
+      <c r="AS73" s="3"/>
+      <c r="AT73" s="3"/>
+      <c r="AU73" s="3"/>
+      <c r="AV73" s="3"/>
+      <c r="AW73" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="4">
         <v>0</v>
@@ -7042,12 +8029,19 @@
       <c r="AM74" s="3"/>
       <c r="AN74" s="3"/>
       <c r="AO74" s="3"/>
-      <c r="AP74" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP74" s="3"/>
+      <c r="AQ74" s="3"/>
+      <c r="AR74" s="3"/>
+      <c r="AS74" s="3"/>
+      <c r="AT74" s="3"/>
+      <c r="AU74" s="3"/>
+      <c r="AV74" s="3"/>
+      <c r="AW74" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="4">
         <v>0</v>
@@ -7093,12 +8087,19 @@
       <c r="AM75" s="3"/>
       <c r="AN75" s="3"/>
       <c r="AO75" s="3"/>
-      <c r="AP75" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP75" s="3"/>
+      <c r="AQ75" s="3"/>
+      <c r="AR75" s="3"/>
+      <c r="AS75" s="3"/>
+      <c r="AT75" s="3"/>
+      <c r="AU75" s="3"/>
+      <c r="AV75" s="3"/>
+      <c r="AW75" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="4">
         <v>0</v>
@@ -7144,12 +8145,19 @@
       <c r="AM76" s="3"/>
       <c r="AN76" s="3"/>
       <c r="AO76" s="3"/>
-      <c r="AP76" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP76" s="3"/>
+      <c r="AQ76" s="3"/>
+      <c r="AR76" s="3"/>
+      <c r="AS76" s="3"/>
+      <c r="AT76" s="3"/>
+      <c r="AU76" s="3"/>
+      <c r="AV76" s="3"/>
+      <c r="AW76" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="4">
         <v>0</v>
@@ -7195,12 +8203,19 @@
       <c r="AM77" s="3"/>
       <c r="AN77" s="3"/>
       <c r="AO77" s="3"/>
-      <c r="AP77" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP77" s="3"/>
+      <c r="AQ77" s="3"/>
+      <c r="AR77" s="3"/>
+      <c r="AS77" s="3"/>
+      <c r="AT77" s="3"/>
+      <c r="AU77" s="3"/>
+      <c r="AV77" s="3"/>
+      <c r="AW77" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="4">
         <v>0</v>
@@ -7246,12 +8261,19 @@
       <c r="AM78" s="3"/>
       <c r="AN78" s="3"/>
       <c r="AO78" s="3"/>
-      <c r="AP78" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP78" s="3"/>
+      <c r="AQ78" s="3"/>
+      <c r="AR78" s="3"/>
+      <c r="AS78" s="3"/>
+      <c r="AT78" s="3"/>
+      <c r="AU78" s="3"/>
+      <c r="AV78" s="3"/>
+      <c r="AW78" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="4">
         <v>0</v>
@@ -7297,12 +8319,19 @@
       <c r="AM79" s="3"/>
       <c r="AN79" s="3"/>
       <c r="AO79" s="3"/>
-      <c r="AP79" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP79" s="3"/>
+      <c r="AQ79" s="3"/>
+      <c r="AR79" s="3"/>
+      <c r="AS79" s="3"/>
+      <c r="AT79" s="3"/>
+      <c r="AU79" s="3"/>
+      <c r="AV79" s="3"/>
+      <c r="AW79" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="4">
         <v>0</v>
@@ -7348,12 +8377,19 @@
       <c r="AM80" s="3"/>
       <c r="AN80" s="3"/>
       <c r="AO80" s="3"/>
-      <c r="AP80" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP80" s="3"/>
+      <c r="AQ80" s="3"/>
+      <c r="AR80" s="3"/>
+      <c r="AS80" s="3"/>
+      <c r="AT80" s="3"/>
+      <c r="AU80" s="3"/>
+      <c r="AV80" s="3"/>
+      <c r="AW80" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="4">
         <v>0</v>
@@ -7399,12 +8435,19 @@
       <c r="AM81" s="3"/>
       <c r="AN81" s="3"/>
       <c r="AO81" s="3"/>
-      <c r="AP81" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP81" s="3"/>
+      <c r="AQ81" s="3"/>
+      <c r="AR81" s="3"/>
+      <c r="AS81" s="3"/>
+      <c r="AT81" s="3"/>
+      <c r="AU81" s="3"/>
+      <c r="AV81" s="3"/>
+      <c r="AW81" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="4">
         <v>0</v>
@@ -7450,12 +8493,19 @@
       <c r="AM82" s="3"/>
       <c r="AN82" s="3"/>
       <c r="AO82" s="3"/>
-      <c r="AP82" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP82" s="3"/>
+      <c r="AQ82" s="3"/>
+      <c r="AR82" s="3"/>
+      <c r="AS82" s="3"/>
+      <c r="AT82" s="3"/>
+      <c r="AU82" s="3"/>
+      <c r="AV82" s="3"/>
+      <c r="AW82" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="4">
         <v>0</v>
@@ -7501,12 +8551,19 @@
       <c r="AM83" s="3"/>
       <c r="AN83" s="3"/>
       <c r="AO83" s="3"/>
-      <c r="AP83" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP83" s="3"/>
+      <c r="AQ83" s="3"/>
+      <c r="AR83" s="3"/>
+      <c r="AS83" s="3"/>
+      <c r="AT83" s="3"/>
+      <c r="AU83" s="3"/>
+      <c r="AV83" s="3"/>
+      <c r="AW83" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="4">
         <v>0</v>
@@ -7552,12 +8609,19 @@
       <c r="AM84" s="3"/>
       <c r="AN84" s="3"/>
       <c r="AO84" s="3"/>
-      <c r="AP84" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP84" s="3"/>
+      <c r="AQ84" s="3"/>
+      <c r="AR84" s="3"/>
+      <c r="AS84" s="3"/>
+      <c r="AT84" s="3"/>
+      <c r="AU84" s="3"/>
+      <c r="AV84" s="3"/>
+      <c r="AW84" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="4">
         <v>0</v>
@@ -7603,12 +8667,19 @@
       <c r="AM85" s="3"/>
       <c r="AN85" s="3"/>
       <c r="AO85" s="3"/>
-      <c r="AP85" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP85" s="3"/>
+      <c r="AQ85" s="3"/>
+      <c r="AR85" s="3"/>
+      <c r="AS85" s="3"/>
+      <c r="AT85" s="3"/>
+      <c r="AU85" s="3"/>
+      <c r="AV85" s="3"/>
+      <c r="AW85" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="4">
         <v>0</v>
@@ -7654,12 +8725,19 @@
       <c r="AM86" s="3"/>
       <c r="AN86" s="3"/>
       <c r="AO86" s="3"/>
-      <c r="AP86" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP86" s="3"/>
+      <c r="AQ86" s="3"/>
+      <c r="AR86" s="3"/>
+      <c r="AS86" s="3"/>
+      <c r="AT86" s="3"/>
+      <c r="AU86" s="3"/>
+      <c r="AV86" s="3"/>
+      <c r="AW86" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="4">
         <v>0</v>
@@ -7705,12 +8783,19 @@
       <c r="AM87" s="3"/>
       <c r="AN87" s="3"/>
       <c r="AO87" s="3"/>
-      <c r="AP87" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP87" s="3"/>
+      <c r="AQ87" s="3"/>
+      <c r="AR87" s="3"/>
+      <c r="AS87" s="3"/>
+      <c r="AT87" s="3"/>
+      <c r="AU87" s="3"/>
+      <c r="AV87" s="3"/>
+      <c r="AW87" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="4">
         <v>0</v>
@@ -7756,12 +8841,19 @@
       <c r="AM88" s="3"/>
       <c r="AN88" s="3"/>
       <c r="AO88" s="3"/>
-      <c r="AP88" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP88" s="3"/>
+      <c r="AQ88" s="3"/>
+      <c r="AR88" s="3"/>
+      <c r="AS88" s="3"/>
+      <c r="AT88" s="3"/>
+      <c r="AU88" s="3"/>
+      <c r="AV88" s="3"/>
+      <c r="AW88" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="4">
         <v>0</v>
@@ -7807,12 +8899,19 @@
       <c r="AM89" s="3"/>
       <c r="AN89" s="3"/>
       <c r="AO89" s="3"/>
-      <c r="AP89" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP89" s="3"/>
+      <c r="AQ89" s="3"/>
+      <c r="AR89" s="3"/>
+      <c r="AS89" s="3"/>
+      <c r="AT89" s="3"/>
+      <c r="AU89" s="3"/>
+      <c r="AV89" s="3"/>
+      <c r="AW89" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="4">
         <v>0</v>
@@ -7858,12 +8957,19 @@
       <c r="AM90" s="3"/>
       <c r="AN90" s="3"/>
       <c r="AO90" s="3"/>
-      <c r="AP90" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP90" s="3"/>
+      <c r="AQ90" s="3"/>
+      <c r="AR90" s="3"/>
+      <c r="AS90" s="3"/>
+      <c r="AT90" s="3"/>
+      <c r="AU90" s="3"/>
+      <c r="AV90" s="3"/>
+      <c r="AW90" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="4">
         <v>0</v>
@@ -7909,12 +9015,19 @@
       <c r="AM91" s="3"/>
       <c r="AN91" s="3"/>
       <c r="AO91" s="3"/>
-      <c r="AP91" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP91" s="3"/>
+      <c r="AQ91" s="3"/>
+      <c r="AR91" s="3"/>
+      <c r="AS91" s="3"/>
+      <c r="AT91" s="3"/>
+      <c r="AU91" s="3"/>
+      <c r="AV91" s="3"/>
+      <c r="AW91" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="4">
         <v>0</v>
@@ -7960,12 +9073,19 @@
       <c r="AM92" s="3"/>
       <c r="AN92" s="3"/>
       <c r="AO92" s="3"/>
-      <c r="AP92" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP92" s="3"/>
+      <c r="AQ92" s="3"/>
+      <c r="AR92" s="3"/>
+      <c r="AS92" s="3"/>
+      <c r="AT92" s="3"/>
+      <c r="AU92" s="3"/>
+      <c r="AV92" s="3"/>
+      <c r="AW92" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="4">
         <v>0</v>
@@ -8011,12 +9131,19 @@
       <c r="AM93" s="3"/>
       <c r="AN93" s="3"/>
       <c r="AO93" s="3"/>
-      <c r="AP93" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP93" s="3"/>
+      <c r="AQ93" s="3"/>
+      <c r="AR93" s="3"/>
+      <c r="AS93" s="3"/>
+      <c r="AT93" s="3"/>
+      <c r="AU93" s="3"/>
+      <c r="AV93" s="3"/>
+      <c r="AW93" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="4">
         <v>0</v>
@@ -8062,12 +9189,19 @@
       <c r="AM94" s="3"/>
       <c r="AN94" s="3"/>
       <c r="AO94" s="3"/>
-      <c r="AP94" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP94" s="3"/>
+      <c r="AQ94" s="3"/>
+      <c r="AR94" s="3"/>
+      <c r="AS94" s="3"/>
+      <c r="AT94" s="3"/>
+      <c r="AU94" s="3"/>
+      <c r="AV94" s="3"/>
+      <c r="AW94" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="4">
         <v>0</v>
@@ -8113,12 +9247,19 @@
       <c r="AM95" s="3"/>
       <c r="AN95" s="3"/>
       <c r="AO95" s="3"/>
-      <c r="AP95" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP95" s="3"/>
+      <c r="AQ95" s="3"/>
+      <c r="AR95" s="3"/>
+      <c r="AS95" s="3"/>
+      <c r="AT95" s="3"/>
+      <c r="AU95" s="3"/>
+      <c r="AV95" s="3"/>
+      <c r="AW95" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="4">
         <v>0</v>
@@ -8164,12 +9305,19 @@
       <c r="AM96" s="3"/>
       <c r="AN96" s="3"/>
       <c r="AO96" s="3"/>
-      <c r="AP96" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP96" s="3"/>
+      <c r="AQ96" s="3"/>
+      <c r="AR96" s="3"/>
+      <c r="AS96" s="3"/>
+      <c r="AT96" s="3"/>
+      <c r="AU96" s="3"/>
+      <c r="AV96" s="3"/>
+      <c r="AW96" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="4">
         <v>0</v>
@@ -8215,12 +9363,19 @@
       <c r="AM97" s="3"/>
       <c r="AN97" s="3"/>
       <c r="AO97" s="3"/>
-      <c r="AP97" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP97" s="3"/>
+      <c r="AQ97" s="3"/>
+      <c r="AR97" s="3"/>
+      <c r="AS97" s="3"/>
+      <c r="AT97" s="3"/>
+      <c r="AU97" s="3"/>
+      <c r="AV97" s="3"/>
+      <c r="AW97" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="4">
         <v>0</v>
@@ -8266,12 +9421,19 @@
       <c r="AM98" s="3"/>
       <c r="AN98" s="3"/>
       <c r="AO98" s="3"/>
-      <c r="AP98" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP98" s="3"/>
+      <c r="AQ98" s="3"/>
+      <c r="AR98" s="3"/>
+      <c r="AS98" s="3"/>
+      <c r="AT98" s="3"/>
+      <c r="AU98" s="3"/>
+      <c r="AV98" s="3"/>
+      <c r="AW98" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="4">
         <v>0</v>
@@ -8317,12 +9479,19 @@
       <c r="AM99" s="3"/>
       <c r="AN99" s="3"/>
       <c r="AO99" s="3"/>
-      <c r="AP99" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP99" s="3"/>
+      <c r="AQ99" s="3"/>
+      <c r="AR99" s="3"/>
+      <c r="AS99" s="3"/>
+      <c r="AT99" s="3"/>
+      <c r="AU99" s="3"/>
+      <c r="AV99" s="3"/>
+      <c r="AW99" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="4">
         <v>0</v>
@@ -8368,12 +9537,19 @@
       <c r="AM100" s="3"/>
       <c r="AN100" s="3"/>
       <c r="AO100" s="3"/>
-      <c r="AP100" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP100" s="3"/>
+      <c r="AQ100" s="3"/>
+      <c r="AR100" s="3"/>
+      <c r="AS100" s="3"/>
+      <c r="AT100" s="3"/>
+      <c r="AU100" s="3"/>
+      <c r="AV100" s="3"/>
+      <c r="AW100" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="4">
         <v>0</v>
@@ -8419,12 +9595,19 @@
       <c r="AM101" s="3"/>
       <c r="AN101" s="3"/>
       <c r="AO101" s="3"/>
-      <c r="AP101" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP101" s="3"/>
+      <c r="AQ101" s="3"/>
+      <c r="AR101" s="3"/>
+      <c r="AS101" s="3"/>
+      <c r="AT101" s="3"/>
+      <c r="AU101" s="3"/>
+      <c r="AV101" s="3"/>
+      <c r="AW101" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="4">
         <v>0</v>
@@ -8470,12 +9653,19 @@
       <c r="AM102" s="3"/>
       <c r="AN102" s="3"/>
       <c r="AO102" s="3"/>
-      <c r="AP102" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP102" s="3"/>
+      <c r="AQ102" s="3"/>
+      <c r="AR102" s="3"/>
+      <c r="AS102" s="3"/>
+      <c r="AT102" s="3"/>
+      <c r="AU102" s="3"/>
+      <c r="AV102" s="3"/>
+      <c r="AW102" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="4">
         <v>0</v>
@@ -8521,12 +9711,19 @@
       <c r="AM103" s="3"/>
       <c r="AN103" s="3"/>
       <c r="AO103" s="3"/>
-      <c r="AP103" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP103" s="3"/>
+      <c r="AQ103" s="3"/>
+      <c r="AR103" s="3"/>
+      <c r="AS103" s="3"/>
+      <c r="AT103" s="3"/>
+      <c r="AU103" s="3"/>
+      <c r="AV103" s="3"/>
+      <c r="AW103" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="4">
         <v>0</v>
@@ -8572,12 +9769,19 @@
       <c r="AM104" s="3"/>
       <c r="AN104" s="3"/>
       <c r="AO104" s="3"/>
-      <c r="AP104" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP104" s="3"/>
+      <c r="AQ104" s="3"/>
+      <c r="AR104" s="3"/>
+      <c r="AS104" s="3"/>
+      <c r="AT104" s="3"/>
+      <c r="AU104" s="3"/>
+      <c r="AV104" s="3"/>
+      <c r="AW104" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="4">
         <v>0</v>
@@ -8623,12 +9827,19 @@
       <c r="AM105" s="3"/>
       <c r="AN105" s="3"/>
       <c r="AO105" s="3"/>
-      <c r="AP105" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP105" s="3"/>
+      <c r="AQ105" s="3"/>
+      <c r="AR105" s="3"/>
+      <c r="AS105" s="3"/>
+      <c r="AT105" s="3"/>
+      <c r="AU105" s="3"/>
+      <c r="AV105" s="3"/>
+      <c r="AW105" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="4">
         <v>0</v>
@@ -8674,12 +9885,19 @@
       <c r="AM106" s="3"/>
       <c r="AN106" s="3"/>
       <c r="AO106" s="3"/>
-      <c r="AP106" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP106" s="3"/>
+      <c r="AQ106" s="3"/>
+      <c r="AR106" s="3"/>
+      <c r="AS106" s="3"/>
+      <c r="AT106" s="3"/>
+      <c r="AU106" s="3"/>
+      <c r="AV106" s="3"/>
+      <c r="AW106" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="4">
         <v>0</v>
@@ -8725,12 +9943,19 @@
       <c r="AM107" s="3"/>
       <c r="AN107" s="3"/>
       <c r="AO107" s="3"/>
-      <c r="AP107" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP107" s="3"/>
+      <c r="AQ107" s="3"/>
+      <c r="AR107" s="3"/>
+      <c r="AS107" s="3"/>
+      <c r="AT107" s="3"/>
+      <c r="AU107" s="3"/>
+      <c r="AV107" s="3"/>
+      <c r="AW107" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="4">
         <v>0</v>
@@ -8776,12 +10001,19 @@
       <c r="AM108" s="3"/>
       <c r="AN108" s="3"/>
       <c r="AO108" s="3"/>
-      <c r="AP108" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP108" s="3"/>
+      <c r="AQ108" s="3"/>
+      <c r="AR108" s="3"/>
+      <c r="AS108" s="3"/>
+      <c r="AT108" s="3"/>
+      <c r="AU108" s="3"/>
+      <c r="AV108" s="3"/>
+      <c r="AW108" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="4">
         <v>0</v>
@@ -8827,12 +10059,19 @@
       <c r="AM109" s="3"/>
       <c r="AN109" s="3"/>
       <c r="AO109" s="3"/>
-      <c r="AP109" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP109" s="3"/>
+      <c r="AQ109" s="3"/>
+      <c r="AR109" s="3"/>
+      <c r="AS109" s="3"/>
+      <c r="AT109" s="3"/>
+      <c r="AU109" s="3"/>
+      <c r="AV109" s="3"/>
+      <c r="AW109" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="4">
         <v>0</v>
@@ -8878,12 +10117,19 @@
       <c r="AM110" s="3"/>
       <c r="AN110" s="3"/>
       <c r="AO110" s="3"/>
-      <c r="AP110" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP110" s="3"/>
+      <c r="AQ110" s="3"/>
+      <c r="AR110" s="3"/>
+      <c r="AS110" s="3"/>
+      <c r="AT110" s="3"/>
+      <c r="AU110" s="3"/>
+      <c r="AV110" s="3"/>
+      <c r="AW110" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="4">
         <v>0</v>
@@ -8929,12 +10175,19 @@
       <c r="AM111" s="3"/>
       <c r="AN111" s="3"/>
       <c r="AO111" s="3"/>
-      <c r="AP111" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP111" s="3"/>
+      <c r="AQ111" s="3"/>
+      <c r="AR111" s="3"/>
+      <c r="AS111" s="3"/>
+      <c r="AT111" s="3"/>
+      <c r="AU111" s="3"/>
+      <c r="AV111" s="3"/>
+      <c r="AW111" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="4">
         <v>0</v>
@@ -8980,12 +10233,19 @@
       <c r="AM112" s="3"/>
       <c r="AN112" s="3"/>
       <c r="AO112" s="3"/>
-      <c r="AP112" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP112" s="3"/>
+      <c r="AQ112" s="3"/>
+      <c r="AR112" s="3"/>
+      <c r="AS112" s="3"/>
+      <c r="AT112" s="3"/>
+      <c r="AU112" s="3"/>
+      <c r="AV112" s="3"/>
+      <c r="AW112" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="4">
         <v>0</v>
@@ -9031,12 +10291,19 @@
       <c r="AM113" s="3"/>
       <c r="AN113" s="3"/>
       <c r="AO113" s="3"/>
-      <c r="AP113" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP113" s="3"/>
+      <c r="AQ113" s="3"/>
+      <c r="AR113" s="3"/>
+      <c r="AS113" s="3"/>
+      <c r="AT113" s="3"/>
+      <c r="AU113" s="3"/>
+      <c r="AV113" s="3"/>
+      <c r="AW113" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="4">
         <v>0</v>
@@ -9082,12 +10349,19 @@
       <c r="AM114" s="3"/>
       <c r="AN114" s="3"/>
       <c r="AO114" s="3"/>
-      <c r="AP114" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP114" s="3"/>
+      <c r="AQ114" s="3"/>
+      <c r="AR114" s="3"/>
+      <c r="AS114" s="3"/>
+      <c r="AT114" s="3"/>
+      <c r="AU114" s="3"/>
+      <c r="AV114" s="3"/>
+      <c r="AW114" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="4">
         <v>0</v>
@@ -9133,12 +10407,19 @@
       <c r="AM115" s="3"/>
       <c r="AN115" s="3"/>
       <c r="AO115" s="3"/>
-      <c r="AP115" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP115" s="3"/>
+      <c r="AQ115" s="3"/>
+      <c r="AR115" s="3"/>
+      <c r="AS115" s="3"/>
+      <c r="AT115" s="3"/>
+      <c r="AU115" s="3"/>
+      <c r="AV115" s="3"/>
+      <c r="AW115" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="4">
         <v>0</v>
@@ -9184,12 +10465,19 @@
       <c r="AM116" s="3"/>
       <c r="AN116" s="3"/>
       <c r="AO116" s="3"/>
-      <c r="AP116" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP116" s="3"/>
+      <c r="AQ116" s="3"/>
+      <c r="AR116" s="3"/>
+      <c r="AS116" s="3"/>
+      <c r="AT116" s="3"/>
+      <c r="AU116" s="3"/>
+      <c r="AV116" s="3"/>
+      <c r="AW116" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="4">
         <v>0</v>
@@ -9235,12 +10523,19 @@
       <c r="AM117" s="3"/>
       <c r="AN117" s="3"/>
       <c r="AO117" s="3"/>
-      <c r="AP117" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP117" s="3"/>
+      <c r="AQ117" s="3"/>
+      <c r="AR117" s="3"/>
+      <c r="AS117" s="3"/>
+      <c r="AT117" s="3"/>
+      <c r="AU117" s="3"/>
+      <c r="AV117" s="3"/>
+      <c r="AW117" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="4">
         <v>0</v>
@@ -9286,12 +10581,19 @@
       <c r="AM118" s="3"/>
       <c r="AN118" s="3"/>
       <c r="AO118" s="3"/>
-      <c r="AP118" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP118" s="3"/>
+      <c r="AQ118" s="3"/>
+      <c r="AR118" s="3"/>
+      <c r="AS118" s="3"/>
+      <c r="AT118" s="3"/>
+      <c r="AU118" s="3"/>
+      <c r="AV118" s="3"/>
+      <c r="AW118" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="4">
         <v>0</v>
@@ -9337,12 +10639,19 @@
       <c r="AM119" s="3"/>
       <c r="AN119" s="3"/>
       <c r="AO119" s="3"/>
-      <c r="AP119" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP119" s="3"/>
+      <c r="AQ119" s="3"/>
+      <c r="AR119" s="3"/>
+      <c r="AS119" s="3"/>
+      <c r="AT119" s="3"/>
+      <c r="AU119" s="3"/>
+      <c r="AV119" s="3"/>
+      <c r="AW119" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="4">
         <v>0</v>
@@ -9388,12 +10697,19 @@
       <c r="AM120" s="3"/>
       <c r="AN120" s="3"/>
       <c r="AO120" s="3"/>
-      <c r="AP120" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP120" s="3"/>
+      <c r="AQ120" s="3"/>
+      <c r="AR120" s="3"/>
+      <c r="AS120" s="3"/>
+      <c r="AT120" s="3"/>
+      <c r="AU120" s="3"/>
+      <c r="AV120" s="3"/>
+      <c r="AW120" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="4">
         <v>0</v>
@@ -9439,12 +10755,19 @@
       <c r="AM121" s="3"/>
       <c r="AN121" s="3"/>
       <c r="AO121" s="3"/>
-      <c r="AP121" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP121" s="3"/>
+      <c r="AQ121" s="3"/>
+      <c r="AR121" s="3"/>
+      <c r="AS121" s="3"/>
+      <c r="AT121" s="3"/>
+      <c r="AU121" s="3"/>
+      <c r="AV121" s="3"/>
+      <c r="AW121" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="4">
         <v>0</v>
@@ -9490,12 +10813,19 @@
       <c r="AM122" s="3"/>
       <c r="AN122" s="3"/>
       <c r="AO122" s="3"/>
-      <c r="AP122" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP122" s="3"/>
+      <c r="AQ122" s="3"/>
+      <c r="AR122" s="3"/>
+      <c r="AS122" s="3"/>
+      <c r="AT122" s="3"/>
+      <c r="AU122" s="3"/>
+      <c r="AV122" s="3"/>
+      <c r="AW122" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="4">
         <v>0</v>
@@ -9541,12 +10871,19 @@
       <c r="AM123" s="3"/>
       <c r="AN123" s="3"/>
       <c r="AO123" s="3"/>
-      <c r="AP123" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP123" s="3"/>
+      <c r="AQ123" s="3"/>
+      <c r="AR123" s="3"/>
+      <c r="AS123" s="3"/>
+      <c r="AT123" s="3"/>
+      <c r="AU123" s="3"/>
+      <c r="AV123" s="3"/>
+      <c r="AW123" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="4">
         <v>0</v>
@@ -9592,12 +10929,19 @@
       <c r="AM124" s="3"/>
       <c r="AN124" s="3"/>
       <c r="AO124" s="3"/>
-      <c r="AP124" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP124" s="3"/>
+      <c r="AQ124" s="3"/>
+      <c r="AR124" s="3"/>
+      <c r="AS124" s="3"/>
+      <c r="AT124" s="3"/>
+      <c r="AU124" s="3"/>
+      <c r="AV124" s="3"/>
+      <c r="AW124" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="4">
         <v>0</v>
@@ -9643,12 +10987,19 @@
       <c r="AM125" s="3"/>
       <c r="AN125" s="3"/>
       <c r="AO125" s="3"/>
-      <c r="AP125" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP125" s="3"/>
+      <c r="AQ125" s="3"/>
+      <c r="AR125" s="3"/>
+      <c r="AS125" s="3"/>
+      <c r="AT125" s="3"/>
+      <c r="AU125" s="3"/>
+      <c r="AV125" s="3"/>
+      <c r="AW125" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="4">
         <v>0</v>
@@ -9694,12 +11045,19 @@
       <c r="AM126" s="3"/>
       <c r="AN126" s="3"/>
       <c r="AO126" s="3"/>
-      <c r="AP126" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP126" s="3"/>
+      <c r="AQ126" s="3"/>
+      <c r="AR126" s="3"/>
+      <c r="AS126" s="3"/>
+      <c r="AT126" s="3"/>
+      <c r="AU126" s="3"/>
+      <c r="AV126" s="3"/>
+      <c r="AW126" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="4">
         <v>0</v>
@@ -9745,12 +11103,19 @@
       <c r="AM127" s="3"/>
       <c r="AN127" s="3"/>
       <c r="AO127" s="3"/>
-      <c r="AP127" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP127" s="3"/>
+      <c r="AQ127" s="3"/>
+      <c r="AR127" s="3"/>
+      <c r="AS127" s="3"/>
+      <c r="AT127" s="3"/>
+      <c r="AU127" s="3"/>
+      <c r="AV127" s="3"/>
+      <c r="AW127" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="4">
         <v>0</v>
@@ -9796,12 +11161,19 @@
       <c r="AM128" s="3"/>
       <c r="AN128" s="3"/>
       <c r="AO128" s="3"/>
-      <c r="AP128" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP128" s="3"/>
+      <c r="AQ128" s="3"/>
+      <c r="AR128" s="3"/>
+      <c r="AS128" s="3"/>
+      <c r="AT128" s="3"/>
+      <c r="AU128" s="3"/>
+      <c r="AV128" s="3"/>
+      <c r="AW128" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="4">
         <v>0</v>
@@ -9847,12 +11219,19 @@
       <c r="AM129" s="3"/>
       <c r="AN129" s="3"/>
       <c r="AO129" s="3"/>
-      <c r="AP129" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP129" s="3"/>
+      <c r="AQ129" s="3"/>
+      <c r="AR129" s="3"/>
+      <c r="AS129" s="3"/>
+      <c r="AT129" s="3"/>
+      <c r="AU129" s="3"/>
+      <c r="AV129" s="3"/>
+      <c r="AW129" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="4">
         <v>0</v>
@@ -9898,12 +11277,19 @@
       <c r="AM130" s="3"/>
       <c r="AN130" s="3"/>
       <c r="AO130" s="3"/>
-      <c r="AP130" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP130" s="3"/>
+      <c r="AQ130" s="3"/>
+      <c r="AR130" s="3"/>
+      <c r="AS130" s="3"/>
+      <c r="AT130" s="3"/>
+      <c r="AU130" s="3"/>
+      <c r="AV130" s="3"/>
+      <c r="AW130" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="4">
         <v>0</v>
@@ -9949,12 +11335,19 @@
       <c r="AM131" s="3"/>
       <c r="AN131" s="3"/>
       <c r="AO131" s="3"/>
-      <c r="AP131" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP131" s="3"/>
+      <c r="AQ131" s="3"/>
+      <c r="AR131" s="3"/>
+      <c r="AS131" s="3"/>
+      <c r="AT131" s="3"/>
+      <c r="AU131" s="3"/>
+      <c r="AV131" s="3"/>
+      <c r="AW131" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="4">
         <v>0</v>
@@ -10000,12 +11393,19 @@
       <c r="AM132" s="3"/>
       <c r="AN132" s="3"/>
       <c r="AO132" s="3"/>
-      <c r="AP132" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP132" s="3"/>
+      <c r="AQ132" s="3"/>
+      <c r="AR132" s="3"/>
+      <c r="AS132" s="3"/>
+      <c r="AT132" s="3"/>
+      <c r="AU132" s="3"/>
+      <c r="AV132" s="3"/>
+      <c r="AW132" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="4">
         <v>0</v>
@@ -10051,12 +11451,19 @@
       <c r="AM133" s="3"/>
       <c r="AN133" s="3"/>
       <c r="AO133" s="3"/>
-      <c r="AP133" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP133" s="3"/>
+      <c r="AQ133" s="3"/>
+      <c r="AR133" s="3"/>
+      <c r="AS133" s="3"/>
+      <c r="AT133" s="3"/>
+      <c r="AU133" s="3"/>
+      <c r="AV133" s="3"/>
+      <c r="AW133" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="4">
         <v>0</v>
@@ -10102,12 +11509,19 @@
       <c r="AM134" s="3"/>
       <c r="AN134" s="3"/>
       <c r="AO134" s="3"/>
-      <c r="AP134" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP134" s="3"/>
+      <c r="AQ134" s="3"/>
+      <c r="AR134" s="3"/>
+      <c r="AS134" s="3"/>
+      <c r="AT134" s="3"/>
+      <c r="AU134" s="3"/>
+      <c r="AV134" s="3"/>
+      <c r="AW134" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="4">
         <v>0</v>
@@ -10153,12 +11567,19 @@
       <c r="AM135" s="3"/>
       <c r="AN135" s="3"/>
       <c r="AO135" s="3"/>
-      <c r="AP135" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP135" s="3"/>
+      <c r="AQ135" s="3"/>
+      <c r="AR135" s="3"/>
+      <c r="AS135" s="3"/>
+      <c r="AT135" s="3"/>
+      <c r="AU135" s="3"/>
+      <c r="AV135" s="3"/>
+      <c r="AW135" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="4">
         <v>0</v>
@@ -10204,12 +11625,19 @@
       <c r="AM136" s="3"/>
       <c r="AN136" s="3"/>
       <c r="AO136" s="3"/>
-      <c r="AP136" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP136" s="3"/>
+      <c r="AQ136" s="3"/>
+      <c r="AR136" s="3"/>
+      <c r="AS136" s="3"/>
+      <c r="AT136" s="3"/>
+      <c r="AU136" s="3"/>
+      <c r="AV136" s="3"/>
+      <c r="AW136" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="4">
         <v>0</v>
@@ -10255,12 +11683,19 @@
       <c r="AM137" s="3"/>
       <c r="AN137" s="3"/>
       <c r="AO137" s="3"/>
-      <c r="AP137" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP137" s="3"/>
+      <c r="AQ137" s="3"/>
+      <c r="AR137" s="3"/>
+      <c r="AS137" s="3"/>
+      <c r="AT137" s="3"/>
+      <c r="AU137" s="3"/>
+      <c r="AV137" s="3"/>
+      <c r="AW137" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="4">
         <v>0</v>
@@ -10306,12 +11741,19 @@
       <c r="AM138" s="3"/>
       <c r="AN138" s="3"/>
       <c r="AO138" s="3"/>
-      <c r="AP138" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP138" s="3"/>
+      <c r="AQ138" s="3"/>
+      <c r="AR138" s="3"/>
+      <c r="AS138" s="3"/>
+      <c r="AT138" s="3"/>
+      <c r="AU138" s="3"/>
+      <c r="AV138" s="3"/>
+      <c r="AW138" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="4">
         <v>0</v>
@@ -10357,12 +11799,19 @@
       <c r="AM139" s="3"/>
       <c r="AN139" s="3"/>
       <c r="AO139" s="3"/>
-      <c r="AP139" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP139" s="3"/>
+      <c r="AQ139" s="3"/>
+      <c r="AR139" s="3"/>
+      <c r="AS139" s="3"/>
+      <c r="AT139" s="3"/>
+      <c r="AU139" s="3"/>
+      <c r="AV139" s="3"/>
+      <c r="AW139" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="4">
         <v>0</v>
@@ -10408,12 +11857,19 @@
       <c r="AM140" s="3"/>
       <c r="AN140" s="3"/>
       <c r="AO140" s="3"/>
-      <c r="AP140" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP140" s="3"/>
+      <c r="AQ140" s="3"/>
+      <c r="AR140" s="3"/>
+      <c r="AS140" s="3"/>
+      <c r="AT140" s="3"/>
+      <c r="AU140" s="3"/>
+      <c r="AV140" s="3"/>
+      <c r="AW140" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="4">
         <v>0</v>
@@ -10459,12 +11915,19 @@
       <c r="AM141" s="3"/>
       <c r="AN141" s="3"/>
       <c r="AO141" s="3"/>
-      <c r="AP141" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP141" s="3"/>
+      <c r="AQ141" s="3"/>
+      <c r="AR141" s="3"/>
+      <c r="AS141" s="3"/>
+      <c r="AT141" s="3"/>
+      <c r="AU141" s="3"/>
+      <c r="AV141" s="3"/>
+      <c r="AW141" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="4">
         <v>0</v>
@@ -10510,12 +11973,19 @@
       <c r="AM142" s="3"/>
       <c r="AN142" s="3"/>
       <c r="AO142" s="3"/>
-      <c r="AP142" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP142" s="3"/>
+      <c r="AQ142" s="3"/>
+      <c r="AR142" s="3"/>
+      <c r="AS142" s="3"/>
+      <c r="AT142" s="3"/>
+      <c r="AU142" s="3"/>
+      <c r="AV142" s="3"/>
+      <c r="AW142" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="4">
         <v>0</v>
@@ -10561,12 +12031,19 @@
       <c r="AM143" s="3"/>
       <c r="AN143" s="3"/>
       <c r="AO143" s="3"/>
-      <c r="AP143" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP143" s="3"/>
+      <c r="AQ143" s="3"/>
+      <c r="AR143" s="3"/>
+      <c r="AS143" s="3"/>
+      <c r="AT143" s="3"/>
+      <c r="AU143" s="3"/>
+      <c r="AV143" s="3"/>
+      <c r="AW143" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="4">
         <v>0</v>
@@ -10612,12 +12089,19 @@
       <c r="AM144" s="3"/>
       <c r="AN144" s="3"/>
       <c r="AO144" s="3"/>
-      <c r="AP144" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP144" s="3"/>
+      <c r="AQ144" s="3"/>
+      <c r="AR144" s="3"/>
+      <c r="AS144" s="3"/>
+      <c r="AT144" s="3"/>
+      <c r="AU144" s="3"/>
+      <c r="AV144" s="3"/>
+      <c r="AW144" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="4">
         <v>0</v>
@@ -10663,12 +12147,19 @@
       <c r="AM145" s="3"/>
       <c r="AN145" s="3"/>
       <c r="AO145" s="3"/>
-      <c r="AP145" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP145" s="3"/>
+      <c r="AQ145" s="3"/>
+      <c r="AR145" s="3"/>
+      <c r="AS145" s="3"/>
+      <c r="AT145" s="3"/>
+      <c r="AU145" s="3"/>
+      <c r="AV145" s="3"/>
+      <c r="AW145" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
       <c r="B146" s="4">
         <v>0</v>
@@ -10714,12 +12205,19 @@
       <c r="AM146" s="3"/>
       <c r="AN146" s="3"/>
       <c r="AO146" s="3"/>
-      <c r="AP146" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP146" s="3"/>
+      <c r="AQ146" s="3"/>
+      <c r="AR146" s="3"/>
+      <c r="AS146" s="3"/>
+      <c r="AT146" s="3"/>
+      <c r="AU146" s="3"/>
+      <c r="AV146" s="3"/>
+      <c r="AW146" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="4">
         <v>0</v>
@@ -10765,12 +12263,19 @@
       <c r="AM147" s="3"/>
       <c r="AN147" s="3"/>
       <c r="AO147" s="3"/>
-      <c r="AP147" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP147" s="3"/>
+      <c r="AQ147" s="3"/>
+      <c r="AR147" s="3"/>
+      <c r="AS147" s="3"/>
+      <c r="AT147" s="3"/>
+      <c r="AU147" s="3"/>
+      <c r="AV147" s="3"/>
+      <c r="AW147" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="4">
         <v>0</v>
@@ -10816,12 +12321,19 @@
       <c r="AM148" s="3"/>
       <c r="AN148" s="3"/>
       <c r="AO148" s="3"/>
-      <c r="AP148" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP148" s="3"/>
+      <c r="AQ148" s="3"/>
+      <c r="AR148" s="3"/>
+      <c r="AS148" s="3"/>
+      <c r="AT148" s="3"/>
+      <c r="AU148" s="3"/>
+      <c r="AV148" s="3"/>
+      <c r="AW148" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
       <c r="B149" s="4">
         <v>0</v>
@@ -10867,12 +12379,19 @@
       <c r="AM149" s="3"/>
       <c r="AN149" s="3"/>
       <c r="AO149" s="3"/>
-      <c r="AP149" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP149" s="3"/>
+      <c r="AQ149" s="3"/>
+      <c r="AR149" s="3"/>
+      <c r="AS149" s="3"/>
+      <c r="AT149" s="3"/>
+      <c r="AU149" s="3"/>
+      <c r="AV149" s="3"/>
+      <c r="AW149" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="4">
         <v>0</v>
@@ -10918,12 +12437,19 @@
       <c r="AM150" s="3"/>
       <c r="AN150" s="3"/>
       <c r="AO150" s="3"/>
-      <c r="AP150" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP150" s="3"/>
+      <c r="AQ150" s="3"/>
+      <c r="AR150" s="3"/>
+      <c r="AS150" s="3"/>
+      <c r="AT150" s="3"/>
+      <c r="AU150" s="3"/>
+      <c r="AV150" s="3"/>
+      <c r="AW150" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="4">
         <v>0</v>
@@ -10969,12 +12495,19 @@
       <c r="AM151" s="3"/>
       <c r="AN151" s="3"/>
       <c r="AO151" s="3"/>
-      <c r="AP151" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP151" s="3"/>
+      <c r="AQ151" s="3"/>
+      <c r="AR151" s="3"/>
+      <c r="AS151" s="3"/>
+      <c r="AT151" s="3"/>
+      <c r="AU151" s="3"/>
+      <c r="AV151" s="3"/>
+      <c r="AW151" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="4">
         <v>0</v>
@@ -11020,12 +12553,19 @@
       <c r="AM152" s="3"/>
       <c r="AN152" s="3"/>
       <c r="AO152" s="3"/>
-      <c r="AP152" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP152" s="3"/>
+      <c r="AQ152" s="3"/>
+      <c r="AR152" s="3"/>
+      <c r="AS152" s="3"/>
+      <c r="AT152" s="3"/>
+      <c r="AU152" s="3"/>
+      <c r="AV152" s="3"/>
+      <c r="AW152" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
       <c r="B153" s="4">
         <v>0</v>
@@ -11071,12 +12611,19 @@
       <c r="AM153" s="3"/>
       <c r="AN153" s="3"/>
       <c r="AO153" s="3"/>
-      <c r="AP153" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP153" s="3"/>
+      <c r="AQ153" s="3"/>
+      <c r="AR153" s="3"/>
+      <c r="AS153" s="3"/>
+      <c r="AT153" s="3"/>
+      <c r="AU153" s="3"/>
+      <c r="AV153" s="3"/>
+      <c r="AW153" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
       <c r="B154" s="4">
         <v>0</v>
@@ -11122,12 +12669,19 @@
       <c r="AM154" s="3"/>
       <c r="AN154" s="3"/>
       <c r="AO154" s="3"/>
-      <c r="AP154" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP154" s="3"/>
+      <c r="AQ154" s="3"/>
+      <c r="AR154" s="3"/>
+      <c r="AS154" s="3"/>
+      <c r="AT154" s="3"/>
+      <c r="AU154" s="3"/>
+      <c r="AV154" s="3"/>
+      <c r="AW154" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
       <c r="B155" s="4">
         <v>0</v>
@@ -11173,12 +12727,19 @@
       <c r="AM155" s="3"/>
       <c r="AN155" s="3"/>
       <c r="AO155" s="3"/>
-      <c r="AP155" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP155" s="3"/>
+      <c r="AQ155" s="3"/>
+      <c r="AR155" s="3"/>
+      <c r="AS155" s="3"/>
+      <c r="AT155" s="3"/>
+      <c r="AU155" s="3"/>
+      <c r="AV155" s="3"/>
+      <c r="AW155" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="4">
         <v>0</v>
@@ -11224,12 +12785,19 @@
       <c r="AM156" s="3"/>
       <c r="AN156" s="3"/>
       <c r="AO156" s="3"/>
-      <c r="AP156" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP156" s="3"/>
+      <c r="AQ156" s="3"/>
+      <c r="AR156" s="3"/>
+      <c r="AS156" s="3"/>
+      <c r="AT156" s="3"/>
+      <c r="AU156" s="3"/>
+      <c r="AV156" s="3"/>
+      <c r="AW156" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="4">
         <v>0</v>
@@ -11275,12 +12843,19 @@
       <c r="AM157" s="3"/>
       <c r="AN157" s="3"/>
       <c r="AO157" s="3"/>
-      <c r="AP157" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP157" s="3"/>
+      <c r="AQ157" s="3"/>
+      <c r="AR157" s="3"/>
+      <c r="AS157" s="3"/>
+      <c r="AT157" s="3"/>
+      <c r="AU157" s="3"/>
+      <c r="AV157" s="3"/>
+      <c r="AW157" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="4">
         <v>0</v>
@@ -11326,12 +12901,19 @@
       <c r="AM158" s="3"/>
       <c r="AN158" s="3"/>
       <c r="AO158" s="3"/>
-      <c r="AP158" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP158" s="3"/>
+      <c r="AQ158" s="3"/>
+      <c r="AR158" s="3"/>
+      <c r="AS158" s="3"/>
+      <c r="AT158" s="3"/>
+      <c r="AU158" s="3"/>
+      <c r="AV158" s="3"/>
+      <c r="AW158" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
       <c r="B159" s="4">
         <v>0</v>
@@ -11377,12 +12959,19 @@
       <c r="AM159" s="3"/>
       <c r="AN159" s="3"/>
       <c r="AO159" s="3"/>
-      <c r="AP159" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP159" s="3"/>
+      <c r="AQ159" s="3"/>
+      <c r="AR159" s="3"/>
+      <c r="AS159" s="3"/>
+      <c r="AT159" s="3"/>
+      <c r="AU159" s="3"/>
+      <c r="AV159" s="3"/>
+      <c r="AW159" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="4">
         <v>0</v>
@@ -11428,12 +13017,19 @@
       <c r="AM160" s="3"/>
       <c r="AN160" s="3"/>
       <c r="AO160" s="3"/>
-      <c r="AP160" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP160" s="3"/>
+      <c r="AQ160" s="3"/>
+      <c r="AR160" s="3"/>
+      <c r="AS160" s="3"/>
+      <c r="AT160" s="3"/>
+      <c r="AU160" s="3"/>
+      <c r="AV160" s="3"/>
+      <c r="AW160" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
       <c r="B161" s="4">
         <v>0</v>
@@ -11479,12 +13075,19 @@
       <c r="AM161" s="3"/>
       <c r="AN161" s="3"/>
       <c r="AO161" s="3"/>
-      <c r="AP161" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP161" s="3"/>
+      <c r="AQ161" s="3"/>
+      <c r="AR161" s="3"/>
+      <c r="AS161" s="3"/>
+      <c r="AT161" s="3"/>
+      <c r="AU161" s="3"/>
+      <c r="AV161" s="3"/>
+      <c r="AW161" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
       <c r="B162" s="4">
         <v>0</v>
@@ -11530,12 +13133,19 @@
       <c r="AM162" s="3"/>
       <c r="AN162" s="3"/>
       <c r="AO162" s="3"/>
-      <c r="AP162" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP162" s="3"/>
+      <c r="AQ162" s="3"/>
+      <c r="AR162" s="3"/>
+      <c r="AS162" s="3"/>
+      <c r="AT162" s="3"/>
+      <c r="AU162" s="3"/>
+      <c r="AV162" s="3"/>
+      <c r="AW162" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
       <c r="B163" s="4">
         <v>0</v>
@@ -11581,12 +13191,19 @@
       <c r="AM163" s="3"/>
       <c r="AN163" s="3"/>
       <c r="AO163" s="3"/>
-      <c r="AP163" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP163" s="3"/>
+      <c r="AQ163" s="3"/>
+      <c r="AR163" s="3"/>
+      <c r="AS163" s="3"/>
+      <c r="AT163" s="3"/>
+      <c r="AU163" s="3"/>
+      <c r="AV163" s="3"/>
+      <c r="AW163" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A164" s="8"/>
       <c r="B164" s="4">
         <v>0</v>
@@ -11632,12 +13249,19 @@
       <c r="AM164" s="3"/>
       <c r="AN164" s="3"/>
       <c r="AO164" s="3"/>
-      <c r="AP164" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP164" s="3"/>
+      <c r="AQ164" s="3"/>
+      <c r="AR164" s="3"/>
+      <c r="AS164" s="3"/>
+      <c r="AT164" s="3"/>
+      <c r="AU164" s="3"/>
+      <c r="AV164" s="3"/>
+      <c r="AW164" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A165" s="8"/>
       <c r="B165" s="4">
         <v>0</v>
@@ -11683,12 +13307,19 @@
       <c r="AM165" s="3"/>
       <c r="AN165" s="3"/>
       <c r="AO165" s="3"/>
-      <c r="AP165" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP165" s="3"/>
+      <c r="AQ165" s="3"/>
+      <c r="AR165" s="3"/>
+      <c r="AS165" s="3"/>
+      <c r="AT165" s="3"/>
+      <c r="AU165" s="3"/>
+      <c r="AV165" s="3"/>
+      <c r="AW165" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A166" s="8"/>
       <c r="B166" s="4">
         <v>0</v>
@@ -11734,12 +13365,19 @@
       <c r="AM166" s="3"/>
       <c r="AN166" s="3"/>
       <c r="AO166" s="3"/>
-      <c r="AP166" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP166" s="3"/>
+      <c r="AQ166" s="3"/>
+      <c r="AR166" s="3"/>
+      <c r="AS166" s="3"/>
+      <c r="AT166" s="3"/>
+      <c r="AU166" s="3"/>
+      <c r="AV166" s="3"/>
+      <c r="AW166" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A167" s="8"/>
       <c r="B167" s="4">
         <v>0</v>
@@ -11785,12 +13423,19 @@
       <c r="AM167" s="3"/>
       <c r="AN167" s="3"/>
       <c r="AO167" s="3"/>
-      <c r="AP167" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP167" s="3"/>
+      <c r="AQ167" s="3"/>
+      <c r="AR167" s="3"/>
+      <c r="AS167" s="3"/>
+      <c r="AT167" s="3"/>
+      <c r="AU167" s="3"/>
+      <c r="AV167" s="3"/>
+      <c r="AW167" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
       <c r="B168" s="4">
         <v>0</v>
@@ -11836,12 +13481,19 @@
       <c r="AM168" s="3"/>
       <c r="AN168" s="3"/>
       <c r="AO168" s="3"/>
-      <c r="AP168" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP168" s="3"/>
+      <c r="AQ168" s="3"/>
+      <c r="AR168" s="3"/>
+      <c r="AS168" s="3"/>
+      <c r="AT168" s="3"/>
+      <c r="AU168" s="3"/>
+      <c r="AV168" s="3"/>
+      <c r="AW168" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A169" s="8"/>
       <c r="B169" s="4">
         <v>0</v>
@@ -11887,12 +13539,19 @@
       <c r="AM169" s="3"/>
       <c r="AN169" s="3"/>
       <c r="AO169" s="3"/>
-      <c r="AP169" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP169" s="3"/>
+      <c r="AQ169" s="3"/>
+      <c r="AR169" s="3"/>
+      <c r="AS169" s="3"/>
+      <c r="AT169" s="3"/>
+      <c r="AU169" s="3"/>
+      <c r="AV169" s="3"/>
+      <c r="AW169" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A170" s="8"/>
       <c r="B170" s="4">
         <v>0</v>
@@ -11938,12 +13597,19 @@
       <c r="AM170" s="3"/>
       <c r="AN170" s="3"/>
       <c r="AO170" s="3"/>
-      <c r="AP170" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP170" s="3"/>
+      <c r="AQ170" s="3"/>
+      <c r="AR170" s="3"/>
+      <c r="AS170" s="3"/>
+      <c r="AT170" s="3"/>
+      <c r="AU170" s="3"/>
+      <c r="AV170" s="3"/>
+      <c r="AW170" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A171" s="8"/>
       <c r="B171" s="4">
         <v>0</v>
@@ -11989,12 +13655,19 @@
       <c r="AM171" s="3"/>
       <c r="AN171" s="3"/>
       <c r="AO171" s="3"/>
-      <c r="AP171" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP171" s="3"/>
+      <c r="AQ171" s="3"/>
+      <c r="AR171" s="3"/>
+      <c r="AS171" s="3"/>
+      <c r="AT171" s="3"/>
+      <c r="AU171" s="3"/>
+      <c r="AV171" s="3"/>
+      <c r="AW171" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A172" s="8"/>
       <c r="B172" s="4">
         <v>0</v>
@@ -12040,12 +13713,19 @@
       <c r="AM172" s="3"/>
       <c r="AN172" s="3"/>
       <c r="AO172" s="3"/>
-      <c r="AP172" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP172" s="3"/>
+      <c r="AQ172" s="3"/>
+      <c r="AR172" s="3"/>
+      <c r="AS172" s="3"/>
+      <c r="AT172" s="3"/>
+      <c r="AU172" s="3"/>
+      <c r="AV172" s="3"/>
+      <c r="AW172" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A173" s="8"/>
       <c r="B173" s="4">
         <v>0</v>
@@ -12091,12 +13771,19 @@
       <c r="AM173" s="3"/>
       <c r="AN173" s="3"/>
       <c r="AO173" s="3"/>
-      <c r="AP173" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP173" s="3"/>
+      <c r="AQ173" s="3"/>
+      <c r="AR173" s="3"/>
+      <c r="AS173" s="3"/>
+      <c r="AT173" s="3"/>
+      <c r="AU173" s="3"/>
+      <c r="AV173" s="3"/>
+      <c r="AW173" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A174" s="8"/>
       <c r="B174" s="4">
         <v>0</v>
@@ -12142,12 +13829,19 @@
       <c r="AM174" s="3"/>
       <c r="AN174" s="3"/>
       <c r="AO174" s="3"/>
-      <c r="AP174" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP174" s="3"/>
+      <c r="AQ174" s="3"/>
+      <c r="AR174" s="3"/>
+      <c r="AS174" s="3"/>
+      <c r="AT174" s="3"/>
+      <c r="AU174" s="3"/>
+      <c r="AV174" s="3"/>
+      <c r="AW174" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A175" s="8"/>
       <c r="B175" s="4">
         <v>0</v>
@@ -12193,12 +13887,19 @@
       <c r="AM175" s="3"/>
       <c r="AN175" s="3"/>
       <c r="AO175" s="3"/>
-      <c r="AP175" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP175" s="3"/>
+      <c r="AQ175" s="3"/>
+      <c r="AR175" s="3"/>
+      <c r="AS175" s="3"/>
+      <c r="AT175" s="3"/>
+      <c r="AU175" s="3"/>
+      <c r="AV175" s="3"/>
+      <c r="AW175" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
       <c r="B176" s="4">
         <v>0</v>
@@ -12244,12 +13945,19 @@
       <c r="AM176" s="3"/>
       <c r="AN176" s="3"/>
       <c r="AO176" s="3"/>
-      <c r="AP176" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP176" s="3"/>
+      <c r="AQ176" s="3"/>
+      <c r="AR176" s="3"/>
+      <c r="AS176" s="3"/>
+      <c r="AT176" s="3"/>
+      <c r="AU176" s="3"/>
+      <c r="AV176" s="3"/>
+      <c r="AW176" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A177" s="8"/>
       <c r="B177" s="4">
         <v>0</v>
@@ -12295,12 +14003,19 @@
       <c r="AM177" s="3"/>
       <c r="AN177" s="3"/>
       <c r="AO177" s="3"/>
-      <c r="AP177" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP177" s="3"/>
+      <c r="AQ177" s="3"/>
+      <c r="AR177" s="3"/>
+      <c r="AS177" s="3"/>
+      <c r="AT177" s="3"/>
+      <c r="AU177" s="3"/>
+      <c r="AV177" s="3"/>
+      <c r="AW177" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A178" s="8"/>
       <c r="B178" s="4">
         <v>0</v>
@@ -12346,12 +14061,19 @@
       <c r="AM178" s="3"/>
       <c r="AN178" s="3"/>
       <c r="AO178" s="3"/>
-      <c r="AP178" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP178" s="3"/>
+      <c r="AQ178" s="3"/>
+      <c r="AR178" s="3"/>
+      <c r="AS178" s="3"/>
+      <c r="AT178" s="3"/>
+      <c r="AU178" s="3"/>
+      <c r="AV178" s="3"/>
+      <c r="AW178" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A179" s="8"/>
       <c r="B179" s="4">
         <v>0</v>
@@ -12397,12 +14119,19 @@
       <c r="AM179" s="3"/>
       <c r="AN179" s="3"/>
       <c r="AO179" s="3"/>
-      <c r="AP179" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP179" s="3"/>
+      <c r="AQ179" s="3"/>
+      <c r="AR179" s="3"/>
+      <c r="AS179" s="3"/>
+      <c r="AT179" s="3"/>
+      <c r="AU179" s="3"/>
+      <c r="AV179" s="3"/>
+      <c r="AW179" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
       <c r="B180" s="4">
         <v>0</v>
@@ -12448,12 +14177,19 @@
       <c r="AM180" s="3"/>
       <c r="AN180" s="3"/>
       <c r="AO180" s="3"/>
-      <c r="AP180" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP180" s="3"/>
+      <c r="AQ180" s="3"/>
+      <c r="AR180" s="3"/>
+      <c r="AS180" s="3"/>
+      <c r="AT180" s="3"/>
+      <c r="AU180" s="3"/>
+      <c r="AV180" s="3"/>
+      <c r="AW180" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A181" s="8"/>
       <c r="B181" s="4">
         <v>0</v>
@@ -12499,12 +14235,19 @@
       <c r="AM181" s="3"/>
       <c r="AN181" s="3"/>
       <c r="AO181" s="3"/>
-      <c r="AP181" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP181" s="3"/>
+      <c r="AQ181" s="3"/>
+      <c r="AR181" s="3"/>
+      <c r="AS181" s="3"/>
+      <c r="AT181" s="3"/>
+      <c r="AU181" s="3"/>
+      <c r="AV181" s="3"/>
+      <c r="AW181" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A182" s="8"/>
       <c r="B182" s="4">
         <v>0</v>
@@ -12550,12 +14293,19 @@
       <c r="AM182" s="3"/>
       <c r="AN182" s="3"/>
       <c r="AO182" s="3"/>
-      <c r="AP182" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP182" s="3"/>
+      <c r="AQ182" s="3"/>
+      <c r="AR182" s="3"/>
+      <c r="AS182" s="3"/>
+      <c r="AT182" s="3"/>
+      <c r="AU182" s="3"/>
+      <c r="AV182" s="3"/>
+      <c r="AW182" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A183" s="8"/>
       <c r="B183" s="4">
         <v>0</v>
@@ -12601,12 +14351,19 @@
       <c r="AM183" s="3"/>
       <c r="AN183" s="3"/>
       <c r="AO183" s="3"/>
-      <c r="AP183" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP183" s="3"/>
+      <c r="AQ183" s="3"/>
+      <c r="AR183" s="3"/>
+      <c r="AS183" s="3"/>
+      <c r="AT183" s="3"/>
+      <c r="AU183" s="3"/>
+      <c r="AV183" s="3"/>
+      <c r="AW183" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
       <c r="B184" s="4">
         <v>0</v>
@@ -12652,12 +14409,19 @@
       <c r="AM184" s="3"/>
       <c r="AN184" s="3"/>
       <c r="AO184" s="3"/>
-      <c r="AP184" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP184" s="3"/>
+      <c r="AQ184" s="3"/>
+      <c r="AR184" s="3"/>
+      <c r="AS184" s="3"/>
+      <c r="AT184" s="3"/>
+      <c r="AU184" s="3"/>
+      <c r="AV184" s="3"/>
+      <c r="AW184" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
       <c r="B185" s="4">
         <v>0</v>
@@ -12703,12 +14467,19 @@
       <c r="AM185" s="3"/>
       <c r="AN185" s="3"/>
       <c r="AO185" s="3"/>
-      <c r="AP185" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP185" s="3"/>
+      <c r="AQ185" s="3"/>
+      <c r="AR185" s="3"/>
+      <c r="AS185" s="3"/>
+      <c r="AT185" s="3"/>
+      <c r="AU185" s="3"/>
+      <c r="AV185" s="3"/>
+      <c r="AW185" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A186" s="8"/>
       <c r="B186" s="4">
         <v>0</v>
@@ -12754,12 +14525,19 @@
       <c r="AM186" s="3"/>
       <c r="AN186" s="3"/>
       <c r="AO186" s="3"/>
-      <c r="AP186" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP186" s="3"/>
+      <c r="AQ186" s="3"/>
+      <c r="AR186" s="3"/>
+      <c r="AS186" s="3"/>
+      <c r="AT186" s="3"/>
+      <c r="AU186" s="3"/>
+      <c r="AV186" s="3"/>
+      <c r="AW186" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A187" s="8"/>
       <c r="B187" s="4">
         <v>0</v>
@@ -12805,12 +14583,19 @@
       <c r="AM187" s="3"/>
       <c r="AN187" s="3"/>
       <c r="AO187" s="3"/>
-      <c r="AP187" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP187" s="3"/>
+      <c r="AQ187" s="3"/>
+      <c r="AR187" s="3"/>
+      <c r="AS187" s="3"/>
+      <c r="AT187" s="3"/>
+      <c r="AU187" s="3"/>
+      <c r="AV187" s="3"/>
+      <c r="AW187" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A188" s="8"/>
       <c r="B188" s="4">
         <v>0</v>
@@ -12856,12 +14641,19 @@
       <c r="AM188" s="3"/>
       <c r="AN188" s="3"/>
       <c r="AO188" s="3"/>
-      <c r="AP188" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP188" s="3"/>
+      <c r="AQ188" s="3"/>
+      <c r="AR188" s="3"/>
+      <c r="AS188" s="3"/>
+      <c r="AT188" s="3"/>
+      <c r="AU188" s="3"/>
+      <c r="AV188" s="3"/>
+      <c r="AW188" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A189" s="8"/>
       <c r="B189" s="4">
         <v>0</v>
@@ -12907,12 +14699,19 @@
       <c r="AM189" s="3"/>
       <c r="AN189" s="3"/>
       <c r="AO189" s="3"/>
-      <c r="AP189" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP189" s="3"/>
+      <c r="AQ189" s="3"/>
+      <c r="AR189" s="3"/>
+      <c r="AS189" s="3"/>
+      <c r="AT189" s="3"/>
+      <c r="AU189" s="3"/>
+      <c r="AV189" s="3"/>
+      <c r="AW189" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A190" s="8"/>
       <c r="B190" s="4">
         <v>0</v>
@@ -12958,12 +14757,19 @@
       <c r="AM190" s="3"/>
       <c r="AN190" s="3"/>
       <c r="AO190" s="3"/>
-      <c r="AP190" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP190" s="3"/>
+      <c r="AQ190" s="3"/>
+      <c r="AR190" s="3"/>
+      <c r="AS190" s="3"/>
+      <c r="AT190" s="3"/>
+      <c r="AU190" s="3"/>
+      <c r="AV190" s="3"/>
+      <c r="AW190" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A191" s="8"/>
       <c r="B191" s="4">
         <v>0</v>
@@ -13009,12 +14815,19 @@
       <c r="AM191" s="3"/>
       <c r="AN191" s="3"/>
       <c r="AO191" s="3"/>
-      <c r="AP191" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP191" s="3"/>
+      <c r="AQ191" s="3"/>
+      <c r="AR191" s="3"/>
+      <c r="AS191" s="3"/>
+      <c r="AT191" s="3"/>
+      <c r="AU191" s="3"/>
+      <c r="AV191" s="3"/>
+      <c r="AW191" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A192" s="8"/>
       <c r="B192" s="4">
         <v>0</v>
@@ -13060,12 +14873,19 @@
       <c r="AM192" s="3"/>
       <c r="AN192" s="3"/>
       <c r="AO192" s="3"/>
-      <c r="AP192" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP192" s="3"/>
+      <c r="AQ192" s="3"/>
+      <c r="AR192" s="3"/>
+      <c r="AS192" s="3"/>
+      <c r="AT192" s="3"/>
+      <c r="AU192" s="3"/>
+      <c r="AV192" s="3"/>
+      <c r="AW192" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A193" s="8"/>
       <c r="B193" s="4">
         <v>0</v>
@@ -13111,12 +14931,19 @@
       <c r="AM193" s="3"/>
       <c r="AN193" s="3"/>
       <c r="AO193" s="3"/>
-      <c r="AP193" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP193" s="3"/>
+      <c r="AQ193" s="3"/>
+      <c r="AR193" s="3"/>
+      <c r="AS193" s="3"/>
+      <c r="AT193" s="3"/>
+      <c r="AU193" s="3"/>
+      <c r="AV193" s="3"/>
+      <c r="AW193" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A194" s="8"/>
       <c r="B194" s="4">
         <v>0</v>
@@ -13162,12 +14989,19 @@
       <c r="AM194" s="3"/>
       <c r="AN194" s="3"/>
       <c r="AO194" s="3"/>
-      <c r="AP194" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP194" s="3"/>
+      <c r="AQ194" s="3"/>
+      <c r="AR194" s="3"/>
+      <c r="AS194" s="3"/>
+      <c r="AT194" s="3"/>
+      <c r="AU194" s="3"/>
+      <c r="AV194" s="3"/>
+      <c r="AW194" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A195" s="8"/>
       <c r="B195" s="4">
         <v>0</v>
@@ -13213,12 +15047,19 @@
       <c r="AM195" s="3"/>
       <c r="AN195" s="3"/>
       <c r="AO195" s="3"/>
-      <c r="AP195" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP195" s="3"/>
+      <c r="AQ195" s="3"/>
+      <c r="AR195" s="3"/>
+      <c r="AS195" s="3"/>
+      <c r="AT195" s="3"/>
+      <c r="AU195" s="3"/>
+      <c r="AV195" s="3"/>
+      <c r="AW195" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A196" s="8"/>
       <c r="B196" s="4">
         <v>0</v>
@@ -13264,12 +15105,19 @@
       <c r="AM196" s="3"/>
       <c r="AN196" s="3"/>
       <c r="AO196" s="3"/>
-      <c r="AP196" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP196" s="3"/>
+      <c r="AQ196" s="3"/>
+      <c r="AR196" s="3"/>
+      <c r="AS196" s="3"/>
+      <c r="AT196" s="3"/>
+      <c r="AU196" s="3"/>
+      <c r="AV196" s="3"/>
+      <c r="AW196" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A197" s="8"/>
       <c r="B197" s="4">
         <v>0</v>
@@ -13315,12 +15163,19 @@
       <c r="AM197" s="3"/>
       <c r="AN197" s="3"/>
       <c r="AO197" s="3"/>
-      <c r="AP197" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP197" s="3"/>
+      <c r="AQ197" s="3"/>
+      <c r="AR197" s="3"/>
+      <c r="AS197" s="3"/>
+      <c r="AT197" s="3"/>
+      <c r="AU197" s="3"/>
+      <c r="AV197" s="3"/>
+      <c r="AW197" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A198" s="8"/>
       <c r="B198" s="4">
         <v>0</v>
@@ -13366,12 +15221,19 @@
       <c r="AM198" s="3"/>
       <c r="AN198" s="3"/>
       <c r="AO198" s="3"/>
-      <c r="AP198" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP198" s="3"/>
+      <c r="AQ198" s="3"/>
+      <c r="AR198" s="3"/>
+      <c r="AS198" s="3"/>
+      <c r="AT198" s="3"/>
+      <c r="AU198" s="3"/>
+      <c r="AV198" s="3"/>
+      <c r="AW198" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A199" s="8"/>
       <c r="B199" s="4">
         <v>0</v>
@@ -13417,12 +15279,19 @@
       <c r="AM199" s="3"/>
       <c r="AN199" s="3"/>
       <c r="AO199" s="3"/>
-      <c r="AP199" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP199" s="3"/>
+      <c r="AQ199" s="3"/>
+      <c r="AR199" s="3"/>
+      <c r="AS199" s="3"/>
+      <c r="AT199" s="3"/>
+      <c r="AU199" s="3"/>
+      <c r="AV199" s="3"/>
+      <c r="AW199" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A200" s="8"/>
       <c r="B200" s="4">
         <v>0</v>
@@ -13468,12 +15337,19 @@
       <c r="AM200" s="3"/>
       <c r="AN200" s="3"/>
       <c r="AO200" s="3"/>
-      <c r="AP200" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP200" s="3"/>
+      <c r="AQ200" s="3"/>
+      <c r="AR200" s="3"/>
+      <c r="AS200" s="3"/>
+      <c r="AT200" s="3"/>
+      <c r="AU200" s="3"/>
+      <c r="AV200" s="3"/>
+      <c r="AW200" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A201" s="8"/>
       <c r="B201" s="4">
         <v>0</v>
@@ -13519,12 +15395,19 @@
       <c r="AM201" s="3"/>
       <c r="AN201" s="3"/>
       <c r="AO201" s="3"/>
-      <c r="AP201" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP201" s="3"/>
+      <c r="AQ201" s="3"/>
+      <c r="AR201" s="3"/>
+      <c r="AS201" s="3"/>
+      <c r="AT201" s="3"/>
+      <c r="AU201" s="3"/>
+      <c r="AV201" s="3"/>
+      <c r="AW201" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A202" s="8"/>
       <c r="B202" s="4">
         <v>0</v>
@@ -13570,12 +15453,19 @@
       <c r="AM202" s="3"/>
       <c r="AN202" s="3"/>
       <c r="AO202" s="3"/>
-      <c r="AP202" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP202" s="3"/>
+      <c r="AQ202" s="3"/>
+      <c r="AR202" s="3"/>
+      <c r="AS202" s="3"/>
+      <c r="AT202" s="3"/>
+      <c r="AU202" s="3"/>
+      <c r="AV202" s="3"/>
+      <c r="AW202" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A203" s="8"/>
       <c r="B203" s="4">
         <v>0</v>
@@ -13621,12 +15511,19 @@
       <c r="AM203" s="3"/>
       <c r="AN203" s="3"/>
       <c r="AO203" s="3"/>
-      <c r="AP203" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP203" s="3"/>
+      <c r="AQ203" s="3"/>
+      <c r="AR203" s="3"/>
+      <c r="AS203" s="3"/>
+      <c r="AT203" s="3"/>
+      <c r="AU203" s="3"/>
+      <c r="AV203" s="3"/>
+      <c r="AW203" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A204" s="8"/>
       <c r="B204" s="4">
         <v>0</v>
@@ -13672,12 +15569,19 @@
       <c r="AM204" s="3"/>
       <c r="AN204" s="3"/>
       <c r="AO204" s="3"/>
-      <c r="AP204" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP204" s="3"/>
+      <c r="AQ204" s="3"/>
+      <c r="AR204" s="3"/>
+      <c r="AS204" s="3"/>
+      <c r="AT204" s="3"/>
+      <c r="AU204" s="3"/>
+      <c r="AV204" s="3"/>
+      <c r="AW204" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A205" s="8"/>
       <c r="B205" s="4">
         <v>0</v>
@@ -13723,12 +15627,19 @@
       <c r="AM205" s="3"/>
       <c r="AN205" s="3"/>
       <c r="AO205" s="3"/>
-      <c r="AP205" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP205" s="3"/>
+      <c r="AQ205" s="3"/>
+      <c r="AR205" s="3"/>
+      <c r="AS205" s="3"/>
+      <c r="AT205" s="3"/>
+      <c r="AU205" s="3"/>
+      <c r="AV205" s="3"/>
+      <c r="AW205" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A206" s="8"/>
       <c r="B206" s="4">
         <v>0</v>
@@ -13774,12 +15685,19 @@
       <c r="AM206" s="3"/>
       <c r="AN206" s="3"/>
       <c r="AO206" s="3"/>
-      <c r="AP206" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP206" s="3"/>
+      <c r="AQ206" s="3"/>
+      <c r="AR206" s="3"/>
+      <c r="AS206" s="3"/>
+      <c r="AT206" s="3"/>
+      <c r="AU206" s="3"/>
+      <c r="AV206" s="3"/>
+      <c r="AW206" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A207" s="8"/>
       <c r="B207" s="4">
         <v>0</v>
@@ -13825,12 +15743,19 @@
       <c r="AM207" s="3"/>
       <c r="AN207" s="3"/>
       <c r="AO207" s="3"/>
-      <c r="AP207" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP207" s="3"/>
+      <c r="AQ207" s="3"/>
+      <c r="AR207" s="3"/>
+      <c r="AS207" s="3"/>
+      <c r="AT207" s="3"/>
+      <c r="AU207" s="3"/>
+      <c r="AV207" s="3"/>
+      <c r="AW207" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A208" s="8"/>
       <c r="B208" s="4">
         <v>0</v>
@@ -13876,12 +15801,19 @@
       <c r="AM208" s="3"/>
       <c r="AN208" s="3"/>
       <c r="AO208" s="3"/>
-      <c r="AP208" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP208" s="3"/>
+      <c r="AQ208" s="3"/>
+      <c r="AR208" s="3"/>
+      <c r="AS208" s="3"/>
+      <c r="AT208" s="3"/>
+      <c r="AU208" s="3"/>
+      <c r="AV208" s="3"/>
+      <c r="AW208" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A209" s="8"/>
       <c r="B209" s="4">
         <v>0</v>
@@ -13927,12 +15859,19 @@
       <c r="AM209" s="3"/>
       <c r="AN209" s="3"/>
       <c r="AO209" s="3"/>
-      <c r="AP209" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP209" s="3"/>
+      <c r="AQ209" s="3"/>
+      <c r="AR209" s="3"/>
+      <c r="AS209" s="3"/>
+      <c r="AT209" s="3"/>
+      <c r="AU209" s="3"/>
+      <c r="AV209" s="3"/>
+      <c r="AW209" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A210" s="8"/>
       <c r="B210" s="4">
         <v>0</v>
@@ -13978,12 +15917,19 @@
       <c r="AM210" s="3"/>
       <c r="AN210" s="3"/>
       <c r="AO210" s="3"/>
-      <c r="AP210" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP210" s="3"/>
+      <c r="AQ210" s="3"/>
+      <c r="AR210" s="3"/>
+      <c r="AS210" s="3"/>
+      <c r="AT210" s="3"/>
+      <c r="AU210" s="3"/>
+      <c r="AV210" s="3"/>
+      <c r="AW210" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A211" s="8"/>
       <c r="B211" s="4">
         <v>0</v>
@@ -14029,12 +15975,19 @@
       <c r="AM211" s="3"/>
       <c r="AN211" s="3"/>
       <c r="AO211" s="3"/>
-      <c r="AP211" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP211" s="3"/>
+      <c r="AQ211" s="3"/>
+      <c r="AR211" s="3"/>
+      <c r="AS211" s="3"/>
+      <c r="AT211" s="3"/>
+      <c r="AU211" s="3"/>
+      <c r="AV211" s="3"/>
+      <c r="AW211" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A212" s="8"/>
       <c r="B212" s="4">
         <v>0</v>
@@ -14080,12 +16033,19 @@
       <c r="AM212" s="3"/>
       <c r="AN212" s="3"/>
       <c r="AO212" s="3"/>
-      <c r="AP212" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP212" s="3"/>
+      <c r="AQ212" s="3"/>
+      <c r="AR212" s="3"/>
+      <c r="AS212" s="3"/>
+      <c r="AT212" s="3"/>
+      <c r="AU212" s="3"/>
+      <c r="AV212" s="3"/>
+      <c r="AW212" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A213" s="8"/>
       <c r="B213" s="4">
         <v>0</v>
@@ -14131,12 +16091,19 @@
       <c r="AM213" s="3"/>
       <c r="AN213" s="3"/>
       <c r="AO213" s="3"/>
-      <c r="AP213" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP213" s="3"/>
+      <c r="AQ213" s="3"/>
+      <c r="AR213" s="3"/>
+      <c r="AS213" s="3"/>
+      <c r="AT213" s="3"/>
+      <c r="AU213" s="3"/>
+      <c r="AV213" s="3"/>
+      <c r="AW213" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A214" s="8"/>
       <c r="B214" s="4">
         <v>0</v>
@@ -14182,12 +16149,19 @@
       <c r="AM214" s="3"/>
       <c r="AN214" s="3"/>
       <c r="AO214" s="3"/>
-      <c r="AP214" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP214" s="3"/>
+      <c r="AQ214" s="3"/>
+      <c r="AR214" s="3"/>
+      <c r="AS214" s="3"/>
+      <c r="AT214" s="3"/>
+      <c r="AU214" s="3"/>
+      <c r="AV214" s="3"/>
+      <c r="AW214" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A215" s="8"/>
       <c r="B215" s="4">
         <v>0</v>
@@ -14233,12 +16207,19 @@
       <c r="AM215" s="3"/>
       <c r="AN215" s="3"/>
       <c r="AO215" s="3"/>
-      <c r="AP215" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP215" s="3"/>
+      <c r="AQ215" s="3"/>
+      <c r="AR215" s="3"/>
+      <c r="AS215" s="3"/>
+      <c r="AT215" s="3"/>
+      <c r="AU215" s="3"/>
+      <c r="AV215" s="3"/>
+      <c r="AW215" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A216" s="8"/>
       <c r="B216" s="4">
         <v>0</v>
@@ -14284,12 +16265,19 @@
       <c r="AM216" s="3"/>
       <c r="AN216" s="3"/>
       <c r="AO216" s="3"/>
-      <c r="AP216" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP216" s="3"/>
+      <c r="AQ216" s="3"/>
+      <c r="AR216" s="3"/>
+      <c r="AS216" s="3"/>
+      <c r="AT216" s="3"/>
+      <c r="AU216" s="3"/>
+      <c r="AV216" s="3"/>
+      <c r="AW216" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A217" s="8"/>
       <c r="B217" s="4">
         <v>0</v>
@@ -14335,12 +16323,19 @@
       <c r="AM217" s="3"/>
       <c r="AN217" s="3"/>
       <c r="AO217" s="3"/>
-      <c r="AP217" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP217" s="3"/>
+      <c r="AQ217" s="3"/>
+      <c r="AR217" s="3"/>
+      <c r="AS217" s="3"/>
+      <c r="AT217" s="3"/>
+      <c r="AU217" s="3"/>
+      <c r="AV217" s="3"/>
+      <c r="AW217" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A218" s="8"/>
       <c r="B218" s="4">
         <v>0</v>
@@ -14386,12 +16381,19 @@
       <c r="AM218" s="3"/>
       <c r="AN218" s="3"/>
       <c r="AO218" s="3"/>
-      <c r="AP218" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP218" s="3"/>
+      <c r="AQ218" s="3"/>
+      <c r="AR218" s="3"/>
+      <c r="AS218" s="3"/>
+      <c r="AT218" s="3"/>
+      <c r="AU218" s="3"/>
+      <c r="AV218" s="3"/>
+      <c r="AW218" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A219" s="8"/>
       <c r="B219" s="4">
         <v>0</v>
@@ -14437,12 +16439,19 @@
       <c r="AM219" s="3"/>
       <c r="AN219" s="3"/>
       <c r="AO219" s="3"/>
-      <c r="AP219" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP219" s="3"/>
+      <c r="AQ219" s="3"/>
+      <c r="AR219" s="3"/>
+      <c r="AS219" s="3"/>
+      <c r="AT219" s="3"/>
+      <c r="AU219" s="3"/>
+      <c r="AV219" s="3"/>
+      <c r="AW219" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A220" s="8"/>
       <c r="B220" s="4">
         <v>0</v>
@@ -14488,12 +16497,19 @@
       <c r="AM220" s="3"/>
       <c r="AN220" s="3"/>
       <c r="AO220" s="3"/>
-      <c r="AP220" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP220" s="3"/>
+      <c r="AQ220" s="3"/>
+      <c r="AR220" s="3"/>
+      <c r="AS220" s="3"/>
+      <c r="AT220" s="3"/>
+      <c r="AU220" s="3"/>
+      <c r="AV220" s="3"/>
+      <c r="AW220" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A221" s="8"/>
       <c r="B221" s="4">
         <v>0</v>
@@ -14539,12 +16555,19 @@
       <c r="AM221" s="3"/>
       <c r="AN221" s="3"/>
       <c r="AO221" s="3"/>
-      <c r="AP221" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP221" s="3"/>
+      <c r="AQ221" s="3"/>
+      <c r="AR221" s="3"/>
+      <c r="AS221" s="3"/>
+      <c r="AT221" s="3"/>
+      <c r="AU221" s="3"/>
+      <c r="AV221" s="3"/>
+      <c r="AW221" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A222" s="8"/>
       <c r="B222" s="4">
         <v>0</v>
@@ -14590,12 +16613,19 @@
       <c r="AM222" s="3"/>
       <c r="AN222" s="3"/>
       <c r="AO222" s="3"/>
-      <c r="AP222" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP222" s="3"/>
+      <c r="AQ222" s="3"/>
+      <c r="AR222" s="3"/>
+      <c r="AS222" s="3"/>
+      <c r="AT222" s="3"/>
+      <c r="AU222" s="3"/>
+      <c r="AV222" s="3"/>
+      <c r="AW222" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A223" s="8"/>
       <c r="B223" s="4">
         <v>0</v>
@@ -14641,12 +16671,19 @@
       <c r="AM223" s="3"/>
       <c r="AN223" s="3"/>
       <c r="AO223" s="3"/>
-      <c r="AP223" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP223" s="3"/>
+      <c r="AQ223" s="3"/>
+      <c r="AR223" s="3"/>
+      <c r="AS223" s="3"/>
+      <c r="AT223" s="3"/>
+      <c r="AU223" s="3"/>
+      <c r="AV223" s="3"/>
+      <c r="AW223" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A224" s="8"/>
       <c r="B224" s="4">
         <v>0</v>
@@ -14692,12 +16729,19 @@
       <c r="AM224" s="3"/>
       <c r="AN224" s="3"/>
       <c r="AO224" s="3"/>
-      <c r="AP224" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP224" s="3"/>
+      <c r="AQ224" s="3"/>
+      <c r="AR224" s="3"/>
+      <c r="AS224" s="3"/>
+      <c r="AT224" s="3"/>
+      <c r="AU224" s="3"/>
+      <c r="AV224" s="3"/>
+      <c r="AW224" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A225" s="8"/>
       <c r="B225" s="4">
         <v>0</v>
@@ -14743,12 +16787,19 @@
       <c r="AM225" s="3"/>
       <c r="AN225" s="3"/>
       <c r="AO225" s="3"/>
-      <c r="AP225" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP225" s="3"/>
+      <c r="AQ225" s="3"/>
+      <c r="AR225" s="3"/>
+      <c r="AS225" s="3"/>
+      <c r="AT225" s="3"/>
+      <c r="AU225" s="3"/>
+      <c r="AV225" s="3"/>
+      <c r="AW225" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A226" s="8"/>
       <c r="B226" s="4">
         <v>0</v>
@@ -14794,12 +16845,19 @@
       <c r="AM226" s="3"/>
       <c r="AN226" s="3"/>
       <c r="AO226" s="3"/>
-      <c r="AP226" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP226" s="3"/>
+      <c r="AQ226" s="3"/>
+      <c r="AR226" s="3"/>
+      <c r="AS226" s="3"/>
+      <c r="AT226" s="3"/>
+      <c r="AU226" s="3"/>
+      <c r="AV226" s="3"/>
+      <c r="AW226" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A227" s="8"/>
       <c r="B227" s="4">
         <v>0</v>
@@ -14845,12 +16903,19 @@
       <c r="AM227" s="3"/>
       <c r="AN227" s="3"/>
       <c r="AO227" s="3"/>
-      <c r="AP227" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP227" s="3"/>
+      <c r="AQ227" s="3"/>
+      <c r="AR227" s="3"/>
+      <c r="AS227" s="3"/>
+      <c r="AT227" s="3"/>
+      <c r="AU227" s="3"/>
+      <c r="AV227" s="3"/>
+      <c r="AW227" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A228" s="8"/>
       <c r="B228" s="4">
         <v>0</v>
@@ -14896,12 +16961,19 @@
       <c r="AM228" s="3"/>
       <c r="AN228" s="3"/>
       <c r="AO228" s="3"/>
-      <c r="AP228" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP228" s="3"/>
+      <c r="AQ228" s="3"/>
+      <c r="AR228" s="3"/>
+      <c r="AS228" s="3"/>
+      <c r="AT228" s="3"/>
+      <c r="AU228" s="3"/>
+      <c r="AV228" s="3"/>
+      <c r="AW228" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A229" s="8"/>
       <c r="B229" s="4">
         <v>0</v>
@@ -14947,12 +17019,19 @@
       <c r="AM229" s="3"/>
       <c r="AN229" s="3"/>
       <c r="AO229" s="3"/>
-      <c r="AP229" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP229" s="3"/>
+      <c r="AQ229" s="3"/>
+      <c r="AR229" s="3"/>
+      <c r="AS229" s="3"/>
+      <c r="AT229" s="3"/>
+      <c r="AU229" s="3"/>
+      <c r="AV229" s="3"/>
+      <c r="AW229" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A230" s="8"/>
       <c r="B230" s="4">
         <v>0</v>
@@ -14998,12 +17077,19 @@
       <c r="AM230" s="3"/>
       <c r="AN230" s="3"/>
       <c r="AO230" s="3"/>
-      <c r="AP230" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP230" s="3"/>
+      <c r="AQ230" s="3"/>
+      <c r="AR230" s="3"/>
+      <c r="AS230" s="3"/>
+      <c r="AT230" s="3"/>
+      <c r="AU230" s="3"/>
+      <c r="AV230" s="3"/>
+      <c r="AW230" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A231" s="8"/>
       <c r="B231" s="4">
         <v>0</v>
@@ -15049,12 +17135,19 @@
       <c r="AM231" s="3"/>
       <c r="AN231" s="3"/>
       <c r="AO231" s="3"/>
-      <c r="AP231" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP231" s="3"/>
+      <c r="AQ231" s="3"/>
+      <c r="AR231" s="3"/>
+      <c r="AS231" s="3"/>
+      <c r="AT231" s="3"/>
+      <c r="AU231" s="3"/>
+      <c r="AV231" s="3"/>
+      <c r="AW231" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A232" s="8"/>
       <c r="B232" s="4">
         <v>0</v>
@@ -15100,12 +17193,19 @@
       <c r="AM232" s="3"/>
       <c r="AN232" s="3"/>
       <c r="AO232" s="3"/>
-      <c r="AP232" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP232" s="3"/>
+      <c r="AQ232" s="3"/>
+      <c r="AR232" s="3"/>
+      <c r="AS232" s="3"/>
+      <c r="AT232" s="3"/>
+      <c r="AU232" s="3"/>
+      <c r="AV232" s="3"/>
+      <c r="AW232" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A233" s="8"/>
       <c r="B233" s="4">
         <v>0</v>
@@ -15151,12 +17251,19 @@
       <c r="AM233" s="3"/>
       <c r="AN233" s="3"/>
       <c r="AO233" s="3"/>
-      <c r="AP233" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP233" s="3"/>
+      <c r="AQ233" s="3"/>
+      <c r="AR233" s="3"/>
+      <c r="AS233" s="3"/>
+      <c r="AT233" s="3"/>
+      <c r="AU233" s="3"/>
+      <c r="AV233" s="3"/>
+      <c r="AW233" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A234" s="8"/>
       <c r="B234" s="4">
         <v>0</v>
@@ -15202,12 +17309,19 @@
       <c r="AM234" s="3"/>
       <c r="AN234" s="3"/>
       <c r="AO234" s="3"/>
-      <c r="AP234" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP234" s="3"/>
+      <c r="AQ234" s="3"/>
+      <c r="AR234" s="3"/>
+      <c r="AS234" s="3"/>
+      <c r="AT234" s="3"/>
+      <c r="AU234" s="3"/>
+      <c r="AV234" s="3"/>
+      <c r="AW234" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A235" s="8"/>
       <c r="B235" s="4">
         <v>0</v>
@@ -15253,12 +17367,19 @@
       <c r="AM235" s="3"/>
       <c r="AN235" s="3"/>
       <c r="AO235" s="3"/>
-      <c r="AP235" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP235" s="3"/>
+      <c r="AQ235" s="3"/>
+      <c r="AR235" s="3"/>
+      <c r="AS235" s="3"/>
+      <c r="AT235" s="3"/>
+      <c r="AU235" s="3"/>
+      <c r="AV235" s="3"/>
+      <c r="AW235" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A236" s="8"/>
       <c r="B236" s="4">
         <v>0</v>
@@ -15304,12 +17425,19 @@
       <c r="AM236" s="3"/>
       <c r="AN236" s="3"/>
       <c r="AO236" s="3"/>
-      <c r="AP236" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP236" s="3"/>
+      <c r="AQ236" s="3"/>
+      <c r="AR236" s="3"/>
+      <c r="AS236" s="3"/>
+      <c r="AT236" s="3"/>
+      <c r="AU236" s="3"/>
+      <c r="AV236" s="3"/>
+      <c r="AW236" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A237" s="8"/>
       <c r="B237" s="4">
         <v>0</v>
@@ -15355,12 +17483,19 @@
       <c r="AM237" s="3"/>
       <c r="AN237" s="3"/>
       <c r="AO237" s="3"/>
-      <c r="AP237" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP237" s="3"/>
+      <c r="AQ237" s="3"/>
+      <c r="AR237" s="3"/>
+      <c r="AS237" s="3"/>
+      <c r="AT237" s="3"/>
+      <c r="AU237" s="3"/>
+      <c r="AV237" s="3"/>
+      <c r="AW237" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A238" s="8"/>
       <c r="B238" s="4">
         <v>0</v>
@@ -15406,12 +17541,19 @@
       <c r="AM238" s="3"/>
       <c r="AN238" s="3"/>
       <c r="AO238" s="3"/>
-      <c r="AP238" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP238" s="3"/>
+      <c r="AQ238" s="3"/>
+      <c r="AR238" s="3"/>
+      <c r="AS238" s="3"/>
+      <c r="AT238" s="3"/>
+      <c r="AU238" s="3"/>
+      <c r="AV238" s="3"/>
+      <c r="AW238" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A239" s="8"/>
       <c r="B239" s="4">
         <v>0</v>
@@ -15457,12 +17599,19 @@
       <c r="AM239" s="3"/>
       <c r="AN239" s="3"/>
       <c r="AO239" s="3"/>
-      <c r="AP239" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP239" s="3"/>
+      <c r="AQ239" s="3"/>
+      <c r="AR239" s="3"/>
+      <c r="AS239" s="3"/>
+      <c r="AT239" s="3"/>
+      <c r="AU239" s="3"/>
+      <c r="AV239" s="3"/>
+      <c r="AW239" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A240" s="8"/>
       <c r="B240" s="4">
         <v>0</v>
@@ -15508,12 +17657,19 @@
       <c r="AM240" s="3"/>
       <c r="AN240" s="3"/>
       <c r="AO240" s="3"/>
-      <c r="AP240" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP240" s="3"/>
+      <c r="AQ240" s="3"/>
+      <c r="AR240" s="3"/>
+      <c r="AS240" s="3"/>
+      <c r="AT240" s="3"/>
+      <c r="AU240" s="3"/>
+      <c r="AV240" s="3"/>
+      <c r="AW240" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A241" s="8"/>
       <c r="B241" s="4">
         <v>0</v>
@@ -15559,12 +17715,19 @@
       <c r="AM241" s="3"/>
       <c r="AN241" s="3"/>
       <c r="AO241" s="3"/>
-      <c r="AP241" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP241" s="3"/>
+      <c r="AQ241" s="3"/>
+      <c r="AR241" s="3"/>
+      <c r="AS241" s="3"/>
+      <c r="AT241" s="3"/>
+      <c r="AU241" s="3"/>
+      <c r="AV241" s="3"/>
+      <c r="AW241" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A242" s="8"/>
       <c r="B242" s="4">
         <v>0</v>
@@ -15610,12 +17773,19 @@
       <c r="AM242" s="3"/>
       <c r="AN242" s="3"/>
       <c r="AO242" s="3"/>
-      <c r="AP242" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP242" s="3"/>
+      <c r="AQ242" s="3"/>
+      <c r="AR242" s="3"/>
+      <c r="AS242" s="3"/>
+      <c r="AT242" s="3"/>
+      <c r="AU242" s="3"/>
+      <c r="AV242" s="3"/>
+      <c r="AW242" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A243" s="8"/>
       <c r="B243" s="4">
         <v>0</v>
@@ -15661,12 +17831,19 @@
       <c r="AM243" s="3"/>
       <c r="AN243" s="3"/>
       <c r="AO243" s="3"/>
-      <c r="AP243" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP243" s="3"/>
+      <c r="AQ243" s="3"/>
+      <c r="AR243" s="3"/>
+      <c r="AS243" s="3"/>
+      <c r="AT243" s="3"/>
+      <c r="AU243" s="3"/>
+      <c r="AV243" s="3"/>
+      <c r="AW243" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A244" s="8"/>
       <c r="B244" s="4">
         <v>0</v>
@@ -15712,12 +17889,19 @@
       <c r="AM244" s="3"/>
       <c r="AN244" s="3"/>
       <c r="AO244" s="3"/>
-      <c r="AP244" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP244" s="3"/>
+      <c r="AQ244" s="3"/>
+      <c r="AR244" s="3"/>
+      <c r="AS244" s="3"/>
+      <c r="AT244" s="3"/>
+      <c r="AU244" s="3"/>
+      <c r="AV244" s="3"/>
+      <c r="AW244" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A245" s="8"/>
       <c r="B245" s="4">
         <v>0</v>
@@ -15763,12 +17947,19 @@
       <c r="AM245" s="3"/>
       <c r="AN245" s="3"/>
       <c r="AO245" s="3"/>
-      <c r="AP245" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP245" s="3"/>
+      <c r="AQ245" s="3"/>
+      <c r="AR245" s="3"/>
+      <c r="AS245" s="3"/>
+      <c r="AT245" s="3"/>
+      <c r="AU245" s="3"/>
+      <c r="AV245" s="3"/>
+      <c r="AW245" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A246" s="8"/>
       <c r="B246" s="4">
         <v>0</v>
@@ -15814,12 +18005,19 @@
       <c r="AM246" s="3"/>
       <c r="AN246" s="3"/>
       <c r="AO246" s="3"/>
-      <c r="AP246" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP246" s="3"/>
+      <c r="AQ246" s="3"/>
+      <c r="AR246" s="3"/>
+      <c r="AS246" s="3"/>
+      <c r="AT246" s="3"/>
+      <c r="AU246" s="3"/>
+      <c r="AV246" s="3"/>
+      <c r="AW246" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A247" s="8"/>
       <c r="B247" s="4">
         <v>0</v>
@@ -15865,12 +18063,19 @@
       <c r="AM247" s="3"/>
       <c r="AN247" s="3"/>
       <c r="AO247" s="3"/>
-      <c r="AP247" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP247" s="3"/>
+      <c r="AQ247" s="3"/>
+      <c r="AR247" s="3"/>
+      <c r="AS247" s="3"/>
+      <c r="AT247" s="3"/>
+      <c r="AU247" s="3"/>
+      <c r="AV247" s="3"/>
+      <c r="AW247" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A248" s="8"/>
       <c r="B248" s="4">
         <v>0</v>
@@ -15916,12 +18121,19 @@
       <c r="AM248" s="3"/>
       <c r="AN248" s="3"/>
       <c r="AO248" s="3"/>
-      <c r="AP248" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP248" s="3"/>
+      <c r="AQ248" s="3"/>
+      <c r="AR248" s="3"/>
+      <c r="AS248" s="3"/>
+      <c r="AT248" s="3"/>
+      <c r="AU248" s="3"/>
+      <c r="AV248" s="3"/>
+      <c r="AW248" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A249" s="8"/>
       <c r="B249" s="4">
         <v>0</v>
@@ -15967,12 +18179,19 @@
       <c r="AM249" s="3"/>
       <c r="AN249" s="3"/>
       <c r="AO249" s="3"/>
-      <c r="AP249" s="10">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP249" s="3"/>
+      <c r="AQ249" s="3"/>
+      <c r="AR249" s="3"/>
+      <c r="AS249" s="3"/>
+      <c r="AT249" s="3"/>
+      <c r="AU249" s="3"/>
+      <c r="AV249" s="3"/>
+      <c r="AW249" s="10">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A250" s="11"/>
       <c r="B250" s="12"/>
       <c r="C250" s="15"/>
@@ -16014,12 +18233,19 @@
       <c r="AM250" s="13"/>
       <c r="AN250" s="13"/>
       <c r="AO250" s="13"/>
-      <c r="AP250" s="14">
-        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP250" s="13"/>
+      <c r="AQ250" s="13"/>
+      <c r="AR250" s="13"/>
+      <c r="AS250" s="13"/>
+      <c r="AT250" s="13"/>
+      <c r="AU250" s="13"/>
+      <c r="AV250" s="13"/>
+      <c r="AW250" s="14">
+        <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A251" s="8"/>
       <c r="B251" s="4">
         <v>0</v>
@@ -16065,13 +18291,20 @@
       <c r="AM251" s="3"/>
       <c r="AN251" s="3"/>
       <c r="AO251" s="3"/>
-      <c r="AP251" s="10">
+      <c r="AP251" s="3"/>
+      <c r="AQ251" s="3"/>
+      <c r="AR251" s="3"/>
+      <c r="AS251" s="3"/>
+      <c r="AT251" s="3"/>
+      <c r="AU251" s="3"/>
+      <c r="AV251" s="3"/>
+      <c r="AW251" s="10">
         <f>SUM(Tabla2[[#This Row],[CLS]:[Chimera 7*]]) + IF(Tabla2[[#This Row],[Arena]]&gt;0, 1/Tabla2[[#This Row],[Arena]],0) + (Tabla2[[#This Row],[PG]] / MAX(Tabla2[PG],1))</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:AO251">
+  <conditionalFormatting sqref="E2:AV251">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
